--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel\Desktop\DS-Algo practice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5415"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -15,28 +23,28 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="32"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="32.0"/>
       </rPr>
       <t xml:space="preserve">COMPILED </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="32"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="32.0"/>
       </rPr>
       <t>DAY</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="32"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="32.0"/>
       </rPr>
       <t>-WISE DSA SHEET</t>
     </r>
@@ -47,28 +55,28 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="18.0"/>
       </rPr>
       <t xml:space="preserve">❤️ From </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF9900"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF9900"/>
-        <sz val="18.0"/>
       </rPr>
       <t>Siddharth Singh</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="18.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -85,18 +93,18 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="14.0"/>
-        <u/>
       </rPr>
       <t>https://youtu.be/A69Hwva4qKk</t>
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
-        <color rgb="FF0000FF"/>
-        <sz val="14.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -254,19 +262,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0B4CB4"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF0B4CB4"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>heck whether one string is a rotation of another</t>
     </r>
@@ -1852,19 +1860,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>Rabin Kar</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>p</t>
     </r>
@@ -1944,19 +1952,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>Hamming Distance</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>(Imp.)</t>
     </r>
@@ -2015,19 +2023,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="24.0"/>
       </rPr>
       <t xml:space="preserve">DSA INTERVIEW  </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF00FF00"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF00FF00"/>
-        <sz val="24.0"/>
       </rPr>
       <t>READY🎊</t>
     </r>
@@ -2036,496 +2044,546 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="d mmmm yyyy"/>
-    <numFmt numFmtId="165" formatCode="d mmm yyyy"/>
-    <numFmt numFmtId="166" formatCode="d mmm"/>
-    <numFmt numFmtId="167" formatCode="d mmmm"/>
+    <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="d\ mmm"/>
+    <numFmt numFmtId="167" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="80">
+  <fonts count="87">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="32.0"/>
+      <sz val="32"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0B4CB4"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="36.0"/>
+      <sz val="36"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0B4CB4"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF00FF00"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2563,10 +2621,23 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -2576,6 +2647,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2590,345 +2662,166 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="108">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="34" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="35" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="54" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="64" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="71" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="75" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="76" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="19" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="34" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="35" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="45" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="46" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="48" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="50" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="51" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="53" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="54" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="55" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="58" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="60" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="61" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="63" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="64" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="65" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="66" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="67" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="68" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="70" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="71" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="72" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="73" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="74" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="75" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="76" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3118,26 +3011,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z618"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="60.5"/>
-    <col customWidth="1" min="2" max="2" width="61.0"/>
-    <col customWidth="1" min="4" max="4" width="18.63"/>
+    <col min="1" max="1" width="60.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3167,7 +3065,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3199,7 +3097,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -3231,7 +3129,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -3263,7 +3161,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -3293,7 +3191,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -3323,7 +3221,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -3353,7 +3251,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -3387,12 +3285,12 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="16">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
@@ -3421,7 +3319,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -3453,7 +3351,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -3487,7 +3385,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
@@ -3521,7 +3419,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
@@ -3551,7 +3449,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
@@ -3581,7 +3479,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
@@ -3611,7 +3509,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
@@ -3641,7 +3539,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>27</v>
       </c>
@@ -3671,8 +3569,8 @@
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:26">
+      <c r="A18" s="107" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="24"/>
@@ -3701,7 +3599,7 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>29</v>
       </c>
@@ -3733,7 +3631,7 @@
       <c r="Y19" s="24"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="29" t="s">
         <v>31</v>
       </c>
@@ -3763,7 +3661,7 @@
       <c r="Y20" s="24"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="29" t="s">
         <v>32</v>
       </c>
@@ -3793,7 +3691,7 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>33</v>
       </c>
@@ -3825,7 +3723,7 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element/","majority element")</f>
         <v>majority element</v>
@@ -3858,7 +3756,7 @@
       <c r="Y23" s="24"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element-ii/","majority element 2")</f>
         <v>majority element 2</v>
@@ -3891,7 +3789,7 @@
       <c r="Y24" s="24"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="29" t="str">
         <f>HYPERLINK("geeksforgeeks.org/given-an-array-of-of-size-n-finds-all-the-elements-that-appear-more-than-nk-times/","majority element general")</f>
         <v>majority element general</v>
@@ -3924,7 +3822,7 @@
       <c r="Y25" s="24"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="30" t="s">
         <v>38</v>
       </c>
@@ -3954,7 +3852,7 @@
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26">
       <c r="A27" s="25" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/max-chunks-to-make-sorted/","Max chunks to make sorted")</f>
         <v>Max chunks to make sorted</v>
@@ -3987,7 +3885,7 @@
       <c r="Y27" s="24"/>
       <c r="Z27" s="24"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="31" t="s">
         <v>40</v>
       </c>
@@ -4019,7 +3917,7 @@
       <c r="Y28" s="24"/>
       <c r="Z28" s="24"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-product-of-three-numbers/","max product of 3 numbers")</f>
         <v>max product of 3 numbers</v>
@@ -4052,7 +3950,7 @@
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/largest-number-at-least-twice-of-others/","largest number atleast twice of others")</f>
         <v>largest number atleast twice of others</v>
@@ -4085,7 +3983,7 @@
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="26" t="s">
         <v>44</v>
       </c>
@@ -4117,7 +4015,7 @@
       <c r="Y31" s="24"/>
       <c r="Z31" s="24"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum/","number of subarrays with bounded maximum")</f>
         <v>number of subarrays with bounded maximum</v>
@@ -4150,7 +4048,7 @@
       <c r="Y32" s="24"/>
       <c r="Z32" s="24"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-subarray/","maximum subarray")</f>
         <v>maximum subarray</v>
@@ -4183,7 +4081,7 @@
       <c r="Y33" s="24"/>
       <c r="Z33" s="24"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="30" t="s">
         <v>48</v>
       </c>
@@ -4213,7 +4111,7 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="32" t="str">
         <f>HYPERLINK("https://www.codechef.com/JAN18/problems/KCON","K-CON")</f>
         <v>K-CON</v>
@@ -4246,7 +4144,7 @@
       <c r="Y35" s="24"/>
       <c r="Z35" s="24"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" ht="15">
       <c r="A36" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-meeting-point/","best meeting points")</f>
         <v>best meeting points</v>
@@ -4279,7 +4177,7 @@
       <c r="Y36" s="24"/>
       <c r="Z36" s="24"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:26" ht="15">
       <c r="A37" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/","Segregate 0 and 1")</f>
         <v>Segregate 0 and 1</v>
@@ -4312,7 +4210,7 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" ht="15">
       <c r="A38" s="33" t="s">
         <v>52</v>
       </c>
@@ -4344,7 +4242,7 @@
       <c r="Y38" s="36"/>
       <c r="Z38" s="36"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:26" ht="15">
       <c r="A39" s="37" t="s">
         <v>54</v>
       </c>
@@ -4376,7 +4274,7 @@
       <c r="Y39" s="36"/>
       <c r="Z39" s="36"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" ht="15">
       <c r="A40" s="37" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/partition-labels/","partition labels")</f>
         <v>partition labels</v>
@@ -4409,7 +4307,7 @@
       <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" ht="15">
       <c r="A41" s="38" t="s">
         <v>57</v>
       </c>
@@ -4439,7 +4337,7 @@
       <c r="Y41" s="36"/>
       <c r="Z41" s="36"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" ht="15">
       <c r="A42" s="39" t="s">
         <v>58</v>
       </c>
@@ -4469,7 +4367,7 @@
       <c r="Y42" s="24"/>
       <c r="Z42" s="24"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" ht="15">
       <c r="A43" s="40" t="s">
         <v>59</v>
       </c>
@@ -4501,7 +4399,7 @@
       <c r="Y43" s="24"/>
       <c r="Z43" s="24"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" ht="15">
       <c r="A44" s="29" t="s">
         <v>61</v>
       </c>
@@ -4533,7 +4431,7 @@
       <c r="Y44" s="24"/>
       <c r="Z44" s="24"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" ht="15">
       <c r="A45" s="29" t="s">
         <v>62</v>
       </c>
@@ -4565,7 +4463,7 @@
       <c r="Y45" s="24"/>
       <c r="Z45" s="24"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" ht="15">
       <c r="A46" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/consecutive-numbers-sum/","consecutive number sum")</f>
         <v>consecutive number sum</v>
@@ -4598,7 +4496,7 @@
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" ht="15">
       <c r="A47" s="43" t="s">
         <v>64</v>
       </c>
@@ -4628,7 +4526,7 @@
       <c r="Y47" s="24"/>
       <c r="Z47" s="24"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" ht="15">
       <c r="A48" s="26" t="s">
         <v>65</v>
       </c>
@@ -4660,7 +4558,7 @@
       <c r="Y48" s="24"/>
       <c r="Z48" s="24"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:26" ht="15">
       <c r="A49" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/sieve-of-eratosthenes/","Sieve of Eratosthenes")</f>
         <v>Sieve of Eratosthenes</v>
@@ -4693,7 +4591,7 @@
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:26" ht="15">
       <c r="A50" s="26" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/PRIME1/cstart=10","Segmented sieve")</f>
         <v>Segmented sieve</v>
@@ -4726,7 +4624,7 @@
       <c r="Y50" s="24"/>
       <c r="Z50" s="24"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:26" ht="15">
       <c r="A51" s="29" t="s">
         <v>69</v>
       </c>
@@ -4758,7 +4656,7 @@
       <c r="Y51" s="24"/>
       <c r="Z51" s="24"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:26" ht="15">
       <c r="A52" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-the-number-of-jumps-to-reach-x-in-the-number-line-from-zero/","MIn Jump required with +i or -i allowed")</f>
         <v>MIn Jump required with +i or -i allowed</v>
@@ -4791,7 +4689,7 @@
       <c r="Y52" s="24"/>
       <c r="Z52" s="24"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:26" ht="15">
       <c r="A53" s="26" t="s">
         <v>71</v>
       </c>
@@ -4823,7 +4721,7 @@
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:26" ht="15">
       <c r="A54" s="26"/>
       <c r="B54" s="27"/>
       <c r="C54" s="24"/>
@@ -4851,7 +4749,7 @@
       <c r="Y54" s="24"/>
       <c r="Z54" s="24"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:26" ht="15">
       <c r="A55" s="30" t="s">
         <v>73</v>
       </c>
@@ -4881,7 +4779,7 @@
       <c r="Y55" s="24"/>
       <c r="Z55" s="24"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:26" ht="15">
       <c r="A56" s="32" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-domino-rotations-for-equal-row/","minimum domino rotation for equal row")</f>
         <v>minimum domino rotation for equal row</v>
@@ -4914,7 +4812,7 @@
       <c r="Y56" s="24"/>
       <c r="Z56" s="24"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:26" ht="15">
       <c r="A57" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/multiply-strings/","multiply strings")</f>
         <v>multiply strings</v>
@@ -4947,7 +4845,7 @@
       <c r="Y57" s="24"/>
       <c r="Z57" s="24"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:26" ht="15">
       <c r="A58" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/given-an-array-a-and-a-number-x-check-for-pair-in-a-with-sum-as-x/","Two Sum")</f>
         <v>Two Sum</v>
@@ -4980,7 +4878,7 @@
       <c r="Y58" s="24"/>
       <c r="Z58" s="24"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:26" ht="15">
       <c r="A59" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/","Two Difference")</f>
         <v>Two Difference</v>
@@ -5013,7 +4911,7 @@
       <c r="Y59" s="24"/>
       <c r="Z59" s="24"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="26" t="s">
         <v>78</v>
       </c>
@@ -5045,7 +4943,7 @@
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:26" ht="15">
       <c r="A61" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/smallest-range-covering-elements-from-k-lists/","smallest range from k lists")</f>
         <v>smallest range from k lists</v>
@@ -5078,7 +4976,7 @@
       <c r="Y61" s="24"/>
       <c r="Z61" s="24"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-product-subarray/","maximum product subarray")</f>
         <v>maximum product subarray</v>
@@ -5111,7 +5009,7 @@
       <c r="Y62" s="24"/>
       <c r="Z62" s="24"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/","Min No. of Platform")</f>
         <v>Min No. of Platform</v>
@@ -5144,7 +5042,7 @@
       <c r="Y63" s="24"/>
       <c r="Z63" s="24"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/reverse-vowels-of-a-string/","Reverse vowels of a string")</f>
         <v>Reverse vowels of a string</v>
@@ -5177,7 +5075,7 @@
       <c r="Y64" s="24"/>
       <c r="Z64" s="24"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" ht="15">
       <c r="A65" s="29"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -5205,7 +5103,7 @@
       <c r="Y65" s="24"/>
       <c r="Z65" s="24"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="30" t="s">
         <v>84</v>
       </c>
@@ -5235,7 +5133,7 @@
       <c r="Y66" s="24"/>
       <c r="Z66" s="24"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" ht="15">
       <c r="A67" s="45" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/first-missing-positive/","First missing positive")</f>
         <v>First missing positive</v>
@@ -5268,7 +5166,7 @@
       <c r="Y67" s="24"/>
       <c r="Z67" s="24"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" ht="15">
       <c r="A68" s="45" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/rotate-image/","rotate image")</f>
         <v>rotate image</v>
@@ -5301,7 +5199,7 @@
       <c r="Y68" s="24"/>
       <c r="Z68" s="24"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" ht="15">
       <c r="A69" s="46" t="s">
         <v>87</v>
       </c>
@@ -5333,7 +5231,7 @@
       <c r="Y69" s="24"/>
       <c r="Z69" s="24"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" ht="15">
       <c r="A70" s="45" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/push-dominoes/","push dominoes")</f>
         <v>push dominoes</v>
@@ -5366,7 +5264,7 @@
       <c r="Y70" s="24"/>
       <c r="Z70" s="24"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" ht="15">
       <c r="A71" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/valid-palindrome-ii/","valid pallindrome 2")</f>
         <v>valid pallindrome 2</v>
@@ -5399,7 +5297,7 @@
       <c r="Y71" s="24"/>
       <c r="Z71" s="24"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:26" ht="15">
       <c r="A72" s="45" t="s">
         <v>91</v>
       </c>
@@ -5431,7 +5329,7 @@
       <c r="Y72" s="24"/>
       <c r="Z72" s="24"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:26" ht="15">
       <c r="A73" s="48" t="s">
         <v>93</v>
       </c>
@@ -5463,7 +5361,7 @@
       <c r="Y73" s="24"/>
       <c r="Z73" s="24"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:26" ht="15">
       <c r="A74" s="23" t="s">
         <v>95</v>
       </c>
@@ -5493,7 +5391,7 @@
       <c r="Y74" s="24"/>
       <c r="Z74" s="24"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:26" ht="15">
       <c r="A75" s="40" t="s">
         <v>96</v>
       </c>
@@ -5525,7 +5423,7 @@
       <c r="Y75" s="24"/>
       <c r="Z75" s="24"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:26" ht="14.25">
       <c r="A76" s="49" t="str">
         <f>HYPERLINK("https://www.codechef.com/SNCKPE19/problems/BUDDYNIM","Buddy nim")</f>
         <v>Buddy nim</v>
@@ -5558,7 +5456,7 @@
       <c r="Y76" s="24"/>
       <c r="Z76" s="24"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:26" ht="15">
       <c r="A77" s="29" t="s">
         <v>99</v>
       </c>
@@ -5590,7 +5488,7 @@
       <c r="Y77" s="24"/>
       <c r="Z77" s="24"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:26" ht="15">
       <c r="A78" s="29" t="s">
         <v>101</v>
       </c>
@@ -5622,7 +5520,7 @@
       <c r="Y78" s="24"/>
       <c r="Z78" s="24"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:26" ht="15">
       <c r="A79" s="29" t="s">
         <v>103</v>
       </c>
@@ -5654,7 +5552,7 @@
       <c r="Y79" s="24"/>
       <c r="Z79" s="24"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" ht="15">
       <c r="A80" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays/","max sum of two non overlapping subarrays")</f>
         <v>max sum of two non overlapping subarrays</v>
@@ -5687,7 +5585,7 @@
       <c r="Y80" s="24"/>
       <c r="Z80" s="24"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:26" ht="15">
       <c r="A81" s="51" t="s">
         <v>106</v>
       </c>
@@ -5719,7 +5617,7 @@
       <c r="Y81" s="24"/>
       <c r="Z81" s="24"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:26" ht="15">
       <c r="A82" s="52" t="s">
         <v>108</v>
       </c>
@@ -5749,7 +5647,7 @@
       <c r="Y82" s="24"/>
       <c r="Z82" s="24"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:26" ht="15">
       <c r="A83" s="23" t="s">
         <v>109</v>
       </c>
@@ -5779,7 +5677,7 @@
       <c r="Y83" s="24"/>
       <c r="Z83" s="24"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:26" ht="15">
       <c r="A84" s="32" t="s">
         <v>110</v>
       </c>
@@ -5811,7 +5709,7 @@
       <c r="Y84" s="24"/>
       <c r="Z84" s="24"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:26" ht="15">
       <c r="A85" s="29" t="s">
         <v>112</v>
       </c>
@@ -5843,7 +5741,7 @@
       <c r="Y85" s="24"/>
       <c r="Z85" s="24"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:26" ht="15">
       <c r="A86" s="26" t="str">
         <f>HYPERLINK("https://www.codechef.com/COOK103B/problems/MAXREMOV","Max range query")</f>
         <v>Max range query</v>
@@ -5874,7 +5772,7 @@
       <c r="Y86" s="24"/>
       <c r="Z86" s="24"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:26" ht="15">
       <c r="A87" s="26" t="s">
         <v>114</v>
       </c>
@@ -5906,7 +5804,7 @@
       <c r="Y87" s="24"/>
       <c r="Z87" s="24"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:26" ht="15">
       <c r="A88" s="26" t="s">
         <v>116</v>
       </c>
@@ -5938,7 +5836,7 @@
       <c r="Y88" s="24"/>
       <c r="Z88" s="24"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:26" ht="12.75">
       <c r="A89" s="24"/>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
@@ -5966,7 +5864,7 @@
       <c r="Y89" s="24"/>
       <c r="Z89" s="24"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:26" ht="18.75">
       <c r="A90" s="53" t="s">
         <v>5</v>
       </c>
@@ -5996,7 +5894,7 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:26" ht="15">
       <c r="A91" s="23" t="s">
         <v>118</v>
       </c>
@@ -6026,7 +5924,7 @@
       <c r="Y91" s="36"/>
       <c r="Z91" s="36"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:26">
       <c r="A92" s="54" t="s">
         <v>119</v>
       </c>
@@ -6056,7 +5954,7 @@
       <c r="Y92" s="36"/>
       <c r="Z92" s="36"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:26">
       <c r="A93" s="55" t="s">
         <v>120</v>
       </c>
@@ -6086,7 +5984,7 @@
       <c r="Y93" s="36"/>
       <c r="Z93" s="36"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:26" ht="12.75">
       <c r="A94" s="56" t="s">
         <v>121</v>
       </c>
@@ -6116,7 +6014,7 @@
       <c r="Y94" s="36"/>
       <c r="Z94" s="36"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:26" ht="12.75">
       <c r="A95" s="57" t="s">
         <v>122</v>
       </c>
@@ -6146,7 +6044,7 @@
       <c r="Y95" s="36"/>
       <c r="Z95" s="36"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:26" ht="12.75">
       <c r="A96" s="57" t="s">
         <v>123</v>
       </c>
@@ -6176,7 +6074,7 @@
       <c r="Y96" s="36"/>
       <c r="Z96" s="36"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:26" ht="15">
       <c r="A97" s="58" t="s">
         <v>124</v>
       </c>
@@ -6206,7 +6104,7 @@
       <c r="Y97" s="36"/>
       <c r="Z97" s="36"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:26">
       <c r="A98" s="55" t="s">
         <v>125</v>
       </c>
@@ -6236,7 +6134,7 @@
       <c r="Y98" s="36"/>
       <c r="Z98" s="36"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:26" ht="12.75">
       <c r="A99" s="56" t="s">
         <v>126</v>
       </c>
@@ -6266,7 +6164,7 @@
       <c r="Y99" s="36"/>
       <c r="Z99" s="36"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:26" ht="12.75">
       <c r="A100" s="57" t="s">
         <v>127</v>
       </c>
@@ -6296,7 +6194,7 @@
       <c r="Y100" s="36"/>
       <c r="Z100" s="36"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:26" ht="12.75">
       <c r="A101" s="57" t="s">
         <v>128</v>
       </c>
@@ -6326,7 +6224,7 @@
       <c r="Y101" s="36"/>
       <c r="Z101" s="36"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:26" ht="12.75">
       <c r="A102" s="24"/>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
@@ -6354,7 +6252,7 @@
       <c r="Y102" s="24"/>
       <c r="Z102" s="24"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:26" ht="18.75">
       <c r="A103" s="53" t="s">
         <v>129</v>
       </c>
@@ -6384,7 +6282,7 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:26" ht="15">
       <c r="A104" s="23" t="s">
         <v>130</v>
       </c>
@@ -6414,7 +6312,7 @@
       <c r="Y104" s="24"/>
       <c r="Z104" s="24"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:26" ht="12.75">
       <c r="A105" s="47" t="s">
         <v>131</v>
       </c>
@@ -6444,7 +6342,7 @@
       <c r="Y105" s="24"/>
       <c r="Z105" s="24"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:26" ht="15">
       <c r="A106" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/median-of-two-sorted-arrays/","median of two sorted array")</f>
         <v>median of two sorted array</v>
@@ -6477,7 +6375,7 @@
       <c r="Y106" s="24"/>
       <c r="Z106" s="24"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:26" ht="15">
       <c r="A107" s="45" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/","capacity to ship within D days")</f>
         <v>capacity to ship within D days</v>
@@ -6510,7 +6408,7 @@
       <c r="Y107" s="24"/>
       <c r="Z107" s="24"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:26" ht="15">
       <c r="A108" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/koko-eating-bananas/","koko eating bananas")</f>
         <v>koko eating bananas</v>
@@ -6543,7 +6441,7 @@
       <c r="Y108" s="24"/>
       <c r="Z108" s="24"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:26" ht="15">
       <c r="A109" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold/","smallest divisor given a threshold")</f>
         <v>smallest divisor given a threshold</v>
@@ -6576,7 +6474,7 @@
       <c r="Y109" s="24"/>
       <c r="Z109" s="24"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:26" ht="15">
       <c r="A110" s="29" t="s">
         <v>136</v>
       </c>
@@ -6608,7 +6506,7 @@
       <c r="Y110" s="24"/>
       <c r="Z110" s="24"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:26" ht="15">
       <c r="A111" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/split-array-largest-sum/","split array largest sum")</f>
         <v>split array largest sum</v>
@@ -6641,7 +6539,7 @@
       <c r="Y111" s="24"/>
       <c r="Z111" s="24"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:26" ht="15">
       <c r="A112" s="30" t="s">
         <v>139</v>
       </c>
@@ -6671,7 +6569,7 @@
       <c r="Y112" s="24"/>
       <c r="Z112" s="24"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:26" ht="15">
       <c r="A113" s="40" t="s">
         <v>140</v>
       </c>
@@ -6703,7 +6601,7 @@
       <c r="Y113" s="24"/>
       <c r="Z113" s="24"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:26" ht="15">
       <c r="A114" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-th-smallest-prime-fraction/","Kth smallest prime fraction")</f>
         <v>Kth smallest prime fraction</v>
@@ -6736,7 +6634,7 @@
       <c r="Y114" s="24"/>
       <c r="Z114" s="24"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:26" ht="15">
       <c r="A115" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/search-in-rotated-sorted-array/","search in rotated sorted array")</f>
         <v>search in rotated sorted array</v>
@@ -6769,7 +6667,7 @@
       <c r="Y115" s="24"/>
       <c r="Z115" s="24"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:26" ht="15">
       <c r="A116" s="29" t="s">
         <v>143</v>
       </c>
@@ -6801,7 +6699,7 @@
       <c r="Y116" s="24"/>
       <c r="Z116" s="24"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:26" ht="15">
       <c r="A117" s="29" t="s">
         <v>145</v>
       </c>
@@ -6833,7 +6731,7 @@
       <c r="Y117" s="24"/>
       <c r="Z117" s="24"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:26" ht="15">
       <c r="A118" s="29" t="s">
         <v>147</v>
       </c>
@@ -6865,7 +6763,7 @@
       <c r="Y118" s="24"/>
       <c r="Z118" s="24"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:26" ht="14.25">
       <c r="A119" s="59" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/counting-sort/","counting sort")</f>
         <v>counting sort</v>
@@ -6898,7 +6796,7 @@
       <c r="Y119" s="24"/>
       <c r="Z119" s="24"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:26" ht="14.25">
       <c r="A120" s="59" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/merge-sort/","merge sort")</f>
         <v>merge sort</v>
@@ -6931,7 +6829,7 @@
       <c r="Y120" s="24"/>
       <c r="Z120" s="24"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:26" ht="15">
       <c r="A121" s="61" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/counting-inversions/","count inversions")</f>
         <v>count inversions</v>
@@ -6964,7 +6862,7 @@
       <c r="Y121" s="24"/>
       <c r="Z121" s="24"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:26" ht="18.75">
       <c r="A122" s="62" t="s">
         <v>152</v>
       </c>
@@ -6994,7 +6892,7 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:26" ht="15">
       <c r="A123" s="23" t="s">
         <v>153</v>
       </c>
@@ -7024,7 +6922,7 @@
       <c r="Y123" s="24"/>
       <c r="Z123" s="24"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:26" ht="15">
       <c r="A124" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/reverse-linked-list/","reverse LinkedList")</f>
         <v>reverse LinkedList</v>
@@ -7057,7 +6955,7 @@
       <c r="Y124" s="24"/>
       <c r="Z124" s="24"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:26" ht="15">
       <c r="A125" s="63" t="s">
         <v>155</v>
       </c>
@@ -7087,7 +6985,7 @@
       <c r="Y125" s="24"/>
       <c r="Z125" s="24"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:26" ht="15">
       <c r="A126" s="40" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/write-a-c-function-to-print-the-middle-of-the-linked-list/","Find the middle element")</f>
         <v>Find the middle element</v>
@@ -7120,7 +7018,7 @@
       <c r="Y126" s="24"/>
       <c r="Z126" s="24"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:26" ht="15">
       <c r="A127" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/detect-loop-in-a-linked-list/","Floyd cycle")</f>
         <v>Floyd cycle</v>
@@ -7153,7 +7051,7 @@
       <c r="Y127" s="24"/>
       <c r="Z127" s="24"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:26" ht="15">
       <c r="A128" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/a-linked-list-with-next-and-arbit-pointer/","Clone a linkedlist")</f>
         <v>Clone a linkedlist</v>
@@ -7186,7 +7084,7 @@
       <c r="Y128" s="24"/>
       <c r="Z128" s="24"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:26" ht="15">
       <c r="A129" s="29" t="s">
         <v>159</v>
       </c>
@@ -7218,7 +7116,7 @@
       <c r="Y129" s="24"/>
       <c r="Z129" s="24"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:26" ht="15">
       <c r="A130" s="58" t="s">
         <v>161</v>
       </c>
@@ -7248,7 +7146,7 @@
       <c r="Y130" s="24"/>
       <c r="Z130" s="24"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:26" ht="14.25">
       <c r="A131" s="25" t="s">
         <v>162</v>
       </c>
@@ -7280,7 +7178,7 @@
       <c r="Y131" s="24"/>
       <c r="Z131" s="24"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" ht="15">
       <c r="A132" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/lru-cache/","LRU Cache")</f>
         <v>LRU Cache</v>
@@ -7313,7 +7211,7 @@
       <c r="Y132" s="24"/>
       <c r="Z132" s="24"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" ht="15">
       <c r="A133" s="64" t="s">
         <v>165</v>
       </c>
@@ -7343,7 +7241,7 @@
       <c r="Y133" s="36"/>
       <c r="Z133" s="36"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:26" ht="15">
       <c r="A134" s="64" t="s">
         <v>166</v>
       </c>
@@ -7373,7 +7271,7 @@
       <c r="Y134" s="36"/>
       <c r="Z134" s="36"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:26" ht="15">
       <c r="A135" s="64" t="s">
         <v>167</v>
       </c>
@@ -7403,7 +7301,7 @@
       <c r="Y135" s="36"/>
       <c r="Z135" s="36"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:26" ht="15">
       <c r="A136" s="64" t="s">
         <v>168</v>
       </c>
@@ -7433,7 +7331,7 @@
       <c r="Y136" s="36"/>
       <c r="Z136" s="36"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:26" ht="15">
       <c r="A137" s="58" t="s">
         <v>169</v>
       </c>
@@ -7463,7 +7361,7 @@
       <c r="Y137" s="36"/>
       <c r="Z137" s="36"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:26" ht="15">
       <c r="A138" s="65" t="s">
         <v>170</v>
       </c>
@@ -7493,7 +7391,7 @@
       <c r="Y138" s="36"/>
       <c r="Z138" s="36"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:26" ht="15">
       <c r="A139" s="64" t="s">
         <v>171</v>
       </c>
@@ -7523,7 +7421,7 @@
       <c r="Y139" s="36"/>
       <c r="Z139" s="36"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:26" ht="15">
       <c r="A140" s="64" t="s">
         <v>172</v>
       </c>
@@ -7553,7 +7451,7 @@
       <c r="Y140" s="36"/>
       <c r="Z140" s="36"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:26" ht="15">
       <c r="A141" s="64" t="s">
         <v>173</v>
       </c>
@@ -7583,7 +7481,7 @@
       <c r="Y141" s="36"/>
       <c r="Z141" s="36"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:26" ht="15">
       <c r="A142" s="64" t="s">
         <v>174</v>
       </c>
@@ -7613,7 +7511,7 @@
       <c r="Y142" s="24"/>
       <c r="Z142" s="24"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:26" ht="15">
       <c r="A143" s="65" t="s">
         <v>175</v>
       </c>
@@ -7643,7 +7541,7 @@
       <c r="Y143" s="36"/>
       <c r="Z143" s="36"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:26" ht="18.75">
       <c r="A144" s="22" t="s">
         <v>176</v>
       </c>
@@ -7673,7 +7571,7 @@
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:26" ht="15">
       <c r="A145" s="23" t="s">
         <v>177</v>
       </c>
@@ -7703,7 +7601,7 @@
       <c r="Y145" s="24"/>
       <c r="Z145" s="24"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:26" ht="14.25">
       <c r="A146" s="25" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/next-greater-element/","Next Greater Element on right")</f>
         <v>Next Greater Element on right</v>
@@ -7736,7 +7634,7 @@
       <c r="Y146" s="24"/>
       <c r="Z146" s="24"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:26" ht="14.25">
       <c r="A147" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/next-greater-element-ii/","Next Greater Element 2")</f>
         <v>Next Greater Element 2</v>
@@ -7769,7 +7667,7 @@
       <c r="Y147" s="24"/>
       <c r="Z147" s="24"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:26" ht="14.25">
       <c r="A148" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/daily-temperatures/","Daily Temperatures")</f>
         <v>Daily Temperatures</v>
@@ -7802,7 +7700,7 @@
       <c r="Y148" s="24"/>
       <c r="Z148" s="24"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:26" ht="14.25">
       <c r="A149" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/the-stock-span-problem/","Stock Span Problem")</f>
         <v>Stock Span Problem</v>
@@ -7835,7 +7733,7 @@
       <c r="Y149" s="24"/>
       <c r="Z149" s="24"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:26" ht="14.25">
       <c r="A150" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-maximum-difference-between-nearest-left-and-right-smaller-elements/","maximum difference between left and right smaller")</f>
         <v>maximum difference between left and right smaller</v>
@@ -7868,7 +7766,7 @@
       <c r="Y150" s="24"/>
       <c r="Z150" s="24"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:26" ht="14.25">
       <c r="A151" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/largest-rectangle-in-histogram/","Largest Rectangular Area Histogram")</f>
         <v>Largest Rectangular Area Histogram</v>
@@ -7901,7 +7799,7 @@
       <c r="Y151" s="24"/>
       <c r="Z151" s="24"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:26" ht="14.25">
       <c r="A152" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximal-rectangle/","maximu size binary matrix containing 1")</f>
         <v>maximu size binary matrix containing 1</v>
@@ -7934,7 +7832,7 @@
       <c r="Y152" s="24"/>
       <c r="Z152" s="24"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:26" ht="14.25">
       <c r="A153" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/asteroid-collision/","Asteroid Collision")</f>
         <v>Asteroid Collision</v>
@@ -7967,7 +7865,7 @@
       <c r="Y153" s="24"/>
       <c r="Z153" s="24"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:26" ht="15">
       <c r="A154" s="30" t="s">
         <v>186</v>
       </c>
@@ -7997,7 +7895,7 @@
       <c r="Y154" s="24"/>
       <c r="Z154" s="24"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:26" ht="14.25">
       <c r="A155" s="25" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/valid-parentheses/","Valid Parentheses")</f>
         <v>Valid Parentheses</v>
@@ -8030,7 +7928,7 @@
       <c r="Y155" s="24"/>
       <c r="Z155" s="24"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:26" ht="14.25">
       <c r="A156" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/","Length of longest valid substring")</f>
         <v>Length of longest valid substring</v>
@@ -8063,7 +7961,7 @@
       <c r="Y156" s="24"/>
       <c r="Z156" s="24"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:26" ht="14.25">
       <c r="A157" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/","Count of duplicate Parentheses")</f>
         <v>Count of duplicate Parentheses</v>
@@ -8096,7 +7994,7 @@
       <c r="Y157" s="24"/>
       <c r="Z157" s="24"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:26" ht="14.25">
       <c r="A158" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-of-bracket-reversals-needed-to-make-an-expression-balanced/","Minimum Number of bracket reversal")</f>
         <v>Minimum Number of bracket reversal</v>
@@ -8129,7 +8027,7 @@
       <c r="Y158" s="24"/>
       <c r="Z158" s="24"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:26" ht="14.25">
       <c r="A159" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-add-to-make-parentheses-valid/","Minimum Add To make Parentheses Valid")</f>
         <v>Minimum Add To make Parentheses Valid</v>
@@ -8162,7 +8060,7 @@
       <c r="Y159" s="24"/>
       <c r="Z159" s="24"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:26" ht="14.25">
       <c r="A160" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/remove-k-digits/","Remove K digits From number")</f>
         <v>Remove K digits From number</v>
@@ -8195,7 +8093,7 @@
       <c r="Y160" s="24"/>
       <c r="Z160" s="24"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:26" ht="14.25">
       <c r="A161" s="42" t="s">
         <v>193</v>
       </c>
@@ -8225,7 +8123,7 @@
       <c r="Y161" s="24"/>
       <c r="Z161" s="24"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:26" ht="14.25">
       <c r="A162" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/first-negative-integer-every-window-size-k/","First negative Integer in k sized window")</f>
         <v>First negative Integer in k sized window</v>
@@ -8258,7 +8156,7 @@
       <c r="Y162" s="24"/>
       <c r="Z162" s="24"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:26" ht="15">
       <c r="A163" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/maximum-sum-of-smallest-and-second-smallest-in-an-array/","Maximum sum of smallest and second smallest")</f>
         <v>Maximum sum of smallest and second smallest</v>
@@ -8291,7 +8189,7 @@
       <c r="Y163" s="24"/>
       <c r="Z163" s="24"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:26" ht="15">
       <c r="A164" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/reversing-first-k-elements-queue/","K reverse in a queue")</f>
         <v>K reverse in a queue</v>
@@ -8324,7 +8222,7 @@
       <c r="Y164" s="24"/>
       <c r="Z164" s="24"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:26" ht="15">
       <c r="A165" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/","K stacks in a single array")</f>
         <v>K stacks in a single array</v>
@@ -8357,7 +8255,7 @@
       <c r="Y165" s="24"/>
       <c r="Z165" s="24"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:26" ht="15">
       <c r="A166" s="29"/>
       <c r="B166" s="24"/>
       <c r="C166" s="24"/>
@@ -8385,7 +8283,7 @@
       <c r="Y166" s="24"/>
       <c r="Z166" s="24"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:26" ht="15">
       <c r="A167" s="30" t="s">
         <v>198</v>
       </c>
@@ -8415,7 +8313,7 @@
       <c r="Y167" s="24"/>
       <c r="Z167" s="24"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:26" ht="15">
       <c r="A168" s="40" t="s">
         <v>199</v>
       </c>
@@ -8447,7 +8345,7 @@
       <c r="Y168" s="24"/>
       <c r="Z168" s="24"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:26" ht="15">
       <c r="A169" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/gas-station/","Gas Station")</f>
         <v>Gas Station</v>
@@ -8480,7 +8378,7 @@
       <c r="Y169" s="24"/>
       <c r="Z169" s="24"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:26" ht="14.25">
       <c r="A170" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/interesting-method-generate-binary-numbers-1-n/","Print Binary Number")</f>
         <v>Print Binary Number</v>
@@ -8513,7 +8411,7 @@
       <c r="Y170" s="24"/>
       <c r="Z170" s="24"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:26" ht="15">
       <c r="A171" s="29" t="s">
         <v>203</v>
       </c>
@@ -8545,7 +8443,7 @@
       <c r="Y171" s="24"/>
       <c r="Z171" s="24"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:26" ht="14.25">
       <c r="A172" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/backspace-string-compare/","Backspace String Compare")</f>
         <v>Backspace String Compare</v>
@@ -8578,7 +8476,7 @@
       <c r="Y172" s="24"/>
       <c r="Z172" s="24"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:26" ht="14.25">
       <c r="A173" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/car-fleet/","Car fleet")</f>
         <v>Car fleet</v>
@@ -8611,7 +8509,7 @@
       <c r="Y173" s="24"/>
       <c r="Z173" s="24"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:26" ht="15">
       <c r="A174" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/validate-stack-sequences/","Validate Stack")</f>
         <v>Validate Stack</v>
@@ -8644,7 +8542,7 @@
       <c r="Y174" s="24"/>
       <c r="Z174" s="24"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:26" ht="15">
       <c r="A175" s="30" t="s">
         <v>208</v>
       </c>
@@ -8674,7 +8572,7 @@
       <c r="Y175" s="24"/>
       <c r="Z175" s="24"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:26" ht="15">
       <c r="A176" s="45" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-frequency-stack/","max frequency stack")</f>
         <v>max frequency stack</v>
@@ -8707,7 +8605,7 @@
       <c r="Y176" s="24"/>
       <c r="Z176" s="24"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:26" ht="15">
       <c r="A177" s="45" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/min-stack/","Min Stack")</f>
         <v>Min Stack</v>
@@ -8740,7 +8638,7 @@
       <c r="Y177" s="24"/>
       <c r="Z177" s="24"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:26" ht="12.75">
       <c r="A178" s="24" t="s">
         <v>211</v>
       </c>
@@ -8770,7 +8668,7 @@
       <c r="Y178" s="24"/>
       <c r="Z178" s="24"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:26" ht="15">
       <c r="A179" s="29" t="s">
         <v>212</v>
       </c>
@@ -8800,7 +8698,7 @@
       <c r="Y179" s="24"/>
       <c r="Z179" s="24"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:26" ht="18.75">
       <c r="A180" s="68" t="s">
         <v>10</v>
       </c>
@@ -8830,7 +8728,7 @@
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:26" ht="15">
       <c r="A181" s="23" t="s">
         <v>213</v>
       </c>
@@ -8860,7 +8758,7 @@
       <c r="Y181" s="24"/>
       <c r="Z181" s="24"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:26" ht="15">
       <c r="A182" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-inorder-traversal/","Inorder Traversal")</f>
         <v>Inorder Traversal</v>
@@ -8893,7 +8791,7 @@
       <c r="Y182" s="24"/>
       <c r="Z182" s="24"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:26" ht="15">
       <c r="A183" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-preorder-traversal/","Preorder Traversal")</f>
         <v>Preorder Traversal</v>
@@ -8926,7 +8824,7 @@
       <c r="Y183" s="24"/>
       <c r="Z183" s="24"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:26" ht="15">
       <c r="A184" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-postorder-traversal/","Postorder Traversal")</f>
         <v>Postorder Traversal</v>
@@ -8959,7 +8857,7 @@
       <c r="Y184" s="24"/>
       <c r="Z184" s="24"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:26" ht="15">
       <c r="A185" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-level-order-traversal/","Binary Tree Level Order")</f>
         <v>Binary Tree Level Order</v>
@@ -8992,7 +8890,7 @@
       <c r="Y185" s="24"/>
       <c r="Z185" s="24"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:26" ht="15">
       <c r="A186" s="69" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree/","Binary search tree to greater sum")</f>
         <v>Binary search tree to greater sum</v>
@@ -9025,7 +8923,7 @@
       <c r="Y186" s="24"/>
       <c r="Z186" s="24"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:26" ht="15">
       <c r="A187" s="69" t="s">
         <v>219</v>
       </c>
@@ -9057,7 +8955,7 @@
       <c r="Y187" s="24"/>
       <c r="Z187" s="24"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:26" ht="15">
       <c r="A188" s="69" t="s">
         <v>220</v>
       </c>
@@ -9089,7 +8987,7 @@
       <c r="Y188" s="24"/>
       <c r="Z188" s="24"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:26" ht="15">
       <c r="A189" s="58" t="s">
         <v>222</v>
       </c>
@@ -9119,7 +9017,7 @@
       <c r="Y189" s="24"/>
       <c r="Z189" s="24"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:26" ht="15">
       <c r="A190" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-right-side-view/","right side view")</f>
         <v>right side view</v>
@@ -9152,7 +9050,7 @@
       <c r="Y190" s="24"/>
       <c r="Z190" s="24"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:26" ht="15">
       <c r="A191" s="29" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1","Left View")</f>
         <v>Left View</v>
@@ -9185,7 +9083,7 @@
       <c r="Y191" s="24"/>
       <c r="Z191" s="24"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:26" ht="15">
       <c r="A192" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/print-nodes-in-the-top-view-of-binary-tree-set-3/","Top View")</f>
         <v>Top View</v>
@@ -9218,7 +9116,7 @@
       <c r="Y192" s="24"/>
       <c r="Z192" s="24"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:26" ht="15">
       <c r="A193" s="29" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1","Bottom View")</f>
         <v>Bottom View</v>
@@ -9251,7 +9149,7 @@
       <c r="Y193" s="24"/>
       <c r="Z193" s="24"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:26" ht="15">
       <c r="A194" s="29" t="s">
         <v>227</v>
       </c>
@@ -9283,7 +9181,7 @@
       <c r="Y194" s="24"/>
       <c r="Z194" s="24"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:26" ht="15">
       <c r="A195" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/","Vertical order")</f>
         <v>Vertical order</v>
@@ -9316,7 +9214,7 @@
       <c r="Y195" s="24"/>
       <c r="Z195" s="24"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:26" ht="15">
       <c r="A196" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/","Diagonal Traversal")</f>
         <v>Diagonal Traversal</v>
@@ -9349,7 +9247,7 @@
       <c r="Y196" s="24"/>
       <c r="Z196" s="24"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:26" ht="15">
       <c r="A197" s="29" t="s">
         <v>230</v>
       </c>
@@ -9381,7 +9279,7 @@
       <c r="Y197" s="24"/>
       <c r="Z197" s="24"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:26" ht="15">
       <c r="A198" s="29" t="s">
         <v>232</v>
       </c>
@@ -9413,7 +9311,7 @@
       <c r="Y198" s="24"/>
       <c r="Z198" s="24"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:26" ht="15">
       <c r="A199" s="58" t="s">
         <v>234</v>
       </c>
@@ -9443,7 +9341,7 @@
       <c r="Y199" s="24"/>
       <c r="Z199" s="24"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:26" ht="15">
       <c r="A200" s="40" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/image-multiplication/0","image multiplication")</f>
         <v>image multiplication</v>
@@ -9476,7 +9374,7 @@
       <c r="Y200" s="24"/>
       <c r="Z200" s="24"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:26" ht="15">
       <c r="A201" s="29" t="s">
         <v>236</v>
       </c>
@@ -9508,7 +9406,7 @@
       <c r="Y201" s="24"/>
       <c r="Z201" s="24"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:26" ht="15">
       <c r="A202" s="29" t="s">
         <v>238</v>
       </c>
@@ -9540,7 +9438,7 @@
       <c r="Y202" s="24"/>
       <c r="Z202" s="24"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:26" ht="15">
       <c r="A203" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/","Lowest common ancestor in BST")</f>
         <v>Lowest common ancestor in BST</v>
@@ -9573,7 +9471,7 @@
       <c r="Y203" s="24"/>
       <c r="Z203" s="24"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:26" ht="15">
       <c r="A204" s="29" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/lowest-common-ancestor-in-a-binary-tree/1","Lowest common ancestor")</f>
         <v>Lowest common ancestor</v>
@@ -9606,7 +9504,7 @@
       <c r="Y204" s="24"/>
       <c r="Z204" s="24"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:26" ht="15">
       <c r="A205" s="30" t="s">
         <v>241</v>
       </c>
@@ -9636,7 +9534,7 @@
       <c r="Y205" s="24"/>
       <c r="Z205" s="24"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:26" ht="15">
       <c r="A206" s="69" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/distribute-coins-in-binary-tree/","Distribute coins in a binary tree")</f>
         <v>Distribute coins in a binary tree</v>
@@ -9669,7 +9567,7 @@
       <c r="Y206" s="24"/>
       <c r="Z206" s="24"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:26" ht="15">
       <c r="A207" s="69" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-cameras/","Binary Tree Cameras")</f>
         <v>Binary Tree Cameras</v>
@@ -9702,7 +9600,7 @@
       <c r="Y207" s="24"/>
       <c r="Z207" s="24"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:26" ht="15">
       <c r="A208" s="29" t="s">
         <v>244</v>
       </c>
@@ -9732,7 +9630,7 @@
       <c r="Y208" s="24"/>
       <c r="Z208" s="24"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:26" ht="15">
       <c r="A209" s="29" t="s">
         <v>245</v>
       </c>
@@ -9764,7 +9662,7 @@
       <c r="Y209" s="24"/>
       <c r="Z209" s="24"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:26" ht="15">
       <c r="A210" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/flatten-binary-tree-to-linked-list/","Flatten binary tree to linked list")</f>
         <v>Flatten binary tree to linked list</v>
@@ -9797,7 +9695,7 @@
       <c r="Y210" s="24"/>
       <c r="Z210" s="24"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:26" ht="15">
       <c r="A211" s="69" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/convert-a-binary-tree-to-a-circular-doubly-link-list/","Convert a binary tree to circular doubly linked list")</f>
         <v>Convert a binary tree to circular doubly linked list</v>
@@ -9830,7 +9728,7 @@
       <c r="Y211" s="24"/>
       <c r="Z211" s="24"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:26" ht="15">
       <c r="A212" s="70" t="s">
         <v>249</v>
       </c>
@@ -9860,7 +9758,7 @@
       <c r="Y212" s="24"/>
       <c r="Z212" s="24"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:26" ht="15">
       <c r="A213" s="40" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/in-place-conversion-of-sorted-dll-to-balanced-bst/","Conversion of sorted DLL to BST")</f>
         <v>Conversion of sorted DLL to BST</v>
@@ -9893,7 +9791,7 @@
       <c r="Y213" s="24"/>
       <c r="Z213" s="24"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:26" ht="15">
       <c r="A214" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/merge-two-balanced-binary-search-trees/","Merge Two BST")</f>
         <v>Merge Two BST</v>
@@ -9926,7 +9824,7 @@
       <c r="Y214" s="24"/>
       <c r="Z214" s="24"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:26" ht="15">
       <c r="A215" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/clone-binary-tree-random-pointers/","clone a binary tree with random pointer")</f>
         <v>clone a binary tree with random pointer</v>
@@ -9959,7 +9857,7 @@
       <c r="Y215" s="24"/>
       <c r="Z215" s="24"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:26" ht="15">
       <c r="A216" s="29" t="s">
         <v>253</v>
       </c>
@@ -9989,7 +9887,7 @@
       <c r="Y216" s="24"/>
       <c r="Z216" s="24"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:26" ht="15">
       <c r="A217" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/","Construct from inorder and preorder")</f>
         <v>Construct from inorder and preorder</v>
@@ -10022,7 +9920,7 @@
       <c r="Y217" s="24"/>
       <c r="Z217" s="24"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:26" ht="15">
       <c r="A218" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/","Construct from inorder and postorder")</f>
         <v>Construct from inorder and postorder</v>
@@ -10055,7 +9953,7 @@
       <c r="Y218" s="24"/>
       <c r="Z218" s="24"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:26" ht="15">
       <c r="A219" s="30" t="s">
         <v>256</v>
       </c>
@@ -10085,7 +9983,7 @@
       <c r="Y219" s="24"/>
       <c r="Z219" s="24"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:26" ht="15">
       <c r="A220" s="40" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/construct-tree-inorder-level-order-traversals/","Inorder and level order")</f>
         <v>Inorder and level order</v>
@@ -10118,7 +10016,7 @@
       <c r="Y220" s="24"/>
       <c r="Z220" s="24"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:26" ht="15">
       <c r="A221" s="29" t="s">
         <v>258</v>
       </c>
@@ -10150,7 +10048,7 @@
       <c r="Y221" s="24"/>
       <c r="Z221" s="24"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:26" ht="15">
       <c r="A222" s="29" t="s">
         <v>260</v>
       </c>
@@ -10182,7 +10080,7 @@
       <c r="Y222" s="24"/>
       <c r="Z222" s="24"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:26" ht="15">
       <c r="A223" s="29" t="s">
         <v>262</v>
       </c>
@@ -10214,7 +10112,7 @@
       <c r="Y223" s="24"/>
       <c r="Z223" s="24"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:26" ht="15">
       <c r="A224" s="29" t="s">
         <v>263</v>
       </c>
@@ -10246,7 +10144,7 @@
       <c r="Y224" s="24"/>
       <c r="Z224" s="24"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:26" ht="15">
       <c r="A225" s="71" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/serialize-and-deserialize-binary-tree/","serialize and deserialise")</f>
         <v>serialize and deserialise</v>
@@ -10279,7 +10177,7 @@
       <c r="Y225" s="24"/>
       <c r="Z225" s="24"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:26" ht="15">
       <c r="A226" s="71" t="s">
         <v>266</v>
       </c>
@@ -10311,7 +10209,7 @@
       <c r="Y226" s="24"/>
       <c r="Z226" s="24"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:26" ht="15">
       <c r="A227" s="29" t="s">
         <v>267</v>
       </c>
@@ -10343,7 +10241,7 @@
       <c r="Y227" s="24"/>
       <c r="Z227" s="24"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:26" ht="15">
       <c r="A228" s="58" t="s">
         <v>269</v>
       </c>
@@ -10373,7 +10271,7 @@
       <c r="Y228" s="24"/>
       <c r="Z228" s="24"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:26" ht="15">
       <c r="A229" s="40" t="s">
         <v>270</v>
       </c>
@@ -10405,7 +10303,7 @@
       <c r="Y229" s="24"/>
       <c r="Z229" s="24"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:26" ht="15">
       <c r="A230" s="29" t="s">
         <v>272</v>
       </c>
@@ -10437,7 +10335,7 @@
       <c r="Y230" s="24"/>
       <c r="Z230" s="24"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:26" ht="15">
       <c r="A231" s="29" t="s">
         <v>273</v>
       </c>
@@ -10469,7 +10367,7 @@
       <c r="Y231" s="24"/>
       <c r="Z231" s="24"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:26" ht="15">
       <c r="A232" s="29" t="s">
         <v>275</v>
       </c>
@@ -10501,7 +10399,7 @@
       <c r="Y232" s="24"/>
       <c r="Z232" s="24"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:26" ht="12.75">
       <c r="A233" s="72" t="s">
         <v>277</v>
       </c>
@@ -10531,7 +10429,7 @@
       <c r="Y233" s="24"/>
       <c r="Z233" s="24"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:26" ht="15">
       <c r="A234" s="29" t="s">
         <v>278</v>
       </c>
@@ -10561,7 +10459,7 @@
       <c r="Y234" s="24"/>
       <c r="Z234" s="24"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:26" ht="18.75">
       <c r="A235" s="68" t="s">
         <v>279</v>
       </c>
@@ -10591,7 +10489,7 @@
       <c r="Y235" s="4"/>
       <c r="Z235" s="4"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:26" ht="15">
       <c r="A236" s="23" t="s">
         <v>280</v>
       </c>
@@ -10621,7 +10519,7 @@
       <c r="Y236" s="24"/>
       <c r="Z236" s="24"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:26" ht="15">
       <c r="A237" s="32" t="s">
         <v>281</v>
       </c>
@@ -10653,7 +10551,7 @@
       <c r="Y237" s="24"/>
       <c r="Z237" s="24"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:26" ht="14.25">
       <c r="A238" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/is-graph-bipartite/","Bipartite graph")</f>
         <v>Bipartite graph</v>
@@ -10686,7 +10584,7 @@
       <c r="Y238" s="24"/>
       <c r="Z238" s="24"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:26" ht="14.25">
       <c r="A239" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/bus-routes/","Bus routes")</f>
         <v>Bus routes</v>
@@ -10717,7 +10615,7 @@
       <c r="Y239" s="24"/>
       <c r="Z239" s="24"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:26" ht="14.25">
       <c r="A240" s="73" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/MST/","Prim's Algo")</f>
         <v>Prim's Algo</v>
@@ -10750,7 +10648,7 @@
       <c r="Y240" s="24"/>
       <c r="Z240" s="24"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:26" ht="15">
       <c r="A241" s="69" t="s">
         <v>285</v>
       </c>
@@ -10782,7 +10680,7 @@
       <c r="Y241" s="24"/>
       <c r="Z241" s="24"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:26" ht="14.25">
       <c r="A242" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-greedy-algo-7/","Dijkstra algo")</f>
         <v>Dijkstra algo</v>
@@ -10815,7 +10713,7 @@
       <c r="Y242" s="24"/>
       <c r="Z242" s="24"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:26" ht="15">
       <c r="A243" s="30" t="s">
         <v>288</v>
       </c>
@@ -10845,7 +10743,7 @@
       <c r="Y243" s="24"/>
       <c r="Z243" s="24"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:26" ht="14.25">
       <c r="A244" s="25" t="str">
         <f>HYPERLINK("https://www.codechef.com/problems/REVERSE","chef and reversing")</f>
         <v>chef and reversing</v>
@@ -10878,7 +10776,7 @@
       <c r="Y244" s="24"/>
       <c r="Z244" s="24"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:26" ht="15">
       <c r="A245" s="29" t="s">
         <v>290</v>
       </c>
@@ -10910,7 +10808,7 @@
       <c r="Y245" s="24"/>
       <c r="Z245" s="24"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:26" ht="15">
       <c r="A246" s="26" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/depth-first-traversal-for-a-graph/1","DFS")</f>
         <v>DFS</v>
@@ -10943,7 +10841,7 @@
       <c r="Y246" s="24"/>
       <c r="Z246" s="24"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:26" ht="12.75">
       <c r="A247" s="72" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/evaluate-division/","evaluate division")</f>
         <v>evaluate division</v>
@@ -10974,7 +10872,7 @@
       <c r="Y247" s="24"/>
       <c r="Z247" s="24"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:26" ht="15">
       <c r="A248" s="26" t="s">
         <v>293</v>
       </c>
@@ -11004,7 +10902,7 @@
       <c r="Y248" s="24"/>
       <c r="Z248" s="24"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:26" ht="15">
       <c r="A249" s="26" t="s">
         <v>294</v>
       </c>
@@ -11036,7 +10934,7 @@
       <c r="Y249" s="24"/>
       <c r="Z249" s="24"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:26" ht="15">
       <c r="A250" s="26" t="s">
         <v>296</v>
       </c>
@@ -11068,7 +10966,7 @@
       <c r="Y250" s="24"/>
       <c r="Z250" s="24"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:26" ht="15">
       <c r="A251" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/01-matrix/","0-1 matrix")</f>
         <v>0-1 matrix</v>
@@ -11101,7 +10999,7 @@
       <c r="Y251" s="24"/>
       <c r="Z251" s="24"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:26" ht="15">
       <c r="A252" s="26" t="s">
         <v>299</v>
       </c>
@@ -11133,7 +11031,7 @@
       <c r="Y252" s="24"/>
       <c r="Z252" s="24"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:26" ht="15">
       <c r="A253" s="26" t="s">
         <v>301</v>
       </c>
@@ -11165,7 +11063,7 @@
       <c r="Y253" s="24"/>
       <c r="Z253" s="24"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:26" ht="15">
       <c r="A254" s="58" t="s">
         <v>303</v>
       </c>
@@ -11195,7 +11093,7 @@
       <c r="Y254" s="24"/>
       <c r="Z254" s="24"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:26" ht="15">
       <c r="A255" s="32" t="s">
         <v>304</v>
       </c>
@@ -11227,7 +11125,7 @@
       <c r="Y255" s="24"/>
       <c r="Z255" s="24"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:26" ht="14.25">
       <c r="A256" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/shortest-bridge/","Shortest bridge")</f>
         <v>Shortest bridge</v>
@@ -11258,7 +11156,7 @@
       <c r="Y256" s="24"/>
       <c r="Z256" s="24"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:26" ht="15">
       <c r="A257" s="33" t="s">
         <v>306</v>
       </c>
@@ -11290,7 +11188,7 @@
       <c r="Y257" s="24"/>
       <c r="Z257" s="24"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:26" ht="15">
       <c r="A258" s="26" t="s">
         <v>307</v>
       </c>
@@ -11320,7 +11218,7 @@
       <c r="Y258" s="24"/>
       <c r="Z258" s="24"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:26" ht="14.25">
       <c r="A259" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/bellman-ford-algorithm-dp-23/","bellman ford")</f>
         <v>bellman ford</v>
@@ -11353,7 +11251,7 @@
       <c r="Y259" s="24"/>
       <c r="Z259" s="24"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:26" ht="15">
       <c r="A260" s="30" t="s">
         <v>309</v>
       </c>
@@ -11383,7 +11281,7 @@
       <c r="Y260" s="24"/>
       <c r="Z260" s="24"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:26" ht="15">
       <c r="A261" s="32" t="s">
         <v>310</v>
       </c>
@@ -11415,7 +11313,7 @@
       <c r="Y261" s="24"/>
       <c r="Z261" s="24"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:26" ht="15">
       <c r="A262" s="26" t="s">
         <v>312</v>
       </c>
@@ -11447,7 +11345,7 @@
       <c r="Y262" s="24"/>
       <c r="Z262" s="24"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:26" ht="14.25">
       <c r="A263" s="73" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/topological-sorting/","topological sorting")</f>
         <v>topological sorting</v>
@@ -11480,7 +11378,7 @@
       <c r="Y263" s="24"/>
       <c r="Z263" s="24"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:26" ht="14.25">
       <c r="A264" s="73" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/topological-sorting-indegree-based-solution/","Kahn's algo")</f>
         <v>Kahn's algo</v>
@@ -11513,7 +11411,7 @@
       <c r="Y264" s="24"/>
       <c r="Z264" s="24"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:26" ht="14.25">
       <c r="A265" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/course-schedule-ii/","course schedule 2")</f>
         <v>course schedule 2</v>
@@ -11546,7 +11444,7 @@
       <c r="Y265" s="24"/>
       <c r="Z265" s="24"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:26" ht="15">
       <c r="A266" s="26" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/articulation-points-or-cut-vertices-in-a-graph/","Articulation point")</f>
         <v>Articulation point</v>
@@ -11579,7 +11477,7 @@
       <c r="Y266" s="24"/>
       <c r="Z266" s="24"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:26" ht="15">
       <c r="A267" s="31" t="s">
         <v>318</v>
       </c>
@@ -11611,7 +11509,7 @@
       <c r="Y267" s="24"/>
       <c r="Z267" s="24"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:26" ht="15">
       <c r="A268" s="31" t="s">
         <v>320</v>
       </c>
@@ -11643,7 +11541,7 @@
       <c r="Y268" s="24"/>
       <c r="Z268" s="24"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:26" ht="15">
       <c r="A269" s="26" t="s">
         <v>322</v>
       </c>
@@ -11675,7 +11573,7 @@
       <c r="Y269" s="24"/>
       <c r="Z269" s="24"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:26" ht="15">
       <c r="A270" s="58" t="s">
         <v>324</v>
       </c>
@@ -11705,7 +11603,7 @@
       <c r="Y270" s="24"/>
       <c r="Z270" s="24"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:26" ht="12.75">
       <c r="A271" s="47" t="s">
         <v>325</v>
       </c>
@@ -11735,7 +11633,7 @@
       <c r="Y271" s="24"/>
       <c r="Z271" s="24"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:26" ht="15">
       <c r="A272" s="74" t="s">
         <v>326</v>
       </c>
@@ -11765,7 +11663,7 @@
       <c r="Y272" s="24"/>
       <c r="Z272" s="24"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:26" ht="15">
       <c r="A273" s="29" t="s">
         <v>327</v>
       </c>
@@ -11797,7 +11695,7 @@
       <c r="Y273" s="24"/>
       <c r="Z273" s="24"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:26" ht="15">
       <c r="A274" s="31" t="s">
         <v>329</v>
       </c>
@@ -11829,7 +11727,7 @@
       <c r="Y274" s="24"/>
       <c r="Z274" s="24"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:26" ht="15">
       <c r="A275" s="45" t="s">
         <v>331</v>
       </c>
@@ -11861,7 +11759,7 @@
       <c r="Y275" s="24"/>
       <c r="Z275" s="24"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:26" ht="15">
       <c r="A276" s="31" t="s">
         <v>333</v>
       </c>
@@ -11893,7 +11791,7 @@
       <c r="Y276" s="24"/>
       <c r="Z276" s="24"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:26" ht="15">
       <c r="A277" s="31" t="s">
         <v>335</v>
       </c>
@@ -11925,7 +11823,7 @@
       <c r="Y277" s="24"/>
       <c r="Z277" s="24"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:26" ht="15">
       <c r="A278" s="26" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/redundant-connection-ii/","Redundant connection 2")</f>
         <v>Redundant connection 2</v>
@@ -11958,7 +11856,7 @@
       <c r="Y278" s="24"/>
       <c r="Z278" s="24"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:26" ht="15">
       <c r="A279" s="30" t="s">
         <v>338</v>
       </c>
@@ -11988,7 +11886,7 @@
       <c r="Y279" s="24"/>
       <c r="Z279" s="24"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:26" ht="15">
       <c r="A280" s="32" t="s">
         <v>339</v>
       </c>
@@ -12020,7 +11918,7 @@
       <c r="Y280" s="24"/>
       <c r="Z280" s="24"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:26" ht="15">
       <c r="A281" s="26" t="s">
         <v>341</v>
       </c>
@@ -12052,7 +11950,7 @@
       <c r="Y281" s="24"/>
       <c r="Z281" s="24"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:26" ht="15">
       <c r="A282" s="31" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/","Kruskal's algo")</f>
         <v>Kruskal's algo</v>
@@ -12085,7 +11983,7 @@
       <c r="Y282" s="24"/>
       <c r="Z282" s="24"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:26" ht="15">
       <c r="A283" s="31" t="s">
         <v>344</v>
       </c>
@@ -12117,7 +12015,7 @@
       <c r="Y283" s="24"/>
       <c r="Z283" s="24"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:26" ht="15">
       <c r="A284" s="26" t="s">
         <v>346</v>
       </c>
@@ -12149,7 +12047,7 @@
       <c r="Y284" s="24"/>
       <c r="Z284" s="24"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:26" ht="15">
       <c r="A285" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/sort-items-by-groups-respecting-dependencies/","Sort item by group accord to dependencies")</f>
         <v>Sort item by group accord to dependencies</v>
@@ -12182,7 +12080,7 @@
       <c r="Y285" s="24"/>
       <c r="Z285" s="24"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:26" ht="15">
       <c r="A286" s="30" t="s">
         <v>349</v>
       </c>
@@ -12212,7 +12110,7 @@
       <c r="Y286" s="24"/>
       <c r="Z286" s="24"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:26" ht="15">
       <c r="A287" s="32" t="s">
         <v>350</v>
       </c>
@@ -12244,7 +12142,7 @@
       <c r="Y287" s="24"/>
       <c r="Z287" s="24"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:26" ht="15">
       <c r="A288" s="75" t="s">
         <v>352</v>
       </c>
@@ -12276,7 +12174,7 @@
       <c r="Y288" s="24"/>
       <c r="Z288" s="24"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:26" ht="15">
       <c r="A289" s="75" t="s">
         <v>354</v>
       </c>
@@ -12308,7 +12206,7 @@
       <c r="Y289" s="24"/>
       <c r="Z289" s="24"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:26" ht="14.25">
       <c r="A290" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/","Min swaps required to sort array")</f>
         <v>Min swaps required to sort array</v>
@@ -12341,7 +12239,7 @@
       <c r="Y290" s="24"/>
       <c r="Z290" s="24"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:26" ht="15">
       <c r="A291" s="30" t="s">
         <v>357</v>
       </c>
@@ -12371,7 +12269,7 @@
       <c r="Y291" s="24"/>
       <c r="Z291" s="24"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:26" ht="14.25">
       <c r="A292" s="25" t="s">
         <v>358</v>
       </c>
@@ -12401,7 +12299,7 @@
       <c r="Y292" s="24"/>
       <c r="Z292" s="24"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:26" ht="15">
       <c r="A293" s="29" t="s">
         <v>359</v>
       </c>
@@ -12431,7 +12329,7 @@
       <c r="Y293" s="24"/>
       <c r="Z293" s="24"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:26" ht="15">
       <c r="A294" s="29" t="s">
         <v>360</v>
       </c>
@@ -12461,7 +12359,7 @@
       <c r="Y294" s="24"/>
       <c r="Z294" s="24"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:26" ht="15">
       <c r="A295" s="29" t="s">
         <v>361</v>
       </c>
@@ -12493,7 +12391,7 @@
       <c r="Y295" s="24"/>
       <c r="Z295" s="24"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:26" ht="15">
       <c r="A296" s="29" t="s">
         <v>363</v>
       </c>
@@ -12523,7 +12421,7 @@
       <c r="Y296" s="24"/>
       <c r="Z296" s="24"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:26" ht="15">
       <c r="A297" s="29" t="s">
         <v>364</v>
       </c>
@@ -12553,7 +12451,7 @@
       <c r="Y297" s="24"/>
       <c r="Z297" s="24"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:26" ht="15">
       <c r="A298" s="29" t="s">
         <v>365</v>
       </c>
@@ -12583,7 +12481,7 @@
       <c r="Y298" s="24"/>
       <c r="Z298" s="24"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:26" ht="15">
       <c r="A299" s="58" t="s">
         <v>366</v>
       </c>
@@ -12613,7 +12511,7 @@
       <c r="Y299" s="24"/>
       <c r="Z299" s="24"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:26" ht="15">
       <c r="A300" s="40" t="s">
         <v>367</v>
       </c>
@@ -12643,7 +12541,7 @@
       <c r="Y300" s="24"/>
       <c r="Z300" s="24"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:26" ht="15">
       <c r="A301" s="29" t="s">
         <v>368</v>
       </c>
@@ -12673,7 +12571,7 @@
       <c r="Y301" s="24"/>
       <c r="Z301" s="24"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:26" ht="15">
       <c r="A302" s="29" t="s">
         <v>369</v>
       </c>
@@ -12705,7 +12603,7 @@
       <c r="Y302" s="24"/>
       <c r="Z302" s="24"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:26" ht="15">
       <c r="A303" s="29" t="s">
         <v>370</v>
       </c>
@@ -12737,7 +12635,7 @@
       <c r="Y303" s="24"/>
       <c r="Z303" s="24"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:26" ht="15">
       <c r="A304" s="29" t="s">
         <v>372</v>
       </c>
@@ -12767,7 +12665,7 @@
       <c r="Y304" s="24"/>
       <c r="Z304" s="24"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:26" ht="15">
       <c r="A305" s="29" t="s">
         <v>373</v>
       </c>
@@ -12797,7 +12695,7 @@
       <c r="Y305" s="24"/>
       <c r="Z305" s="24"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:26" ht="15">
       <c r="A306" s="76" t="s">
         <v>374</v>
       </c>
@@ -12829,7 +12727,7 @@
       <c r="Y306" s="24"/>
       <c r="Z306" s="24"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:26" ht="15">
       <c r="A307" s="76" t="s">
         <v>376</v>
       </c>
@@ -12859,7 +12757,7 @@
       <c r="Y307" s="24"/>
       <c r="Z307" s="24"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:26" ht="18.75">
       <c r="A308" s="53" t="s">
         <v>377</v>
       </c>
@@ -12889,7 +12787,7 @@
       <c r="Y308" s="4"/>
       <c r="Z308" s="4"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:26" ht="15">
       <c r="A309" s="23" t="s">
         <v>378</v>
       </c>
@@ -12919,7 +12817,7 @@
       <c r="Y309" s="24"/>
       <c r="Z309" s="24"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:26" ht="15">
       <c r="A310" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/subarray-sum-equals-k/","number of subarrays sum exactly k")</f>
         <v>number of subarrays sum exactly k</v>
@@ -12952,7 +12850,7 @@
       <c r="Y310" s="24"/>
       <c r="Z310" s="24"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:26" ht="15">
       <c r="A311" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-sub-arrays-sum-divisible-k/","Subarray sum Divisible by k")</f>
         <v>Subarray sum Divisible by k</v>
@@ -12985,7 +12883,7 @@
       <c r="Y311" s="24"/>
       <c r="Z311" s="24"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:26" ht="15">
       <c r="A312" s="29" t="s">
         <v>381</v>
       </c>
@@ -13015,7 +12913,7 @@
       <c r="Y312" s="24"/>
       <c r="Z312" s="24"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:26" ht="15">
       <c r="A313" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-subarrays-equal-number-1s-0s/","subarray with equal number of 0 and 1")</f>
         <v>subarray with equal number of 0 and 1</v>
@@ -13048,7 +12946,7 @@
       <c r="Y313" s="24"/>
       <c r="Z313" s="24"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:26" ht="15">
       <c r="A314" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/substring-equal-number-0-1-2/","Substring with equal 0 1 and 2")</f>
         <v>Substring with equal 0 1 and 2</v>
@@ -13081,7 +12979,7 @@
       <c r="Y314" s="24"/>
       <c r="Z314" s="24"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:26" ht="15">
       <c r="A315" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-closest-points-to-origin/","K closest point from origin")</f>
         <v>K closest point from origin</v>
@@ -13114,7 +13012,7 @@
       <c r="Y315" s="24"/>
       <c r="Z315" s="24"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:26" ht="15">
       <c r="A316" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/maximum-consecutive-ones-or-zeros-in-a-binary-array/","Longest consecutive 1's")</f>
         <v>Longest consecutive 1's</v>
@@ -13147,7 +13045,7 @@
       <c r="Y316" s="24"/>
       <c r="Z316" s="24"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:26" ht="15">
       <c r="A317" s="45"/>
       <c r="B317" s="24"/>
       <c r="C317" s="24"/>
@@ -13175,7 +13073,7 @@
       <c r="Y317" s="24"/>
       <c r="Z317" s="24"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:26" ht="15">
       <c r="A318" s="77" t="s">
         <v>386</v>
       </c>
@@ -13205,7 +13103,7 @@
       <c r="Y318" s="24"/>
       <c r="Z318" s="24"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:26" ht="15">
       <c r="A319" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-number-of-refueling-stops/","Minimum number of refueling spots")</f>
         <v>Minimum number of refueling spots</v>
@@ -13238,7 +13136,7 @@
       <c r="Y319" s="24"/>
       <c r="Z319" s="24"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:26" ht="15">
       <c r="A320" s="29" t="s">
         <v>388</v>
       </c>
@@ -13268,7 +13166,7 @@
       <c r="Y320" s="24"/>
       <c r="Z320" s="24"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:26" ht="15">
       <c r="A321" s="45" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/x-of-a-kind-in-a-deck-of-cards/","X of akind in a deck")</f>
         <v>X of akind in a deck</v>
@@ -13301,7 +13199,7 @@
       <c r="Y321" s="24"/>
       <c r="Z321" s="24"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:26" ht="15">
       <c r="A322" s="45" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-whether-arithmetic-progression-can-formed-given-array/","Check AP sequence")</f>
         <v>Check AP sequence</v>
@@ -13334,7 +13232,7 @@
       <c r="Y322" s="24"/>
       <c r="Z322" s="24"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:26" ht="15">
       <c r="A323" s="29"/>
       <c r="B323" s="24"/>
       <c r="C323" s="24"/>
@@ -13362,7 +13260,7 @@
       <c r="Y323" s="24"/>
       <c r="Z323" s="24"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:26" ht="15">
       <c r="A324" s="30" t="s">
         <v>391</v>
       </c>
@@ -13392,7 +13290,7 @@
       <c r="Y324" s="24"/>
       <c r="Z324" s="24"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:26" ht="15">
       <c r="A325" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/array-of-doubled-pairs/","Array of doubled Pair")</f>
         <v>Array of doubled Pair</v>
@@ -13425,7 +13323,7 @@
       <c r="Y325" s="24"/>
       <c r="Z325" s="24"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:26" ht="15">
       <c r="A326" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/rabbits-in-forest/","Rabbits in forest")</f>
         <v>Rabbits in forest</v>
@@ -13458,7 +13356,7 @@
       <c r="Y326" s="24"/>
       <c r="Z326" s="24"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:26" ht="15">
       <c r="A327" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/longest-consecutive-sequence/","Longest consecutive sequence")</f>
         <v>Longest consecutive sequence</v>
@@ -13491,7 +13389,7 @@
       <c r="Y327" s="24"/>
       <c r="Z327" s="24"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:26" ht="15">
       <c r="A328" s="29" t="s">
         <v>395</v>
       </c>
@@ -13523,7 +13421,7 @@
       <c r="Y328" s="24"/>
       <c r="Z328" s="24"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:26" ht="15">
       <c r="A329" s="29" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/morning-assembly/0","Morning Assembly")</f>
         <v>Morning Assembly</v>
@@ -13556,7 +13454,7 @@
       <c r="Y329" s="24"/>
       <c r="Z329" s="24"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:26" ht="15">
       <c r="A330" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/brick-wall/","Brick wall")</f>
         <v>Brick wall</v>
@@ -13587,7 +13485,7 @@
       <c r="Y330" s="24"/>
       <c r="Z330" s="24"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:26" ht="15">
       <c r="A331" s="30" t="s">
         <v>398</v>
       </c>
@@ -13617,7 +13515,7 @@
       <c r="Y331" s="24"/>
       <c r="Z331" s="24"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:26" ht="15">
       <c r="A332" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/grid-illumination/","Grid illumination")</f>
         <v>Grid illumination</v>
@@ -13650,7 +13548,7 @@
       <c r="Y332" s="24"/>
       <c r="Z332" s="24"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:26" ht="15">
       <c r="A333" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/island-perimeter/","Island perimeter")</f>
         <v>Island perimeter</v>
@@ -13683,7 +13581,7 @@
       <c r="Y333" s="24"/>
       <c r="Z333" s="24"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:26" ht="15">
       <c r="A334" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/bulb-switcher/","bulb switcher")</f>
         <v>bulb switcher</v>
@@ -13716,7 +13614,7 @@
       <c r="Y334" s="24"/>
       <c r="Z334" s="24"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:26" ht="15">
       <c r="A335" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/isomorphic-strings/","Isomorphic string")</f>
         <v>Isomorphic string</v>
@@ -13749,7 +13647,7 @@
       <c r="Y335" s="24"/>
       <c r="Z335" s="24"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:26" ht="15">
       <c r="A336" s="29" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/pairs-of-non-coinciding-points/0","Pairs of coinciding points")</f>
         <v>Pairs of coinciding points</v>
@@ -13782,7 +13680,7 @@
       <c r="Y336" s="24"/>
       <c r="Z336" s="24"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:26" ht="12.75">
       <c r="A337" s="24"/>
       <c r="B337" s="24"/>
       <c r="C337" s="24"/>
@@ -13810,7 +13708,7 @@
       <c r="Y337" s="24"/>
       <c r="Z337" s="24"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:26" ht="15">
       <c r="A338" s="30" t="s">
         <v>403</v>
       </c>
@@ -13840,7 +13738,7 @@
       <c r="Y338" s="24"/>
       <c r="Z338" s="24"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:26" ht="15">
       <c r="A339" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/trapping-rain-water/","trapping rain water")</f>
         <v>trapping rain water</v>
@@ -13873,7 +13771,7 @@
       <c r="Y339" s="24"/>
       <c r="Z339" s="24"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:26" ht="15">
       <c r="A340" s="26" t="s">
         <v>405</v>
       </c>
@@ -13905,7 +13803,7 @@
       <c r="Y340" s="24"/>
       <c r="Z340" s="24"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:26" ht="15">
       <c r="A341" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-pairs-in-array-whose-sum-is-divisible-by-k/","Count Pair whose sum is divisible by k")</f>
         <v>Count Pair whose sum is divisible by k</v>
@@ -13938,7 +13836,7 @@
       <c r="Y341" s="24"/>
       <c r="Z341" s="24"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:26" ht="15">
       <c r="A342" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-1/","length of largest subarray with continuous element")</f>
         <v>length of largest subarray with continuous element</v>
@@ -13971,7 +13869,7 @@
       <c r="Y342" s="24"/>
       <c r="Z342" s="24"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:26" ht="15">
       <c r="A343" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-2/","length of largest subarray with cont element 2")</f>
         <v>length of largest subarray with cont element 2</v>
@@ -14004,7 +13902,7 @@
       <c r="Y343" s="24"/>
       <c r="Z343" s="24"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:26" ht="15">
       <c r="A344" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-smallest-number-whose-digits-multiply-given-number-n/","smallest number whose digit mult to given no.")</f>
         <v>smallest number whose digit mult to given no.</v>
@@ -14037,7 +13935,7 @@
       <c r="Y344" s="24"/>
       <c r="Z344" s="24"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:26" ht="15">
       <c r="A345" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-if-frequency-of-all-characters-can-become-same-by-one-removal/","same frequency after one removal")</f>
         <v>same frequency after one removal</v>
@@ -14070,7 +13968,7 @@
       <c r="Y345" s="24"/>
       <c r="Z345" s="24"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:26" ht="15">
       <c r="A346" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/insert-delete-getrandom-o1/","Insert Delete GetRandom O(1)")</f>
         <v>Insert Delete GetRandom O(1)</v>
@@ -14103,7 +14001,7 @@
       <c r="Y346" s="24"/>
       <c r="Z346" s="24"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:26" ht="15">
       <c r="A347" s="29"/>
       <c r="B347" s="24"/>
       <c r="C347" s="24"/>
@@ -14131,7 +14029,7 @@
       <c r="Y347" s="24"/>
       <c r="Z347" s="24"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:26" ht="15">
       <c r="A348" s="30" t="s">
         <v>413</v>
       </c>
@@ -14161,7 +14059,7 @@
       <c r="Y348" s="24"/>
       <c r="Z348" s="24"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:26" ht="15">
       <c r="A349" s="40" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/","Insert delete get random duplicates allowed")</f>
         <v>Insert delete get random duplicates allowed</v>
@@ -14194,7 +14092,7 @@
       <c r="Y349" s="24"/>
       <c r="Z349" s="24"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:26" ht="15">
       <c r="A350" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/find-all-anagrams-in-a-string/","Find all anagrams in a string")</f>
         <v>Find all anagrams in a string</v>
@@ -14227,7 +14125,7 @@
       <c r="Y350" s="24"/>
       <c r="Z350" s="24"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:26" ht="15">
       <c r="A351" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-anagram-string-palindrome-not/","Anagram Pallindrome")</f>
         <v>Anagram Pallindrome</v>
@@ -14260,7 +14158,7 @@
       <c r="Y351" s="24"/>
       <c r="Z351" s="24"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:26" ht="15">
       <c r="A352" s="45" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-window-substring/","Find smallest size of string containing all char of other")</f>
         <v>Find smallest size of string containing all char of other</v>
@@ -14293,7 +14191,7 @@
       <c r="Y352" s="24"/>
       <c r="Z352" s="24"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:26" ht="15">
       <c r="A353" s="45" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/group-anagrams/","Group anagram")</f>
         <v>Group anagram</v>
@@ -14326,7 +14224,7 @@
       <c r="Y353" s="24"/>
       <c r="Z353" s="24"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:26" ht="15">
       <c r="A354" s="45" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-of-the-longest-substring-without-repeating-characters/","longest substring with unique character")</f>
         <v>longest substring with unique character</v>
@@ -14359,7 +14257,7 @@
       <c r="Y354" s="24"/>
       <c r="Z354" s="24"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:26" ht="15">
       <c r="A355" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/smallest-subarray-with-all-occurrences-of-a-most-frequent-element/","smallest subarray with all the occurence of MFE")</f>
         <v>smallest subarray with all the occurence of MFE</v>
@@ -14392,7 +14290,7 @@
       <c r="Y355" s="24"/>
       <c r="Z355" s="24"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:26" ht="15">
       <c r="A356" s="29" t="s">
         <v>421</v>
       </c>
@@ -14424,7 +14322,7 @@
       <c r="Y356" s="24"/>
       <c r="Z356" s="24"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:26" ht="15">
       <c r="A357" s="29" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-two-strings-k-anagrams-not/","K anagram")</f>
         <v>K anagram</v>
@@ -14457,7 +14355,7 @@
       <c r="Y357" s="24"/>
       <c r="Z357" s="24"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:26" ht="15">
       <c r="A358" s="29"/>
       <c r="B358" s="24"/>
       <c r="C358" s="24"/>
@@ -14485,7 +14383,7 @@
       <c r="Y358" s="24"/>
       <c r="Z358" s="24"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:26" ht="15">
       <c r="A359" s="30" t="s">
         <v>424</v>
       </c>
@@ -14515,7 +14413,7 @@
       <c r="Y359" s="24"/>
       <c r="Z359" s="24"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:26" ht="15">
       <c r="A360" s="78" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/","rearrange character string such that no two are same")</f>
         <v>rearrange character string such that no two are same</v>
@@ -14548,7 +14446,7 @@
       <c r="Y360" s="24"/>
       <c r="Z360" s="24"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:26" ht="15">
       <c r="A361" s="29" t="s">
         <v>426</v>
       </c>
@@ -14580,7 +14478,7 @@
       <c r="Y361" s="24"/>
       <c r="Z361" s="24"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:26" ht="15">
       <c r="A362" s="29" t="s">
         <v>427</v>
       </c>
@@ -14612,7 +14510,7 @@
       <c r="Y362" s="24"/>
       <c r="Z362" s="24"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:26" ht="15">
       <c r="A363" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/","Kth smallest element in sorted 2d matrix")</f>
         <v>Kth smallest element in sorted 2d matrix</v>
@@ -14645,7 +14543,7 @@
       <c r="Y363" s="24"/>
       <c r="Z363" s="24"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:26" ht="15">
       <c r="A364" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-th-smallest-prime-fraction/","Kth smallest prime fraction")</f>
         <v>Kth smallest prime fraction</v>
@@ -14678,7 +14576,7 @@
       <c r="Y364" s="24"/>
       <c r="Z364" s="24"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:26" ht="15">
       <c r="A365" s="29" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/employee-free-time/","Employee Free time")</f>
         <v>Employee Free time</v>
@@ -14711,7 +14609,7 @@
       <c r="Y365" s="24"/>
       <c r="Z365" s="24"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:26" ht="12.75">
       <c r="A366" s="24"/>
       <c r="B366" s="24"/>
       <c r="C366" s="24"/>
@@ -14739,7 +14637,7 @@
       <c r="Y366" s="24"/>
       <c r="Z366" s="24"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:26" ht="18.75">
       <c r="A367" s="79" t="s">
         <v>17</v>
       </c>
@@ -14769,7 +14667,7 @@
       <c r="Y367" s="4"/>
       <c r="Z367" s="4"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:26" ht="15">
       <c r="A368" s="23" t="s">
         <v>430</v>
       </c>
@@ -14799,7 +14697,7 @@
       <c r="Y368" s="36"/>
       <c r="Z368" s="36"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:26" ht="15">
       <c r="A369" s="65" t="s">
         <v>431</v>
       </c>
@@ -14829,7 +14727,7 @@
       <c r="Y369" s="24"/>
       <c r="Z369" s="24"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:26" ht="15">
       <c r="A370" s="80" t="s">
         <v>432</v>
       </c>
@@ -14859,7 +14757,7 @@
       <c r="Y370" s="24"/>
       <c r="Z370" s="24"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:26" ht="15">
       <c r="A371" s="80" t="s">
         <v>433</v>
       </c>
@@ -14889,7 +14787,7 @@
       <c r="Y371" s="24"/>
       <c r="Z371" s="24"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:26" ht="15">
       <c r="A372" s="64" t="s">
         <v>434</v>
       </c>
@@ -14919,7 +14817,7 @@
       <c r="Y372" s="24"/>
       <c r="Z372" s="24"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:26" ht="15">
       <c r="A373" s="64" t="s">
         <v>435</v>
       </c>
@@ -14949,7 +14847,7 @@
       <c r="Y373" s="24"/>
       <c r="Z373" s="24"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:26" ht="15">
       <c r="A374" s="64" t="s">
         <v>436</v>
       </c>
@@ -14979,7 +14877,7 @@
       <c r="Y374" s="24"/>
       <c r="Z374" s="24"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:26" ht="15">
       <c r="A375" s="64" t="s">
         <v>437</v>
       </c>
@@ -15009,7 +14907,7 @@
       <c r="Y375" s="24"/>
       <c r="Z375" s="24"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:26" ht="15">
       <c r="A376" s="64" t="s">
         <v>438</v>
       </c>
@@ -15039,7 +14937,7 @@
       <c r="Y376" s="24"/>
       <c r="Z376" s="24"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:26" ht="15">
       <c r="A377" s="58" t="s">
         <v>439</v>
       </c>
@@ -15069,7 +14967,7 @@
       <c r="Y377" s="24"/>
       <c r="Z377" s="24"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:26" ht="15">
       <c r="A378" s="65" t="s">
         <v>440</v>
       </c>
@@ -15099,7 +14997,7 @@
       <c r="Y378" s="24"/>
       <c r="Z378" s="24"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:26" ht="15">
       <c r="A379" s="64" t="s">
         <v>441</v>
       </c>
@@ -15129,7 +15027,7 @@
       <c r="Y379" s="24"/>
       <c r="Z379" s="24"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:26" ht="15">
       <c r="A380" s="81" t="s">
         <v>442</v>
       </c>
@@ -15159,7 +15057,7 @@
       <c r="Y380" s="24"/>
       <c r="Z380" s="24"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:26" ht="15">
       <c r="A381" s="64" t="s">
         <v>443</v>
       </c>
@@ -15189,7 +15087,7 @@
       <c r="Y381" s="24"/>
       <c r="Z381" s="24"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:26" ht="15">
       <c r="A382" s="64" t="s">
         <v>444</v>
       </c>
@@ -15219,7 +15117,7 @@
       <c r="Y382" s="24"/>
       <c r="Z382" s="24"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:26" ht="15">
       <c r="A383" s="64" t="s">
         <v>445</v>
       </c>
@@ -15249,7 +15147,7 @@
       <c r="Y383" s="24"/>
       <c r="Z383" s="24"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:26" ht="15">
       <c r="A384" s="64" t="s">
         <v>446</v>
       </c>
@@ -15279,7 +15177,7 @@
       <c r="Y384" s="24"/>
       <c r="Z384" s="24"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:26" ht="15">
       <c r="A385" s="64" t="s">
         <v>447</v>
       </c>
@@ -15309,7 +15207,7 @@
       <c r="Y385" s="24"/>
       <c r="Z385" s="24"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:26" ht="15">
       <c r="A386" s="58" t="s">
         <v>448</v>
       </c>
@@ -15339,7 +15237,7 @@
       <c r="Y386" s="24"/>
       <c r="Z386" s="24"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:26" ht="15">
       <c r="A387" s="65" t="s">
         <v>449</v>
       </c>
@@ -15369,7 +15267,7 @@
       <c r="Y387" s="24"/>
       <c r="Z387" s="24"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:26" ht="15">
       <c r="A388" s="64" t="s">
         <v>450</v>
       </c>
@@ -15399,7 +15297,7 @@
       <c r="Y388" s="24"/>
       <c r="Z388" s="24"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:26" ht="15">
       <c r="A389" s="64" t="s">
         <v>451</v>
       </c>
@@ -15429,7 +15327,7 @@
       <c r="Y389" s="24"/>
       <c r="Z389" s="24"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:26" ht="15">
       <c r="A390" s="64" t="s">
         <v>452</v>
       </c>
@@ -15459,7 +15357,7 @@
       <c r="Y390" s="24"/>
       <c r="Z390" s="24"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:26" ht="15">
       <c r="A391" s="64" t="s">
         <v>453</v>
       </c>
@@ -15489,7 +15387,7 @@
       <c r="Y391" s="24"/>
       <c r="Z391" s="24"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:26" ht="15">
       <c r="A392" s="64" t="s">
         <v>454</v>
       </c>
@@ -15519,7 +15417,7 @@
       <c r="Y392" s="24"/>
       <c r="Z392" s="24"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:26" ht="15">
       <c r="A393" s="64" t="s">
         <v>455</v>
       </c>
@@ -15549,7 +15447,7 @@
       <c r="Y393" s="24"/>
       <c r="Z393" s="24"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:26" ht="15">
       <c r="A394" s="64" t="s">
         <v>456</v>
       </c>
@@ -15579,7 +15477,7 @@
       <c r="Y394" s="24"/>
       <c r="Z394" s="24"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:26" ht="15">
       <c r="A395" s="58" t="s">
         <v>457</v>
       </c>
@@ -15609,7 +15507,7 @@
       <c r="Y395" s="24"/>
       <c r="Z395" s="24"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:26" ht="15">
       <c r="A396" s="65" t="s">
         <v>458</v>
       </c>
@@ -15639,7 +15537,7 @@
       <c r="Y396" s="24"/>
       <c r="Z396" s="24"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:26" ht="15">
       <c r="A397" s="64" t="s">
         <v>459</v>
       </c>
@@ -15669,7 +15567,7 @@
       <c r="Y397" s="24"/>
       <c r="Z397" s="24"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:26" ht="15">
       <c r="A398" s="64" t="s">
         <v>460</v>
       </c>
@@ -15699,7 +15597,7 @@
       <c r="Y398" s="24"/>
       <c r="Z398" s="24"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:26" ht="15">
       <c r="A399" s="64" t="s">
         <v>461</v>
       </c>
@@ -15729,7 +15627,7 @@
       <c r="Y399" s="24"/>
       <c r="Z399" s="24"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:26" ht="15">
       <c r="A400" s="64" t="s">
         <v>462</v>
       </c>
@@ -15759,7 +15657,7 @@
       <c r="Y400" s="24"/>
       <c r="Z400" s="24"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:26" ht="15">
       <c r="A401" s="64" t="s">
         <v>463</v>
       </c>
@@ -15789,7 +15687,7 @@
       <c r="Y401" s="24"/>
       <c r="Z401" s="24"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:26" ht="15">
       <c r="A402" s="58" t="s">
         <v>464</v>
       </c>
@@ -15819,7 +15717,7 @@
       <c r="Y402" s="24"/>
       <c r="Z402" s="24"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:26" ht="15">
       <c r="A403" s="65" t="s">
         <v>465</v>
       </c>
@@ -15849,7 +15747,7 @@
       <c r="Y403" s="24"/>
       <c r="Z403" s="24"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:26" ht="15">
       <c r="A404" s="64" t="s">
         <v>466</v>
       </c>
@@ -15879,7 +15777,7 @@
       <c r="Y404" s="24"/>
       <c r="Z404" s="24"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:26" ht="15">
       <c r="A405" s="64" t="s">
         <v>467</v>
       </c>
@@ -15909,7 +15807,7 @@
       <c r="Y405" s="24"/>
       <c r="Z405" s="24"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:26" ht="15">
       <c r="A406" s="64" t="s">
         <v>468</v>
       </c>
@@ -15939,7 +15837,7 @@
       <c r="Y406" s="24"/>
       <c r="Z406" s="24"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:26" ht="15">
       <c r="A407" s="64" t="s">
         <v>469</v>
       </c>
@@ -15969,7 +15867,7 @@
       <c r="Y407" s="24"/>
       <c r="Z407" s="24"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:26" ht="18.75">
       <c r="A408" s="68" t="s">
         <v>23</v>
       </c>
@@ -15999,7 +15897,7 @@
       <c r="Y408" s="4"/>
       <c r="Z408" s="4"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:26" ht="15">
       <c r="A409" s="23" t="s">
         <v>470</v>
       </c>
@@ -16029,7 +15927,7 @@
       <c r="Y409" s="24"/>
       <c r="Z409" s="24"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:26" ht="15">
       <c r="A410" s="65" t="s">
         <v>471</v>
       </c>
@@ -16059,7 +15957,7 @@
       <c r="Y410" s="24"/>
       <c r="Z410" s="24"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:26" ht="15">
       <c r="A411" s="64" t="s">
         <v>472</v>
       </c>
@@ -16089,7 +15987,7 @@
       <c r="Y411" s="24"/>
       <c r="Z411" s="24"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:26" ht="15">
       <c r="A412" s="64" t="s">
         <v>473</v>
       </c>
@@ -16119,7 +16017,7 @@
       <c r="Y412" s="24"/>
       <c r="Z412" s="24"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:26" ht="15">
       <c r="A413" s="64" t="s">
         <v>474</v>
       </c>
@@ -16149,7 +16047,7 @@
       <c r="Y413" s="24"/>
       <c r="Z413" s="24"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:26" ht="15">
       <c r="A414" s="64" t="s">
         <v>475</v>
       </c>
@@ -16179,7 +16077,7 @@
       <c r="Y414" s="24"/>
       <c r="Z414" s="24"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:26" ht="15">
       <c r="A415" s="58" t="s">
         <v>476</v>
       </c>
@@ -16209,7 +16107,7 @@
       <c r="Y415" s="24"/>
       <c r="Z415" s="24"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:26" ht="15">
       <c r="A416" s="65" t="s">
         <v>477</v>
       </c>
@@ -16239,7 +16137,7 @@
       <c r="Y416" s="24"/>
       <c r="Z416" s="24"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:26" ht="15">
       <c r="A417" s="64" t="s">
         <v>478</v>
       </c>
@@ -16269,7 +16167,7 @@
       <c r="Y417" s="24"/>
       <c r="Z417" s="24"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:26" ht="15">
       <c r="A418" s="64" t="s">
         <v>479</v>
       </c>
@@ -16299,7 +16197,7 @@
       <c r="Y418" s="24"/>
       <c r="Z418" s="24"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:26" ht="15">
       <c r="A419" s="64" t="s">
         <v>480</v>
       </c>
@@ -16329,7 +16227,7 @@
       <c r="Y419" s="24"/>
       <c r="Z419" s="24"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:26" ht="15">
       <c r="A420" s="58" t="s">
         <v>481</v>
       </c>
@@ -16359,7 +16257,7 @@
       <c r="Y420" s="24"/>
       <c r="Z420" s="24"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:26" ht="15">
       <c r="A421" s="65" t="s">
         <v>482</v>
       </c>
@@ -16389,7 +16287,7 @@
       <c r="Y421" s="24"/>
       <c r="Z421" s="24"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:26" ht="15">
       <c r="A422" s="64" t="s">
         <v>483</v>
       </c>
@@ -16419,7 +16317,7 @@
       <c r="Y422" s="24"/>
       <c r="Z422" s="24"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:26" ht="15">
       <c r="A423" s="64" t="s">
         <v>484</v>
       </c>
@@ -16449,7 +16347,7 @@
       <c r="Y423" s="24"/>
       <c r="Z423" s="24"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:26" ht="15">
       <c r="A424" s="64" t="s">
         <v>485</v>
       </c>
@@ -16479,7 +16377,7 @@
       <c r="Y424" s="24"/>
       <c r="Z424" s="24"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:26" ht="15">
       <c r="A425" s="64" t="s">
         <v>486</v>
       </c>
@@ -16509,7 +16407,7 @@
       <c r="Y425" s="24"/>
       <c r="Z425" s="24"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:26" ht="15">
       <c r="A426" s="58" t="s">
         <v>487</v>
       </c>
@@ -16539,7 +16437,7 @@
       <c r="Y426" s="24"/>
       <c r="Z426" s="24"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:26" ht="15">
       <c r="A427" s="65" t="s">
         <v>488</v>
       </c>
@@ -16569,7 +16467,7 @@
       <c r="Y427" s="24"/>
       <c r="Z427" s="24"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:26" ht="15">
       <c r="A428" s="64" t="s">
         <v>489</v>
       </c>
@@ -16599,7 +16497,7 @@
       <c r="Y428" s="24"/>
       <c r="Z428" s="24"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:26" ht="15">
       <c r="A429" s="64" t="s">
         <v>490</v>
       </c>
@@ -16629,7 +16527,7 @@
       <c r="Y429" s="24"/>
       <c r="Z429" s="24"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:26" ht="15">
       <c r="A430" s="64" t="s">
         <v>491</v>
       </c>
@@ -16659,7 +16557,7 @@
       <c r="Y430" s="24"/>
       <c r="Z430" s="24"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:26" ht="15">
       <c r="A431" s="64" t="s">
         <v>492</v>
       </c>
@@ -16689,7 +16587,7 @@
       <c r="Y431" s="24"/>
       <c r="Z431" s="24"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:26" ht="12.75">
       <c r="A432" s="24"/>
       <c r="B432" s="24"/>
       <c r="C432" s="24"/>
@@ -16717,7 +16615,7 @@
       <c r="Y432" s="24"/>
       <c r="Z432" s="24"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:26" ht="18.75">
       <c r="A433" s="53" t="s">
         <v>20</v>
       </c>
@@ -16747,7 +16645,7 @@
       <c r="Y433" s="4"/>
       <c r="Z433" s="4"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:26" ht="15">
       <c r="A434" s="23" t="s">
         <v>493</v>
       </c>
@@ -16777,7 +16675,7 @@
       <c r="Y434" s="24"/>
       <c r="Z434" s="24"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:26" ht="12.75">
       <c r="A435" s="82" t="s">
         <v>494</v>
       </c>
@@ -16809,7 +16707,7 @@
       <c r="Y435" s="24"/>
       <c r="Z435" s="24"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:26" ht="12.75">
       <c r="A436" s="72" t="s">
         <v>494</v>
       </c>
@@ -16841,7 +16739,7 @@
       <c r="Y436" s="24"/>
       <c r="Z436" s="24"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:26" ht="12.75">
       <c r="A437" s="72" t="s">
         <v>497</v>
       </c>
@@ -16873,7 +16771,7 @@
       <c r="Y437" s="24"/>
       <c r="Z437" s="24"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:26" ht="15">
       <c r="A438" s="61" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/russian-doll-envelopes/","Russian doll envelopes")</f>
         <v>Russian doll envelopes</v>
@@ -16906,7 +16804,7 @@
       <c r="Y438" s="24"/>
       <c r="Z438" s="24"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:26" ht="15">
       <c r="A439" s="45" t="s">
         <v>500</v>
       </c>
@@ -16938,7 +16836,7 @@
       <c r="Y439" s="24"/>
       <c r="Z439" s="24"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:26" ht="15">
       <c r="A440" s="29" t="s">
         <v>502</v>
       </c>
@@ -16970,7 +16868,7 @@
       <c r="Y440" s="24"/>
       <c r="Z440" s="24"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:26" ht="12.75">
       <c r="A441" s="72" t="s">
         <v>504</v>
       </c>
@@ -17002,7 +16900,7 @@
       <c r="Y441" s="24"/>
       <c r="Z441" s="24"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:26" ht="15">
       <c r="A442" s="58" t="s">
         <v>506</v>
       </c>
@@ -17032,7 +16930,7 @@
       <c r="Y442" s="24"/>
       <c r="Z442" s="24"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:26" ht="15">
       <c r="A443" s="45" t="s">
         <v>507</v>
       </c>
@@ -17064,7 +16962,7 @@
       <c r="Y443" s="24"/>
       <c r="Z443" s="24"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:26" ht="15">
       <c r="A444" s="45" t="s">
         <v>508</v>
       </c>
@@ -17096,7 +16994,7 @@
       <c r="Y444" s="24"/>
       <c r="Z444" s="24"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:26" ht="15">
       <c r="A445" s="45" t="s">
         <v>509</v>
       </c>
@@ -17128,7 +17026,7 @@
       <c r="Y445" s="24"/>
       <c r="Z445" s="24"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:26" ht="15">
       <c r="A446" s="29" t="s">
         <v>510</v>
       </c>
@@ -17160,7 +17058,7 @@
       <c r="Y446" s="24"/>
       <c r="Z446" s="24"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:26" ht="15">
       <c r="A447" s="29" t="s">
         <v>512</v>
       </c>
@@ -17190,7 +17088,7 @@
       <c r="Y447" s="24"/>
       <c r="Z447" s="24"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:26" ht="15">
       <c r="A448" s="83" t="s">
         <v>513</v>
       </c>
@@ -17220,7 +17118,7 @@
       <c r="Y448" s="24"/>
       <c r="Z448" s="24"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:26" ht="14.25">
       <c r="A449" s="59" t="s">
         <v>514</v>
       </c>
@@ -17252,7 +17150,7 @@
       <c r="Y449" s="24"/>
       <c r="Z449" s="24"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:26" ht="14.25">
       <c r="A450" s="59" t="s">
         <v>516</v>
       </c>
@@ -17282,7 +17180,7 @@
       <c r="Y450" s="24"/>
       <c r="Z450" s="24"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:26" ht="15">
       <c r="A451" s="61" t="s">
         <v>517</v>
       </c>
@@ -17314,7 +17212,7 @@
       <c r="Y451" s="24"/>
       <c r="Z451" s="24"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:26" ht="14.25">
       <c r="A452" s="59" t="s">
         <v>519</v>
       </c>
@@ -17346,7 +17244,7 @@
       <c r="Y452" s="24"/>
       <c r="Z452" s="24"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:26" ht="15">
       <c r="A453" s="58" t="s">
         <v>520</v>
       </c>
@@ -17376,7 +17274,7 @@
       <c r="Y453" s="24"/>
       <c r="Z453" s="24"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:26" ht="15">
       <c r="A454" s="40" t="s">
         <v>521</v>
       </c>
@@ -17406,7 +17304,7 @@
       <c r="Y454" s="24"/>
       <c r="Z454" s="24"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:26" ht="15">
       <c r="A455" s="61" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock/","best time to buy and sell stock")</f>
         <v>best time to buy and sell stock</v>
@@ -17439,7 +17337,7 @@
       <c r="Y455" s="24"/>
       <c r="Z455" s="24"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:26" ht="15">
       <c r="A456" s="61" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/","best time to buy and sell 2")</f>
         <v>best time to buy and sell 2</v>
@@ -17472,7 +17370,7 @@
       <c r="Y456" s="24"/>
       <c r="Z456" s="24"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:26" ht="15">
       <c r="A457" s="45" t="s">
         <v>524</v>
       </c>
@@ -17504,7 +17402,7 @@
       <c r="Y457" s="24"/>
       <c r="Z457" s="24"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:26" ht="15">
       <c r="A458" s="61" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/","best time to buy and sell with cool down")</f>
         <v>best time to buy and sell with cool down</v>
@@ -17537,7 +17435,7 @@
       <c r="Y458" s="24"/>
       <c r="Z458" s="24"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:26" ht="15">
       <c r="A459" s="61" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/","best time to buy and sell 3")</f>
         <v>best time to buy and sell 3</v>
@@ -17570,7 +17468,7 @@
       <c r="Y459" s="24"/>
       <c r="Z459" s="24"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:26" ht="15">
       <c r="A460" s="61" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/","best time to but and sell 4")</f>
         <v>best time to but and sell 4</v>
@@ -17603,7 +17501,7 @@
       <c r="Y460" s="24"/>
       <c r="Z460" s="24"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:26" ht="14.25">
       <c r="A461" s="59" t="s">
         <v>529</v>
       </c>
@@ -17635,7 +17533,7 @@
       <c r="Y461" s="24"/>
       <c r="Z461" s="24"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:26" ht="15">
       <c r="A462" s="58" t="s">
         <v>531</v>
       </c>
@@ -17665,7 +17563,7 @@
       <c r="Y462" s="24"/>
       <c r="Z462" s="24"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:26" ht="14.25">
       <c r="A463" s="25" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/burst-balloons/","burst balloons")</f>
         <v>burst balloons</v>
@@ -17698,7 +17596,7 @@
       <c r="Y463" s="24"/>
       <c r="Z463" s="24"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:26" ht="14.25">
       <c r="A464" s="49" t="s">
         <v>533</v>
       </c>
@@ -17730,7 +17628,7 @@
       <c r="Y464" s="24"/>
       <c r="Z464" s="24"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:26" ht="14.25">
       <c r="A465" s="59" t="s">
         <v>535</v>
       </c>
@@ -17762,7 +17660,7 @@
       <c r="Y465" s="24"/>
       <c r="Z465" s="24"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:26" ht="14.25">
       <c r="A466" s="59" t="s">
         <v>536</v>
       </c>
@@ -17794,7 +17692,7 @@
       <c r="Y466" s="24"/>
       <c r="Z466" s="24"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:26" ht="14.25">
       <c r="A467" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-score-triangulation-of-polygon/","Minimum score triangulation")</f>
         <v>Minimum score triangulation</v>
@@ -17827,7 +17725,7 @@
       <c r="Y467" s="24"/>
       <c r="Z467" s="24"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:26" ht="14.25">
       <c r="A468" s="49" t="s">
         <v>539</v>
       </c>
@@ -17859,7 +17757,7 @@
       <c r="Y468" s="24"/>
       <c r="Z468" s="24"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:26" ht="15">
       <c r="A469" s="58" t="s">
         <v>541</v>
       </c>
@@ -17889,7 +17787,7 @@
       <c r="Y469" s="24"/>
       <c r="Z469" s="24"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:26" ht="14.25">
       <c r="A470" s="25" t="s">
         <v>542</v>
       </c>
@@ -17921,7 +17819,7 @@
       <c r="Y470" s="24"/>
       <c r="Z470" s="24"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:26" ht="14.25">
       <c r="A471" s="59" t="s">
         <v>544</v>
       </c>
@@ -17953,7 +17851,7 @@
       <c r="Y471" s="24"/>
       <c r="Z471" s="24"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:26" ht="14.25">
       <c r="A472" s="59" t="s">
         <v>545</v>
       </c>
@@ -17985,7 +17883,7 @@
       <c r="Y472" s="24"/>
       <c r="Z472" s="24"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:26" ht="14.25">
       <c r="A473" s="59" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-palindromic-subsequence-given-string/","Count all pallindromic subsequence")</f>
         <v>Count all pallindromic subsequence</v>
@@ -18016,7 +17914,7 @@
       <c r="Y473" s="24"/>
       <c r="Z473" s="24"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:26" ht="14.25">
       <c r="A474" s="59" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/count-different-palindromic-subsequences/","Count distinct pallindromic subsequence")</f>
         <v>Count distinct pallindromic subsequence</v>
@@ -18047,7 +17945,7 @@
       <c r="Y474" s="24"/>
       <c r="Z474" s="24"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:26" ht="15">
       <c r="A475" s="45" t="s">
         <v>547</v>
       </c>
@@ -18077,7 +17975,7 @@
       <c r="Y475" s="24"/>
       <c r="Z475" s="24"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:26" ht="14.25">
       <c r="A476" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/number-subsequences-form-ai-bj-ck/","No. of sequence of type a^i+b^j+c^k")</f>
         <v>No. of sequence of type a^i+b^j+c^k</v>
@@ -18110,7 +18008,7 @@
       <c r="Y476" s="24"/>
       <c r="Z476" s="24"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:26" ht="15">
       <c r="A477" s="29" t="s">
         <v>549</v>
       </c>
@@ -18140,7 +18038,7 @@
       <c r="Y477" s="24"/>
       <c r="Z477" s="24"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:26" ht="15">
       <c r="A478" s="58" t="s">
         <v>550</v>
       </c>
@@ -18170,7 +18068,7 @@
       <c r="Y478" s="24"/>
       <c r="Z478" s="24"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:26" ht="14.25">
       <c r="A479" s="25" t="s">
         <v>551</v>
       </c>
@@ -18202,7 +18100,7 @@
       <c r="Y479" s="24"/>
       <c r="Z479" s="24"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:26" ht="14.25">
       <c r="A480" s="59" t="s">
         <v>552</v>
       </c>
@@ -18232,7 +18130,7 @@
       <c r="Y480" s="24"/>
       <c r="Z480" s="24"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:26" ht="14.25">
       <c r="A481" s="59" t="s">
         <v>553</v>
       </c>
@@ -18262,7 +18160,7 @@
       <c r="Y481" s="24"/>
       <c r="Z481" s="24"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:26" ht="14.25">
       <c r="A482" s="59" t="s">
         <v>554</v>
       </c>
@@ -18292,7 +18190,7 @@
       <c r="Y482" s="24"/>
       <c r="Z482" s="24"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:26" ht="14.25">
       <c r="A483" s="49" t="s">
         <v>555</v>
       </c>
@@ -18322,7 +18220,7 @@
       <c r="Y483" s="24"/>
       <c r="Z483" s="24"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:26" ht="14.25">
       <c r="A484" s="84" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/super-ugly-number-number-whose-prime-factors-given-set/","Super ugly number")</f>
         <v>Super ugly number</v>
@@ -18355,7 +18253,7 @@
       <c r="Y484" s="24"/>
       <c r="Z484" s="24"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:26" ht="12.75">
       <c r="A485" s="85" t="s">
         <v>557</v>
       </c>
@@ -18385,7 +18283,7 @@
       <c r="Y485" s="24"/>
       <c r="Z485" s="24"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:26" ht="14.25">
       <c r="A486" s="49" t="s">
         <v>558</v>
       </c>
@@ -18417,7 +18315,7 @@
       <c r="Y486" s="24"/>
       <c r="Z486" s="24"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:26" ht="15">
       <c r="A487" s="58" t="s">
         <v>560</v>
       </c>
@@ -18447,7 +18345,7 @@
       <c r="Y487" s="24"/>
       <c r="Z487" s="24"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:26" ht="14.25">
       <c r="A488" s="25" t="s">
         <v>561</v>
       </c>
@@ -18477,7 +18375,7 @@
       <c r="Y488" s="24"/>
       <c r="Z488" s="24"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:26" ht="15">
       <c r="A489" s="29" t="s">
         <v>562</v>
       </c>
@@ -18507,7 +18405,7 @@
       <c r="Y489" s="24"/>
       <c r="Z489" s="24"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:26" ht="14.25">
       <c r="A490" s="49" t="s">
         <v>563</v>
       </c>
@@ -18537,7 +18435,7 @@
       <c r="Y490" s="24"/>
       <c r="Z490" s="24"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:26" ht="15">
       <c r="A491" s="29" t="s">
         <v>564</v>
       </c>
@@ -18567,7 +18465,7 @@
       <c r="Y491" s="24"/>
       <c r="Z491" s="24"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:26" ht="15">
       <c r="A492" s="29" t="s">
         <v>565</v>
       </c>
@@ -18597,7 +18495,7 @@
       <c r="Y492" s="24"/>
       <c r="Z492" s="24"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:26" ht="15">
       <c r="A493" s="29" t="s">
         <v>566</v>
       </c>
@@ -18627,7 +18525,7 @@
       <c r="Y493" s="24"/>
       <c r="Z493" s="24"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:26" ht="15">
       <c r="A494" s="58" t="s">
         <v>567</v>
       </c>
@@ -18657,7 +18555,7 @@
       <c r="Y494" s="24"/>
       <c r="Z494" s="24"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:26" ht="15">
       <c r="A495" s="40" t="s">
         <v>568</v>
       </c>
@@ -18687,7 +18585,7 @@
       <c r="Y495" s="24"/>
       <c r="Z495" s="24"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:26" ht="15">
       <c r="A496" s="29" t="s">
         <v>569</v>
       </c>
@@ -18717,7 +18615,7 @@
       <c r="Y496" s="24"/>
       <c r="Z496" s="24"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:26" ht="15">
       <c r="A497" s="29" t="s">
         <v>570</v>
       </c>
@@ -18747,7 +18645,7 @@
       <c r="Y497" s="24"/>
       <c r="Z497" s="24"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:26" ht="15">
       <c r="A498" s="29" t="s">
         <v>571</v>
       </c>
@@ -18777,7 +18675,7 @@
       <c r="Y498" s="24"/>
       <c r="Z498" s="24"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:26" ht="14.25">
       <c r="A499" s="49" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/scramble-string/","Scramble string")</f>
         <v>Scramble string</v>
@@ -18810,7 +18708,7 @@
       <c r="Y499" s="24"/>
       <c r="Z499" s="24"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:26" ht="15">
       <c r="A500" s="29" t="s">
         <v>573</v>
       </c>
@@ -18840,7 +18738,7 @@
       <c r="Y500" s="24"/>
       <c r="Z500" s="24"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:26" ht="15">
       <c r="A501" s="29" t="s">
         <v>574</v>
       </c>
@@ -18870,7 +18768,7 @@
       <c r="Y501" s="24"/>
       <c r="Z501" s="24"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:26" ht="15">
       <c r="A502" s="58" t="s">
         <v>575</v>
       </c>
@@ -18900,7 +18798,7 @@
       <c r="Y502" s="24"/>
       <c r="Z502" s="24"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:26" ht="15">
       <c r="A503" s="40" t="s">
         <v>576</v>
       </c>
@@ -18930,7 +18828,7 @@
       <c r="Y503" s="24"/>
       <c r="Z503" s="24"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:26" ht="15">
       <c r="A504" s="29" t="s">
         <v>577</v>
       </c>
@@ -18960,7 +18858,7 @@
       <c r="Y504" s="24"/>
       <c r="Z504" s="24"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:26" ht="15">
       <c r="A505" s="29" t="s">
         <v>578</v>
       </c>
@@ -18990,7 +18888,7 @@
       <c r="Y505" s="24"/>
       <c r="Z505" s="24"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:26" ht="14.25">
       <c r="A506" s="59" t="s">
         <v>579</v>
       </c>
@@ -19022,7 +18920,7 @@
       <c r="Y506" s="24"/>
       <c r="Z506" s="24"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:26" ht="15">
       <c r="A507" s="45" t="s">
         <v>580</v>
       </c>
@@ -19052,7 +18950,7 @@
       <c r="Y507" s="24"/>
       <c r="Z507" s="24"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:26" ht="15">
       <c r="A508" s="86" t="s">
         <v>581</v>
       </c>
@@ -19082,7 +18980,7 @@
       <c r="Y508" s="21"/>
       <c r="Z508" s="21"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:26" ht="15">
       <c r="A509" s="23" t="s">
         <v>582</v>
       </c>
@@ -19112,7 +19010,7 @@
       <c r="Y509" s="36"/>
       <c r="Z509" s="36"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:26" ht="15">
       <c r="A510" s="25" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/NAJPF/","KMP")</f>
         <v>KMP</v>
@@ -19145,7 +19043,7 @@
       <c r="Y510" s="24"/>
       <c r="Z510" s="24"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:26" ht="15">
       <c r="A511" s="49" t="s">
         <v>584</v>
       </c>
@@ -19177,7 +19075,7 @@
       <c r="Y511" s="24"/>
       <c r="Z511" s="24"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:26" ht="15">
       <c r="A512" s="26" t="s">
         <v>586</v>
       </c>
@@ -19209,7 +19107,7 @@
       <c r="Y512" s="24"/>
       <c r="Z512" s="24"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:26" ht="14.25">
       <c r="A513" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/z-algorithm-linear-time-pattern-searching-algorithm/","Z algo")</f>
         <v>Z algo</v>
@@ -19242,7 +19140,7 @@
       <c r="Y513" s="24"/>
       <c r="Z513" s="24"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:26" ht="14.25">
       <c r="A514" s="49" t="str">
         <f>HYPERLINK("https://www.codechef.com/COOK103B/problems/SECPASS","chef and secret password")</f>
         <v>chef and secret password</v>
@@ -19275,7 +19173,7 @@
       <c r="Y514" s="24"/>
       <c r="Z514" s="24"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:26" ht="14.25">
       <c r="A515" s="49" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/manachers-algorithm-linear-time-longest-palindromic-substring-part-1/","Manacher's algo")</f>
         <v>Manacher's algo</v>
@@ -19308,7 +19206,7 @@
       <c r="Y515" s="24"/>
       <c r="Z515" s="24"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:26" ht="15">
       <c r="A516" s="30" t="s">
         <v>591</v>
       </c>
@@ -19338,7 +19236,7 @@
       <c r="Y516" s="24"/>
       <c r="Z516" s="24"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:26" ht="14.25">
       <c r="A517" s="87" t="s">
         <v>592</v>
       </c>
@@ -19370,7 +19268,7 @@
       <c r="Y517" s="24"/>
       <c r="Z517" s="24"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:26" ht="15">
       <c r="A518" s="71" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/scramble-string/","Scramble string")</f>
         <v>Scramble string</v>
@@ -19403,7 +19301,7 @@
       <c r="Y518" s="24"/>
       <c r="Z518" s="24"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:26" ht="15">
       <c r="A519" s="88" t="s">
         <v>594</v>
       </c>
@@ -19433,7 +19331,7 @@
       <c r="Y519" s="24"/>
       <c r="Z519" s="24"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:26" ht="14.25">
       <c r="A520" s="49" t="s">
         <v>595</v>
       </c>
@@ -19463,7 +19361,7 @@
       <c r="Y520" s="24"/>
       <c r="Z520" s="24"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:26" ht="14.25">
       <c r="A521" s="49" t="s">
         <v>596</v>
       </c>
@@ -19495,7 +19393,7 @@
       <c r="Y521" s="24"/>
       <c r="Z521" s="24"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:26" ht="18">
       <c r="A522" s="89" t="s">
         <v>24</v>
       </c>
@@ -19525,7 +19423,7 @@
       <c r="Y522" s="4"/>
       <c r="Z522" s="4"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:26" ht="15">
       <c r="A523" s="23" t="s">
         <v>598</v>
       </c>
@@ -19555,7 +19453,7 @@
       <c r="Y523" s="24"/>
       <c r="Z523" s="24"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:26" ht="14.25">
       <c r="A524" s="90" t="s">
         <v>599</v>
       </c>
@@ -19585,7 +19483,7 @@
       <c r="Y524" s="24"/>
       <c r="Z524" s="24"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:26" ht="14.25">
       <c r="A525" s="48" t="s">
         <v>600</v>
       </c>
@@ -19615,7 +19513,7 @@
       <c r="Y525" s="24"/>
       <c r="Z525" s="24"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:26" ht="15">
       <c r="A526" s="91" t="s">
         <v>601</v>
       </c>
@@ -19645,7 +19543,7 @@
       <c r="Y526" s="24"/>
       <c r="Z526" s="24"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:26" ht="15">
       <c r="A527" s="91" t="s">
         <v>602</v>
       </c>
@@ -19675,7 +19573,7 @@
       <c r="Y527" s="24"/>
       <c r="Z527" s="24"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:26" ht="14.25">
       <c r="A528" s="48" t="s">
         <v>603</v>
       </c>
@@ -19705,7 +19603,7 @@
       <c r="Y528" s="24"/>
       <c r="Z528" s="24"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:26" ht="15">
       <c r="A529" s="91" t="s">
         <v>604</v>
       </c>
@@ -19735,7 +19633,7 @@
       <c r="Y529" s="24"/>
       <c r="Z529" s="24"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:26" ht="15">
       <c r="A530" s="91" t="s">
         <v>605</v>
       </c>
@@ -19765,7 +19663,7 @@
       <c r="Y530" s="24"/>
       <c r="Z530" s="24"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:26" ht="15">
       <c r="A531" s="92" t="s">
         <v>606</v>
       </c>
@@ -19795,7 +19693,7 @@
       <c r="Y531" s="24"/>
       <c r="Z531" s="24"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:26" ht="14.25">
       <c r="A532" s="93" t="s">
         <v>607</v>
       </c>
@@ -19825,7 +19723,7 @@
       <c r="Y532" s="24"/>
       <c r="Z532" s="24"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:26" ht="14.25">
       <c r="A533" s="48" t="s">
         <v>608</v>
       </c>
@@ -19855,7 +19753,7 @@
       <c r="Y533" s="24"/>
       <c r="Z533" s="24"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:26" ht="14.25">
       <c r="A534" s="48" t="s">
         <v>609</v>
       </c>
@@ -19885,7 +19783,7 @@
       <c r="Y534" s="24"/>
       <c r="Z534" s="24"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:26" ht="14.25">
       <c r="A535" s="48" t="s">
         <v>610</v>
       </c>
@@ -19915,7 +19813,7 @@
       <c r="Y535" s="24"/>
       <c r="Z535" s="24"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:26" ht="14.25">
       <c r="A536" s="48" t="s">
         <v>611</v>
       </c>
@@ -19945,7 +19843,7 @@
       <c r="Y536" s="24"/>
       <c r="Z536" s="24"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:26" ht="14.25">
       <c r="A537" s="48" t="s">
         <v>612</v>
       </c>
@@ -19975,7 +19873,7 @@
       <c r="Y537" s="24"/>
       <c r="Z537" s="24"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:26" ht="14.25">
       <c r="A538" s="48" t="s">
         <v>613</v>
       </c>
@@ -20005,7 +19903,7 @@
       <c r="Y538" s="24"/>
       <c r="Z538" s="24"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:26" ht="14.25">
       <c r="A539" s="48"/>
       <c r="B539" s="36"/>
       <c r="C539" s="36"/>
@@ -20033,7 +19931,7 @@
       <c r="Y539" s="24"/>
       <c r="Z539" s="24"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:26" ht="18">
       <c r="A540" s="94" t="s">
         <v>25</v>
       </c>
@@ -20063,7 +19961,7 @@
       <c r="Y540" s="4"/>
       <c r="Z540" s="4"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:26" ht="15">
       <c r="A541" s="95" t="s">
         <v>614</v>
       </c>
@@ -20093,7 +19991,7 @@
       <c r="Y541" s="24"/>
       <c r="Z541" s="24"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:26" ht="14.25">
       <c r="A542" s="25" t="s">
         <v>615</v>
       </c>
@@ -20125,7 +20023,7 @@
       <c r="Y542" s="24"/>
       <c r="Z542" s="24"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:26" ht="14.25">
       <c r="A543" s="90" t="s">
         <v>617</v>
       </c>
@@ -20157,7 +20055,7 @@
       <c r="Y543" s="36"/>
       <c r="Z543" s="36"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:26" ht="14.25">
       <c r="A544" s="25" t="s">
         <v>619</v>
       </c>
@@ -20189,7 +20087,7 @@
       <c r="Y544" s="24"/>
       <c r="Z544" s="24"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:26" ht="14.25">
       <c r="A545" s="25" t="s">
         <v>621</v>
       </c>
@@ -20221,7 +20119,7 @@
       <c r="Y545" s="24"/>
       <c r="Z545" s="24"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:26" ht="14.25">
       <c r="A546" s="25" t="s">
         <v>623</v>
       </c>
@@ -20253,7 +20151,7 @@
       <c r="Y546" s="24"/>
       <c r="Z546" s="24"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:26" ht="14.25">
       <c r="A547" s="25" t="s">
         <v>625</v>
       </c>
@@ -20285,7 +20183,7 @@
       <c r="Y547" s="24"/>
       <c r="Z547" s="24"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:26" ht="30">
       <c r="A548" s="8"/>
       <c r="B548" s="96" t="s">
         <v>627</v>
@@ -20315,11 +20213,11 @@
       <c r="Y548" s="8"/>
       <c r="Z548" s="8"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:26">
       <c r="A591" s="49"/>
       <c r="B591" s="97"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:26" ht="45">
       <c r="A592" s="98"/>
       <c r="B592" s="99"/>
       <c r="C592" s="98"/>
@@ -20347,7 +20245,7 @@
       <c r="Y592" s="98"/>
       <c r="Z592" s="98"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:26" ht="12.75">
       <c r="A593" s="98"/>
       <c r="B593" s="98"/>
       <c r="C593" s="98"/>
@@ -20375,7 +20273,7 @@
       <c r="Y593" s="98"/>
       <c r="Z593" s="98"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:26" ht="19.5">
       <c r="A594" s="100"/>
       <c r="B594" s="101"/>
       <c r="C594" s="98"/>
@@ -20403,7 +20301,7 @@
       <c r="Y594" s="98"/>
       <c r="Z594" s="98"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:26" ht="21">
       <c r="A595" s="100"/>
       <c r="B595" s="102"/>
       <c r="C595" s="98"/>
@@ -20431,7 +20329,7 @@
       <c r="Y595" s="98"/>
       <c r="Z595" s="98"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:26" ht="21">
       <c r="A596" s="100"/>
       <c r="B596" s="102"/>
       <c r="C596" s="98"/>
@@ -20459,7 +20357,7 @@
       <c r="Y596" s="98"/>
       <c r="Z596" s="98"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:26" ht="12.75">
       <c r="A597" s="98"/>
       <c r="B597" s="98"/>
       <c r="C597" s="98"/>
@@ -20487,390 +20385,389 @@
       <c r="Y597" s="98"/>
       <c r="Z597" s="98"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:26" ht="15">
       <c r="A598" s="103"/>
       <c r="B598" s="49"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:26" ht="15">
       <c r="A599" s="103"/>
       <c r="B599" s="49"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:26" ht="15">
       <c r="A600" s="103"/>
       <c r="B600" s="104"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:26" ht="15">
       <c r="A601" s="103"/>
       <c r="B601" s="104"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:26" ht="15">
       <c r="A602" s="103"/>
       <c r="B602" s="49"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:26" ht="15">
       <c r="A603" s="103"/>
       <c r="B603" s="104"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:26" ht="15">
       <c r="A604" s="103"/>
       <c r="B604" s="104"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:26" ht="15">
       <c r="A605" s="103"/>
       <c r="B605" s="105"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:26" ht="15">
       <c r="A606" s="103"/>
       <c r="B606" s="49"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:26" ht="15">
       <c r="A607" s="103"/>
       <c r="B607" s="49"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:26" ht="15">
       <c r="A608" s="103"/>
       <c r="B608" s="49"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:2" ht="15">
       <c r="A609" s="103"/>
       <c r="B609" s="49"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:2" ht="15">
       <c r="A610" s="103"/>
       <c r="B610" s="49"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:2" ht="15">
       <c r="A611" s="103"/>
       <c r="B611" s="49"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:2" ht="12.75">
       <c r="A612" s="24"/>
       <c r="B612" s="24"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:2" ht="15">
       <c r="A613" s="103"/>
       <c r="B613" s="106"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:2" ht="15">
       <c r="A614" s="103"/>
       <c r="B614" s="106"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:2" ht="15">
       <c r="A615" s="103"/>
       <c r="B615" s="106"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:2" ht="15">
       <c r="A616" s="103"/>
       <c r="B616" s="106"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:2" ht="15">
       <c r="A617" s="103"/>
       <c r="B617" s="106"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:2" ht="15">
       <c r="A618" s="103"/>
       <c r="B618" s="106"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
-    <hyperlink r:id="rId2" ref="A18"/>
-    <hyperlink r:id="rId3" ref="A19"/>
-    <hyperlink r:id="rId4" ref="A20"/>
-    <hyperlink r:id="rId5" ref="A21"/>
-    <hyperlink r:id="rId6" ref="A22"/>
-    <hyperlink r:id="rId7" ref="A28"/>
-    <hyperlink r:id="rId8" ref="A31"/>
-    <hyperlink r:id="rId9" ref="A38"/>
-    <hyperlink r:id="rId10" ref="A39"/>
-    <hyperlink r:id="rId11" ref="A41"/>
-    <hyperlink r:id="rId12" ref="A42"/>
-    <hyperlink r:id="rId13" ref="A43"/>
-    <hyperlink r:id="rId14" ref="A44"/>
-    <hyperlink r:id="rId15" ref="A45"/>
-    <hyperlink r:id="rId16" ref="A48"/>
-    <hyperlink r:id="rId17" ref="A51"/>
-    <hyperlink r:id="rId18" ref="A53"/>
-    <hyperlink r:id="rId19" ref="A60"/>
-    <hyperlink r:id="rId20" ref="A69"/>
-    <hyperlink r:id="rId21" ref="A72"/>
-    <hyperlink r:id="rId22" ref="A73"/>
-    <hyperlink r:id="rId23" ref="A75"/>
-    <hyperlink r:id="rId24" ref="A77"/>
-    <hyperlink r:id="rId25" ref="A78"/>
-    <hyperlink r:id="rId26" ref="A79"/>
-    <hyperlink r:id="rId27" ref="A81"/>
-    <hyperlink r:id="rId28" ref="A84"/>
-    <hyperlink r:id="rId29" ref="A85"/>
-    <hyperlink r:id="rId30" ref="A87"/>
-    <hyperlink r:id="rId31" ref="A88"/>
-    <hyperlink r:id="rId32" ref="A92"/>
-    <hyperlink r:id="rId33" ref="A93"/>
-    <hyperlink r:id="rId34" ref="A94"/>
-    <hyperlink r:id="rId35" ref="A95"/>
-    <hyperlink r:id="rId36" ref="A96"/>
-    <hyperlink r:id="rId37" ref="A97"/>
-    <hyperlink r:id="rId38" ref="A98"/>
-    <hyperlink r:id="rId39" ref="A99"/>
-    <hyperlink r:id="rId40" ref="A100"/>
-    <hyperlink r:id="rId41" ref="A101"/>
-    <hyperlink r:id="rId42" ref="A110"/>
-    <hyperlink r:id="rId43" ref="A113"/>
-    <hyperlink r:id="rId44" ref="A116"/>
-    <hyperlink r:id="rId45" ref="A117"/>
-    <hyperlink r:id="rId46" ref="A118"/>
-    <hyperlink r:id="rId47" ref="A125"/>
-    <hyperlink r:id="rId48" ref="A129"/>
-    <hyperlink r:id="rId49" ref="A130"/>
-    <hyperlink r:id="rId50" ref="A131"/>
-    <hyperlink r:id="rId51" ref="A133"/>
-    <hyperlink r:id="rId52" ref="A134"/>
-    <hyperlink r:id="rId53" ref="A135"/>
-    <hyperlink r:id="rId54" ref="A136"/>
-    <hyperlink r:id="rId55" ref="A137"/>
-    <hyperlink r:id="rId56" ref="A138"/>
-    <hyperlink r:id="rId57" ref="A139"/>
-    <hyperlink r:id="rId58" ref="A140"/>
-    <hyperlink r:id="rId59" ref="A141"/>
-    <hyperlink r:id="rId60" ref="A142"/>
-    <hyperlink r:id="rId61" ref="A143"/>
-    <hyperlink r:id="rId62" ref="A168"/>
-    <hyperlink r:id="rId63" ref="A171"/>
-    <hyperlink r:id="rId64" ref="A179"/>
-    <hyperlink r:id="rId65" ref="A180"/>
-    <hyperlink r:id="rId66" ref="A187"/>
-    <hyperlink r:id="rId67" ref="A188"/>
-    <hyperlink r:id="rId68" ref="A189"/>
-    <hyperlink r:id="rId69" ref="A194"/>
-    <hyperlink r:id="rId70" ref="A197"/>
-    <hyperlink r:id="rId71" ref="A198"/>
-    <hyperlink r:id="rId72" ref="A199"/>
-    <hyperlink r:id="rId73" ref="A201"/>
-    <hyperlink r:id="rId74" ref="A202"/>
-    <hyperlink r:id="rId75" ref="A208"/>
-    <hyperlink r:id="rId76" ref="A209"/>
-    <hyperlink r:id="rId77" ref="A216"/>
-    <hyperlink r:id="rId78" ref="A221"/>
-    <hyperlink r:id="rId79" ref="A222"/>
-    <hyperlink r:id="rId80" ref="A223"/>
-    <hyperlink r:id="rId81" ref="A224"/>
-    <hyperlink r:id="rId82" ref="A226"/>
-    <hyperlink r:id="rId83" ref="A227"/>
-    <hyperlink r:id="rId84" ref="A228"/>
-    <hyperlink r:id="rId85" ref="A229"/>
-    <hyperlink r:id="rId86" ref="A230"/>
-    <hyperlink r:id="rId87" ref="A231"/>
-    <hyperlink r:id="rId88" ref="A232"/>
-    <hyperlink r:id="rId89" ref="A233"/>
-    <hyperlink r:id="rId90" ref="A234"/>
-    <hyperlink r:id="rId91" ref="A235"/>
-    <hyperlink r:id="rId92" ref="A237"/>
-    <hyperlink r:id="rId93" ref="A241"/>
-    <hyperlink r:id="rId94" ref="A245"/>
-    <hyperlink r:id="rId95" ref="A248"/>
-    <hyperlink r:id="rId96" ref="A249"/>
-    <hyperlink r:id="rId97" ref="A250"/>
-    <hyperlink r:id="rId98" ref="A252"/>
-    <hyperlink r:id="rId99" ref="A253"/>
-    <hyperlink r:id="rId100" ref="A254"/>
-    <hyperlink r:id="rId101" ref="A255"/>
-    <hyperlink r:id="rId102" ref="A257"/>
-    <hyperlink r:id="rId103" ref="A258"/>
-    <hyperlink r:id="rId104" ref="A261"/>
-    <hyperlink r:id="rId105" ref="A262"/>
-    <hyperlink r:id="rId106" ref="A267"/>
-    <hyperlink r:id="rId107" ref="A268"/>
-    <hyperlink r:id="rId108" ref="A269"/>
-    <hyperlink r:id="rId109" ref="A270"/>
-    <hyperlink r:id="rId110" ref="A273"/>
-    <hyperlink r:id="rId111" ref="A274"/>
-    <hyperlink r:id="rId112" ref="A275"/>
-    <hyperlink r:id="rId113" ref="A276"/>
-    <hyperlink r:id="rId114" ref="A277"/>
-    <hyperlink r:id="rId115" ref="A280"/>
-    <hyperlink r:id="rId116" ref="A281"/>
-    <hyperlink r:id="rId117" ref="A283"/>
-    <hyperlink r:id="rId118" ref="A284"/>
-    <hyperlink r:id="rId119" ref="A287"/>
-    <hyperlink r:id="rId120" ref="A288"/>
-    <hyperlink r:id="rId121" ref="A289"/>
-    <hyperlink r:id="rId122" ref="A292"/>
-    <hyperlink r:id="rId123" ref="A293"/>
-    <hyperlink r:id="rId124" ref="A294"/>
-    <hyperlink r:id="rId125" ref="A295"/>
-    <hyperlink r:id="rId126" ref="A296"/>
-    <hyperlink r:id="rId127" ref="A297"/>
-    <hyperlink r:id="rId128" ref="A298"/>
-    <hyperlink r:id="rId129" ref="A299"/>
-    <hyperlink r:id="rId130" ref="A300"/>
-    <hyperlink r:id="rId131" ref="A301"/>
-    <hyperlink r:id="rId132" ref="A302"/>
-    <hyperlink r:id="rId133" ref="A303"/>
-    <hyperlink r:id="rId134" ref="A304"/>
-    <hyperlink r:id="rId135" ref="A305"/>
-    <hyperlink r:id="rId136" ref="A306"/>
-    <hyperlink r:id="rId137" ref="A307"/>
-    <hyperlink r:id="rId138" ref="A312"/>
-    <hyperlink r:id="rId139" ref="A320"/>
-    <hyperlink r:id="rId140" ref="A328"/>
-    <hyperlink r:id="rId141" ref="A340"/>
-    <hyperlink r:id="rId142" ref="A356"/>
-    <hyperlink r:id="rId143" ref="A361"/>
-    <hyperlink r:id="rId144" ref="A362"/>
-    <hyperlink r:id="rId145" ref="A369"/>
-    <hyperlink r:id="rId146" ref="A370"/>
-    <hyperlink r:id="rId147" ref="A371"/>
-    <hyperlink r:id="rId148" ref="A372"/>
-    <hyperlink r:id="rId149" ref="A373"/>
-    <hyperlink r:id="rId150" ref="A374"/>
-    <hyperlink r:id="rId151" ref="A375"/>
-    <hyperlink r:id="rId152" ref="A376"/>
-    <hyperlink r:id="rId153" ref="A377"/>
-    <hyperlink r:id="rId154" ref="A378"/>
-    <hyperlink r:id="rId155" ref="A379"/>
-    <hyperlink r:id="rId156" ref="A380"/>
-    <hyperlink r:id="rId157" ref="A381"/>
-    <hyperlink r:id="rId158" ref="A382"/>
-    <hyperlink r:id="rId159" ref="A383"/>
-    <hyperlink r:id="rId160" ref="A384"/>
-    <hyperlink r:id="rId161" ref="A385"/>
-    <hyperlink r:id="rId162" ref="A386"/>
-    <hyperlink r:id="rId163" ref="A387"/>
-    <hyperlink r:id="rId164" ref="A388"/>
-    <hyperlink r:id="rId165" ref="A389"/>
-    <hyperlink r:id="rId166" ref="A390"/>
-    <hyperlink r:id="rId167" ref="A391"/>
-    <hyperlink r:id="rId168" ref="A392"/>
-    <hyperlink r:id="rId169" ref="A393"/>
-    <hyperlink r:id="rId170" ref="A394"/>
-    <hyperlink r:id="rId171" ref="A395"/>
-    <hyperlink r:id="rId172" ref="A396"/>
-    <hyperlink r:id="rId173" ref="A397"/>
-    <hyperlink r:id="rId174" ref="A398"/>
-    <hyperlink r:id="rId175" ref="A399"/>
-    <hyperlink r:id="rId176" ref="A400"/>
-    <hyperlink r:id="rId177" ref="A401"/>
-    <hyperlink r:id="rId178" ref="A402"/>
-    <hyperlink r:id="rId179" ref="A403"/>
-    <hyperlink r:id="rId180" ref="A404"/>
-    <hyperlink r:id="rId181" ref="A405"/>
-    <hyperlink r:id="rId182" ref="A406"/>
-    <hyperlink r:id="rId183" ref="A407"/>
-    <hyperlink r:id="rId184" ref="A408"/>
-    <hyperlink r:id="rId185" ref="A410"/>
-    <hyperlink r:id="rId186" ref="A411"/>
-    <hyperlink r:id="rId187" ref="A412"/>
-    <hyperlink r:id="rId188" ref="A413"/>
-    <hyperlink r:id="rId189" ref="A414"/>
-    <hyperlink r:id="rId190" ref="A415"/>
-    <hyperlink r:id="rId191" ref="A416"/>
-    <hyperlink r:id="rId192" ref="A417"/>
-    <hyperlink r:id="rId193" ref="A418"/>
-    <hyperlink r:id="rId194" ref="A419"/>
-    <hyperlink r:id="rId195" ref="A420"/>
-    <hyperlink r:id="rId196" ref="A421"/>
-    <hyperlink r:id="rId197" ref="A422"/>
-    <hyperlink r:id="rId198" ref="A423"/>
-    <hyperlink r:id="rId199" ref="A424"/>
-    <hyperlink r:id="rId200" ref="A425"/>
-    <hyperlink r:id="rId201" ref="A426"/>
-    <hyperlink r:id="rId202" ref="A427"/>
-    <hyperlink r:id="rId203" ref="A428"/>
-    <hyperlink r:id="rId204" ref="A429"/>
-    <hyperlink r:id="rId205" ref="A430"/>
-    <hyperlink r:id="rId206" ref="A431"/>
-    <hyperlink r:id="rId207" ref="A435"/>
-    <hyperlink r:id="rId208" ref="A436"/>
-    <hyperlink r:id="rId209" ref="A437"/>
-    <hyperlink r:id="rId210" ref="A439"/>
-    <hyperlink r:id="rId211" ref="A440"/>
-    <hyperlink r:id="rId212" ref="A441"/>
-    <hyperlink r:id="rId213" ref="A442"/>
-    <hyperlink r:id="rId214" ref="A443"/>
-    <hyperlink r:id="rId215" ref="A444"/>
-    <hyperlink r:id="rId216" ref="A445"/>
-    <hyperlink r:id="rId217" ref="A446"/>
-    <hyperlink r:id="rId218" ref="A447"/>
-    <hyperlink r:id="rId219" ref="A448"/>
-    <hyperlink r:id="rId220" ref="A449"/>
-    <hyperlink r:id="rId221" ref="A450"/>
-    <hyperlink r:id="rId222" ref="A451"/>
-    <hyperlink r:id="rId223" ref="A452"/>
-    <hyperlink r:id="rId224" ref="A453"/>
-    <hyperlink r:id="rId225" ref="A454"/>
-    <hyperlink r:id="rId226" ref="A457"/>
-    <hyperlink r:id="rId227" ref="A461"/>
-    <hyperlink r:id="rId228" ref="A462"/>
-    <hyperlink r:id="rId229" ref="A464"/>
-    <hyperlink r:id="rId230" ref="A465"/>
-    <hyperlink r:id="rId231" ref="A466"/>
-    <hyperlink r:id="rId232" ref="A468"/>
-    <hyperlink r:id="rId233" ref="A469"/>
-    <hyperlink r:id="rId234" ref="A470"/>
-    <hyperlink r:id="rId235" ref="A471"/>
-    <hyperlink r:id="rId236" ref="A472"/>
-    <hyperlink r:id="rId237" ref="A475"/>
-    <hyperlink r:id="rId238" ref="A477"/>
-    <hyperlink r:id="rId239" ref="A478"/>
-    <hyperlink r:id="rId240" ref="A479"/>
-    <hyperlink r:id="rId241" ref="A480"/>
-    <hyperlink r:id="rId242" ref="A481"/>
-    <hyperlink r:id="rId243" ref="A482"/>
-    <hyperlink r:id="rId244" ref="A483"/>
-    <hyperlink r:id="rId245" ref="A485"/>
-    <hyperlink r:id="rId246" ref="A486"/>
-    <hyperlink r:id="rId247" ref="A487"/>
-    <hyperlink r:id="rId248" ref="A488"/>
-    <hyperlink r:id="rId249" ref="A489"/>
-    <hyperlink r:id="rId250" ref="A490"/>
-    <hyperlink r:id="rId251" ref="A491"/>
-    <hyperlink r:id="rId252" ref="A492"/>
-    <hyperlink r:id="rId253" ref="A493"/>
-    <hyperlink r:id="rId254" ref="A494"/>
-    <hyperlink r:id="rId255" ref="A495"/>
-    <hyperlink r:id="rId256" ref="A496"/>
-    <hyperlink r:id="rId257" ref="A497"/>
-    <hyperlink r:id="rId258" ref="A498"/>
-    <hyperlink r:id="rId259" ref="A500"/>
-    <hyperlink r:id="rId260" ref="A501"/>
-    <hyperlink r:id="rId261" ref="A502"/>
-    <hyperlink r:id="rId262" ref="A503"/>
-    <hyperlink r:id="rId263" ref="A504"/>
-    <hyperlink r:id="rId264" ref="A505"/>
-    <hyperlink r:id="rId265" ref="A506"/>
-    <hyperlink r:id="rId266" ref="A507"/>
-    <hyperlink r:id="rId267" ref="A508"/>
-    <hyperlink r:id="rId268" ref="A511"/>
-    <hyperlink r:id="rId269" ref="A512"/>
-    <hyperlink r:id="rId270" ref="A517"/>
-    <hyperlink r:id="rId271" ref="A519"/>
-    <hyperlink r:id="rId272" ref="A520"/>
-    <hyperlink r:id="rId273" ref="A521"/>
-    <hyperlink r:id="rId274" ref="A522"/>
-    <hyperlink r:id="rId275" ref="A524"/>
-    <hyperlink r:id="rId276" ref="A525"/>
-    <hyperlink r:id="rId277" ref="A526"/>
-    <hyperlink r:id="rId278" ref="A527"/>
-    <hyperlink r:id="rId279" ref="A528"/>
-    <hyperlink r:id="rId280" ref="A529"/>
-    <hyperlink r:id="rId281" ref="A530"/>
-    <hyperlink r:id="rId282" ref="A531"/>
-    <hyperlink r:id="rId283" ref="A533"/>
-    <hyperlink r:id="rId284" ref="A534"/>
-    <hyperlink r:id="rId285" ref="A535"/>
-    <hyperlink r:id="rId286" ref="A536"/>
-    <hyperlink r:id="rId287" ref="A537"/>
-    <hyperlink r:id="rId288" ref="A538"/>
-    <hyperlink r:id="rId289" ref="A542"/>
-    <hyperlink r:id="rId290" ref="A543"/>
-    <hyperlink r:id="rId291" ref="A544"/>
-    <hyperlink r:id="rId292" ref="A545"/>
-    <hyperlink r:id="rId293" ref="A546"/>
-    <hyperlink r:id="rId294" ref="A547"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="A18" r:id="rId2"/>
+    <hyperlink ref="A19" r:id="rId3"/>
+    <hyperlink ref="A20" r:id="rId4"/>
+    <hyperlink ref="A21" r:id="rId5"/>
+    <hyperlink ref="A22" r:id="rId6"/>
+    <hyperlink ref="A28" r:id="rId7"/>
+    <hyperlink ref="A31" r:id="rId8"/>
+    <hyperlink ref="A38" r:id="rId9"/>
+    <hyperlink ref="A39" r:id="rId10"/>
+    <hyperlink ref="A41" r:id="rId11"/>
+    <hyperlink ref="A42" r:id="rId12"/>
+    <hyperlink ref="A43" r:id="rId13"/>
+    <hyperlink ref="A44" r:id="rId14"/>
+    <hyperlink ref="A45" r:id="rId15"/>
+    <hyperlink ref="A48" r:id="rId16"/>
+    <hyperlink ref="A51" r:id="rId17"/>
+    <hyperlink ref="A53" r:id="rId18"/>
+    <hyperlink ref="A60" r:id="rId19"/>
+    <hyperlink ref="A69" r:id="rId20"/>
+    <hyperlink ref="A72" r:id="rId21"/>
+    <hyperlink ref="A73" r:id="rId22"/>
+    <hyperlink ref="A75" r:id="rId23"/>
+    <hyperlink ref="A77" r:id="rId24"/>
+    <hyperlink ref="A78" r:id="rId25"/>
+    <hyperlink ref="A79" r:id="rId26"/>
+    <hyperlink ref="A81" r:id="rId27"/>
+    <hyperlink ref="A84" r:id="rId28"/>
+    <hyperlink ref="A85" r:id="rId29"/>
+    <hyperlink ref="A87" r:id="rId30"/>
+    <hyperlink ref="A88" r:id="rId31"/>
+    <hyperlink ref="A92" r:id="rId32"/>
+    <hyperlink ref="A93" r:id="rId33"/>
+    <hyperlink ref="A94" r:id="rId34"/>
+    <hyperlink ref="A95" r:id="rId35"/>
+    <hyperlink ref="A96" r:id="rId36"/>
+    <hyperlink ref="A97" r:id="rId37"/>
+    <hyperlink ref="A98" r:id="rId38"/>
+    <hyperlink ref="A99" r:id="rId39"/>
+    <hyperlink ref="A100" r:id="rId40"/>
+    <hyperlink ref="A101" r:id="rId41"/>
+    <hyperlink ref="A110" r:id="rId42"/>
+    <hyperlink ref="A113" r:id="rId43"/>
+    <hyperlink ref="A116" r:id="rId44"/>
+    <hyperlink ref="A117" r:id="rId45"/>
+    <hyperlink ref="A118" r:id="rId46"/>
+    <hyperlink ref="A125" r:id="rId47"/>
+    <hyperlink ref="A129" r:id="rId48"/>
+    <hyperlink ref="A130" r:id="rId49"/>
+    <hyperlink ref="A131" r:id="rId50"/>
+    <hyperlink ref="A133" r:id="rId51"/>
+    <hyperlink ref="A134" r:id="rId52"/>
+    <hyperlink ref="A135" r:id="rId53"/>
+    <hyperlink ref="A136" r:id="rId54"/>
+    <hyperlink ref="A137" r:id="rId55"/>
+    <hyperlink ref="A138" r:id="rId56"/>
+    <hyperlink ref="A139" r:id="rId57"/>
+    <hyperlink ref="A140" r:id="rId58"/>
+    <hyperlink ref="A141" r:id="rId59"/>
+    <hyperlink ref="A142" r:id="rId60"/>
+    <hyperlink ref="A143" r:id="rId61"/>
+    <hyperlink ref="A168" r:id="rId62"/>
+    <hyperlink ref="A171" r:id="rId63"/>
+    <hyperlink ref="A179" r:id="rId64"/>
+    <hyperlink ref="A180" r:id="rId65"/>
+    <hyperlink ref="A187" r:id="rId66"/>
+    <hyperlink ref="A188" r:id="rId67"/>
+    <hyperlink ref="A189" r:id="rId68"/>
+    <hyperlink ref="A194" r:id="rId69"/>
+    <hyperlink ref="A197" r:id="rId70"/>
+    <hyperlink ref="A198" r:id="rId71"/>
+    <hyperlink ref="A199" r:id="rId72"/>
+    <hyperlink ref="A201" r:id="rId73"/>
+    <hyperlink ref="A202" r:id="rId74"/>
+    <hyperlink ref="A208" r:id="rId75"/>
+    <hyperlink ref="A209" r:id="rId76"/>
+    <hyperlink ref="A216" r:id="rId77"/>
+    <hyperlink ref="A221" r:id="rId78"/>
+    <hyperlink ref="A222" r:id="rId79"/>
+    <hyperlink ref="A223" r:id="rId80"/>
+    <hyperlink ref="A224" r:id="rId81"/>
+    <hyperlink ref="A226" r:id="rId82"/>
+    <hyperlink ref="A227" r:id="rId83"/>
+    <hyperlink ref="A228" r:id="rId84"/>
+    <hyperlink ref="A229" r:id="rId85"/>
+    <hyperlink ref="A230" r:id="rId86"/>
+    <hyperlink ref="A231" r:id="rId87"/>
+    <hyperlink ref="A232" r:id="rId88"/>
+    <hyperlink ref="A233" r:id="rId89"/>
+    <hyperlink ref="A234" r:id="rId90"/>
+    <hyperlink ref="A235" r:id="rId91"/>
+    <hyperlink ref="A237" r:id="rId92"/>
+    <hyperlink ref="A241" r:id="rId93"/>
+    <hyperlink ref="A245" r:id="rId94"/>
+    <hyperlink ref="A248" r:id="rId95"/>
+    <hyperlink ref="A249" r:id="rId96"/>
+    <hyperlink ref="A250" r:id="rId97"/>
+    <hyperlink ref="A252" r:id="rId98"/>
+    <hyperlink ref="A253" r:id="rId99"/>
+    <hyperlink ref="A254" r:id="rId100"/>
+    <hyperlink ref="A255" r:id="rId101"/>
+    <hyperlink ref="A257" r:id="rId102"/>
+    <hyperlink ref="A258" r:id="rId103"/>
+    <hyperlink ref="A261" r:id="rId104"/>
+    <hyperlink ref="A262" r:id="rId105"/>
+    <hyperlink ref="A267" r:id="rId106"/>
+    <hyperlink ref="A268" r:id="rId107"/>
+    <hyperlink ref="A269" r:id="rId108"/>
+    <hyperlink ref="A270" r:id="rId109"/>
+    <hyperlink ref="A273" r:id="rId110"/>
+    <hyperlink ref="A274" r:id="rId111"/>
+    <hyperlink ref="A275" r:id="rId112"/>
+    <hyperlink ref="A276" r:id="rId113"/>
+    <hyperlink ref="A277" r:id="rId114"/>
+    <hyperlink ref="A280" r:id="rId115"/>
+    <hyperlink ref="A281" r:id="rId116"/>
+    <hyperlink ref="A283" r:id="rId117"/>
+    <hyperlink ref="A284" r:id="rId118"/>
+    <hyperlink ref="A287" r:id="rId119"/>
+    <hyperlink ref="A288" r:id="rId120"/>
+    <hyperlink ref="A289" r:id="rId121"/>
+    <hyperlink ref="A292" r:id="rId122"/>
+    <hyperlink ref="A293" r:id="rId123"/>
+    <hyperlink ref="A294" r:id="rId124"/>
+    <hyperlink ref="A295" r:id="rId125"/>
+    <hyperlink ref="A296" r:id="rId126"/>
+    <hyperlink ref="A297" r:id="rId127"/>
+    <hyperlink ref="A298" r:id="rId128"/>
+    <hyperlink ref="A299" r:id="rId129"/>
+    <hyperlink ref="A300" r:id="rId130"/>
+    <hyperlink ref="A301" r:id="rId131"/>
+    <hyperlink ref="A302" r:id="rId132"/>
+    <hyperlink ref="A303" r:id="rId133"/>
+    <hyperlink ref="A304" r:id="rId134"/>
+    <hyperlink ref="A305" r:id="rId135"/>
+    <hyperlink ref="A306" r:id="rId136"/>
+    <hyperlink ref="A307" r:id="rId137"/>
+    <hyperlink ref="A312" r:id="rId138"/>
+    <hyperlink ref="A320" r:id="rId139"/>
+    <hyperlink ref="A328" r:id="rId140"/>
+    <hyperlink ref="A340" r:id="rId141"/>
+    <hyperlink ref="A356" r:id="rId142"/>
+    <hyperlink ref="A361" r:id="rId143"/>
+    <hyperlink ref="A362" r:id="rId144"/>
+    <hyperlink ref="A369" r:id="rId145"/>
+    <hyperlink ref="A370" r:id="rId146"/>
+    <hyperlink ref="A371" r:id="rId147"/>
+    <hyperlink ref="A372" r:id="rId148"/>
+    <hyperlink ref="A373" r:id="rId149"/>
+    <hyperlink ref="A374" r:id="rId150"/>
+    <hyperlink ref="A375" r:id="rId151"/>
+    <hyperlink ref="A376" r:id="rId152"/>
+    <hyperlink ref="A377" r:id="rId153"/>
+    <hyperlink ref="A378" r:id="rId154"/>
+    <hyperlink ref="A379" r:id="rId155"/>
+    <hyperlink ref="A380" r:id="rId156"/>
+    <hyperlink ref="A381" r:id="rId157"/>
+    <hyperlink ref="A382" r:id="rId158"/>
+    <hyperlink ref="A383" r:id="rId159"/>
+    <hyperlink ref="A384" r:id="rId160"/>
+    <hyperlink ref="A385" r:id="rId161"/>
+    <hyperlink ref="A386" r:id="rId162"/>
+    <hyperlink ref="A387" r:id="rId163"/>
+    <hyperlink ref="A388" r:id="rId164"/>
+    <hyperlink ref="A389" r:id="rId165"/>
+    <hyperlink ref="A390" r:id="rId166"/>
+    <hyperlink ref="A391" r:id="rId167"/>
+    <hyperlink ref="A392" r:id="rId168"/>
+    <hyperlink ref="A393" r:id="rId169"/>
+    <hyperlink ref="A394" r:id="rId170"/>
+    <hyperlink ref="A395" r:id="rId171"/>
+    <hyperlink ref="A396" r:id="rId172"/>
+    <hyperlink ref="A397" r:id="rId173"/>
+    <hyperlink ref="A398" r:id="rId174"/>
+    <hyperlink ref="A399" r:id="rId175"/>
+    <hyperlink ref="A400" r:id="rId176"/>
+    <hyperlink ref="A401" r:id="rId177"/>
+    <hyperlink ref="A402" r:id="rId178"/>
+    <hyperlink ref="A403" r:id="rId179"/>
+    <hyperlink ref="A404" r:id="rId180"/>
+    <hyperlink ref="A405" r:id="rId181"/>
+    <hyperlink ref="A406" r:id="rId182"/>
+    <hyperlink ref="A407" r:id="rId183"/>
+    <hyperlink ref="A408" r:id="rId184"/>
+    <hyperlink ref="A410" r:id="rId185"/>
+    <hyperlink ref="A411" r:id="rId186"/>
+    <hyperlink ref="A412" r:id="rId187"/>
+    <hyperlink ref="A413" r:id="rId188"/>
+    <hyperlink ref="A414" r:id="rId189"/>
+    <hyperlink ref="A415" r:id="rId190"/>
+    <hyperlink ref="A416" r:id="rId191"/>
+    <hyperlink ref="A417" r:id="rId192"/>
+    <hyperlink ref="A418" r:id="rId193"/>
+    <hyperlink ref="A419" r:id="rId194"/>
+    <hyperlink ref="A420" r:id="rId195"/>
+    <hyperlink ref="A421" r:id="rId196"/>
+    <hyperlink ref="A422" r:id="rId197"/>
+    <hyperlink ref="A423" r:id="rId198"/>
+    <hyperlink ref="A424" r:id="rId199"/>
+    <hyperlink ref="A425" r:id="rId200"/>
+    <hyperlink ref="A426" r:id="rId201"/>
+    <hyperlink ref="A427" r:id="rId202"/>
+    <hyperlink ref="A428" r:id="rId203"/>
+    <hyperlink ref="A429" r:id="rId204"/>
+    <hyperlink ref="A430" r:id="rId205"/>
+    <hyperlink ref="A431" r:id="rId206"/>
+    <hyperlink ref="A435" r:id="rId207"/>
+    <hyperlink ref="A436" r:id="rId208"/>
+    <hyperlink ref="A437" r:id="rId209"/>
+    <hyperlink ref="A439" r:id="rId210"/>
+    <hyperlink ref="A440" r:id="rId211"/>
+    <hyperlink ref="A441" r:id="rId212"/>
+    <hyperlink ref="A442" r:id="rId213"/>
+    <hyperlink ref="A443" r:id="rId214"/>
+    <hyperlink ref="A444" r:id="rId215"/>
+    <hyperlink ref="A445" r:id="rId216"/>
+    <hyperlink ref="A446" r:id="rId217"/>
+    <hyperlink ref="A447" r:id="rId218"/>
+    <hyperlink ref="A448" r:id="rId219"/>
+    <hyperlink ref="A449" r:id="rId220"/>
+    <hyperlink ref="A450" r:id="rId221"/>
+    <hyperlink ref="A451" r:id="rId222"/>
+    <hyperlink ref="A452" r:id="rId223"/>
+    <hyperlink ref="A453" r:id="rId224"/>
+    <hyperlink ref="A454" r:id="rId225"/>
+    <hyperlink ref="A457" r:id="rId226"/>
+    <hyperlink ref="A461" r:id="rId227"/>
+    <hyperlink ref="A462" r:id="rId228"/>
+    <hyperlink ref="A464" r:id="rId229"/>
+    <hyperlink ref="A465" r:id="rId230"/>
+    <hyperlink ref="A466" r:id="rId231"/>
+    <hyperlink ref="A468" r:id="rId232"/>
+    <hyperlink ref="A469" r:id="rId233"/>
+    <hyperlink ref="A470" r:id="rId234"/>
+    <hyperlink ref="A471" r:id="rId235"/>
+    <hyperlink ref="A472" r:id="rId236"/>
+    <hyperlink ref="A475" r:id="rId237"/>
+    <hyperlink ref="A477" r:id="rId238"/>
+    <hyperlink ref="A478" r:id="rId239"/>
+    <hyperlink ref="A479" r:id="rId240"/>
+    <hyperlink ref="A480" r:id="rId241"/>
+    <hyperlink ref="A481" r:id="rId242"/>
+    <hyperlink ref="A482" r:id="rId243"/>
+    <hyperlink ref="A483" r:id="rId244"/>
+    <hyperlink ref="A485" r:id="rId245"/>
+    <hyperlink ref="A486" r:id="rId246"/>
+    <hyperlink ref="A487" r:id="rId247"/>
+    <hyperlink ref="A488" r:id="rId248"/>
+    <hyperlink ref="A489" r:id="rId249"/>
+    <hyperlink ref="A490" r:id="rId250"/>
+    <hyperlink ref="A491" r:id="rId251"/>
+    <hyperlink ref="A492" r:id="rId252"/>
+    <hyperlink ref="A493" r:id="rId253"/>
+    <hyperlink ref="A494" r:id="rId254"/>
+    <hyperlink ref="A495" r:id="rId255"/>
+    <hyperlink ref="A496" r:id="rId256"/>
+    <hyperlink ref="A497" r:id="rId257"/>
+    <hyperlink ref="A498" r:id="rId258"/>
+    <hyperlink ref="A500" r:id="rId259"/>
+    <hyperlink ref="A501" r:id="rId260"/>
+    <hyperlink ref="A502" r:id="rId261"/>
+    <hyperlink ref="A503" r:id="rId262"/>
+    <hyperlink ref="A504" r:id="rId263"/>
+    <hyperlink ref="A505" r:id="rId264"/>
+    <hyperlink ref="A506" r:id="rId265"/>
+    <hyperlink ref="A507" r:id="rId266"/>
+    <hyperlink ref="A508" r:id="rId267"/>
+    <hyperlink ref="A511" r:id="rId268"/>
+    <hyperlink ref="A512" r:id="rId269"/>
+    <hyperlink ref="A517" r:id="rId270"/>
+    <hyperlink ref="A519" r:id="rId271"/>
+    <hyperlink ref="A520" r:id="rId272"/>
+    <hyperlink ref="A521" r:id="rId273"/>
+    <hyperlink ref="A522" r:id="rId274"/>
+    <hyperlink ref="A524" r:id="rId275"/>
+    <hyperlink ref="A525" r:id="rId276"/>
+    <hyperlink ref="A526" r:id="rId277"/>
+    <hyperlink ref="A527" r:id="rId278"/>
+    <hyperlink ref="A528" r:id="rId279"/>
+    <hyperlink ref="A529" r:id="rId280"/>
+    <hyperlink ref="A530" r:id="rId281"/>
+    <hyperlink ref="A531" r:id="rId282"/>
+    <hyperlink ref="A533" r:id="rId283"/>
+    <hyperlink ref="A534" r:id="rId284"/>
+    <hyperlink ref="A535" r:id="rId285"/>
+    <hyperlink ref="A536" r:id="rId286"/>
+    <hyperlink ref="A537" r:id="rId287"/>
+    <hyperlink ref="A538" r:id="rId288"/>
+    <hyperlink ref="A542" r:id="rId289"/>
+    <hyperlink ref="A543" r:id="rId290"/>
+    <hyperlink ref="A544" r:id="rId291"/>
+    <hyperlink ref="A545" r:id="rId292"/>
+    <hyperlink ref="A546" r:id="rId293"/>
+    <hyperlink ref="A547" r:id="rId294"/>
   </hyperlinks>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
-  <drawing r:id="rId295"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>
 </worksheet>
 </file>
--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -2051,7 +2051,7 @@
     <numFmt numFmtId="166" formatCode="d\ mmm"/>
     <numFmt numFmtId="167" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="87">
+  <fonts count="88">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2577,8 +2577,15 @@
       <color rgb="FF00FF00"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2627,6 +2634,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2668,7 +2681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2803,6 +2816,7 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="87" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3025,7 +3039,7 @@
   <dimension ref="A1:Z618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3569,7 +3583,7 @@
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="14.25">
       <c r="A18" s="107" t="s">
         <v>28</v>
       </c>
@@ -3600,7 +3614,7 @@
       <c r="Z18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="108" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -3852,7 +3866,7 @@
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="14.25">
       <c r="A27" s="25" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/max-chunks-to-make-sorted/","Max chunks to make sorted")</f>
         <v>Max chunks to make sorted</v>
@@ -20768,6 +20782,6 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId295"/>
 </worksheet>
 </file>
--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="629">
   <si>
     <r>
       <rPr>
@@ -2040,6 +2040,9 @@
       <t>READY🎊</t>
     </r>
   </si>
+  <si>
+    <t>done</t>
+  </si>
 </sst>
 </file>
 
@@ -2051,7 +2054,7 @@
     <numFmt numFmtId="166" formatCode="d\ mmm"/>
     <numFmt numFmtId="167" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="88">
+  <fonts count="90">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2584,6 +2587,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2681,7 +2698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2716,7 +2733,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2817,6 +2833,9 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="87" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="89" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="87" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3038,14 +3057,15 @@
   </sheetPr>
   <dimension ref="A1:Z618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3584,11 +3604,13 @@
       <c r="Z17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="14.25">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="108" t="s">
+        <v>628</v>
+      </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -3614,13 +3636,15 @@
       <c r="Z18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="107" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="108" t="s">
+        <v>628</v>
+      </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -3646,7 +3670,7 @@
       <c r="Z19" s="24"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="24"/>
@@ -3676,11 +3700,13 @@
       <c r="Z20" s="24"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="109" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="C21" s="108" t="s">
+        <v>628</v>
+      </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -3706,13 +3732,15 @@
       <c r="Z21" s="24"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="110" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="108" t="s">
+        <v>628</v>
+      </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -3738,7 +3766,7 @@
       <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="29" t="str">
+      <c r="A23" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element/","majority element")</f>
         <v>majority element</v>
       </c>
@@ -3771,7 +3799,7 @@
       <c r="Z23" s="24"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="29" t="str">
+      <c r="A24" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element-ii/","majority element 2")</f>
         <v>majority element 2</v>
       </c>
@@ -3804,7 +3832,7 @@
       <c r="Z24" s="24"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="29" t="str">
+      <c r="A25" s="28" t="str">
         <f>HYPERLINK("geeksforgeeks.org/given-an-array-of-of-size-n-finds-all-the-elements-that-appear-more-than-nk-times/","majority element general")</f>
         <v>majority element general</v>
       </c>
@@ -3837,7 +3865,7 @@
       <c r="Z25" s="24"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="24"/>
@@ -3900,7 +3928,7 @@
       <c r="Z27" s="24"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -3932,7 +3960,7 @@
       <c r="Z28" s="24"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="31" t="str">
+      <c r="A29" s="30" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-product-of-three-numbers/","max product of 3 numbers")</f>
         <v>max product of 3 numbers</v>
       </c>
@@ -4030,7 +4058,7 @@
       <c r="Z31" s="24"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="31" t="str">
+      <c r="A32" s="30" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum/","number of subarrays with bounded maximum")</f>
         <v>number of subarrays with bounded maximum</v>
       </c>
@@ -4063,7 +4091,7 @@
       <c r="Z32" s="24"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="31" t="str">
+      <c r="A33" s="30" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-subarray/","maximum subarray")</f>
         <v>maximum subarray</v>
       </c>
@@ -4096,7 +4124,7 @@
       <c r="Z33" s="24"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="29" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="27"/>
@@ -4126,7 +4154,7 @@
       <c r="Z34" s="24"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="32" t="str">
+      <c r="A35" s="31" t="str">
         <f>HYPERLINK("https://www.codechef.com/JAN18/problems/KCON","K-CON")</f>
         <v>K-CON</v>
       </c>
@@ -4159,7 +4187,7 @@
       <c r="Z35" s="24"/>
     </row>
     <row r="36" spans="1:26" ht="15">
-      <c r="A36" s="29" t="str">
+      <c r="A36" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-meeting-point/","best meeting points")</f>
         <v>best meeting points</v>
       </c>
@@ -4225,134 +4253,134 @@
       <c r="Z37" s="24"/>
     </row>
     <row r="38" spans="1:26" ht="15">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
     </row>
     <row r="39" spans="1:26" ht="15">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
     </row>
     <row r="40" spans="1:26" ht="15">
-      <c r="A40" s="37" t="str">
+      <c r="A40" s="36" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/partition-labels/","partition labels")</f>
         <v>partition labels</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
     </row>
     <row r="41" spans="1:26" ht="15">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
     </row>
     <row r="42" spans="1:26" ht="15">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="24"/>
@@ -4382,7 +4410,7 @@
       <c r="Z42" s="24"/>
     </row>
     <row r="43" spans="1:26" ht="15">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="24" t="s">
@@ -4414,10 +4442,10 @@
       <c r="Z43" s="24"/>
     </row>
     <row r="44" spans="1:26" ht="15">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="40" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="24"/>
@@ -4446,7 +4474,7 @@
       <c r="Z44" s="24"/>
     </row>
     <row r="45" spans="1:26" ht="15">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -4478,14 +4506,14 @@
       <c r="Z45" s="24"/>
     </row>
     <row r="46" spans="1:26" ht="15">
-      <c r="A46" s="29" t="str">
+      <c r="A46" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/consecutive-numbers-sum/","consecutive number sum")</f>
         <v>consecutive number sum</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -4511,11 +4539,11 @@
       <c r="Z46" s="24"/>
     </row>
     <row r="47" spans="1:26" ht="15">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="42" t="s">
         <v>64</v>
       </c>
       <c r="B47" s="27"/>
-      <c r="C47" s="36"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -4639,7 +4667,7 @@
       <c r="Z50" s="24"/>
     </row>
     <row r="51" spans="1:26" ht="15">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -4764,7 +4792,7 @@
       <c r="Z54" s="24"/>
     </row>
     <row r="55" spans="1:26" ht="15">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="29" t="s">
         <v>73</v>
       </c>
       <c r="B55" s="27"/>
@@ -4794,7 +4822,7 @@
       <c r="Z55" s="24"/>
     </row>
     <row r="56" spans="1:26" ht="15">
-      <c r="A56" s="32" t="str">
+      <c r="A56" s="31" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-domino-rotations-for-equal-row/","minimum domino rotation for equal row")</f>
         <v>minimum domino rotation for equal row</v>
       </c>
@@ -4958,7 +4986,7 @@
       <c r="Z60" s="24"/>
     </row>
     <row r="61" spans="1:26" ht="15">
-      <c r="A61" s="29" t="str">
+      <c r="A61" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/smallest-range-covering-elements-from-k-lists/","smallest range from k lists")</f>
         <v>smallest range from k lists</v>
       </c>
@@ -5057,11 +5085,11 @@
       <c r="Z63" s="24"/>
     </row>
     <row r="64" spans="1:26" ht="15">
-      <c r="A64" s="29" t="str">
+      <c r="A64" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/reverse-vowels-of-a-string/","Reverse vowels of a string")</f>
         <v>Reverse vowels of a string</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="43" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="24"/>
@@ -5090,7 +5118,7 @@
       <c r="Z64" s="24"/>
     </row>
     <row r="65" spans="1:26" ht="15">
-      <c r="A65" s="29"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -5118,7 +5146,7 @@
       <c r="Z65" s="24"/>
     </row>
     <row r="66" spans="1:26" ht="15">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B66" s="24"/>
@@ -5148,7 +5176,7 @@
       <c r="Z66" s="24"/>
     </row>
     <row r="67" spans="1:26" ht="15">
-      <c r="A67" s="45" t="str">
+      <c r="A67" s="44" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/first-missing-positive/","First missing positive")</f>
         <v>First missing positive</v>
       </c>
@@ -5181,7 +5209,7 @@
       <c r="Z67" s="24"/>
     </row>
     <row r="68" spans="1:26" ht="15">
-      <c r="A68" s="45" t="str">
+      <c r="A68" s="44" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/rotate-image/","rotate image")</f>
         <v>rotate image</v>
       </c>
@@ -5214,10 +5242,10 @@
       <c r="Z68" s="24"/>
     </row>
     <row r="69" spans="1:26" ht="15">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="43" t="s">
         <v>88</v>
       </c>
       <c r="C69" s="24"/>
@@ -5246,11 +5274,11 @@
       <c r="Z69" s="24"/>
     </row>
     <row r="70" spans="1:26" ht="15">
-      <c r="A70" s="45" t="str">
+      <c r="A70" s="44" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/push-dominoes/","push dominoes")</f>
         <v>push dominoes</v>
       </c>
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="46" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="24"/>
@@ -5279,7 +5307,7 @@
       <c r="Z70" s="24"/>
     </row>
     <row r="71" spans="1:26" ht="15">
-      <c r="A71" s="31" t="str">
+      <c r="A71" s="30" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/valid-palindrome-ii/","valid pallindrome 2")</f>
         <v>valid pallindrome 2</v>
       </c>
@@ -5312,7 +5340,7 @@
       <c r="Z71" s="24"/>
     </row>
     <row r="72" spans="1:26" ht="15">
-      <c r="A72" s="45" t="s">
+      <c r="A72" s="44" t="s">
         <v>91</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -5344,10 +5372,10 @@
       <c r="Z72" s="24"/>
     </row>
     <row r="73" spans="1:26" ht="15">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="43" t="s">
         <v>94</v>
       </c>
       <c r="C73" s="24"/>
@@ -5379,7 +5407,7 @@
       <c r="A74" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="47"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
@@ -5406,7 +5434,7 @@
       <c r="Z74" s="24"/>
     </row>
     <row r="75" spans="1:26" ht="15">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="39" t="s">
         <v>96</v>
       </c>
       <c r="B75" s="24" t="s">
@@ -5438,11 +5466,11 @@
       <c r="Z75" s="24"/>
     </row>
     <row r="76" spans="1:26" ht="14.25">
-      <c r="A76" s="49" t="str">
+      <c r="A76" s="48" t="str">
         <f>HYPERLINK("https://www.codechef.com/SNCKPE19/problems/BUDDYNIM","Buddy nim")</f>
         <v>Buddy nim</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="41" t="s">
         <v>98</v>
       </c>
       <c r="C76" s="24"/>
@@ -5471,7 +5499,7 @@
       <c r="Z76" s="24"/>
     </row>
     <row r="77" spans="1:26" ht="15">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="28" t="s">
         <v>99</v>
       </c>
       <c r="B77" s="24" t="s">
@@ -5503,10 +5531,10 @@
       <c r="Z77" s="24"/>
     </row>
     <row r="78" spans="1:26" ht="15">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="43" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="24"/>
@@ -5535,10 +5563,10 @@
       <c r="Z78" s="24"/>
     </row>
     <row r="79" spans="1:26" ht="15">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="49" t="s">
         <v>104</v>
       </c>
       <c r="C79" s="24"/>
@@ -5567,11 +5595,11 @@
       <c r="Z79" s="24"/>
     </row>
     <row r="80" spans="1:26" ht="15">
-      <c r="A80" s="31" t="str">
+      <c r="A80" s="30" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays/","max sum of two non overlapping subarrays")</f>
         <v>max sum of two non overlapping subarrays</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="46" t="s">
         <v>105</v>
       </c>
       <c r="C80" s="24"/>
@@ -5600,10 +5628,10 @@
       <c r="Z80" s="24"/>
     </row>
     <row r="81" spans="1:26" ht="15">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="43" t="s">
         <v>107</v>
       </c>
       <c r="C81" s="24"/>
@@ -5632,10 +5660,10 @@
       <c r="Z81" s="24"/>
     </row>
     <row r="82" spans="1:26" ht="15">
-      <c r="A82" s="52" t="s">
+      <c r="A82" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="47"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
@@ -5692,7 +5720,7 @@
       <c r="Z83" s="24"/>
     </row>
     <row r="84" spans="1:26" ht="15">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="31" t="s">
         <v>110</v>
       </c>
       <c r="B84" s="27" t="s">
@@ -5724,7 +5752,7 @@
       <c r="Z84" s="24"/>
     </row>
     <row r="85" spans="1:26" ht="15">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="28" t="s">
         <v>112</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -5879,7 +5907,7 @@
       <c r="Z89" s="24"/>
     </row>
     <row r="90" spans="1:26" ht="18.75">
-      <c r="A90" s="53" t="s">
+      <c r="A90" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="4"/>
@@ -5912,331 +5940,331 @@
       <c r="A91" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="36"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="36"/>
-      <c r="Y91" s="36"/>
-      <c r="Z91" s="36"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="35"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="54" t="s">
+      <c r="A92" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="36"/>
-      <c r="W92" s="36"/>
-      <c r="X92" s="36"/>
-      <c r="Y92" s="36"/>
-      <c r="Z92" s="36"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="36"/>
-      <c r="U93" s="36"/>
-      <c r="V93" s="36"/>
-      <c r="W93" s="36"/>
-      <c r="X93" s="36"/>
-      <c r="Y93" s="36"/>
-      <c r="Z93" s="36"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="35"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="35"/>
+      <c r="Y93" s="35"/>
+      <c r="Z93" s="35"/>
     </row>
     <row r="94" spans="1:26" ht="12.75">
-      <c r="A94" s="56" t="s">
+      <c r="A94" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="36"/>
-      <c r="W94" s="36"/>
-      <c r="X94" s="36"/>
-      <c r="Y94" s="36"/>
-      <c r="Z94" s="36"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35"/>
     </row>
     <row r="95" spans="1:26" ht="12.75">
-      <c r="A95" s="57" t="s">
+      <c r="A95" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="36"/>
-      <c r="V95" s="36"/>
-      <c r="W95" s="36"/>
-      <c r="X95" s="36"/>
-      <c r="Y95" s="36"/>
-      <c r="Z95" s="36"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="35"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="35"/>
+      <c r="Z95" s="35"/>
     </row>
     <row r="96" spans="1:26" ht="12.75">
-      <c r="A96" s="57" t="s">
+      <c r="A96" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="36"/>
-      <c r="W96" s="36"/>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="36"/>
-      <c r="Z96" s="36"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="35"/>
+      <c r="W96" s="35"/>
+      <c r="X96" s="35"/>
+      <c r="Y96" s="35"/>
+      <c r="Z96" s="35"/>
     </row>
     <row r="97" spans="1:26" ht="15">
-      <c r="A97" s="58" t="s">
+      <c r="A97" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="36"/>
-      <c r="R97" s="36"/>
-      <c r="S97" s="36"/>
-      <c r="T97" s="36"/>
-      <c r="U97" s="36"/>
-      <c r="V97" s="36"/>
-      <c r="W97" s="36"/>
-      <c r="X97" s="36"/>
-      <c r="Y97" s="36"/>
-      <c r="Z97" s="36"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="35"/>
+      <c r="U97" s="35"/>
+      <c r="V97" s="35"/>
+      <c r="W97" s="35"/>
+      <c r="X97" s="35"/>
+      <c r="Y97" s="35"/>
+      <c r="Z97" s="35"/>
     </row>
     <row r="98" spans="1:26">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="36"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="36"/>
-      <c r="P98" s="36"/>
-      <c r="Q98" s="36"/>
-      <c r="R98" s="36"/>
-      <c r="S98" s="36"/>
-      <c r="T98" s="36"/>
-      <c r="U98" s="36"/>
-      <c r="V98" s="36"/>
-      <c r="W98" s="36"/>
-      <c r="X98" s="36"/>
-      <c r="Y98" s="36"/>
-      <c r="Z98" s="36"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="35"/>
+      <c r="U98" s="35"/>
+      <c r="V98" s="35"/>
+      <c r="W98" s="35"/>
+      <c r="X98" s="35"/>
+      <c r="Y98" s="35"/>
+      <c r="Z98" s="35"/>
     </row>
     <row r="99" spans="1:26" ht="12.75">
-      <c r="A99" s="56" t="s">
+      <c r="A99" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="36"/>
-      <c r="P99" s="36"/>
-      <c r="Q99" s="36"/>
-      <c r="R99" s="36"/>
-      <c r="S99" s="36"/>
-      <c r="T99" s="36"/>
-      <c r="U99" s="36"/>
-      <c r="V99" s="36"/>
-      <c r="W99" s="36"/>
-      <c r="X99" s="36"/>
-      <c r="Y99" s="36"/>
-      <c r="Z99" s="36"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="35"/>
+      <c r="U99" s="35"/>
+      <c r="V99" s="35"/>
+      <c r="W99" s="35"/>
+      <c r="X99" s="35"/>
+      <c r="Y99" s="35"/>
+      <c r="Z99" s="35"/>
     </row>
     <row r="100" spans="1:26" ht="12.75">
-      <c r="A100" s="57" t="s">
+      <c r="A100" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="36"/>
-      <c r="P100" s="36"/>
-      <c r="Q100" s="36"/>
-      <c r="R100" s="36"/>
-      <c r="S100" s="36"/>
-      <c r="T100" s="36"/>
-      <c r="U100" s="36"/>
-      <c r="V100" s="36"/>
-      <c r="W100" s="36"/>
-      <c r="X100" s="36"/>
-      <c r="Y100" s="36"/>
-      <c r="Z100" s="36"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="35"/>
+      <c r="U100" s="35"/>
+      <c r="V100" s="35"/>
+      <c r="W100" s="35"/>
+      <c r="X100" s="35"/>
+      <c r="Y100" s="35"/>
+      <c r="Z100" s="35"/>
     </row>
     <row r="101" spans="1:26" ht="12.75">
-      <c r="A101" s="57" t="s">
+      <c r="A101" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
-      <c r="Q101" s="36"/>
-      <c r="R101" s="36"/>
-      <c r="S101" s="36"/>
-      <c r="T101" s="36"/>
-      <c r="U101" s="36"/>
-      <c r="V101" s="36"/>
-      <c r="W101" s="36"/>
-      <c r="X101" s="36"/>
-      <c r="Y101" s="36"/>
-      <c r="Z101" s="36"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="35"/>
+      <c r="U101" s="35"/>
+      <c r="V101" s="35"/>
+      <c r="W101" s="35"/>
+      <c r="X101" s="35"/>
+      <c r="Y101" s="35"/>
+      <c r="Z101" s="35"/>
     </row>
     <row r="102" spans="1:26" ht="12.75">
       <c r="A102" s="24"/>
@@ -6267,7 +6295,7 @@
       <c r="Z102" s="24"/>
     </row>
     <row r="103" spans="1:26" ht="18.75">
-      <c r="A103" s="53" t="s">
+      <c r="A103" s="52" t="s">
         <v>129</v>
       </c>
       <c r="B103" s="4"/>
@@ -6327,7 +6355,7 @@
       <c r="Z104" s="24"/>
     </row>
     <row r="105" spans="1:26" ht="12.75">
-      <c r="A105" s="47" t="s">
+      <c r="A105" s="46" t="s">
         <v>131</v>
       </c>
       <c r="B105" s="24"/>
@@ -6357,7 +6385,7 @@
       <c r="Z105" s="24"/>
     </row>
     <row r="106" spans="1:26" ht="15">
-      <c r="A106" s="29" t="str">
+      <c r="A106" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/median-of-two-sorted-arrays/","median of two sorted array")</f>
         <v>median of two sorted array</v>
       </c>
@@ -6390,7 +6418,7 @@
       <c r="Z106" s="24"/>
     </row>
     <row r="107" spans="1:26" ht="15">
-      <c r="A107" s="45" t="str">
+      <c r="A107" s="44" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/","capacity to ship within D days")</f>
         <v>capacity to ship within D days</v>
       </c>
@@ -6423,7 +6451,7 @@
       <c r="Z107" s="24"/>
     </row>
     <row r="108" spans="1:26" ht="15">
-      <c r="A108" s="31" t="str">
+      <c r="A108" s="30" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/koko-eating-bananas/","koko eating bananas")</f>
         <v>koko eating bananas</v>
       </c>
@@ -6489,7 +6517,7 @@
       <c r="Z109" s="24"/>
     </row>
     <row r="110" spans="1:26" ht="15">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="28" t="s">
         <v>136</v>
       </c>
       <c r="B110" s="24" t="s">
@@ -6554,7 +6582,7 @@
       <c r="Z111" s="24"/>
     </row>
     <row r="112" spans="1:26" ht="15">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="29" t="s">
         <v>139</v>
       </c>
       <c r="B112" s="24"/>
@@ -6584,7 +6612,7 @@
       <c r="Z112" s="24"/>
     </row>
     <row r="113" spans="1:26" ht="15">
-      <c r="A113" s="40" t="s">
+      <c r="A113" s="39" t="s">
         <v>140</v>
       </c>
       <c r="B113" s="24" t="s">
@@ -6616,7 +6644,7 @@
       <c r="Z113" s="24"/>
     </row>
     <row r="114" spans="1:26" ht="15">
-      <c r="A114" s="29" t="str">
+      <c r="A114" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-th-smallest-prime-fraction/","Kth smallest prime fraction")</f>
         <v>Kth smallest prime fraction</v>
       </c>
@@ -6649,7 +6677,7 @@
       <c r="Z114" s="24"/>
     </row>
     <row r="115" spans="1:26" ht="15">
-      <c r="A115" s="29" t="str">
+      <c r="A115" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/search-in-rotated-sorted-array/","search in rotated sorted array")</f>
         <v>search in rotated sorted array</v>
       </c>
@@ -6682,10 +6710,10 @@
       <c r="Z115" s="24"/>
     </row>
     <row r="116" spans="1:26" ht="15">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B116" s="44" t="s">
+      <c r="B116" s="43" t="s">
         <v>144</v>
       </c>
       <c r="C116" s="24"/>
@@ -6714,10 +6742,10 @@
       <c r="Z116" s="24"/>
     </row>
     <row r="117" spans="1:26" ht="15">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B117" s="50" t="s">
+      <c r="B117" s="49" t="s">
         <v>146</v>
       </c>
       <c r="C117" s="24"/>
@@ -6746,10 +6774,10 @@
       <c r="Z117" s="24"/>
     </row>
     <row r="118" spans="1:26" ht="15">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="50" t="s">
+      <c r="B118" s="49" t="s">
         <v>148</v>
       </c>
       <c r="C118" s="24"/>
@@ -6778,14 +6806,14 @@
       <c r="Z118" s="24"/>
     </row>
     <row r="119" spans="1:26" ht="14.25">
-      <c r="A119" s="59" t="str">
+      <c r="A119" s="58" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/counting-sort/","counting sort")</f>
         <v>counting sort</v>
       </c>
-      <c r="B119" s="60" t="s">
+      <c r="B119" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C119" s="42"/>
+      <c r="C119" s="41"/>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
@@ -6811,14 +6839,14 @@
       <c r="Z119" s="24"/>
     </row>
     <row r="120" spans="1:26" ht="14.25">
-      <c r="A120" s="59" t="str">
+      <c r="A120" s="58" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/merge-sort/","merge sort")</f>
         <v>merge sort</v>
       </c>
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C120" s="42"/>
+      <c r="C120" s="41"/>
       <c r="D120" s="24"/>
       <c r="E120" s="24"/>
       <c r="F120" s="24"/>
@@ -6844,7 +6872,7 @@
       <c r="Z120" s="24"/>
     </row>
     <row r="121" spans="1:26" ht="15">
-      <c r="A121" s="61" t="str">
+      <c r="A121" s="60" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/counting-inversions/","count inversions")</f>
         <v>count inversions</v>
       </c>
@@ -6877,7 +6905,7 @@
       <c r="Z121" s="24"/>
     </row>
     <row r="122" spans="1:26" ht="18.75">
-      <c r="A122" s="62" t="s">
+      <c r="A122" s="61" t="s">
         <v>152</v>
       </c>
       <c r="B122" s="4"/>
@@ -6937,7 +6965,7 @@
       <c r="Z123" s="24"/>
     </row>
     <row r="124" spans="1:26" ht="15">
-      <c r="A124" s="40" t="str">
+      <c r="A124" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/reverse-linked-list/","reverse LinkedList")</f>
         <v>reverse LinkedList</v>
       </c>
@@ -6970,7 +6998,7 @@
       <c r="Z124" s="24"/>
     </row>
     <row r="125" spans="1:26" ht="15">
-      <c r="A125" s="63" t="s">
+      <c r="A125" s="62" t="s">
         <v>155</v>
       </c>
       <c r="B125" s="24"/>
@@ -7000,7 +7028,7 @@
       <c r="Z125" s="24"/>
     </row>
     <row r="126" spans="1:26" ht="15">
-      <c r="A126" s="40" t="str">
+      <c r="A126" s="39" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/write-a-c-function-to-print-the-middle-of-the-linked-list/","Find the middle element")</f>
         <v>Find the middle element</v>
       </c>
@@ -7033,7 +7061,7 @@
       <c r="Z126" s="24"/>
     </row>
     <row r="127" spans="1:26" ht="15">
-      <c r="A127" s="29" t="str">
+      <c r="A127" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/detect-loop-in-a-linked-list/","Floyd cycle")</f>
         <v>Floyd cycle</v>
       </c>
@@ -7066,7 +7094,7 @@
       <c r="Z127" s="24"/>
     </row>
     <row r="128" spans="1:26" ht="15">
-      <c r="A128" s="29" t="str">
+      <c r="A128" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/a-linked-list-with-next-and-arbit-pointer/","Clone a linkedlist")</f>
         <v>Clone a linkedlist</v>
       </c>
@@ -7099,10 +7127,10 @@
       <c r="Z128" s="24"/>
     </row>
     <row r="129" spans="1:26" ht="15">
-      <c r="A129" s="29" t="s">
+      <c r="A129" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B129" s="44" t="s">
+      <c r="B129" s="43" t="s">
         <v>160</v>
       </c>
       <c r="C129" s="24"/>
@@ -7131,7 +7159,7 @@
       <c r="Z129" s="24"/>
     </row>
     <row r="130" spans="1:26" ht="15">
-      <c r="A130" s="58" t="s">
+      <c r="A130" s="57" t="s">
         <v>161</v>
       </c>
       <c r="B130" s="24"/>
@@ -7164,10 +7192,10 @@
       <c r="A131" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="42" t="s">
+      <c r="B131" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="C131" s="42"/>
+      <c r="C131" s="41"/>
       <c r="D131" s="24"/>
       <c r="E131" s="24"/>
       <c r="F131" s="24"/>
@@ -7193,7 +7221,7 @@
       <c r="Z131" s="24"/>
     </row>
     <row r="132" spans="1:26" ht="15">
-      <c r="A132" s="29" t="str">
+      <c r="A132" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/lru-cache/","LRU Cache")</f>
         <v>LRU Cache</v>
       </c>
@@ -7226,286 +7254,286 @@
       <c r="Z132" s="24"/>
     </row>
     <row r="133" spans="1:26" ht="15">
-      <c r="A133" s="64" t="s">
+      <c r="A133" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="B133" s="64"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="36"/>
-      <c r="L133" s="36"/>
-      <c r="M133" s="36"/>
-      <c r="N133" s="36"/>
-      <c r="O133" s="36"/>
-      <c r="P133" s="36"/>
-      <c r="Q133" s="36"/>
-      <c r="R133" s="36"/>
-      <c r="S133" s="36"/>
-      <c r="T133" s="36"/>
-      <c r="U133" s="36"/>
-      <c r="V133" s="36"/>
-      <c r="W133" s="36"/>
-      <c r="X133" s="36"/>
-      <c r="Y133" s="36"/>
-      <c r="Z133" s="36"/>
+      <c r="B133" s="63"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
+      <c r="N133" s="35"/>
+      <c r="O133" s="35"/>
+      <c r="P133" s="35"/>
+      <c r="Q133" s="35"/>
+      <c r="R133" s="35"/>
+      <c r="S133" s="35"/>
+      <c r="T133" s="35"/>
+      <c r="U133" s="35"/>
+      <c r="V133" s="35"/>
+      <c r="W133" s="35"/>
+      <c r="X133" s="35"/>
+      <c r="Y133" s="35"/>
+      <c r="Z133" s="35"/>
     </row>
     <row r="134" spans="1:26" ht="15">
-      <c r="A134" s="64" t="s">
+      <c r="A134" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="B134" s="64"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-      <c r="I134" s="36"/>
-      <c r="J134" s="36"/>
-      <c r="K134" s="36"/>
-      <c r="L134" s="36"/>
-      <c r="M134" s="36"/>
-      <c r="N134" s="36"/>
-      <c r="O134" s="36"/>
-      <c r="P134" s="36"/>
-      <c r="Q134" s="36"/>
-      <c r="R134" s="36"/>
-      <c r="S134" s="36"/>
-      <c r="T134" s="36"/>
-      <c r="U134" s="36"/>
-      <c r="V134" s="36"/>
-      <c r="W134" s="36"/>
-      <c r="X134" s="36"/>
-      <c r="Y134" s="36"/>
-      <c r="Z134" s="36"/>
+      <c r="B134" s="63"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="35"/>
+      <c r="J134" s="35"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="35"/>
+      <c r="M134" s="35"/>
+      <c r="N134" s="35"/>
+      <c r="O134" s="35"/>
+      <c r="P134" s="35"/>
+      <c r="Q134" s="35"/>
+      <c r="R134" s="35"/>
+      <c r="S134" s="35"/>
+      <c r="T134" s="35"/>
+      <c r="U134" s="35"/>
+      <c r="V134" s="35"/>
+      <c r="W134" s="35"/>
+      <c r="X134" s="35"/>
+      <c r="Y134" s="35"/>
+      <c r="Z134" s="35"/>
     </row>
     <row r="135" spans="1:26" ht="15">
-      <c r="A135" s="64" t="s">
+      <c r="A135" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="B135" s="64"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="36"/>
-      <c r="L135" s="36"/>
-      <c r="M135" s="36"/>
-      <c r="N135" s="36"/>
-      <c r="O135" s="36"/>
-      <c r="P135" s="36"/>
-      <c r="Q135" s="36"/>
-      <c r="R135" s="36"/>
-      <c r="S135" s="36"/>
-      <c r="T135" s="36"/>
-      <c r="U135" s="36"/>
-      <c r="V135" s="36"/>
-      <c r="W135" s="36"/>
-      <c r="X135" s="36"/>
-      <c r="Y135" s="36"/>
-      <c r="Z135" s="36"/>
+      <c r="B135" s="63"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+      <c r="J135" s="35"/>
+      <c r="K135" s="35"/>
+      <c r="L135" s="35"/>
+      <c r="M135" s="35"/>
+      <c r="N135" s="35"/>
+      <c r="O135" s="35"/>
+      <c r="P135" s="35"/>
+      <c r="Q135" s="35"/>
+      <c r="R135" s="35"/>
+      <c r="S135" s="35"/>
+      <c r="T135" s="35"/>
+      <c r="U135" s="35"/>
+      <c r="V135" s="35"/>
+      <c r="W135" s="35"/>
+      <c r="X135" s="35"/>
+      <c r="Y135" s="35"/>
+      <c r="Z135" s="35"/>
     </row>
     <row r="136" spans="1:26" ht="15">
-      <c r="A136" s="64" t="s">
+      <c r="A136" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B136" s="64"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
-      <c r="L136" s="36"/>
-      <c r="M136" s="36"/>
-      <c r="N136" s="36"/>
-      <c r="O136" s="36"/>
-      <c r="P136" s="36"/>
-      <c r="Q136" s="36"/>
-      <c r="R136" s="36"/>
-      <c r="S136" s="36"/>
-      <c r="T136" s="36"/>
-      <c r="U136" s="36"/>
-      <c r="V136" s="36"/>
-      <c r="W136" s="36"/>
-      <c r="X136" s="36"/>
-      <c r="Y136" s="36"/>
-      <c r="Z136" s="36"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="35"/>
+      <c r="J136" s="35"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="35"/>
+      <c r="M136" s="35"/>
+      <c r="N136" s="35"/>
+      <c r="O136" s="35"/>
+      <c r="P136" s="35"/>
+      <c r="Q136" s="35"/>
+      <c r="R136" s="35"/>
+      <c r="S136" s="35"/>
+      <c r="T136" s="35"/>
+      <c r="U136" s="35"/>
+      <c r="V136" s="35"/>
+      <c r="W136" s="35"/>
+      <c r="X136" s="35"/>
+      <c r="Y136" s="35"/>
+      <c r="Z136" s="35"/>
     </row>
     <row r="137" spans="1:26" ht="15">
-      <c r="A137" s="58" t="s">
+      <c r="A137" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="B137" s="64"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="36"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="36"/>
-      <c r="L137" s="36"/>
-      <c r="M137" s="36"/>
-      <c r="N137" s="36"/>
-      <c r="O137" s="36"/>
-      <c r="P137" s="36"/>
-      <c r="Q137" s="36"/>
-      <c r="R137" s="36"/>
-      <c r="S137" s="36"/>
-      <c r="T137" s="36"/>
-      <c r="U137" s="36"/>
-      <c r="V137" s="36"/>
-      <c r="W137" s="36"/>
-      <c r="X137" s="36"/>
-      <c r="Y137" s="36"/>
-      <c r="Z137" s="36"/>
+      <c r="B137" s="63"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="35"/>
+      <c r="J137" s="35"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="35"/>
+      <c r="M137" s="35"/>
+      <c r="N137" s="35"/>
+      <c r="O137" s="35"/>
+      <c r="P137" s="35"/>
+      <c r="Q137" s="35"/>
+      <c r="R137" s="35"/>
+      <c r="S137" s="35"/>
+      <c r="T137" s="35"/>
+      <c r="U137" s="35"/>
+      <c r="V137" s="35"/>
+      <c r="W137" s="35"/>
+      <c r="X137" s="35"/>
+      <c r="Y137" s="35"/>
+      <c r="Z137" s="35"/>
     </row>
     <row r="138" spans="1:26" ht="15">
-      <c r="A138" s="65" t="s">
+      <c r="A138" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B138" s="64"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="36"/>
-      <c r="L138" s="36"/>
-      <c r="M138" s="36"/>
-      <c r="N138" s="36"/>
-      <c r="O138" s="36"/>
-      <c r="P138" s="36"/>
-      <c r="Q138" s="36"/>
-      <c r="R138" s="36"/>
-      <c r="S138" s="36"/>
-      <c r="T138" s="36"/>
-      <c r="U138" s="36"/>
-      <c r="V138" s="36"/>
-      <c r="W138" s="36"/>
-      <c r="X138" s="36"/>
-      <c r="Y138" s="36"/>
-      <c r="Z138" s="36"/>
+      <c r="B138" s="63"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="35"/>
+      <c r="J138" s="35"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="35"/>
+      <c r="M138" s="35"/>
+      <c r="N138" s="35"/>
+      <c r="O138" s="35"/>
+      <c r="P138" s="35"/>
+      <c r="Q138" s="35"/>
+      <c r="R138" s="35"/>
+      <c r="S138" s="35"/>
+      <c r="T138" s="35"/>
+      <c r="U138" s="35"/>
+      <c r="V138" s="35"/>
+      <c r="W138" s="35"/>
+      <c r="X138" s="35"/>
+      <c r="Y138" s="35"/>
+      <c r="Z138" s="35"/>
     </row>
     <row r="139" spans="1:26" ht="15">
-      <c r="A139" s="64" t="s">
+      <c r="A139" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="B139" s="64"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="36"/>
-      <c r="E139" s="36"/>
-      <c r="F139" s="36"/>
-      <c r="G139" s="36"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="36"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="36"/>
-      <c r="L139" s="36"/>
-      <c r="M139" s="36"/>
-      <c r="N139" s="36"/>
-      <c r="O139" s="36"/>
-      <c r="P139" s="36"/>
-      <c r="Q139" s="36"/>
-      <c r="R139" s="36"/>
-      <c r="S139" s="36"/>
-      <c r="T139" s="36"/>
-      <c r="U139" s="36"/>
-      <c r="V139" s="36"/>
-      <c r="W139" s="36"/>
-      <c r="X139" s="36"/>
-      <c r="Y139" s="36"/>
-      <c r="Z139" s="36"/>
+      <c r="B139" s="63"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="35"/>
+      <c r="G139" s="35"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="35"/>
+      <c r="J139" s="35"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="35"/>
+      <c r="M139" s="35"/>
+      <c r="N139" s="35"/>
+      <c r="O139" s="35"/>
+      <c r="P139" s="35"/>
+      <c r="Q139" s="35"/>
+      <c r="R139" s="35"/>
+      <c r="S139" s="35"/>
+      <c r="T139" s="35"/>
+      <c r="U139" s="35"/>
+      <c r="V139" s="35"/>
+      <c r="W139" s="35"/>
+      <c r="X139" s="35"/>
+      <c r="Y139" s="35"/>
+      <c r="Z139" s="35"/>
     </row>
     <row r="140" spans="1:26" ht="15">
-      <c r="A140" s="64" t="s">
+      <c r="A140" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="B140" s="64"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36"/>
-      <c r="L140" s="36"/>
-      <c r="M140" s="36"/>
-      <c r="N140" s="36"/>
-      <c r="O140" s="36"/>
-      <c r="P140" s="36"/>
-      <c r="Q140" s="36"/>
-      <c r="R140" s="36"/>
-      <c r="S140" s="36"/>
-      <c r="T140" s="36"/>
-      <c r="U140" s="36"/>
-      <c r="V140" s="36"/>
-      <c r="W140" s="36"/>
-      <c r="X140" s="36"/>
-      <c r="Y140" s="36"/>
-      <c r="Z140" s="36"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="35"/>
+      <c r="J140" s="35"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="35"/>
+      <c r="M140" s="35"/>
+      <c r="N140" s="35"/>
+      <c r="O140" s="35"/>
+      <c r="P140" s="35"/>
+      <c r="Q140" s="35"/>
+      <c r="R140" s="35"/>
+      <c r="S140" s="35"/>
+      <c r="T140" s="35"/>
+      <c r="U140" s="35"/>
+      <c r="V140" s="35"/>
+      <c r="W140" s="35"/>
+      <c r="X140" s="35"/>
+      <c r="Y140" s="35"/>
+      <c r="Z140" s="35"/>
     </row>
     <row r="141" spans="1:26" ht="15">
-      <c r="A141" s="64" t="s">
+      <c r="A141" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="B141" s="64"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="36"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="36"/>
-      <c r="I141" s="36"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="36"/>
-      <c r="L141" s="36"/>
-      <c r="M141" s="36"/>
-      <c r="N141" s="36"/>
-      <c r="O141" s="36"/>
-      <c r="P141" s="36"/>
-      <c r="Q141" s="36"/>
-      <c r="R141" s="36"/>
-      <c r="S141" s="36"/>
-      <c r="T141" s="36"/>
-      <c r="U141" s="36"/>
-      <c r="V141" s="36"/>
-      <c r="W141" s="36"/>
-      <c r="X141" s="36"/>
-      <c r="Y141" s="36"/>
-      <c r="Z141" s="36"/>
+      <c r="B141" s="63"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="35"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="35"/>
+      <c r="J141" s="35"/>
+      <c r="K141" s="35"/>
+      <c r="L141" s="35"/>
+      <c r="M141" s="35"/>
+      <c r="N141" s="35"/>
+      <c r="O141" s="35"/>
+      <c r="P141" s="35"/>
+      <c r="Q141" s="35"/>
+      <c r="R141" s="35"/>
+      <c r="S141" s="35"/>
+      <c r="T141" s="35"/>
+      <c r="U141" s="35"/>
+      <c r="V141" s="35"/>
+      <c r="W141" s="35"/>
+      <c r="X141" s="35"/>
+      <c r="Y141" s="35"/>
+      <c r="Z141" s="35"/>
     </row>
     <row r="142" spans="1:26" ht="15">
-      <c r="A142" s="64" t="s">
+      <c r="A142" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="B142" s="66"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="36"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="35"/>
       <c r="I142" s="24"/>
       <c r="J142" s="24"/>
       <c r="K142" s="24"/>
@@ -7526,34 +7554,34 @@
       <c r="Z142" s="24"/>
     </row>
     <row r="143" spans="1:26" ht="15">
-      <c r="A143" s="65" t="s">
+      <c r="A143" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="B143" s="67"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="36"/>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="36"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="36"/>
-      <c r="L143" s="36"/>
-      <c r="M143" s="36"/>
-      <c r="N143" s="36"/>
-      <c r="O143" s="36"/>
-      <c r="P143" s="36"/>
-      <c r="Q143" s="36"/>
-      <c r="R143" s="36"/>
-      <c r="S143" s="36"/>
-      <c r="T143" s="36"/>
-      <c r="U143" s="36"/>
-      <c r="V143" s="36"/>
-      <c r="W143" s="36"/>
-      <c r="X143" s="36"/>
-      <c r="Y143" s="36"/>
-      <c r="Z143" s="36"/>
+      <c r="B143" s="66"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="35"/>
+      <c r="K143" s="35"/>
+      <c r="L143" s="35"/>
+      <c r="M143" s="35"/>
+      <c r="N143" s="35"/>
+      <c r="O143" s="35"/>
+      <c r="P143" s="35"/>
+      <c r="Q143" s="35"/>
+      <c r="R143" s="35"/>
+      <c r="S143" s="35"/>
+      <c r="T143" s="35"/>
+      <c r="U143" s="35"/>
+      <c r="V143" s="35"/>
+      <c r="W143" s="35"/>
+      <c r="X143" s="35"/>
+      <c r="Y143" s="35"/>
+      <c r="Z143" s="35"/>
     </row>
     <row r="144" spans="1:26" ht="18.75">
       <c r="A144" s="22" t="s">
@@ -7620,10 +7648,10 @@
         <f>HYPERLINK("https://www.geeksforgeeks.org/next-greater-element/","Next Greater Element on right")</f>
         <v>Next Greater Element on right</v>
       </c>
-      <c r="B146" s="42" t="s">
+      <c r="B146" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C146" s="42"/>
+      <c r="C146" s="41"/>
       <c r="D146" s="24"/>
       <c r="E146" s="24"/>
       <c r="F146" s="24"/>
@@ -7649,14 +7677,14 @@
       <c r="Z146" s="24"/>
     </row>
     <row r="147" spans="1:26" ht="14.25">
-      <c r="A147" s="49" t="str">
+      <c r="A147" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/next-greater-element-ii/","Next Greater Element 2")</f>
         <v>Next Greater Element 2</v>
       </c>
-      <c r="B147" s="42" t="s">
+      <c r="B147" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C147" s="42"/>
+      <c r="C147" s="41"/>
       <c r="D147" s="24"/>
       <c r="E147" s="24"/>
       <c r="F147" s="24"/>
@@ -7682,14 +7710,14 @@
       <c r="Z147" s="24"/>
     </row>
     <row r="148" spans="1:26" ht="14.25">
-      <c r="A148" s="49" t="str">
+      <c r="A148" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/daily-temperatures/","Daily Temperatures")</f>
         <v>Daily Temperatures</v>
       </c>
-      <c r="B148" s="42" t="s">
+      <c r="B148" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C148" s="42"/>
+      <c r="C148" s="41"/>
       <c r="D148" s="24"/>
       <c r="E148" s="24"/>
       <c r="F148" s="24"/>
@@ -7715,14 +7743,14 @@
       <c r="Z148" s="24"/>
     </row>
     <row r="149" spans="1:26" ht="14.25">
-      <c r="A149" s="49" t="str">
+      <c r="A149" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/the-stock-span-problem/","Stock Span Problem")</f>
         <v>Stock Span Problem</v>
       </c>
-      <c r="B149" s="42" t="s">
+      <c r="B149" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C149" s="42"/>
+      <c r="C149" s="41"/>
       <c r="D149" s="24"/>
       <c r="E149" s="24"/>
       <c r="F149" s="24"/>
@@ -7748,14 +7776,14 @@
       <c r="Z149" s="24"/>
     </row>
     <row r="150" spans="1:26" ht="14.25">
-      <c r="A150" s="49" t="str">
+      <c r="A150" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-maximum-difference-between-nearest-left-and-right-smaller-elements/","maximum difference between left and right smaller")</f>
         <v>maximum difference between left and right smaller</v>
       </c>
-      <c r="B150" s="42" t="s">
+      <c r="B150" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C150" s="42"/>
+      <c r="C150" s="41"/>
       <c r="D150" s="24"/>
       <c r="E150" s="24"/>
       <c r="F150" s="24"/>
@@ -7781,14 +7809,14 @@
       <c r="Z150" s="24"/>
     </row>
     <row r="151" spans="1:26" ht="14.25">
-      <c r="A151" s="49" t="str">
+      <c r="A151" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/largest-rectangle-in-histogram/","Largest Rectangular Area Histogram")</f>
         <v>Largest Rectangular Area Histogram</v>
       </c>
-      <c r="B151" s="42" t="s">
+      <c r="B151" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="42"/>
+      <c r="C151" s="41"/>
       <c r="D151" s="24"/>
       <c r="E151" s="24"/>
       <c r="F151" s="24"/>
@@ -7814,14 +7842,14 @@
       <c r="Z151" s="24"/>
     </row>
     <row r="152" spans="1:26" ht="14.25">
-      <c r="A152" s="49" t="str">
+      <c r="A152" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximal-rectangle/","maximu size binary matrix containing 1")</f>
         <v>maximu size binary matrix containing 1</v>
       </c>
-      <c r="B152" s="42" t="s">
+      <c r="B152" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="C152" s="42"/>
+      <c r="C152" s="41"/>
       <c r="D152" s="24"/>
       <c r="E152" s="24"/>
       <c r="F152" s="24"/>
@@ -7847,14 +7875,14 @@
       <c r="Z152" s="24"/>
     </row>
     <row r="153" spans="1:26" ht="14.25">
-      <c r="A153" s="49" t="str">
+      <c r="A153" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/asteroid-collision/","Asteroid Collision")</f>
         <v>Asteroid Collision</v>
       </c>
-      <c r="B153" s="42" t="s">
+      <c r="B153" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="C153" s="42"/>
+      <c r="C153" s="41"/>
       <c r="D153" s="24"/>
       <c r="E153" s="24"/>
       <c r="F153" s="24"/>
@@ -7880,7 +7908,7 @@
       <c r="Z153" s="24"/>
     </row>
     <row r="154" spans="1:26" ht="15">
-      <c r="A154" s="30" t="s">
+      <c r="A154" s="29" t="s">
         <v>186</v>
       </c>
       <c r="B154" s="24"/>
@@ -7914,10 +7942,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/valid-parentheses/","Valid Parentheses")</f>
         <v>Valid Parentheses</v>
       </c>
-      <c r="B155" s="42" t="s">
+      <c r="B155" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="C155" s="42"/>
+      <c r="C155" s="41"/>
       <c r="D155" s="24"/>
       <c r="E155" s="24"/>
       <c r="F155" s="24"/>
@@ -7943,14 +7971,14 @@
       <c r="Z155" s="24"/>
     </row>
     <row r="156" spans="1:26" ht="14.25">
-      <c r="A156" s="49" t="str">
+      <c r="A156" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/","Length of longest valid substring")</f>
         <v>Length of longest valid substring</v>
       </c>
-      <c r="B156" s="42" t="s">
+      <c r="B156" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="42"/>
+      <c r="C156" s="41"/>
       <c r="D156" s="24"/>
       <c r="E156" s="24"/>
       <c r="F156" s="24"/>
@@ -7976,11 +8004,11 @@
       <c r="Z156" s="24"/>
     </row>
     <row r="157" spans="1:26" ht="14.25">
-      <c r="A157" s="49" t="str">
+      <c r="A157" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/","Count of duplicate Parentheses")</f>
         <v>Count of duplicate Parentheses</v>
       </c>
-      <c r="B157" s="42" t="s">
+      <c r="B157" s="41" t="s">
         <v>189</v>
       </c>
       <c r="C157" s="24"/>
@@ -8009,14 +8037,14 @@
       <c r="Z157" s="24"/>
     </row>
     <row r="158" spans="1:26" ht="14.25">
-      <c r="A158" s="49" t="str">
+      <c r="A158" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-of-bracket-reversals-needed-to-make-an-expression-balanced/","Minimum Number of bracket reversal")</f>
         <v>Minimum Number of bracket reversal</v>
       </c>
-      <c r="B158" s="42" t="s">
+      <c r="B158" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="42"/>
+      <c r="C158" s="41"/>
       <c r="D158" s="24"/>
       <c r="E158" s="24"/>
       <c r="F158" s="24"/>
@@ -8042,11 +8070,11 @@
       <c r="Z158" s="24"/>
     </row>
     <row r="159" spans="1:26" ht="14.25">
-      <c r="A159" s="49" t="str">
+      <c r="A159" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-add-to-make-parentheses-valid/","Minimum Add To make Parentheses Valid")</f>
         <v>Minimum Add To make Parentheses Valid</v>
       </c>
-      <c r="B159" s="42" t="s">
+      <c r="B159" s="41" t="s">
         <v>191</v>
       </c>
       <c r="C159" s="24"/>
@@ -8075,14 +8103,14 @@
       <c r="Z159" s="24"/>
     </row>
     <row r="160" spans="1:26" ht="14.25">
-      <c r="A160" s="49" t="str">
+      <c r="A160" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/remove-k-digits/","Remove K digits From number")</f>
         <v>Remove K digits From number</v>
       </c>
-      <c r="B160" s="42" t="s">
+      <c r="B160" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="42"/>
+      <c r="C160" s="41"/>
       <c r="D160" s="24"/>
       <c r="E160" s="24"/>
       <c r="F160" s="24"/>
@@ -8108,11 +8136,11 @@
       <c r="Z160" s="24"/>
     </row>
     <row r="161" spans="1:26" ht="14.25">
-      <c r="A161" s="42" t="s">
+      <c r="A161" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="B161" s="42"/>
-      <c r="C161" s="42"/>
+      <c r="B161" s="41"/>
+      <c r="C161" s="41"/>
       <c r="D161" s="24"/>
       <c r="E161" s="24"/>
       <c r="F161" s="24"/>
@@ -8138,14 +8166,14 @@
       <c r="Z161" s="24"/>
     </row>
     <row r="162" spans="1:26" ht="14.25">
-      <c r="A162" s="49" t="str">
+      <c r="A162" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/first-negative-integer-every-window-size-k/","First negative Integer in k sized window")</f>
         <v>First negative Integer in k sized window</v>
       </c>
-      <c r="B162" s="42" t="s">
+      <c r="B162" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="42"/>
+      <c r="C162" s="41"/>
       <c r="D162" s="24"/>
       <c r="E162" s="24"/>
       <c r="F162" s="24"/>
@@ -8171,7 +8199,7 @@
       <c r="Z162" s="24"/>
     </row>
     <row r="163" spans="1:26" ht="15">
-      <c r="A163" s="29" t="str">
+      <c r="A163" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/maximum-sum-of-smallest-and-second-smallest-in-an-array/","Maximum sum of smallest and second smallest")</f>
         <v>Maximum sum of smallest and second smallest</v>
       </c>
@@ -8204,11 +8232,11 @@
       <c r="Z163" s="24"/>
     </row>
     <row r="164" spans="1:26" ht="15">
-      <c r="A164" s="29" t="str">
+      <c r="A164" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/reversing-first-k-elements-queue/","K reverse in a queue")</f>
         <v>K reverse in a queue</v>
       </c>
-      <c r="B164" s="44" t="s">
+      <c r="B164" s="43" t="s">
         <v>196</v>
       </c>
       <c r="C164" s="24"/>
@@ -8237,7 +8265,7 @@
       <c r="Z164" s="24"/>
     </row>
     <row r="165" spans="1:26" ht="15">
-      <c r="A165" s="29" t="str">
+      <c r="A165" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/","K stacks in a single array")</f>
         <v>K stacks in a single array</v>
       </c>
@@ -8270,7 +8298,7 @@
       <c r="Z165" s="24"/>
     </row>
     <row r="166" spans="1:26" ht="15">
-      <c r="A166" s="29"/>
+      <c r="A166" s="28"/>
       <c r="B166" s="24"/>
       <c r="C166" s="24"/>
       <c r="D166" s="24"/>
@@ -8298,7 +8326,7 @@
       <c r="Z166" s="24"/>
     </row>
     <row r="167" spans="1:26" ht="15">
-      <c r="A167" s="30" t="s">
+      <c r="A167" s="29" t="s">
         <v>198</v>
       </c>
       <c r="B167" s="24"/>
@@ -8328,7 +8356,7 @@
       <c r="Z167" s="24"/>
     </row>
     <row r="168" spans="1:26" ht="15">
-      <c r="A168" s="40" t="s">
+      <c r="A168" s="39" t="s">
         <v>199</v>
       </c>
       <c r="B168" s="24" t="s">
@@ -8360,7 +8388,7 @@
       <c r="Z168" s="24"/>
     </row>
     <row r="169" spans="1:26" ht="15">
-      <c r="A169" s="29" t="str">
+      <c r="A169" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/gas-station/","Gas Station")</f>
         <v>Gas Station</v>
       </c>
@@ -8393,14 +8421,14 @@
       <c r="Z169" s="24"/>
     </row>
     <row r="170" spans="1:26" ht="14.25">
-      <c r="A170" s="49" t="str">
+      <c r="A170" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/interesting-method-generate-binary-numbers-1-n/","Print Binary Number")</f>
         <v>Print Binary Number</v>
       </c>
-      <c r="B170" s="42" t="s">
+      <c r="B170" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="C170" s="42"/>
+      <c r="C170" s="41"/>
       <c r="D170" s="24"/>
       <c r="E170" s="24"/>
       <c r="F170" s="24"/>
@@ -8426,13 +8454,13 @@
       <c r="Z170" s="24"/>
     </row>
     <row r="171" spans="1:26" ht="15">
-      <c r="A171" s="29" t="s">
+      <c r="A171" s="28" t="s">
         <v>203</v>
       </c>
       <c r="B171" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C171" s="42"/>
+      <c r="C171" s="41"/>
       <c r="D171" s="24"/>
       <c r="E171" s="24"/>
       <c r="F171" s="24"/>
@@ -8458,14 +8486,14 @@
       <c r="Z171" s="24"/>
     </row>
     <row r="172" spans="1:26" ht="14.25">
-      <c r="A172" s="49" t="str">
+      <c r="A172" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/backspace-string-compare/","Backspace String Compare")</f>
         <v>Backspace String Compare</v>
       </c>
-      <c r="B172" s="42" t="s">
+      <c r="B172" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="C172" s="42"/>
+      <c r="C172" s="41"/>
       <c r="D172" s="24"/>
       <c r="E172" s="24"/>
       <c r="F172" s="24"/>
@@ -8491,14 +8519,14 @@
       <c r="Z172" s="24"/>
     </row>
     <row r="173" spans="1:26" ht="14.25">
-      <c r="A173" s="49" t="str">
+      <c r="A173" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/car-fleet/","Car fleet")</f>
         <v>Car fleet</v>
       </c>
-      <c r="B173" s="42" t="s">
+      <c r="B173" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="C173" s="42"/>
+      <c r="C173" s="41"/>
       <c r="D173" s="24"/>
       <c r="E173" s="24"/>
       <c r="F173" s="24"/>
@@ -8524,7 +8552,7 @@
       <c r="Z173" s="24"/>
     </row>
     <row r="174" spans="1:26" ht="15">
-      <c r="A174" s="29" t="str">
+      <c r="A174" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/validate-stack-sequences/","Validate Stack")</f>
         <v>Validate Stack</v>
       </c>
@@ -8557,7 +8585,7 @@
       <c r="Z174" s="24"/>
     </row>
     <row r="175" spans="1:26" ht="15">
-      <c r="A175" s="30" t="s">
+      <c r="A175" s="29" t="s">
         <v>208</v>
       </c>
       <c r="B175" s="24"/>
@@ -8587,7 +8615,7 @@
       <c r="Z175" s="24"/>
     </row>
     <row r="176" spans="1:26" ht="15">
-      <c r="A176" s="45" t="str">
+      <c r="A176" s="44" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-frequency-stack/","max frequency stack")</f>
         <v>max frequency stack</v>
       </c>
@@ -8620,7 +8648,7 @@
       <c r="Z176" s="24"/>
     </row>
     <row r="177" spans="1:26" ht="15">
-      <c r="A177" s="45" t="str">
+      <c r="A177" s="44" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/min-stack/","Min Stack")</f>
         <v>Min Stack</v>
       </c>
@@ -8683,7 +8711,7 @@
       <c r="Z178" s="24"/>
     </row>
     <row r="179" spans="1:26" ht="15">
-      <c r="A179" s="29" t="s">
+      <c r="A179" s="28" t="s">
         <v>212</v>
       </c>
       <c r="B179" s="24"/>
@@ -8713,7 +8741,7 @@
       <c r="Z179" s="24"/>
     </row>
     <row r="180" spans="1:26" ht="18.75">
-      <c r="A180" s="68" t="s">
+      <c r="A180" s="67" t="s">
         <v>10</v>
       </c>
       <c r="B180" s="4"/>
@@ -8773,7 +8801,7 @@
       <c r="Z181" s="24"/>
     </row>
     <row r="182" spans="1:26" ht="15">
-      <c r="A182" s="40" t="str">
+      <c r="A182" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-inorder-traversal/","Inorder Traversal")</f>
         <v>Inorder Traversal</v>
       </c>
@@ -8806,7 +8834,7 @@
       <c r="Z182" s="24"/>
     </row>
     <row r="183" spans="1:26" ht="15">
-      <c r="A183" s="29" t="str">
+      <c r="A183" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-preorder-traversal/","Preorder Traversal")</f>
         <v>Preorder Traversal</v>
       </c>
@@ -8839,7 +8867,7 @@
       <c r="Z183" s="24"/>
     </row>
     <row r="184" spans="1:26" ht="15">
-      <c r="A184" s="29" t="str">
+      <c r="A184" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-postorder-traversal/","Postorder Traversal")</f>
         <v>Postorder Traversal</v>
       </c>
@@ -8872,7 +8900,7 @@
       <c r="Z184" s="24"/>
     </row>
     <row r="185" spans="1:26" ht="15">
-      <c r="A185" s="29" t="str">
+      <c r="A185" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-level-order-traversal/","Binary Tree Level Order")</f>
         <v>Binary Tree Level Order</v>
       </c>
@@ -8905,7 +8933,7 @@
       <c r="Z185" s="24"/>
     </row>
     <row r="186" spans="1:26" ht="15">
-      <c r="A186" s="69" t="str">
+      <c r="A186" s="68" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree/","Binary search tree to greater sum")</f>
         <v>Binary search tree to greater sum</v>
       </c>
@@ -8938,7 +8966,7 @@
       <c r="Z186" s="24"/>
     </row>
     <row r="187" spans="1:26" ht="15">
-      <c r="A187" s="69" t="s">
+      <c r="A187" s="68" t="s">
         <v>219</v>
       </c>
       <c r="B187" s="24" t="s">
@@ -8970,7 +8998,7 @@
       <c r="Z187" s="24"/>
     </row>
     <row r="188" spans="1:26" ht="15">
-      <c r="A188" s="69" t="s">
+      <c r="A188" s="68" t="s">
         <v>220</v>
       </c>
       <c r="B188" s="24" t="s">
@@ -9002,7 +9030,7 @@
       <c r="Z188" s="24"/>
     </row>
     <row r="189" spans="1:26" ht="15">
-      <c r="A189" s="58" t="s">
+      <c r="A189" s="57" t="s">
         <v>222</v>
       </c>
       <c r="B189" s="24"/>
@@ -9032,7 +9060,7 @@
       <c r="Z189" s="24"/>
     </row>
     <row r="190" spans="1:26" ht="15">
-      <c r="A190" s="40" t="str">
+      <c r="A190" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-right-side-view/","right side view")</f>
         <v>right side view</v>
       </c>
@@ -9065,7 +9093,7 @@
       <c r="Z190" s="24"/>
     </row>
     <row r="191" spans="1:26" ht="15">
-      <c r="A191" s="29" t="str">
+      <c r="A191" s="28" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1","Left View")</f>
         <v>Left View</v>
       </c>
@@ -9098,7 +9126,7 @@
       <c r="Z191" s="24"/>
     </row>
     <row r="192" spans="1:26" ht="15">
-      <c r="A192" s="29" t="str">
+      <c r="A192" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/print-nodes-in-the-top-view-of-binary-tree-set-3/","Top View")</f>
         <v>Top View</v>
       </c>
@@ -9131,7 +9159,7 @@
       <c r="Z192" s="24"/>
     </row>
     <row r="193" spans="1:26" ht="15">
-      <c r="A193" s="29" t="str">
+      <c r="A193" s="28" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1","Bottom View")</f>
         <v>Bottom View</v>
       </c>
@@ -9164,7 +9192,7 @@
       <c r="Z193" s="24"/>
     </row>
     <row r="194" spans="1:26" ht="15">
-      <c r="A194" s="29" t="s">
+      <c r="A194" s="28" t="s">
         <v>227</v>
       </c>
       <c r="B194" s="24" t="s">
@@ -9196,7 +9224,7 @@
       <c r="Z194" s="24"/>
     </row>
     <row r="195" spans="1:26" ht="15">
-      <c r="A195" s="29" t="str">
+      <c r="A195" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/","Vertical order")</f>
         <v>Vertical order</v>
       </c>
@@ -9229,7 +9257,7 @@
       <c r="Z195" s="24"/>
     </row>
     <row r="196" spans="1:26" ht="15">
-      <c r="A196" s="29" t="str">
+      <c r="A196" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/","Diagonal Traversal")</f>
         <v>Diagonal Traversal</v>
       </c>
@@ -9262,7 +9290,7 @@
       <c r="Z196" s="24"/>
     </row>
     <row r="197" spans="1:26" ht="15">
-      <c r="A197" s="29" t="s">
+      <c r="A197" s="28" t="s">
         <v>230</v>
       </c>
       <c r="B197" s="24" t="s">
@@ -9294,7 +9322,7 @@
       <c r="Z197" s="24"/>
     </row>
     <row r="198" spans="1:26" ht="15">
-      <c r="A198" s="29" t="s">
+      <c r="A198" s="28" t="s">
         <v>232</v>
       </c>
       <c r="B198" s="24" t="s">
@@ -9326,7 +9354,7 @@
       <c r="Z198" s="24"/>
     </row>
     <row r="199" spans="1:26" ht="15">
-      <c r="A199" s="58" t="s">
+      <c r="A199" s="57" t="s">
         <v>234</v>
       </c>
       <c r="B199" s="24"/>
@@ -9356,14 +9384,14 @@
       <c r="Z199" s="24"/>
     </row>
     <row r="200" spans="1:26" ht="15">
-      <c r="A200" s="40" t="str">
+      <c r="A200" s="39" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/image-multiplication/0","image multiplication")</f>
         <v>image multiplication</v>
       </c>
-      <c r="B200" s="42" t="s">
+      <c r="B200" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="C200" s="42"/>
+      <c r="C200" s="41"/>
       <c r="D200" s="24"/>
       <c r="E200" s="24"/>
       <c r="F200" s="24"/>
@@ -9389,7 +9417,7 @@
       <c r="Z200" s="24"/>
     </row>
     <row r="201" spans="1:26" ht="15">
-      <c r="A201" s="29" t="s">
+      <c r="A201" s="28" t="s">
         <v>236</v>
       </c>
       <c r="B201" s="24" t="s">
@@ -9421,7 +9449,7 @@
       <c r="Z201" s="24"/>
     </row>
     <row r="202" spans="1:26" ht="15">
-      <c r="A202" s="29" t="s">
+      <c r="A202" s="28" t="s">
         <v>238</v>
       </c>
       <c r="B202" s="24" t="s">
@@ -9453,7 +9481,7 @@
       <c r="Z202" s="24"/>
     </row>
     <row r="203" spans="1:26" ht="15">
-      <c r="A203" s="29" t="str">
+      <c r="A203" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/","Lowest common ancestor in BST")</f>
         <v>Lowest common ancestor in BST</v>
       </c>
@@ -9486,7 +9514,7 @@
       <c r="Z203" s="24"/>
     </row>
     <row r="204" spans="1:26" ht="15">
-      <c r="A204" s="29" t="str">
+      <c r="A204" s="28" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/lowest-common-ancestor-in-a-binary-tree/1","Lowest common ancestor")</f>
         <v>Lowest common ancestor</v>
       </c>
@@ -9519,7 +9547,7 @@
       <c r="Z204" s="24"/>
     </row>
     <row r="205" spans="1:26" ht="15">
-      <c r="A205" s="30" t="s">
+      <c r="A205" s="29" t="s">
         <v>241</v>
       </c>
       <c r="B205" s="24"/>
@@ -9549,14 +9577,14 @@
       <c r="Z205" s="24"/>
     </row>
     <row r="206" spans="1:26" ht="15">
-      <c r="A206" s="69" t="str">
+      <c r="A206" s="68" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/distribute-coins-in-binary-tree/","Distribute coins in a binary tree")</f>
         <v>Distribute coins in a binary tree</v>
       </c>
-      <c r="B206" s="42" t="s">
+      <c r="B206" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="C206" s="42"/>
+      <c r="C206" s="41"/>
       <c r="D206" s="24"/>
       <c r="E206" s="24"/>
       <c r="F206" s="24"/>
@@ -9582,7 +9610,7 @@
       <c r="Z206" s="24"/>
     </row>
     <row r="207" spans="1:26" ht="15">
-      <c r="A207" s="69" t="str">
+      <c r="A207" s="68" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/binary-tree-cameras/","Binary Tree Cameras")</f>
         <v>Binary Tree Cameras</v>
       </c>
@@ -9615,7 +9643,7 @@
       <c r="Z207" s="24"/>
     </row>
     <row r="208" spans="1:26" ht="15">
-      <c r="A208" s="29" t="s">
+      <c r="A208" s="28" t="s">
         <v>244</v>
       </c>
       <c r="B208" s="24"/>
@@ -9645,7 +9673,7 @@
       <c r="Z208" s="24"/>
     </row>
     <row r="209" spans="1:26" ht="15">
-      <c r="A209" s="29" t="s">
+      <c r="A209" s="28" t="s">
         <v>245</v>
       </c>
       <c r="B209" s="24" t="s">
@@ -9677,7 +9705,7 @@
       <c r="Z209" s="24"/>
     </row>
     <row r="210" spans="1:26" ht="15">
-      <c r="A210" s="29" t="str">
+      <c r="A210" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/flatten-binary-tree-to-linked-list/","Flatten binary tree to linked list")</f>
         <v>Flatten binary tree to linked list</v>
       </c>
@@ -9710,7 +9738,7 @@
       <c r="Z210" s="24"/>
     </row>
     <row r="211" spans="1:26" ht="15">
-      <c r="A211" s="69" t="str">
+      <c r="A211" s="68" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/convert-a-binary-tree-to-a-circular-doubly-link-list/","Convert a binary tree to circular doubly linked list")</f>
         <v>Convert a binary tree to circular doubly linked list</v>
       </c>
@@ -9743,7 +9771,7 @@
       <c r="Z211" s="24"/>
     </row>
     <row r="212" spans="1:26" ht="15">
-      <c r="A212" s="70" t="s">
+      <c r="A212" s="69" t="s">
         <v>249</v>
       </c>
       <c r="B212" s="24"/>
@@ -9773,7 +9801,7 @@
       <c r="Z212" s="24"/>
     </row>
     <row r="213" spans="1:26" ht="15">
-      <c r="A213" s="40" t="str">
+      <c r="A213" s="39" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/in-place-conversion-of-sorted-dll-to-balanced-bst/","Conversion of sorted DLL to BST")</f>
         <v>Conversion of sorted DLL to BST</v>
       </c>
@@ -9806,7 +9834,7 @@
       <c r="Z213" s="24"/>
     </row>
     <row r="214" spans="1:26" ht="15">
-      <c r="A214" s="29" t="str">
+      <c r="A214" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/merge-two-balanced-binary-search-trees/","Merge Two BST")</f>
         <v>Merge Two BST</v>
       </c>
@@ -9839,14 +9867,14 @@
       <c r="Z214" s="24"/>
     </row>
     <row r="215" spans="1:26" ht="15">
-      <c r="A215" s="29" t="str">
+      <c r="A215" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/clone-binary-tree-random-pointers/","clone a binary tree with random pointer")</f>
         <v>clone a binary tree with random pointer</v>
       </c>
-      <c r="B215" s="42" t="s">
+      <c r="B215" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="C215" s="42"/>
+      <c r="C215" s="41"/>
       <c r="D215" s="24"/>
       <c r="E215" s="24"/>
       <c r="F215" s="24"/>
@@ -9872,11 +9900,11 @@
       <c r="Z215" s="24"/>
     </row>
     <row r="216" spans="1:26" ht="15">
-      <c r="A216" s="29" t="s">
+      <c r="A216" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B216" s="42"/>
-      <c r="C216" s="42"/>
+      <c r="B216" s="41"/>
+      <c r="C216" s="41"/>
       <c r="D216" s="24"/>
       <c r="E216" s="24"/>
       <c r="F216" s="24"/>
@@ -9902,11 +9930,11 @@
       <c r="Z216" s="24"/>
     </row>
     <row r="217" spans="1:26" ht="15">
-      <c r="A217" s="29" t="str">
+      <c r="A217" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/","Construct from inorder and preorder")</f>
         <v>Construct from inorder and preorder</v>
       </c>
-      <c r="B217" s="42" t="s">
+      <c r="B217" s="41" t="s">
         <v>254</v>
       </c>
       <c r="C217" s="24"/>
@@ -9935,14 +9963,14 @@
       <c r="Z217" s="24"/>
     </row>
     <row r="218" spans="1:26" ht="15">
-      <c r="A218" s="29" t="str">
+      <c r="A218" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/","Construct from inorder and postorder")</f>
         <v>Construct from inorder and postorder</v>
       </c>
-      <c r="B218" s="42" t="s">
+      <c r="B218" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="C218" s="42"/>
+      <c r="C218" s="41"/>
       <c r="D218" s="24"/>
       <c r="E218" s="24"/>
       <c r="F218" s="24"/>
@@ -9968,11 +9996,11 @@
       <c r="Z218" s="24"/>
     </row>
     <row r="219" spans="1:26" ht="15">
-      <c r="A219" s="30" t="s">
+      <c r="A219" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="B219" s="42"/>
-      <c r="C219" s="42"/>
+      <c r="B219" s="41"/>
+      <c r="C219" s="41"/>
       <c r="D219" s="24"/>
       <c r="E219" s="24"/>
       <c r="F219" s="24"/>
@@ -9998,14 +10026,14 @@
       <c r="Z219" s="24"/>
     </row>
     <row r="220" spans="1:26" ht="15">
-      <c r="A220" s="40" t="str">
+      <c r="A220" s="39" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/construct-tree-inorder-level-order-traversals/","Inorder and level order")</f>
         <v>Inorder and level order</v>
       </c>
-      <c r="B220" s="42" t="s">
+      <c r="B220" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="C220" s="42"/>
+      <c r="C220" s="41"/>
       <c r="D220" s="24"/>
       <c r="E220" s="24"/>
       <c r="F220" s="24"/>
@@ -10031,7 +10059,7 @@
       <c r="Z220" s="24"/>
     </row>
     <row r="221" spans="1:26" ht="15">
-      <c r="A221" s="29" t="s">
+      <c r="A221" s="28" t="s">
         <v>258</v>
       </c>
       <c r="B221" s="24" t="s">
@@ -10063,7 +10091,7 @@
       <c r="Z221" s="24"/>
     </row>
     <row r="222" spans="1:26" ht="15">
-      <c r="A222" s="29" t="s">
+      <c r="A222" s="28" t="s">
         <v>260</v>
       </c>
       <c r="B222" s="24" t="s">
@@ -10095,7 +10123,7 @@
       <c r="Z222" s="24"/>
     </row>
     <row r="223" spans="1:26" ht="15">
-      <c r="A223" s="29" t="s">
+      <c r="A223" s="28" t="s">
         <v>262</v>
       </c>
       <c r="B223" s="24" t="s">
@@ -10127,10 +10155,10 @@
       <c r="Z223" s="24"/>
     </row>
     <row r="224" spans="1:26" ht="15">
-      <c r="A224" s="29" t="s">
+      <c r="A224" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="B224" s="44" t="s">
+      <c r="B224" s="43" t="s">
         <v>264</v>
       </c>
       <c r="C224" s="24"/>
@@ -10159,14 +10187,14 @@
       <c r="Z224" s="24"/>
     </row>
     <row r="225" spans="1:26" ht="15">
-      <c r="A225" s="71" t="str">
+      <c r="A225" s="70" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/serialize-and-deserialize-binary-tree/","serialize and deserialise")</f>
         <v>serialize and deserialise</v>
       </c>
-      <c r="B225" s="42" t="s">
+      <c r="B225" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="C225" s="42"/>
+      <c r="C225" s="41"/>
       <c r="D225" s="24"/>
       <c r="E225" s="24"/>
       <c r="F225" s="24"/>
@@ -10192,7 +10220,7 @@
       <c r="Z225" s="24"/>
     </row>
     <row r="226" spans="1:26" ht="15">
-      <c r="A226" s="71" t="s">
+      <c r="A226" s="70" t="s">
         <v>266</v>
       </c>
       <c r="B226" s="24" t="s">
@@ -10224,7 +10252,7 @@
       <c r="Z226" s="24"/>
     </row>
     <row r="227" spans="1:26" ht="15">
-      <c r="A227" s="29" t="s">
+      <c r="A227" s="28" t="s">
         <v>267</v>
       </c>
       <c r="B227" s="24" t="s">
@@ -10256,7 +10284,7 @@
       <c r="Z227" s="24"/>
     </row>
     <row r="228" spans="1:26" ht="15">
-      <c r="A228" s="58" t="s">
+      <c r="A228" s="57" t="s">
         <v>269</v>
       </c>
       <c r="B228" s="24"/>
@@ -10286,7 +10314,7 @@
       <c r="Z228" s="24"/>
     </row>
     <row r="229" spans="1:26" ht="15">
-      <c r="A229" s="40" t="s">
+      <c r="A229" s="39" t="s">
         <v>270</v>
       </c>
       <c r="B229" s="24" t="s">
@@ -10318,7 +10346,7 @@
       <c r="Z229" s="24"/>
     </row>
     <row r="230" spans="1:26" ht="15">
-      <c r="A230" s="29" t="s">
+      <c r="A230" s="28" t="s">
         <v>272</v>
       </c>
       <c r="B230" s="24" t="s">
@@ -10350,7 +10378,7 @@
       <c r="Z230" s="24"/>
     </row>
     <row r="231" spans="1:26" ht="15">
-      <c r="A231" s="29" t="s">
+      <c r="A231" s="28" t="s">
         <v>273</v>
       </c>
       <c r="B231" s="24" t="s">
@@ -10382,7 +10410,7 @@
       <c r="Z231" s="24"/>
     </row>
     <row r="232" spans="1:26" ht="15">
-      <c r="A232" s="29" t="s">
+      <c r="A232" s="28" t="s">
         <v>275</v>
       </c>
       <c r="B232" s="24" t="s">
@@ -10414,7 +10442,7 @@
       <c r="Z232" s="24"/>
     </row>
     <row r="233" spans="1:26" ht="12.75">
-      <c r="A233" s="72" t="s">
+      <c r="A233" s="71" t="s">
         <v>277</v>
       </c>
       <c r="B233" s="24"/>
@@ -10444,7 +10472,7 @@
       <c r="Z233" s="24"/>
     </row>
     <row r="234" spans="1:26" ht="15">
-      <c r="A234" s="29" t="s">
+      <c r="A234" s="28" t="s">
         <v>278</v>
       </c>
       <c r="B234" s="24"/>
@@ -10474,7 +10502,7 @@
       <c r="Z234" s="24"/>
     </row>
     <row r="235" spans="1:26" ht="18.75">
-      <c r="A235" s="68" t="s">
+      <c r="A235" s="67" t="s">
         <v>279</v>
       </c>
       <c r="B235" s="4"/>
@@ -10534,7 +10562,7 @@
       <c r="Z236" s="24"/>
     </row>
     <row r="237" spans="1:26" ht="15">
-      <c r="A237" s="32" t="s">
+      <c r="A237" s="31" t="s">
         <v>281</v>
       </c>
       <c r="B237" s="27" t="s">
@@ -10566,7 +10594,7 @@
       <c r="Z237" s="24"/>
     </row>
     <row r="238" spans="1:26" ht="14.25">
-      <c r="A238" s="49" t="str">
+      <c r="A238" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/is-graph-bipartite/","Bipartite graph")</f>
         <v>Bipartite graph</v>
       </c>
@@ -10599,7 +10627,7 @@
       <c r="Z238" s="24"/>
     </row>
     <row r="239" spans="1:26" ht="14.25">
-      <c r="A239" s="49" t="str">
+      <c r="A239" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/bus-routes/","Bus routes")</f>
         <v>Bus routes</v>
       </c>
@@ -10630,7 +10658,7 @@
       <c r="Z239" s="24"/>
     </row>
     <row r="240" spans="1:26" ht="14.25">
-      <c r="A240" s="73" t="str">
+      <c r="A240" s="72" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/MST/","Prim's Algo")</f>
         <v>Prim's Algo</v>
       </c>
@@ -10663,7 +10691,7 @@
       <c r="Z240" s="24"/>
     </row>
     <row r="241" spans="1:26" ht="15">
-      <c r="A241" s="69" t="s">
+      <c r="A241" s="68" t="s">
         <v>285</v>
       </c>
       <c r="B241" s="24" t="s">
@@ -10695,7 +10723,7 @@
       <c r="Z241" s="24"/>
     </row>
     <row r="242" spans="1:26" ht="14.25">
-      <c r="A242" s="49" t="str">
+      <c r="A242" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-greedy-algo-7/","Dijkstra algo")</f>
         <v>Dijkstra algo</v>
       </c>
@@ -10728,7 +10756,7 @@
       <c r="Z242" s="24"/>
     </row>
     <row r="243" spans="1:26" ht="15">
-      <c r="A243" s="30" t="s">
+      <c r="A243" s="29" t="s">
         <v>288</v>
       </c>
       <c r="B243" s="24"/>
@@ -10791,7 +10819,7 @@
       <c r="Z244" s="24"/>
     </row>
     <row r="245" spans="1:26" ht="15">
-      <c r="A245" s="29" t="s">
+      <c r="A245" s="28" t="s">
         <v>290</v>
       </c>
       <c r="B245" s="24" t="s">
@@ -10856,7 +10884,7 @@
       <c r="Z246" s="24"/>
     </row>
     <row r="247" spans="1:26" ht="12.75">
-      <c r="A247" s="72" t="str">
+      <c r="A247" s="71" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/evaluate-division/","evaluate division")</f>
         <v>evaluate division</v>
       </c>
@@ -11078,7 +11106,7 @@
       <c r="Z253" s="24"/>
     </row>
     <row r="254" spans="1:26" ht="15">
-      <c r="A254" s="58" t="s">
+      <c r="A254" s="57" t="s">
         <v>303</v>
       </c>
       <c r="B254" s="24"/>
@@ -11108,7 +11136,7 @@
       <c r="Z254" s="24"/>
     </row>
     <row r="255" spans="1:26" ht="15">
-      <c r="A255" s="32" t="s">
+      <c r="A255" s="31" t="s">
         <v>304</v>
       </c>
       <c r="B255" s="24" t="s">
@@ -11140,7 +11168,7 @@
       <c r="Z255" s="24"/>
     </row>
     <row r="256" spans="1:26" ht="14.25">
-      <c r="A256" s="49" t="str">
+      <c r="A256" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/shortest-bridge/","Shortest bridge")</f>
         <v>Shortest bridge</v>
       </c>
@@ -11171,13 +11199,13 @@
       <c r="Z256" s="24"/>
     </row>
     <row r="257" spans="1:26" ht="15">
-      <c r="A257" s="33" t="s">
+      <c r="A257" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="B257" s="34" t="s">
+      <c r="B257" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="C257" s="36"/>
+      <c r="C257" s="35"/>
       <c r="D257" s="24"/>
       <c r="E257" s="24"/>
       <c r="F257" s="24"/>
@@ -11233,7 +11261,7 @@
       <c r="Z258" s="24"/>
     </row>
     <row r="259" spans="1:26" ht="14.25">
-      <c r="A259" s="49" t="str">
+      <c r="A259" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/bellman-ford-algorithm-dp-23/","bellman ford")</f>
         <v>bellman ford</v>
       </c>
@@ -11266,7 +11294,7 @@
       <c r="Z259" s="24"/>
     </row>
     <row r="260" spans="1:26" ht="15">
-      <c r="A260" s="30" t="s">
+      <c r="A260" s="29" t="s">
         <v>309</v>
       </c>
       <c r="B260" s="24"/>
@@ -11296,7 +11324,7 @@
       <c r="Z260" s="24"/>
     </row>
     <row r="261" spans="1:26" ht="15">
-      <c r="A261" s="32" t="s">
+      <c r="A261" s="31" t="s">
         <v>310</v>
       </c>
       <c r="B261" s="27" t="s">
@@ -11360,7 +11388,7 @@
       <c r="Z262" s="24"/>
     </row>
     <row r="263" spans="1:26" ht="14.25">
-      <c r="A263" s="73" t="str">
+      <c r="A263" s="72" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/topological-sorting/","topological sorting")</f>
         <v>topological sorting</v>
       </c>
@@ -11393,7 +11421,7 @@
       <c r="Z263" s="24"/>
     </row>
     <row r="264" spans="1:26" ht="14.25">
-      <c r="A264" s="73" t="str">
+      <c r="A264" s="72" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/topological-sorting-indegree-based-solution/","Kahn's algo")</f>
         <v>Kahn's algo</v>
       </c>
@@ -11426,7 +11454,7 @@
       <c r="Z264" s="24"/>
     </row>
     <row r="265" spans="1:26" ht="14.25">
-      <c r="A265" s="49" t="str">
+      <c r="A265" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/course-schedule-ii/","course schedule 2")</f>
         <v>course schedule 2</v>
       </c>
@@ -11492,13 +11520,13 @@
       <c r="Z266" s="24"/>
     </row>
     <row r="267" spans="1:26" ht="15">
-      <c r="A267" s="31" t="s">
+      <c r="A267" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="B267" s="42" t="s">
+      <c r="B267" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="C267" s="42"/>
+      <c r="C267" s="41"/>
       <c r="D267" s="24"/>
       <c r="E267" s="24"/>
       <c r="F267" s="24"/>
@@ -11524,7 +11552,7 @@
       <c r="Z267" s="24"/>
     </row>
     <row r="268" spans="1:26" ht="15">
-      <c r="A268" s="31" t="s">
+      <c r="A268" s="30" t="s">
         <v>320</v>
       </c>
       <c r="B268" s="27" t="s">
@@ -11588,11 +11616,11 @@
       <c r="Z269" s="24"/>
     </row>
     <row r="270" spans="1:26" ht="15">
-      <c r="A270" s="58" t="s">
+      <c r="A270" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="B270" s="42"/>
-      <c r="C270" s="42"/>
+      <c r="B270" s="41"/>
+      <c r="C270" s="41"/>
       <c r="D270" s="24"/>
       <c r="E270" s="24"/>
       <c r="F270" s="24"/>
@@ -11618,7 +11646,7 @@
       <c r="Z270" s="24"/>
     </row>
     <row r="271" spans="1:26" ht="12.75">
-      <c r="A271" s="47" t="s">
+      <c r="A271" s="46" t="s">
         <v>325</v>
       </c>
       <c r="B271" s="24"/>
@@ -11648,7 +11676,7 @@
       <c r="Z271" s="24"/>
     </row>
     <row r="272" spans="1:26" ht="15">
-      <c r="A272" s="74" t="s">
+      <c r="A272" s="73" t="s">
         <v>326</v>
       </c>
       <c r="B272" s="24"/>
@@ -11678,7 +11706,7 @@
       <c r="Z272" s="24"/>
     </row>
     <row r="273" spans="1:26" ht="15">
-      <c r="A273" s="29" t="s">
+      <c r="A273" s="28" t="s">
         <v>327</v>
       </c>
       <c r="B273" s="27" t="s">
@@ -11710,7 +11738,7 @@
       <c r="Z273" s="24"/>
     </row>
     <row r="274" spans="1:26" ht="15">
-      <c r="A274" s="31" t="s">
+      <c r="A274" s="30" t="s">
         <v>329</v>
       </c>
       <c r="B274" s="27" t="s">
@@ -11742,7 +11770,7 @@
       <c r="Z274" s="24"/>
     </row>
     <row r="275" spans="1:26" ht="15">
-      <c r="A275" s="45" t="s">
+      <c r="A275" s="44" t="s">
         <v>331</v>
       </c>
       <c r="B275" s="27" t="s">
@@ -11774,7 +11802,7 @@
       <c r="Z275" s="24"/>
     </row>
     <row r="276" spans="1:26" ht="15">
-      <c r="A276" s="31" t="s">
+      <c r="A276" s="30" t="s">
         <v>333</v>
       </c>
       <c r="B276" s="27" t="s">
@@ -11806,7 +11834,7 @@
       <c r="Z276" s="24"/>
     </row>
     <row r="277" spans="1:26" ht="15">
-      <c r="A277" s="31" t="s">
+      <c r="A277" s="30" t="s">
         <v>335</v>
       </c>
       <c r="B277" s="27" t="s">
@@ -11871,7 +11899,7 @@
       <c r="Z278" s="24"/>
     </row>
     <row r="279" spans="1:26" ht="15">
-      <c r="A279" s="30" t="s">
+      <c r="A279" s="29" t="s">
         <v>338</v>
       </c>
       <c r="B279" s="27"/>
@@ -11901,7 +11929,7 @@
       <c r="Z279" s="24"/>
     </row>
     <row r="280" spans="1:26" ht="15">
-      <c r="A280" s="32" t="s">
+      <c r="A280" s="31" t="s">
         <v>339</v>
       </c>
       <c r="B280" s="27" t="s">
@@ -11965,7 +11993,7 @@
       <c r="Z281" s="24"/>
     </row>
     <row r="282" spans="1:26" ht="15">
-      <c r="A282" s="31" t="str">
+      <c r="A282" s="30" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/","Kruskal's algo")</f>
         <v>Kruskal's algo</v>
       </c>
@@ -11998,7 +12026,7 @@
       <c r="Z282" s="24"/>
     </row>
     <row r="283" spans="1:26" ht="15">
-      <c r="A283" s="31" t="s">
+      <c r="A283" s="30" t="s">
         <v>344</v>
       </c>
       <c r="B283" s="27" t="s">
@@ -12062,7 +12090,7 @@
       <c r="Z284" s="24"/>
     </row>
     <row r="285" spans="1:26" ht="15">
-      <c r="A285" s="29" t="str">
+      <c r="A285" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/sort-items-by-groups-respecting-dependencies/","Sort item by group accord to dependencies")</f>
         <v>Sort item by group accord to dependencies</v>
       </c>
@@ -12095,7 +12123,7 @@
       <c r="Z285" s="24"/>
     </row>
     <row r="286" spans="1:26" ht="15">
-      <c r="A286" s="30" t="s">
+      <c r="A286" s="29" t="s">
         <v>349</v>
       </c>
       <c r="B286" s="24"/>
@@ -12125,7 +12153,7 @@
       <c r="Z286" s="24"/>
     </row>
     <row r="287" spans="1:26" ht="15">
-      <c r="A287" s="32" t="s">
+      <c r="A287" s="31" t="s">
         <v>350</v>
       </c>
       <c r="B287" s="27" t="s">
@@ -12157,7 +12185,7 @@
       <c r="Z287" s="24"/>
     </row>
     <row r="288" spans="1:26" ht="15">
-      <c r="A288" s="75" t="s">
+      <c r="A288" s="74" t="s">
         <v>352</v>
       </c>
       <c r="B288" s="27" t="s">
@@ -12189,7 +12217,7 @@
       <c r="Z288" s="24"/>
     </row>
     <row r="289" spans="1:26" ht="15">
-      <c r="A289" s="75" t="s">
+      <c r="A289" s="74" t="s">
         <v>354</v>
       </c>
       <c r="B289" s="27" t="s">
@@ -12221,7 +12249,7 @@
       <c r="Z289" s="24"/>
     </row>
     <row r="290" spans="1:26" ht="14.25">
-      <c r="A290" s="49" t="str">
+      <c r="A290" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/","Min swaps required to sort array")</f>
         <v>Min swaps required to sort array</v>
       </c>
@@ -12254,7 +12282,7 @@
       <c r="Z290" s="24"/>
     </row>
     <row r="291" spans="1:26" ht="15">
-      <c r="A291" s="30" t="s">
+      <c r="A291" s="29" t="s">
         <v>357</v>
       </c>
       <c r="B291" s="24"/>
@@ -12314,7 +12342,7 @@
       <c r="Z292" s="24"/>
     </row>
     <row r="293" spans="1:26" ht="15">
-      <c r="A293" s="29" t="s">
+      <c r="A293" s="28" t="s">
         <v>359</v>
       </c>
       <c r="B293" s="24"/>
@@ -12344,7 +12372,7 @@
       <c r="Z293" s="24"/>
     </row>
     <row r="294" spans="1:26" ht="15">
-      <c r="A294" s="29" t="s">
+      <c r="A294" s="28" t="s">
         <v>360</v>
       </c>
       <c r="B294" s="24"/>
@@ -12374,10 +12402,10 @@
       <c r="Z294" s="24"/>
     </row>
     <row r="295" spans="1:26" ht="15">
-      <c r="A295" s="29" t="s">
+      <c r="A295" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="B295" s="44" t="s">
+      <c r="B295" s="43" t="s">
         <v>362</v>
       </c>
       <c r="C295" s="24"/>
@@ -12406,7 +12434,7 @@
       <c r="Z295" s="24"/>
     </row>
     <row r="296" spans="1:26" ht="15">
-      <c r="A296" s="29" t="s">
+      <c r="A296" s="28" t="s">
         <v>363</v>
       </c>
       <c r="B296" s="24"/>
@@ -12436,7 +12464,7 @@
       <c r="Z296" s="24"/>
     </row>
     <row r="297" spans="1:26" ht="15">
-      <c r="A297" s="29" t="s">
+      <c r="A297" s="28" t="s">
         <v>364</v>
       </c>
       <c r="B297" s="24"/>
@@ -12466,7 +12494,7 @@
       <c r="Z297" s="24"/>
     </row>
     <row r="298" spans="1:26" ht="15">
-      <c r="A298" s="29" t="s">
+      <c r="A298" s="28" t="s">
         <v>365</v>
       </c>
       <c r="B298" s="24"/>
@@ -12496,7 +12524,7 @@
       <c r="Z298" s="24"/>
     </row>
     <row r="299" spans="1:26" ht="15">
-      <c r="A299" s="58" t="s">
+      <c r="A299" s="57" t="s">
         <v>366</v>
       </c>
       <c r="B299" s="24"/>
@@ -12526,7 +12554,7 @@
       <c r="Z299" s="24"/>
     </row>
     <row r="300" spans="1:26" ht="15">
-      <c r="A300" s="40" t="s">
+      <c r="A300" s="39" t="s">
         <v>367</v>
       </c>
       <c r="B300" s="24"/>
@@ -12556,7 +12584,7 @@
       <c r="Z300" s="24"/>
     </row>
     <row r="301" spans="1:26" ht="15">
-      <c r="A301" s="29" t="s">
+      <c r="A301" s="28" t="s">
         <v>368</v>
       </c>
       <c r="B301" s="24"/>
@@ -12586,7 +12614,7 @@
       <c r="Z301" s="24"/>
     </row>
     <row r="302" spans="1:26" ht="15">
-      <c r="A302" s="29" t="s">
+      <c r="A302" s="28" t="s">
         <v>369</v>
       </c>
       <c r="B302" s="24" t="s">
@@ -12618,7 +12646,7 @@
       <c r="Z302" s="24"/>
     </row>
     <row r="303" spans="1:26" ht="15">
-      <c r="A303" s="29" t="s">
+      <c r="A303" s="28" t="s">
         <v>370</v>
       </c>
       <c r="B303" s="24" t="s">
@@ -12650,7 +12678,7 @@
       <c r="Z303" s="24"/>
     </row>
     <row r="304" spans="1:26" ht="15">
-      <c r="A304" s="29" t="s">
+      <c r="A304" s="28" t="s">
         <v>372</v>
       </c>
       <c r="B304" s="24"/>
@@ -12680,7 +12708,7 @@
       <c r="Z304" s="24"/>
     </row>
     <row r="305" spans="1:26" ht="15">
-      <c r="A305" s="29" t="s">
+      <c r="A305" s="28" t="s">
         <v>373</v>
       </c>
       <c r="B305" s="24"/>
@@ -12710,13 +12738,13 @@
       <c r="Z305" s="24"/>
     </row>
     <row r="306" spans="1:26" ht="15">
-      <c r="A306" s="76" t="s">
+      <c r="A306" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="B306" s="34" t="s">
+      <c r="B306" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="C306" s="36"/>
+      <c r="C306" s="35"/>
       <c r="D306" s="24"/>
       <c r="E306" s="24"/>
       <c r="F306" s="24"/>
@@ -12742,11 +12770,11 @@
       <c r="Z306" s="24"/>
     </row>
     <row r="307" spans="1:26" ht="15">
-      <c r="A307" s="76" t="s">
+      <c r="A307" s="75" t="s">
         <v>376</v>
       </c>
-      <c r="B307" s="36"/>
-      <c r="C307" s="36"/>
+      <c r="B307" s="35"/>
+      <c r="C307" s="35"/>
       <c r="D307" s="24"/>
       <c r="E307" s="24"/>
       <c r="F307" s="24"/>
@@ -12772,7 +12800,7 @@
       <c r="Z307" s="24"/>
     </row>
     <row r="308" spans="1:26" ht="18.75">
-      <c r="A308" s="53" t="s">
+      <c r="A308" s="52" t="s">
         <v>377</v>
       </c>
       <c r="B308" s="4"/>
@@ -12832,7 +12860,7 @@
       <c r="Z309" s="24"/>
     </row>
     <row r="310" spans="1:26" ht="15">
-      <c r="A310" s="40" t="str">
+      <c r="A310" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/subarray-sum-equals-k/","number of subarrays sum exactly k")</f>
         <v>number of subarrays sum exactly k</v>
       </c>
@@ -12865,7 +12893,7 @@
       <c r="Z310" s="24"/>
     </row>
     <row r="311" spans="1:26" ht="15">
-      <c r="A311" s="29" t="str">
+      <c r="A311" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-sub-arrays-sum-divisible-k/","Subarray sum Divisible by k")</f>
         <v>Subarray sum Divisible by k</v>
       </c>
@@ -12898,7 +12926,7 @@
       <c r="Z311" s="24"/>
     </row>
     <row r="312" spans="1:26" ht="15">
-      <c r="A312" s="29" t="s">
+      <c r="A312" s="28" t="s">
         <v>381</v>
       </c>
       <c r="B312" s="24"/>
@@ -12928,7 +12956,7 @@
       <c r="Z312" s="24"/>
     </row>
     <row r="313" spans="1:26" ht="15">
-      <c r="A313" s="29" t="str">
+      <c r="A313" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-subarrays-equal-number-1s-0s/","subarray with equal number of 0 and 1")</f>
         <v>subarray with equal number of 0 and 1</v>
       </c>
@@ -12961,7 +12989,7 @@
       <c r="Z313" s="24"/>
     </row>
     <row r="314" spans="1:26" ht="15">
-      <c r="A314" s="29" t="str">
+      <c r="A314" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/substring-equal-number-0-1-2/","Substring with equal 0 1 and 2")</f>
         <v>Substring with equal 0 1 and 2</v>
       </c>
@@ -12994,7 +13022,7 @@
       <c r="Z314" s="24"/>
     </row>
     <row r="315" spans="1:26" ht="15">
-      <c r="A315" s="29" t="str">
+      <c r="A315" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-closest-points-to-origin/","K closest point from origin")</f>
         <v>K closest point from origin</v>
       </c>
@@ -13027,7 +13055,7 @@
       <c r="Z315" s="24"/>
     </row>
     <row r="316" spans="1:26" ht="15">
-      <c r="A316" s="29" t="str">
+      <c r="A316" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/maximum-consecutive-ones-or-zeros-in-a-binary-array/","Longest consecutive 1's")</f>
         <v>Longest consecutive 1's</v>
       </c>
@@ -13060,7 +13088,7 @@
       <c r="Z316" s="24"/>
     </row>
     <row r="317" spans="1:26" ht="15">
-      <c r="A317" s="45"/>
+      <c r="A317" s="44"/>
       <c r="B317" s="24"/>
       <c r="C317" s="24"/>
       <c r="D317" s="24"/>
@@ -13088,7 +13116,7 @@
       <c r="Z317" s="24"/>
     </row>
     <row r="318" spans="1:26" ht="15">
-      <c r="A318" s="77" t="s">
+      <c r="A318" s="76" t="s">
         <v>386</v>
       </c>
       <c r="B318" s="24"/>
@@ -13118,7 +13146,7 @@
       <c r="Z318" s="24"/>
     </row>
     <row r="319" spans="1:26" ht="15">
-      <c r="A319" s="40" t="str">
+      <c r="A319" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-number-of-refueling-stops/","Minimum number of refueling spots")</f>
         <v>Minimum number of refueling spots</v>
       </c>
@@ -13151,7 +13179,7 @@
       <c r="Z319" s="24"/>
     </row>
     <row r="320" spans="1:26" ht="15">
-      <c r="A320" s="29" t="s">
+      <c r="A320" s="28" t="s">
         <v>388</v>
       </c>
       <c r="B320" s="24"/>
@@ -13181,7 +13209,7 @@
       <c r="Z320" s="24"/>
     </row>
     <row r="321" spans="1:26" ht="15">
-      <c r="A321" s="45" t="str">
+      <c r="A321" s="44" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/x-of-a-kind-in-a-deck-of-cards/","X of akind in a deck")</f>
         <v>X of akind in a deck</v>
       </c>
@@ -13214,7 +13242,7 @@
       <c r="Z321" s="24"/>
     </row>
     <row r="322" spans="1:26" ht="15">
-      <c r="A322" s="45" t="str">
+      <c r="A322" s="44" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-whether-arithmetic-progression-can-formed-given-array/","Check AP sequence")</f>
         <v>Check AP sequence</v>
       </c>
@@ -13247,7 +13275,7 @@
       <c r="Z322" s="24"/>
     </row>
     <row r="323" spans="1:26" ht="15">
-      <c r="A323" s="29"/>
+      <c r="A323" s="28"/>
       <c r="B323" s="24"/>
       <c r="C323" s="24"/>
       <c r="D323" s="24"/>
@@ -13275,7 +13303,7 @@
       <c r="Z323" s="24"/>
     </row>
     <row r="324" spans="1:26" ht="15">
-      <c r="A324" s="30" t="s">
+      <c r="A324" s="29" t="s">
         <v>391</v>
       </c>
       <c r="B324" s="24"/>
@@ -13305,7 +13333,7 @@
       <c r="Z324" s="24"/>
     </row>
     <row r="325" spans="1:26" ht="15">
-      <c r="A325" s="40" t="str">
+      <c r="A325" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/array-of-doubled-pairs/","Array of doubled Pair")</f>
         <v>Array of doubled Pair</v>
       </c>
@@ -13338,7 +13366,7 @@
       <c r="Z325" s="24"/>
     </row>
     <row r="326" spans="1:26" ht="15">
-      <c r="A326" s="29" t="str">
+      <c r="A326" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/rabbits-in-forest/","Rabbits in forest")</f>
         <v>Rabbits in forest</v>
       </c>
@@ -13371,7 +13399,7 @@
       <c r="Z326" s="24"/>
     </row>
     <row r="327" spans="1:26" ht="15">
-      <c r="A327" s="29" t="str">
+      <c r="A327" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/longest-consecutive-sequence/","Longest consecutive sequence")</f>
         <v>Longest consecutive sequence</v>
       </c>
@@ -13404,7 +13432,7 @@
       <c r="Z327" s="24"/>
     </row>
     <row r="328" spans="1:26" ht="15">
-      <c r="A328" s="29" t="s">
+      <c r="A328" s="28" t="s">
         <v>395</v>
       </c>
       <c r="B328" s="24" t="s">
@@ -13436,7 +13464,7 @@
       <c r="Z328" s="24"/>
     </row>
     <row r="329" spans="1:26" ht="15">
-      <c r="A329" s="29" t="str">
+      <c r="A329" s="28" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/morning-assembly/0","Morning Assembly")</f>
         <v>Morning Assembly</v>
       </c>
@@ -13469,7 +13497,7 @@
       <c r="Z329" s="24"/>
     </row>
     <row r="330" spans="1:26" ht="15">
-      <c r="A330" s="29" t="str">
+      <c r="A330" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/brick-wall/","Brick wall")</f>
         <v>Brick wall</v>
       </c>
@@ -13500,7 +13528,7 @@
       <c r="Z330" s="24"/>
     </row>
     <row r="331" spans="1:26" ht="15">
-      <c r="A331" s="30" t="s">
+      <c r="A331" s="29" t="s">
         <v>398</v>
       </c>
       <c r="B331" s="24"/>
@@ -13530,7 +13558,7 @@
       <c r="Z331" s="24"/>
     </row>
     <row r="332" spans="1:26" ht="15">
-      <c r="A332" s="40" t="str">
+      <c r="A332" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/grid-illumination/","Grid illumination")</f>
         <v>Grid illumination</v>
       </c>
@@ -13563,7 +13591,7 @@
       <c r="Z332" s="24"/>
     </row>
     <row r="333" spans="1:26" ht="15">
-      <c r="A333" s="29" t="str">
+      <c r="A333" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/island-perimeter/","Island perimeter")</f>
         <v>Island perimeter</v>
       </c>
@@ -13596,7 +13624,7 @@
       <c r="Z333" s="24"/>
     </row>
     <row r="334" spans="1:26" ht="15">
-      <c r="A334" s="29" t="str">
+      <c r="A334" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/bulb-switcher/","bulb switcher")</f>
         <v>bulb switcher</v>
       </c>
@@ -13629,7 +13657,7 @@
       <c r="Z334" s="24"/>
     </row>
     <row r="335" spans="1:26" ht="15">
-      <c r="A335" s="29" t="str">
+      <c r="A335" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/isomorphic-strings/","Isomorphic string")</f>
         <v>Isomorphic string</v>
       </c>
@@ -13662,7 +13690,7 @@
       <c r="Z335" s="24"/>
     </row>
     <row r="336" spans="1:26" ht="15">
-      <c r="A336" s="29" t="str">
+      <c r="A336" s="28" t="str">
         <f>HYPERLINK("https://practice.geeksforgeeks.org/problems/pairs-of-non-coinciding-points/0","Pairs of coinciding points")</f>
         <v>Pairs of coinciding points</v>
       </c>
@@ -13723,7 +13751,7 @@
       <c r="Z337" s="24"/>
     </row>
     <row r="338" spans="1:26" ht="15">
-      <c r="A338" s="30" t="s">
+      <c r="A338" s="29" t="s">
         <v>403</v>
       </c>
       <c r="B338" s="24"/>
@@ -13753,7 +13781,7 @@
       <c r="Z338" s="24"/>
     </row>
     <row r="339" spans="1:26" ht="15">
-      <c r="A339" s="40" t="str">
+      <c r="A339" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/trapping-rain-water/","trapping rain water")</f>
         <v>trapping rain water</v>
       </c>
@@ -13818,7 +13846,7 @@
       <c r="Z340" s="24"/>
     </row>
     <row r="341" spans="1:26" ht="15">
-      <c r="A341" s="29" t="str">
+      <c r="A341" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-pairs-in-array-whose-sum-is-divisible-by-k/","Count Pair whose sum is divisible by k")</f>
         <v>Count Pair whose sum is divisible by k</v>
       </c>
@@ -13851,7 +13879,7 @@
       <c r="Z341" s="24"/>
     </row>
     <row r="342" spans="1:26" ht="15">
-      <c r="A342" s="29" t="str">
+      <c r="A342" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-1/","length of largest subarray with continuous element")</f>
         <v>length of largest subarray with continuous element</v>
       </c>
@@ -13884,7 +13912,7 @@
       <c r="Z342" s="24"/>
     </row>
     <row r="343" spans="1:26" ht="15">
-      <c r="A343" s="29" t="str">
+      <c r="A343" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-2/","length of largest subarray with cont element 2")</f>
         <v>length of largest subarray with cont element 2</v>
       </c>
@@ -13917,7 +13945,7 @@
       <c r="Z343" s="24"/>
     </row>
     <row r="344" spans="1:26" ht="15">
-      <c r="A344" s="29" t="str">
+      <c r="A344" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/find-smallest-number-whose-digits-multiply-given-number-n/","smallest number whose digit mult to given no.")</f>
         <v>smallest number whose digit mult to given no.</v>
       </c>
@@ -13950,7 +13978,7 @@
       <c r="Z344" s="24"/>
     </row>
     <row r="345" spans="1:26" ht="15">
-      <c r="A345" s="29" t="str">
+      <c r="A345" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-if-frequency-of-all-characters-can-become-same-by-one-removal/","same frequency after one removal")</f>
         <v>same frequency after one removal</v>
       </c>
@@ -13983,7 +14011,7 @@
       <c r="Z345" s="24"/>
     </row>
     <row r="346" spans="1:26" ht="15">
-      <c r="A346" s="29" t="str">
+      <c r="A346" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/insert-delete-getrandom-o1/","Insert Delete GetRandom O(1)")</f>
         <v>Insert Delete GetRandom O(1)</v>
       </c>
@@ -14016,7 +14044,7 @@
       <c r="Z346" s="24"/>
     </row>
     <row r="347" spans="1:26" ht="15">
-      <c r="A347" s="29"/>
+      <c r="A347" s="28"/>
       <c r="B347" s="24"/>
       <c r="C347" s="24"/>
       <c r="D347" s="24"/>
@@ -14044,7 +14072,7 @@
       <c r="Z347" s="24"/>
     </row>
     <row r="348" spans="1:26" ht="15">
-      <c r="A348" s="30" t="s">
+      <c r="A348" s="29" t="s">
         <v>413</v>
       </c>
       <c r="B348" s="24"/>
@@ -14074,7 +14102,7 @@
       <c r="Z348" s="24"/>
     </row>
     <row r="349" spans="1:26" ht="15">
-      <c r="A349" s="40" t="str">
+      <c r="A349" s="39" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/","Insert delete get random duplicates allowed")</f>
         <v>Insert delete get random duplicates allowed</v>
       </c>
@@ -14107,7 +14135,7 @@
       <c r="Z349" s="24"/>
     </row>
     <row r="350" spans="1:26" ht="15">
-      <c r="A350" s="29" t="str">
+      <c r="A350" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/find-all-anagrams-in-a-string/","Find all anagrams in a string")</f>
         <v>Find all anagrams in a string</v>
       </c>
@@ -14140,7 +14168,7 @@
       <c r="Z350" s="24"/>
     </row>
     <row r="351" spans="1:26" ht="15">
-      <c r="A351" s="29" t="str">
+      <c r="A351" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-anagram-string-palindrome-not/","Anagram Pallindrome")</f>
         <v>Anagram Pallindrome</v>
       </c>
@@ -14173,7 +14201,7 @@
       <c r="Z351" s="24"/>
     </row>
     <row r="352" spans="1:26" ht="15">
-      <c r="A352" s="45" t="str">
+      <c r="A352" s="44" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-window-substring/","Find smallest size of string containing all char of other")</f>
         <v>Find smallest size of string containing all char of other</v>
       </c>
@@ -14206,7 +14234,7 @@
       <c r="Z352" s="24"/>
     </row>
     <row r="353" spans="1:26" ht="15">
-      <c r="A353" s="45" t="str">
+      <c r="A353" s="44" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/group-anagrams/","Group anagram")</f>
         <v>Group anagram</v>
       </c>
@@ -14239,7 +14267,7 @@
       <c r="Z353" s="24"/>
     </row>
     <row r="354" spans="1:26" ht="15">
-      <c r="A354" s="45" t="str">
+      <c r="A354" s="44" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/length-of-the-longest-substring-without-repeating-characters/","longest substring with unique character")</f>
         <v>longest substring with unique character</v>
       </c>
@@ -14272,7 +14300,7 @@
       <c r="Z354" s="24"/>
     </row>
     <row r="355" spans="1:26" ht="15">
-      <c r="A355" s="29" t="str">
+      <c r="A355" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/smallest-subarray-with-all-occurrences-of-a-most-frequent-element/","smallest subarray with all the occurence of MFE")</f>
         <v>smallest subarray with all the occurence of MFE</v>
       </c>
@@ -14305,7 +14333,7 @@
       <c r="Z355" s="24"/>
     </row>
     <row r="356" spans="1:26" ht="15">
-      <c r="A356" s="29" t="s">
+      <c r="A356" s="28" t="s">
         <v>421</v>
       </c>
       <c r="B356" s="24" t="s">
@@ -14337,7 +14365,7 @@
       <c r="Z356" s="24"/>
     </row>
     <row r="357" spans="1:26" ht="15">
-      <c r="A357" s="29" t="str">
+      <c r="A357" s="28" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/check-two-strings-k-anagrams-not/","K anagram")</f>
         <v>K anagram</v>
       </c>
@@ -14370,7 +14398,7 @@
       <c r="Z357" s="24"/>
     </row>
     <row r="358" spans="1:26" ht="15">
-      <c r="A358" s="29"/>
+      <c r="A358" s="28"/>
       <c r="B358" s="24"/>
       <c r="C358" s="24"/>
       <c r="D358" s="24"/>
@@ -14398,7 +14426,7 @@
       <c r="Z358" s="24"/>
     </row>
     <row r="359" spans="1:26" ht="15">
-      <c r="A359" s="30" t="s">
+      <c r="A359" s="29" t="s">
         <v>424</v>
       </c>
       <c r="B359" s="24"/>
@@ -14428,7 +14456,7 @@
       <c r="Z359" s="24"/>
     </row>
     <row r="360" spans="1:26" ht="15">
-      <c r="A360" s="78" t="str">
+      <c r="A360" s="77" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/","rearrange character string such that no two are same")</f>
         <v>rearrange character string such that no two are same</v>
       </c>
@@ -14461,7 +14489,7 @@
       <c r="Z360" s="24"/>
     </row>
     <row r="361" spans="1:26" ht="15">
-      <c r="A361" s="29" t="s">
+      <c r="A361" s="28" t="s">
         <v>426</v>
       </c>
       <c r="B361" s="24" t="s">
@@ -14493,7 +14521,7 @@
       <c r="Z361" s="24"/>
     </row>
     <row r="362" spans="1:26" ht="15">
-      <c r="A362" s="29" t="s">
+      <c r="A362" s="28" t="s">
         <v>427</v>
       </c>
       <c r="B362" s="24" t="s">
@@ -14525,7 +14553,7 @@
       <c r="Z362" s="24"/>
     </row>
     <row r="363" spans="1:26" ht="15">
-      <c r="A363" s="29" t="str">
+      <c r="A363" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/","Kth smallest element in sorted 2d matrix")</f>
         <v>Kth smallest element in sorted 2d matrix</v>
       </c>
@@ -14558,7 +14586,7 @@
       <c r="Z363" s="24"/>
     </row>
     <row r="364" spans="1:26" ht="15">
-      <c r="A364" s="29" t="str">
+      <c r="A364" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/k-th-smallest-prime-fraction/","Kth smallest prime fraction")</f>
         <v>Kth smallest prime fraction</v>
       </c>
@@ -14591,7 +14619,7 @@
       <c r="Z364" s="24"/>
     </row>
     <row r="365" spans="1:26" ht="15">
-      <c r="A365" s="29" t="str">
+      <c r="A365" s="28" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/employee-free-time/","Employee Free time")</f>
         <v>Employee Free time</v>
       </c>
@@ -14652,7 +14680,7 @@
       <c r="Z366" s="24"/>
     </row>
     <row r="367" spans="1:26" ht="18.75">
-      <c r="A367" s="79" t="s">
+      <c r="A367" s="78" t="s">
         <v>17</v>
       </c>
       <c r="B367" s="4"/>
@@ -14685,44 +14713,44 @@
       <c r="A368" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="B368" s="36"/>
-      <c r="C368" s="36"/>
-      <c r="D368" s="36"/>
-      <c r="E368" s="36"/>
-      <c r="F368" s="36"/>
-      <c r="G368" s="36"/>
-      <c r="H368" s="36"/>
-      <c r="I368" s="36"/>
-      <c r="J368" s="36"/>
-      <c r="K368" s="36"/>
-      <c r="L368" s="36"/>
-      <c r="M368" s="36"/>
-      <c r="N368" s="36"/>
-      <c r="O368" s="36"/>
-      <c r="P368" s="36"/>
-      <c r="Q368" s="36"/>
-      <c r="R368" s="36"/>
-      <c r="S368" s="36"/>
-      <c r="T368" s="36"/>
-      <c r="U368" s="36"/>
-      <c r="V368" s="36"/>
-      <c r="W368" s="36"/>
-      <c r="X368" s="36"/>
-      <c r="Y368" s="36"/>
-      <c r="Z368" s="36"/>
+      <c r="B368" s="35"/>
+      <c r="C368" s="35"/>
+      <c r="D368" s="35"/>
+      <c r="E368" s="35"/>
+      <c r="F368" s="35"/>
+      <c r="G368" s="35"/>
+      <c r="H368" s="35"/>
+      <c r="I368" s="35"/>
+      <c r="J368" s="35"/>
+      <c r="K368" s="35"/>
+      <c r="L368" s="35"/>
+      <c r="M368" s="35"/>
+      <c r="N368" s="35"/>
+      <c r="O368" s="35"/>
+      <c r="P368" s="35"/>
+      <c r="Q368" s="35"/>
+      <c r="R368" s="35"/>
+      <c r="S368" s="35"/>
+      <c r="T368" s="35"/>
+      <c r="U368" s="35"/>
+      <c r="V368" s="35"/>
+      <c r="W368" s="35"/>
+      <c r="X368" s="35"/>
+      <c r="Y368" s="35"/>
+      <c r="Z368" s="35"/>
     </row>
     <row r="369" spans="1:26" ht="15">
-      <c r="A369" s="65" t="s">
+      <c r="A369" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="B369" s="64"/>
-      <c r="C369" s="36"/>
-      <c r="D369" s="36"/>
-      <c r="E369" s="36"/>
-      <c r="F369" s="36"/>
-      <c r="G369" s="36"/>
-      <c r="H369" s="36"/>
-      <c r="I369" s="36"/>
+      <c r="B369" s="63"/>
+      <c r="C369" s="35"/>
+      <c r="D369" s="35"/>
+      <c r="E369" s="35"/>
+      <c r="F369" s="35"/>
+      <c r="G369" s="35"/>
+      <c r="H369" s="35"/>
+      <c r="I369" s="35"/>
       <c r="J369" s="24"/>
       <c r="K369" s="24"/>
       <c r="L369" s="24"/>
@@ -14742,17 +14770,17 @@
       <c r="Z369" s="24"/>
     </row>
     <row r="370" spans="1:26" ht="15">
-      <c r="A370" s="80" t="s">
+      <c r="A370" s="79" t="s">
         <v>432</v>
       </c>
-      <c r="B370" s="64"/>
-      <c r="C370" s="36"/>
-      <c r="D370" s="36"/>
-      <c r="E370" s="36"/>
-      <c r="F370" s="36"/>
-      <c r="G370" s="36"/>
-      <c r="H370" s="36"/>
-      <c r="I370" s="36"/>
+      <c r="B370" s="63"/>
+      <c r="C370" s="35"/>
+      <c r="D370" s="35"/>
+      <c r="E370" s="35"/>
+      <c r="F370" s="35"/>
+      <c r="G370" s="35"/>
+      <c r="H370" s="35"/>
+      <c r="I370" s="35"/>
       <c r="J370" s="24"/>
       <c r="K370" s="24"/>
       <c r="L370" s="24"/>
@@ -14772,17 +14800,17 @@
       <c r="Z370" s="24"/>
     </row>
     <row r="371" spans="1:26" ht="15">
-      <c r="A371" s="80" t="s">
+      <c r="A371" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="B371" s="64"/>
-      <c r="C371" s="36"/>
-      <c r="D371" s="36"/>
-      <c r="E371" s="36"/>
-      <c r="F371" s="36"/>
-      <c r="G371" s="36"/>
-      <c r="H371" s="36"/>
-      <c r="I371" s="36"/>
+      <c r="B371" s="63"/>
+      <c r="C371" s="35"/>
+      <c r="D371" s="35"/>
+      <c r="E371" s="35"/>
+      <c r="F371" s="35"/>
+      <c r="G371" s="35"/>
+      <c r="H371" s="35"/>
+      <c r="I371" s="35"/>
       <c r="J371" s="24"/>
       <c r="K371" s="24"/>
       <c r="L371" s="24"/>
@@ -14802,17 +14830,17 @@
       <c r="Z371" s="24"/>
     </row>
     <row r="372" spans="1:26" ht="15">
-      <c r="A372" s="64" t="s">
+      <c r="A372" s="63" t="s">
         <v>434</v>
       </c>
-      <c r="B372" s="64"/>
-      <c r="C372" s="36"/>
-      <c r="D372" s="36"/>
-      <c r="E372" s="36"/>
-      <c r="F372" s="36"/>
-      <c r="G372" s="36"/>
-      <c r="H372" s="36"/>
-      <c r="I372" s="36"/>
+      <c r="B372" s="63"/>
+      <c r="C372" s="35"/>
+      <c r="D372" s="35"/>
+      <c r="E372" s="35"/>
+      <c r="F372" s="35"/>
+      <c r="G372" s="35"/>
+      <c r="H372" s="35"/>
+      <c r="I372" s="35"/>
       <c r="J372" s="24"/>
       <c r="K372" s="24"/>
       <c r="L372" s="24"/>
@@ -14832,17 +14860,17 @@
       <c r="Z372" s="24"/>
     </row>
     <row r="373" spans="1:26" ht="15">
-      <c r="A373" s="64" t="s">
+      <c r="A373" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="B373" s="64"/>
-      <c r="C373" s="36"/>
-      <c r="D373" s="36"/>
-      <c r="E373" s="36"/>
-      <c r="F373" s="36"/>
-      <c r="G373" s="36"/>
-      <c r="H373" s="36"/>
-      <c r="I373" s="36"/>
+      <c r="B373" s="63"/>
+      <c r="C373" s="35"/>
+      <c r="D373" s="35"/>
+      <c r="E373" s="35"/>
+      <c r="F373" s="35"/>
+      <c r="G373" s="35"/>
+      <c r="H373" s="35"/>
+      <c r="I373" s="35"/>
       <c r="J373" s="24"/>
       <c r="K373" s="24"/>
       <c r="L373" s="24"/>
@@ -14862,17 +14890,17 @@
       <c r="Z373" s="24"/>
     </row>
     <row r="374" spans="1:26" ht="15">
-      <c r="A374" s="64" t="s">
+      <c r="A374" s="63" t="s">
         <v>436</v>
       </c>
-      <c r="B374" s="64"/>
-      <c r="C374" s="36"/>
-      <c r="D374" s="36"/>
-      <c r="E374" s="36"/>
-      <c r="F374" s="36"/>
-      <c r="G374" s="36"/>
-      <c r="H374" s="36"/>
-      <c r="I374" s="36"/>
+      <c r="B374" s="63"/>
+      <c r="C374" s="35"/>
+      <c r="D374" s="35"/>
+      <c r="E374" s="35"/>
+      <c r="F374" s="35"/>
+      <c r="G374" s="35"/>
+      <c r="H374" s="35"/>
+      <c r="I374" s="35"/>
       <c r="J374" s="24"/>
       <c r="K374" s="24"/>
       <c r="L374" s="24"/>
@@ -14892,17 +14920,17 @@
       <c r="Z374" s="24"/>
     </row>
     <row r="375" spans="1:26" ht="15">
-      <c r="A375" s="64" t="s">
+      <c r="A375" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="B375" s="64"/>
-      <c r="C375" s="36"/>
-      <c r="D375" s="36"/>
-      <c r="E375" s="36"/>
-      <c r="F375" s="36"/>
-      <c r="G375" s="36"/>
-      <c r="H375" s="36"/>
-      <c r="I375" s="36"/>
+      <c r="B375" s="63"/>
+      <c r="C375" s="35"/>
+      <c r="D375" s="35"/>
+      <c r="E375" s="35"/>
+      <c r="F375" s="35"/>
+      <c r="G375" s="35"/>
+      <c r="H375" s="35"/>
+      <c r="I375" s="35"/>
       <c r="J375" s="24"/>
       <c r="K375" s="24"/>
       <c r="L375" s="24"/>
@@ -14922,17 +14950,17 @@
       <c r="Z375" s="24"/>
     </row>
     <row r="376" spans="1:26" ht="15">
-      <c r="A376" s="64" t="s">
+      <c r="A376" s="63" t="s">
         <v>438</v>
       </c>
-      <c r="B376" s="64"/>
-      <c r="C376" s="36"/>
-      <c r="D376" s="36"/>
-      <c r="E376" s="36"/>
-      <c r="F376" s="36"/>
-      <c r="G376" s="36"/>
-      <c r="H376" s="36"/>
-      <c r="I376" s="36"/>
+      <c r="B376" s="63"/>
+      <c r="C376" s="35"/>
+      <c r="D376" s="35"/>
+      <c r="E376" s="35"/>
+      <c r="F376" s="35"/>
+      <c r="G376" s="35"/>
+      <c r="H376" s="35"/>
+      <c r="I376" s="35"/>
       <c r="J376" s="24"/>
       <c r="K376" s="24"/>
       <c r="L376" s="24"/>
@@ -14952,17 +14980,17 @@
       <c r="Z376" s="24"/>
     </row>
     <row r="377" spans="1:26" ht="15">
-      <c r="A377" s="58" t="s">
+      <c r="A377" s="57" t="s">
         <v>439</v>
       </c>
-      <c r="B377" s="64"/>
-      <c r="C377" s="36"/>
-      <c r="D377" s="36"/>
-      <c r="E377" s="36"/>
-      <c r="F377" s="36"/>
-      <c r="G377" s="36"/>
-      <c r="H377" s="36"/>
-      <c r="I377" s="36"/>
+      <c r="B377" s="63"/>
+      <c r="C377" s="35"/>
+      <c r="D377" s="35"/>
+      <c r="E377" s="35"/>
+      <c r="F377" s="35"/>
+      <c r="G377" s="35"/>
+      <c r="H377" s="35"/>
+      <c r="I377" s="35"/>
       <c r="J377" s="24"/>
       <c r="K377" s="24"/>
       <c r="L377" s="24"/>
@@ -14982,17 +15010,17 @@
       <c r="Z377" s="24"/>
     </row>
     <row r="378" spans="1:26" ht="15">
-      <c r="A378" s="65" t="s">
+      <c r="A378" s="64" t="s">
         <v>440</v>
       </c>
-      <c r="B378" s="64"/>
-      <c r="C378" s="36"/>
-      <c r="D378" s="36"/>
-      <c r="E378" s="36"/>
-      <c r="F378" s="36"/>
-      <c r="G378" s="36"/>
-      <c r="H378" s="36"/>
-      <c r="I378" s="36"/>
+      <c r="B378" s="63"/>
+      <c r="C378" s="35"/>
+      <c r="D378" s="35"/>
+      <c r="E378" s="35"/>
+      <c r="F378" s="35"/>
+      <c r="G378" s="35"/>
+      <c r="H378" s="35"/>
+      <c r="I378" s="35"/>
       <c r="J378" s="24"/>
       <c r="K378" s="24"/>
       <c r="L378" s="24"/>
@@ -15012,17 +15040,17 @@
       <c r="Z378" s="24"/>
     </row>
     <row r="379" spans="1:26" ht="15">
-      <c r="A379" s="64" t="s">
+      <c r="A379" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="B379" s="64"/>
-      <c r="C379" s="36"/>
-      <c r="D379" s="36"/>
-      <c r="E379" s="36"/>
-      <c r="F379" s="36"/>
-      <c r="G379" s="36"/>
-      <c r="H379" s="36"/>
-      <c r="I379" s="36"/>
+      <c r="B379" s="63"/>
+      <c r="C379" s="35"/>
+      <c r="D379" s="35"/>
+      <c r="E379" s="35"/>
+      <c r="F379" s="35"/>
+      <c r="G379" s="35"/>
+      <c r="H379" s="35"/>
+      <c r="I379" s="35"/>
       <c r="J379" s="24"/>
       <c r="K379" s="24"/>
       <c r="L379" s="24"/>
@@ -15042,17 +15070,17 @@
       <c r="Z379" s="24"/>
     </row>
     <row r="380" spans="1:26" ht="15">
-      <c r="A380" s="81" t="s">
+      <c r="A380" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="B380" s="64"/>
-      <c r="C380" s="36"/>
-      <c r="D380" s="36"/>
-      <c r="E380" s="36"/>
-      <c r="F380" s="36"/>
-      <c r="G380" s="36"/>
-      <c r="H380" s="36"/>
-      <c r="I380" s="36"/>
+      <c r="B380" s="63"/>
+      <c r="C380" s="35"/>
+      <c r="D380" s="35"/>
+      <c r="E380" s="35"/>
+      <c r="F380" s="35"/>
+      <c r="G380" s="35"/>
+      <c r="H380" s="35"/>
+      <c r="I380" s="35"/>
       <c r="J380" s="24"/>
       <c r="K380" s="24"/>
       <c r="L380" s="24"/>
@@ -15072,17 +15100,17 @@
       <c r="Z380" s="24"/>
     </row>
     <row r="381" spans="1:26" ht="15">
-      <c r="A381" s="64" t="s">
+      <c r="A381" s="63" t="s">
         <v>443</v>
       </c>
-      <c r="B381" s="64"/>
-      <c r="C381" s="36"/>
-      <c r="D381" s="36"/>
-      <c r="E381" s="36"/>
-      <c r="F381" s="36"/>
-      <c r="G381" s="36"/>
-      <c r="H381" s="36"/>
-      <c r="I381" s="36"/>
+      <c r="B381" s="63"/>
+      <c r="C381" s="35"/>
+      <c r="D381" s="35"/>
+      <c r="E381" s="35"/>
+      <c r="F381" s="35"/>
+      <c r="G381" s="35"/>
+      <c r="H381" s="35"/>
+      <c r="I381" s="35"/>
       <c r="J381" s="24"/>
       <c r="K381" s="24"/>
       <c r="L381" s="24"/>
@@ -15102,17 +15130,17 @@
       <c r="Z381" s="24"/>
     </row>
     <row r="382" spans="1:26" ht="15">
-      <c r="A382" s="64" t="s">
+      <c r="A382" s="63" t="s">
         <v>444</v>
       </c>
-      <c r="B382" s="64"/>
-      <c r="C382" s="36"/>
-      <c r="D382" s="36"/>
-      <c r="E382" s="36"/>
-      <c r="F382" s="36"/>
-      <c r="G382" s="36"/>
-      <c r="H382" s="36"/>
-      <c r="I382" s="36"/>
+      <c r="B382" s="63"/>
+      <c r="C382" s="35"/>
+      <c r="D382" s="35"/>
+      <c r="E382" s="35"/>
+      <c r="F382" s="35"/>
+      <c r="G382" s="35"/>
+      <c r="H382" s="35"/>
+      <c r="I382" s="35"/>
       <c r="J382" s="24"/>
       <c r="K382" s="24"/>
       <c r="L382" s="24"/>
@@ -15132,17 +15160,17 @@
       <c r="Z382" s="24"/>
     </row>
     <row r="383" spans="1:26" ht="15">
-      <c r="A383" s="64" t="s">
+      <c r="A383" s="63" t="s">
         <v>445</v>
       </c>
-      <c r="B383" s="64"/>
-      <c r="C383" s="36"/>
-      <c r="D383" s="36"/>
-      <c r="E383" s="36"/>
-      <c r="F383" s="36"/>
-      <c r="G383" s="36"/>
-      <c r="H383" s="36"/>
-      <c r="I383" s="36"/>
+      <c r="B383" s="63"/>
+      <c r="C383" s="35"/>
+      <c r="D383" s="35"/>
+      <c r="E383" s="35"/>
+      <c r="F383" s="35"/>
+      <c r="G383" s="35"/>
+      <c r="H383" s="35"/>
+      <c r="I383" s="35"/>
       <c r="J383" s="24"/>
       <c r="K383" s="24"/>
       <c r="L383" s="24"/>
@@ -15162,17 +15190,17 @@
       <c r="Z383" s="24"/>
     </row>
     <row r="384" spans="1:26" ht="15">
-      <c r="A384" s="64" t="s">
+      <c r="A384" s="63" t="s">
         <v>446</v>
       </c>
-      <c r="B384" s="64"/>
-      <c r="C384" s="36"/>
-      <c r="D384" s="36"/>
-      <c r="E384" s="36"/>
-      <c r="F384" s="36"/>
-      <c r="G384" s="36"/>
-      <c r="H384" s="36"/>
-      <c r="I384" s="36"/>
+      <c r="B384" s="63"/>
+      <c r="C384" s="35"/>
+      <c r="D384" s="35"/>
+      <c r="E384" s="35"/>
+      <c r="F384" s="35"/>
+      <c r="G384" s="35"/>
+      <c r="H384" s="35"/>
+      <c r="I384" s="35"/>
       <c r="J384" s="24"/>
       <c r="K384" s="24"/>
       <c r="L384" s="24"/>
@@ -15192,17 +15220,17 @@
       <c r="Z384" s="24"/>
     </row>
     <row r="385" spans="1:26" ht="15">
-      <c r="A385" s="64" t="s">
+      <c r="A385" s="63" t="s">
         <v>447</v>
       </c>
-      <c r="B385" s="64"/>
-      <c r="C385" s="36"/>
-      <c r="D385" s="36"/>
-      <c r="E385" s="36"/>
-      <c r="F385" s="36"/>
-      <c r="G385" s="36"/>
-      <c r="H385" s="36"/>
-      <c r="I385" s="36"/>
+      <c r="B385" s="63"/>
+      <c r="C385" s="35"/>
+      <c r="D385" s="35"/>
+      <c r="E385" s="35"/>
+      <c r="F385" s="35"/>
+      <c r="G385" s="35"/>
+      <c r="H385" s="35"/>
+      <c r="I385" s="35"/>
       <c r="J385" s="24"/>
       <c r="K385" s="24"/>
       <c r="L385" s="24"/>
@@ -15222,17 +15250,17 @@
       <c r="Z385" s="24"/>
     </row>
     <row r="386" spans="1:26" ht="15">
-      <c r="A386" s="58" t="s">
+      <c r="A386" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="B386" s="64"/>
-      <c r="C386" s="36"/>
-      <c r="D386" s="36"/>
-      <c r="E386" s="36"/>
-      <c r="F386" s="36"/>
-      <c r="G386" s="36"/>
-      <c r="H386" s="36"/>
-      <c r="I386" s="36"/>
+      <c r="B386" s="63"/>
+      <c r="C386" s="35"/>
+      <c r="D386" s="35"/>
+      <c r="E386" s="35"/>
+      <c r="F386" s="35"/>
+      <c r="G386" s="35"/>
+      <c r="H386" s="35"/>
+      <c r="I386" s="35"/>
       <c r="J386" s="24"/>
       <c r="K386" s="24"/>
       <c r="L386" s="24"/>
@@ -15252,17 +15280,17 @@
       <c r="Z386" s="24"/>
     </row>
     <row r="387" spans="1:26" ht="15">
-      <c r="A387" s="65" t="s">
+      <c r="A387" s="64" t="s">
         <v>449</v>
       </c>
-      <c r="B387" s="64"/>
-      <c r="C387" s="36"/>
-      <c r="D387" s="36"/>
-      <c r="E387" s="36"/>
-      <c r="F387" s="36"/>
-      <c r="G387" s="36"/>
-      <c r="H387" s="36"/>
-      <c r="I387" s="36"/>
+      <c r="B387" s="63"/>
+      <c r="C387" s="35"/>
+      <c r="D387" s="35"/>
+      <c r="E387" s="35"/>
+      <c r="F387" s="35"/>
+      <c r="G387" s="35"/>
+      <c r="H387" s="35"/>
+      <c r="I387" s="35"/>
       <c r="J387" s="24"/>
       <c r="K387" s="24"/>
       <c r="L387" s="24"/>
@@ -15282,17 +15310,17 @@
       <c r="Z387" s="24"/>
     </row>
     <row r="388" spans="1:26" ht="15">
-      <c r="A388" s="64" t="s">
+      <c r="A388" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="B388" s="64"/>
-      <c r="C388" s="36"/>
-      <c r="D388" s="36"/>
-      <c r="E388" s="36"/>
-      <c r="F388" s="36"/>
-      <c r="G388" s="36"/>
-      <c r="H388" s="36"/>
-      <c r="I388" s="36"/>
+      <c r="B388" s="63"/>
+      <c r="C388" s="35"/>
+      <c r="D388" s="35"/>
+      <c r="E388" s="35"/>
+      <c r="F388" s="35"/>
+      <c r="G388" s="35"/>
+      <c r="H388" s="35"/>
+      <c r="I388" s="35"/>
       <c r="J388" s="24"/>
       <c r="K388" s="24"/>
       <c r="L388" s="24"/>
@@ -15312,17 +15340,17 @@
       <c r="Z388" s="24"/>
     </row>
     <row r="389" spans="1:26" ht="15">
-      <c r="A389" s="64" t="s">
+      <c r="A389" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="B389" s="64"/>
-      <c r="C389" s="36"/>
-      <c r="D389" s="36"/>
-      <c r="E389" s="36"/>
-      <c r="F389" s="36"/>
-      <c r="G389" s="36"/>
-      <c r="H389" s="36"/>
-      <c r="I389" s="36"/>
+      <c r="B389" s="63"/>
+      <c r="C389" s="35"/>
+      <c r="D389" s="35"/>
+      <c r="E389" s="35"/>
+      <c r="F389" s="35"/>
+      <c r="G389" s="35"/>
+      <c r="H389" s="35"/>
+      <c r="I389" s="35"/>
       <c r="J389" s="24"/>
       <c r="K389" s="24"/>
       <c r="L389" s="24"/>
@@ -15342,17 +15370,17 @@
       <c r="Z389" s="24"/>
     </row>
     <row r="390" spans="1:26" ht="15">
-      <c r="A390" s="64" t="s">
+      <c r="A390" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="B390" s="64"/>
-      <c r="C390" s="36"/>
-      <c r="D390" s="36"/>
-      <c r="E390" s="36"/>
-      <c r="F390" s="36"/>
-      <c r="G390" s="36"/>
-      <c r="H390" s="36"/>
-      <c r="I390" s="36"/>
+      <c r="B390" s="63"/>
+      <c r="C390" s="35"/>
+      <c r="D390" s="35"/>
+      <c r="E390" s="35"/>
+      <c r="F390" s="35"/>
+      <c r="G390" s="35"/>
+      <c r="H390" s="35"/>
+      <c r="I390" s="35"/>
       <c r="J390" s="24"/>
       <c r="K390" s="24"/>
       <c r="L390" s="24"/>
@@ -15372,17 +15400,17 @@
       <c r="Z390" s="24"/>
     </row>
     <row r="391" spans="1:26" ht="15">
-      <c r="A391" s="64" t="s">
+      <c r="A391" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="B391" s="64"/>
-      <c r="C391" s="36"/>
-      <c r="D391" s="36"/>
-      <c r="E391" s="36"/>
-      <c r="F391" s="36"/>
-      <c r="G391" s="36"/>
-      <c r="H391" s="36"/>
-      <c r="I391" s="36"/>
+      <c r="B391" s="63"/>
+      <c r="C391" s="35"/>
+      <c r="D391" s="35"/>
+      <c r="E391" s="35"/>
+      <c r="F391" s="35"/>
+      <c r="G391" s="35"/>
+      <c r="H391" s="35"/>
+      <c r="I391" s="35"/>
       <c r="J391" s="24"/>
       <c r="K391" s="24"/>
       <c r="L391" s="24"/>
@@ -15402,17 +15430,17 @@
       <c r="Z391" s="24"/>
     </row>
     <row r="392" spans="1:26" ht="15">
-      <c r="A392" s="64" t="s">
+      <c r="A392" s="63" t="s">
         <v>454</v>
       </c>
-      <c r="B392" s="64"/>
-      <c r="C392" s="36"/>
-      <c r="D392" s="36"/>
-      <c r="E392" s="36"/>
-      <c r="F392" s="36"/>
-      <c r="G392" s="36"/>
-      <c r="H392" s="36"/>
-      <c r="I392" s="36"/>
+      <c r="B392" s="63"/>
+      <c r="C392" s="35"/>
+      <c r="D392" s="35"/>
+      <c r="E392" s="35"/>
+      <c r="F392" s="35"/>
+      <c r="G392" s="35"/>
+      <c r="H392" s="35"/>
+      <c r="I392" s="35"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
       <c r="L392" s="24"/>
@@ -15432,17 +15460,17 @@
       <c r="Z392" s="24"/>
     </row>
     <row r="393" spans="1:26" ht="15">
-      <c r="A393" s="64" t="s">
+      <c r="A393" s="63" t="s">
         <v>455</v>
       </c>
-      <c r="B393" s="64"/>
-      <c r="C393" s="36"/>
-      <c r="D393" s="36"/>
-      <c r="E393" s="36"/>
-      <c r="F393" s="36"/>
-      <c r="G393" s="36"/>
-      <c r="H393" s="36"/>
-      <c r="I393" s="36"/>
+      <c r="B393" s="63"/>
+      <c r="C393" s="35"/>
+      <c r="D393" s="35"/>
+      <c r="E393" s="35"/>
+      <c r="F393" s="35"/>
+      <c r="G393" s="35"/>
+      <c r="H393" s="35"/>
+      <c r="I393" s="35"/>
       <c r="J393" s="24"/>
       <c r="K393" s="24"/>
       <c r="L393" s="24"/>
@@ -15462,17 +15490,17 @@
       <c r="Z393" s="24"/>
     </row>
     <row r="394" spans="1:26" ht="15">
-      <c r="A394" s="64" t="s">
+      <c r="A394" s="63" t="s">
         <v>456</v>
       </c>
-      <c r="B394" s="64"/>
-      <c r="C394" s="36"/>
-      <c r="D394" s="36"/>
-      <c r="E394" s="36"/>
-      <c r="F394" s="36"/>
-      <c r="G394" s="36"/>
-      <c r="H394" s="36"/>
-      <c r="I394" s="36"/>
+      <c r="B394" s="63"/>
+      <c r="C394" s="35"/>
+      <c r="D394" s="35"/>
+      <c r="E394" s="35"/>
+      <c r="F394" s="35"/>
+      <c r="G394" s="35"/>
+      <c r="H394" s="35"/>
+      <c r="I394" s="35"/>
       <c r="J394" s="24"/>
       <c r="K394" s="24"/>
       <c r="L394" s="24"/>
@@ -15492,17 +15520,17 @@
       <c r="Z394" s="24"/>
     </row>
     <row r="395" spans="1:26" ht="15">
-      <c r="A395" s="58" t="s">
+      <c r="A395" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="B395" s="64"/>
-      <c r="C395" s="36"/>
-      <c r="D395" s="36"/>
-      <c r="E395" s="36"/>
-      <c r="F395" s="36"/>
-      <c r="G395" s="36"/>
-      <c r="H395" s="36"/>
-      <c r="I395" s="36"/>
+      <c r="B395" s="63"/>
+      <c r="C395" s="35"/>
+      <c r="D395" s="35"/>
+      <c r="E395" s="35"/>
+      <c r="F395" s="35"/>
+      <c r="G395" s="35"/>
+      <c r="H395" s="35"/>
+      <c r="I395" s="35"/>
       <c r="J395" s="24"/>
       <c r="K395" s="24"/>
       <c r="L395" s="24"/>
@@ -15522,17 +15550,17 @@
       <c r="Z395" s="24"/>
     </row>
     <row r="396" spans="1:26" ht="15">
-      <c r="A396" s="65" t="s">
+      <c r="A396" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="B396" s="64"/>
-      <c r="C396" s="36"/>
-      <c r="D396" s="36"/>
-      <c r="E396" s="36"/>
-      <c r="F396" s="36"/>
-      <c r="G396" s="36"/>
-      <c r="H396" s="36"/>
-      <c r="I396" s="36"/>
+      <c r="B396" s="63"/>
+      <c r="C396" s="35"/>
+      <c r="D396" s="35"/>
+      <c r="E396" s="35"/>
+      <c r="F396" s="35"/>
+      <c r="G396" s="35"/>
+      <c r="H396" s="35"/>
+      <c r="I396" s="35"/>
       <c r="J396" s="24"/>
       <c r="K396" s="24"/>
       <c r="L396" s="24"/>
@@ -15552,17 +15580,17 @@
       <c r="Z396" s="24"/>
     </row>
     <row r="397" spans="1:26" ht="15">
-      <c r="A397" s="64" t="s">
+      <c r="A397" s="63" t="s">
         <v>459</v>
       </c>
-      <c r="B397" s="64"/>
-      <c r="C397" s="36"/>
-      <c r="D397" s="36"/>
-      <c r="E397" s="36"/>
-      <c r="F397" s="36"/>
-      <c r="G397" s="36"/>
-      <c r="H397" s="36"/>
-      <c r="I397" s="36"/>
+      <c r="B397" s="63"/>
+      <c r="C397" s="35"/>
+      <c r="D397" s="35"/>
+      <c r="E397" s="35"/>
+      <c r="F397" s="35"/>
+      <c r="G397" s="35"/>
+      <c r="H397" s="35"/>
+      <c r="I397" s="35"/>
       <c r="J397" s="24"/>
       <c r="K397" s="24"/>
       <c r="L397" s="24"/>
@@ -15582,17 +15610,17 @@
       <c r="Z397" s="24"/>
     </row>
     <row r="398" spans="1:26" ht="15">
-      <c r="A398" s="64" t="s">
+      <c r="A398" s="63" t="s">
         <v>460</v>
       </c>
-      <c r="B398" s="64"/>
-      <c r="C398" s="36"/>
-      <c r="D398" s="36"/>
-      <c r="E398" s="36"/>
-      <c r="F398" s="36"/>
-      <c r="G398" s="36"/>
-      <c r="H398" s="36"/>
-      <c r="I398" s="36"/>
+      <c r="B398" s="63"/>
+      <c r="C398" s="35"/>
+      <c r="D398" s="35"/>
+      <c r="E398" s="35"/>
+      <c r="F398" s="35"/>
+      <c r="G398" s="35"/>
+      <c r="H398" s="35"/>
+      <c r="I398" s="35"/>
       <c r="J398" s="24"/>
       <c r="K398" s="24"/>
       <c r="L398" s="24"/>
@@ -15612,17 +15640,17 @@
       <c r="Z398" s="24"/>
     </row>
     <row r="399" spans="1:26" ht="15">
-      <c r="A399" s="64" t="s">
+      <c r="A399" s="63" t="s">
         <v>461</v>
       </c>
-      <c r="B399" s="64"/>
-      <c r="C399" s="36"/>
-      <c r="D399" s="36"/>
-      <c r="E399" s="36"/>
-      <c r="F399" s="36"/>
-      <c r="G399" s="36"/>
-      <c r="H399" s="36"/>
-      <c r="I399" s="36"/>
+      <c r="B399" s="63"/>
+      <c r="C399" s="35"/>
+      <c r="D399" s="35"/>
+      <c r="E399" s="35"/>
+      <c r="F399" s="35"/>
+      <c r="G399" s="35"/>
+      <c r="H399" s="35"/>
+      <c r="I399" s="35"/>
       <c r="J399" s="24"/>
       <c r="K399" s="24"/>
       <c r="L399" s="24"/>
@@ -15642,17 +15670,17 @@
       <c r="Z399" s="24"/>
     </row>
     <row r="400" spans="1:26" ht="15">
-      <c r="A400" s="64" t="s">
+      <c r="A400" s="63" t="s">
         <v>462</v>
       </c>
-      <c r="B400" s="64"/>
-      <c r="C400" s="36"/>
-      <c r="D400" s="36"/>
-      <c r="E400" s="36"/>
-      <c r="F400" s="36"/>
-      <c r="G400" s="36"/>
-      <c r="H400" s="36"/>
-      <c r="I400" s="36"/>
+      <c r="B400" s="63"/>
+      <c r="C400" s="35"/>
+      <c r="D400" s="35"/>
+      <c r="E400" s="35"/>
+      <c r="F400" s="35"/>
+      <c r="G400" s="35"/>
+      <c r="H400" s="35"/>
+      <c r="I400" s="35"/>
       <c r="J400" s="24"/>
       <c r="K400" s="24"/>
       <c r="L400" s="24"/>
@@ -15672,17 +15700,17 @@
       <c r="Z400" s="24"/>
     </row>
     <row r="401" spans="1:26" ht="15">
-      <c r="A401" s="64" t="s">
+      <c r="A401" s="63" t="s">
         <v>463</v>
       </c>
-      <c r="B401" s="64"/>
-      <c r="C401" s="36"/>
-      <c r="D401" s="36"/>
-      <c r="E401" s="36"/>
-      <c r="F401" s="36"/>
-      <c r="G401" s="36"/>
-      <c r="H401" s="36"/>
-      <c r="I401" s="36"/>
+      <c r="B401" s="63"/>
+      <c r="C401" s="35"/>
+      <c r="D401" s="35"/>
+      <c r="E401" s="35"/>
+      <c r="F401" s="35"/>
+      <c r="G401" s="35"/>
+      <c r="H401" s="35"/>
+      <c r="I401" s="35"/>
       <c r="J401" s="24"/>
       <c r="K401" s="24"/>
       <c r="L401" s="24"/>
@@ -15702,17 +15730,17 @@
       <c r="Z401" s="24"/>
     </row>
     <row r="402" spans="1:26" ht="15">
-      <c r="A402" s="58" t="s">
+      <c r="A402" s="57" t="s">
         <v>464</v>
       </c>
-      <c r="B402" s="64"/>
-      <c r="C402" s="36"/>
-      <c r="D402" s="36"/>
-      <c r="E402" s="36"/>
-      <c r="F402" s="36"/>
-      <c r="G402" s="36"/>
-      <c r="H402" s="36"/>
-      <c r="I402" s="36"/>
+      <c r="B402" s="63"/>
+      <c r="C402" s="35"/>
+      <c r="D402" s="35"/>
+      <c r="E402" s="35"/>
+      <c r="F402" s="35"/>
+      <c r="G402" s="35"/>
+      <c r="H402" s="35"/>
+      <c r="I402" s="35"/>
       <c r="J402" s="24"/>
       <c r="K402" s="24"/>
       <c r="L402" s="24"/>
@@ -15732,17 +15760,17 @@
       <c r="Z402" s="24"/>
     </row>
     <row r="403" spans="1:26" ht="15">
-      <c r="A403" s="65" t="s">
+      <c r="A403" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="B403" s="64"/>
-      <c r="C403" s="36"/>
-      <c r="D403" s="36"/>
-      <c r="E403" s="36"/>
-      <c r="F403" s="36"/>
-      <c r="G403" s="36"/>
-      <c r="H403" s="36"/>
-      <c r="I403" s="36"/>
+      <c r="B403" s="63"/>
+      <c r="C403" s="35"/>
+      <c r="D403" s="35"/>
+      <c r="E403" s="35"/>
+      <c r="F403" s="35"/>
+      <c r="G403" s="35"/>
+      <c r="H403" s="35"/>
+      <c r="I403" s="35"/>
       <c r="J403" s="24"/>
       <c r="K403" s="24"/>
       <c r="L403" s="24"/>
@@ -15762,17 +15790,17 @@
       <c r="Z403" s="24"/>
     </row>
     <row r="404" spans="1:26" ht="15">
-      <c r="A404" s="64" t="s">
+      <c r="A404" s="63" t="s">
         <v>466</v>
       </c>
-      <c r="B404" s="64"/>
-      <c r="C404" s="36"/>
-      <c r="D404" s="36"/>
-      <c r="E404" s="36"/>
-      <c r="F404" s="36"/>
-      <c r="G404" s="36"/>
-      <c r="H404" s="36"/>
-      <c r="I404" s="36"/>
+      <c r="B404" s="63"/>
+      <c r="C404" s="35"/>
+      <c r="D404" s="35"/>
+      <c r="E404" s="35"/>
+      <c r="F404" s="35"/>
+      <c r="G404" s="35"/>
+      <c r="H404" s="35"/>
+      <c r="I404" s="35"/>
       <c r="J404" s="24"/>
       <c r="K404" s="24"/>
       <c r="L404" s="24"/>
@@ -15792,17 +15820,17 @@
       <c r="Z404" s="24"/>
     </row>
     <row r="405" spans="1:26" ht="15">
-      <c r="A405" s="64" t="s">
+      <c r="A405" s="63" t="s">
         <v>467</v>
       </c>
-      <c r="B405" s="64"/>
-      <c r="C405" s="36"/>
-      <c r="D405" s="36"/>
-      <c r="E405" s="36"/>
-      <c r="F405" s="36"/>
-      <c r="G405" s="36"/>
-      <c r="H405" s="36"/>
-      <c r="I405" s="36"/>
+      <c r="B405" s="63"/>
+      <c r="C405" s="35"/>
+      <c r="D405" s="35"/>
+      <c r="E405" s="35"/>
+      <c r="F405" s="35"/>
+      <c r="G405" s="35"/>
+      <c r="H405" s="35"/>
+      <c r="I405" s="35"/>
       <c r="J405" s="24"/>
       <c r="K405" s="24"/>
       <c r="L405" s="24"/>
@@ -15822,17 +15850,17 @@
       <c r="Z405" s="24"/>
     </row>
     <row r="406" spans="1:26" ht="15">
-      <c r="A406" s="64" t="s">
+      <c r="A406" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="B406" s="64"/>
-      <c r="C406" s="36"/>
-      <c r="D406" s="36"/>
-      <c r="E406" s="36"/>
-      <c r="F406" s="36"/>
-      <c r="G406" s="36"/>
-      <c r="H406" s="36"/>
-      <c r="I406" s="36"/>
+      <c r="B406" s="63"/>
+      <c r="C406" s="35"/>
+      <c r="D406" s="35"/>
+      <c r="E406" s="35"/>
+      <c r="F406" s="35"/>
+      <c r="G406" s="35"/>
+      <c r="H406" s="35"/>
+      <c r="I406" s="35"/>
       <c r="J406" s="24"/>
       <c r="K406" s="24"/>
       <c r="L406" s="24"/>
@@ -15852,17 +15880,17 @@
       <c r="Z406" s="24"/>
     </row>
     <row r="407" spans="1:26" ht="15">
-      <c r="A407" s="64" t="s">
+      <c r="A407" s="63" t="s">
         <v>469</v>
       </c>
-      <c r="B407" s="64"/>
-      <c r="C407" s="36"/>
-      <c r="D407" s="36"/>
-      <c r="E407" s="36"/>
-      <c r="F407" s="36"/>
-      <c r="G407" s="36"/>
-      <c r="H407" s="36"/>
-      <c r="I407" s="36"/>
+      <c r="B407" s="63"/>
+      <c r="C407" s="35"/>
+      <c r="D407" s="35"/>
+      <c r="E407" s="35"/>
+      <c r="F407" s="35"/>
+      <c r="G407" s="35"/>
+      <c r="H407" s="35"/>
+      <c r="I407" s="35"/>
       <c r="J407" s="24"/>
       <c r="K407" s="24"/>
       <c r="L407" s="24"/>
@@ -15882,7 +15910,7 @@
       <c r="Z407" s="24"/>
     </row>
     <row r="408" spans="1:26" ht="18.75">
-      <c r="A408" s="68" t="s">
+      <c r="A408" s="67" t="s">
         <v>23</v>
       </c>
       <c r="B408" s="4"/>
@@ -15915,14 +15943,14 @@
       <c r="A409" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="B409" s="64"/>
-      <c r="C409" s="36"/>
-      <c r="D409" s="36"/>
-      <c r="E409" s="36"/>
-      <c r="F409" s="36"/>
-      <c r="G409" s="36"/>
-      <c r="H409" s="36"/>
-      <c r="I409" s="36"/>
+      <c r="B409" s="63"/>
+      <c r="C409" s="35"/>
+      <c r="D409" s="35"/>
+      <c r="E409" s="35"/>
+      <c r="F409" s="35"/>
+      <c r="G409" s="35"/>
+      <c r="H409" s="35"/>
+      <c r="I409" s="35"/>
       <c r="J409" s="24"/>
       <c r="K409" s="24"/>
       <c r="L409" s="24"/>
@@ -15942,17 +15970,17 @@
       <c r="Z409" s="24"/>
     </row>
     <row r="410" spans="1:26" ht="15">
-      <c r="A410" s="65" t="s">
+      <c r="A410" s="64" t="s">
         <v>471</v>
       </c>
-      <c r="B410" s="64"/>
-      <c r="C410" s="36"/>
-      <c r="D410" s="36"/>
-      <c r="E410" s="36"/>
-      <c r="F410" s="36"/>
-      <c r="G410" s="36"/>
-      <c r="H410" s="36"/>
-      <c r="I410" s="36"/>
+      <c r="B410" s="63"/>
+      <c r="C410" s="35"/>
+      <c r="D410" s="35"/>
+      <c r="E410" s="35"/>
+      <c r="F410" s="35"/>
+      <c r="G410" s="35"/>
+      <c r="H410" s="35"/>
+      <c r="I410" s="35"/>
       <c r="J410" s="24"/>
       <c r="K410" s="24"/>
       <c r="L410" s="24"/>
@@ -15972,17 +16000,17 @@
       <c r="Z410" s="24"/>
     </row>
     <row r="411" spans="1:26" ht="15">
-      <c r="A411" s="64" t="s">
+      <c r="A411" s="63" t="s">
         <v>472</v>
       </c>
-      <c r="B411" s="64"/>
-      <c r="C411" s="36"/>
-      <c r="D411" s="36"/>
-      <c r="E411" s="36"/>
-      <c r="F411" s="36"/>
-      <c r="G411" s="36"/>
-      <c r="H411" s="36"/>
-      <c r="I411" s="36"/>
+      <c r="B411" s="63"/>
+      <c r="C411" s="35"/>
+      <c r="D411" s="35"/>
+      <c r="E411" s="35"/>
+      <c r="F411" s="35"/>
+      <c r="G411" s="35"/>
+      <c r="H411" s="35"/>
+      <c r="I411" s="35"/>
       <c r="J411" s="24"/>
       <c r="K411" s="24"/>
       <c r="L411" s="24"/>
@@ -16002,17 +16030,17 @@
       <c r="Z411" s="24"/>
     </row>
     <row r="412" spans="1:26" ht="15">
-      <c r="A412" s="64" t="s">
+      <c r="A412" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="B412" s="64"/>
-      <c r="C412" s="36"/>
-      <c r="D412" s="36"/>
-      <c r="E412" s="36"/>
-      <c r="F412" s="36"/>
-      <c r="G412" s="36"/>
-      <c r="H412" s="36"/>
-      <c r="I412" s="36"/>
+      <c r="B412" s="63"/>
+      <c r="C412" s="35"/>
+      <c r="D412" s="35"/>
+      <c r="E412" s="35"/>
+      <c r="F412" s="35"/>
+      <c r="G412" s="35"/>
+      <c r="H412" s="35"/>
+      <c r="I412" s="35"/>
       <c r="J412" s="24"/>
       <c r="K412" s="24"/>
       <c r="L412" s="24"/>
@@ -16032,17 +16060,17 @@
       <c r="Z412" s="24"/>
     </row>
     <row r="413" spans="1:26" ht="15">
-      <c r="A413" s="64" t="s">
+      <c r="A413" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="B413" s="64"/>
-      <c r="C413" s="36"/>
-      <c r="D413" s="36"/>
-      <c r="E413" s="36"/>
-      <c r="F413" s="36"/>
-      <c r="G413" s="36"/>
-      <c r="H413" s="36"/>
-      <c r="I413" s="36"/>
+      <c r="B413" s="63"/>
+      <c r="C413" s="35"/>
+      <c r="D413" s="35"/>
+      <c r="E413" s="35"/>
+      <c r="F413" s="35"/>
+      <c r="G413" s="35"/>
+      <c r="H413" s="35"/>
+      <c r="I413" s="35"/>
       <c r="J413" s="24"/>
       <c r="K413" s="24"/>
       <c r="L413" s="24"/>
@@ -16062,17 +16090,17 @@
       <c r="Z413" s="24"/>
     </row>
     <row r="414" spans="1:26" ht="15">
-      <c r="A414" s="64" t="s">
+      <c r="A414" s="63" t="s">
         <v>475</v>
       </c>
-      <c r="B414" s="64"/>
-      <c r="C414" s="36"/>
-      <c r="D414" s="36"/>
-      <c r="E414" s="36"/>
-      <c r="F414" s="36"/>
-      <c r="G414" s="36"/>
-      <c r="H414" s="36"/>
-      <c r="I414" s="36"/>
+      <c r="B414" s="63"/>
+      <c r="C414" s="35"/>
+      <c r="D414" s="35"/>
+      <c r="E414" s="35"/>
+      <c r="F414" s="35"/>
+      <c r="G414" s="35"/>
+      <c r="H414" s="35"/>
+      <c r="I414" s="35"/>
       <c r="J414" s="24"/>
       <c r="K414" s="24"/>
       <c r="L414" s="24"/>
@@ -16092,17 +16120,17 @@
       <c r="Z414" s="24"/>
     </row>
     <row r="415" spans="1:26" ht="15">
-      <c r="A415" s="58" t="s">
+      <c r="A415" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="B415" s="64"/>
-      <c r="C415" s="36"/>
-      <c r="D415" s="36"/>
-      <c r="E415" s="36"/>
-      <c r="F415" s="36"/>
-      <c r="G415" s="36"/>
-      <c r="H415" s="36"/>
-      <c r="I415" s="36"/>
+      <c r="B415" s="63"/>
+      <c r="C415" s="35"/>
+      <c r="D415" s="35"/>
+      <c r="E415" s="35"/>
+      <c r="F415" s="35"/>
+      <c r="G415" s="35"/>
+      <c r="H415" s="35"/>
+      <c r="I415" s="35"/>
       <c r="J415" s="24"/>
       <c r="K415" s="24"/>
       <c r="L415" s="24"/>
@@ -16122,17 +16150,17 @@
       <c r="Z415" s="24"/>
     </row>
     <row r="416" spans="1:26" ht="15">
-      <c r="A416" s="65" t="s">
+      <c r="A416" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="B416" s="64"/>
-      <c r="C416" s="36"/>
-      <c r="D416" s="36"/>
-      <c r="E416" s="36"/>
-      <c r="F416" s="36"/>
-      <c r="G416" s="36"/>
-      <c r="H416" s="36"/>
-      <c r="I416" s="36"/>
+      <c r="B416" s="63"/>
+      <c r="C416" s="35"/>
+      <c r="D416" s="35"/>
+      <c r="E416" s="35"/>
+      <c r="F416" s="35"/>
+      <c r="G416" s="35"/>
+      <c r="H416" s="35"/>
+      <c r="I416" s="35"/>
       <c r="J416" s="24"/>
       <c r="K416" s="24"/>
       <c r="L416" s="24"/>
@@ -16152,17 +16180,17 @@
       <c r="Z416" s="24"/>
     </row>
     <row r="417" spans="1:26" ht="15">
-      <c r="A417" s="64" t="s">
+      <c r="A417" s="63" t="s">
         <v>478</v>
       </c>
-      <c r="B417" s="64"/>
-      <c r="C417" s="36"/>
-      <c r="D417" s="36"/>
-      <c r="E417" s="36"/>
-      <c r="F417" s="36"/>
-      <c r="G417" s="36"/>
-      <c r="H417" s="36"/>
-      <c r="I417" s="36"/>
+      <c r="B417" s="63"/>
+      <c r="C417" s="35"/>
+      <c r="D417" s="35"/>
+      <c r="E417" s="35"/>
+      <c r="F417" s="35"/>
+      <c r="G417" s="35"/>
+      <c r="H417" s="35"/>
+      <c r="I417" s="35"/>
       <c r="J417" s="24"/>
       <c r="K417" s="24"/>
       <c r="L417" s="24"/>
@@ -16182,17 +16210,17 @@
       <c r="Z417" s="24"/>
     </row>
     <row r="418" spans="1:26" ht="15">
-      <c r="A418" s="64" t="s">
+      <c r="A418" s="63" t="s">
         <v>479</v>
       </c>
-      <c r="B418" s="64"/>
-      <c r="C418" s="36"/>
-      <c r="D418" s="36"/>
-      <c r="E418" s="36"/>
-      <c r="F418" s="36"/>
-      <c r="G418" s="36"/>
-      <c r="H418" s="36"/>
-      <c r="I418" s="36"/>
+      <c r="B418" s="63"/>
+      <c r="C418" s="35"/>
+      <c r="D418" s="35"/>
+      <c r="E418" s="35"/>
+      <c r="F418" s="35"/>
+      <c r="G418" s="35"/>
+      <c r="H418" s="35"/>
+      <c r="I418" s="35"/>
       <c r="J418" s="24"/>
       <c r="K418" s="24"/>
       <c r="L418" s="24"/>
@@ -16212,17 +16240,17 @@
       <c r="Z418" s="24"/>
     </row>
     <row r="419" spans="1:26" ht="15">
-      <c r="A419" s="64" t="s">
+      <c r="A419" s="63" t="s">
         <v>480</v>
       </c>
-      <c r="B419" s="64"/>
-      <c r="C419" s="36"/>
-      <c r="D419" s="36"/>
-      <c r="E419" s="36"/>
-      <c r="F419" s="36"/>
-      <c r="G419" s="36"/>
-      <c r="H419" s="36"/>
-      <c r="I419" s="36"/>
+      <c r="B419" s="63"/>
+      <c r="C419" s="35"/>
+      <c r="D419" s="35"/>
+      <c r="E419" s="35"/>
+      <c r="F419" s="35"/>
+      <c r="G419" s="35"/>
+      <c r="H419" s="35"/>
+      <c r="I419" s="35"/>
       <c r="J419" s="24"/>
       <c r="K419" s="24"/>
       <c r="L419" s="24"/>
@@ -16242,17 +16270,17 @@
       <c r="Z419" s="24"/>
     </row>
     <row r="420" spans="1:26" ht="15">
-      <c r="A420" s="58" t="s">
+      <c r="A420" s="57" t="s">
         <v>481</v>
       </c>
-      <c r="B420" s="64"/>
-      <c r="C420" s="36"/>
-      <c r="D420" s="36"/>
-      <c r="E420" s="36"/>
-      <c r="F420" s="36"/>
-      <c r="G420" s="36"/>
-      <c r="H420" s="36"/>
-      <c r="I420" s="36"/>
+      <c r="B420" s="63"/>
+      <c r="C420" s="35"/>
+      <c r="D420" s="35"/>
+      <c r="E420" s="35"/>
+      <c r="F420" s="35"/>
+      <c r="G420" s="35"/>
+      <c r="H420" s="35"/>
+      <c r="I420" s="35"/>
       <c r="J420" s="24"/>
       <c r="K420" s="24"/>
       <c r="L420" s="24"/>
@@ -16272,17 +16300,17 @@
       <c r="Z420" s="24"/>
     </row>
     <row r="421" spans="1:26" ht="15">
-      <c r="A421" s="65" t="s">
+      <c r="A421" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="B421" s="64"/>
-      <c r="C421" s="36"/>
-      <c r="D421" s="36"/>
-      <c r="E421" s="36"/>
-      <c r="F421" s="36"/>
-      <c r="G421" s="36"/>
-      <c r="H421" s="36"/>
-      <c r="I421" s="36"/>
+      <c r="B421" s="63"/>
+      <c r="C421" s="35"/>
+      <c r="D421" s="35"/>
+      <c r="E421" s="35"/>
+      <c r="F421" s="35"/>
+      <c r="G421" s="35"/>
+      <c r="H421" s="35"/>
+      <c r="I421" s="35"/>
       <c r="J421" s="24"/>
       <c r="K421" s="24"/>
       <c r="L421" s="24"/>
@@ -16302,17 +16330,17 @@
       <c r="Z421" s="24"/>
     </row>
     <row r="422" spans="1:26" ht="15">
-      <c r="A422" s="64" t="s">
+      <c r="A422" s="63" t="s">
         <v>483</v>
       </c>
-      <c r="B422" s="64"/>
-      <c r="C422" s="36"/>
-      <c r="D422" s="36"/>
-      <c r="E422" s="36"/>
-      <c r="F422" s="36"/>
-      <c r="G422" s="36"/>
-      <c r="H422" s="36"/>
-      <c r="I422" s="36"/>
+      <c r="B422" s="63"/>
+      <c r="C422" s="35"/>
+      <c r="D422" s="35"/>
+      <c r="E422" s="35"/>
+      <c r="F422" s="35"/>
+      <c r="G422" s="35"/>
+      <c r="H422" s="35"/>
+      <c r="I422" s="35"/>
       <c r="J422" s="24"/>
       <c r="K422" s="24"/>
       <c r="L422" s="24"/>
@@ -16332,17 +16360,17 @@
       <c r="Z422" s="24"/>
     </row>
     <row r="423" spans="1:26" ht="15">
-      <c r="A423" s="64" t="s">
+      <c r="A423" s="63" t="s">
         <v>484</v>
       </c>
-      <c r="B423" s="64"/>
-      <c r="C423" s="36"/>
-      <c r="D423" s="36"/>
-      <c r="E423" s="36"/>
-      <c r="F423" s="36"/>
-      <c r="G423" s="36"/>
-      <c r="H423" s="36"/>
-      <c r="I423" s="36"/>
+      <c r="B423" s="63"/>
+      <c r="C423" s="35"/>
+      <c r="D423" s="35"/>
+      <c r="E423" s="35"/>
+      <c r="F423" s="35"/>
+      <c r="G423" s="35"/>
+      <c r="H423" s="35"/>
+      <c r="I423" s="35"/>
       <c r="J423" s="24"/>
       <c r="K423" s="24"/>
       <c r="L423" s="24"/>
@@ -16362,17 +16390,17 @@
       <c r="Z423" s="24"/>
     </row>
     <row r="424" spans="1:26" ht="15">
-      <c r="A424" s="64" t="s">
+      <c r="A424" s="63" t="s">
         <v>485</v>
       </c>
-      <c r="B424" s="64"/>
-      <c r="C424" s="36"/>
-      <c r="D424" s="36"/>
-      <c r="E424" s="36"/>
-      <c r="F424" s="36"/>
-      <c r="G424" s="36"/>
-      <c r="H424" s="36"/>
-      <c r="I424" s="36"/>
+      <c r="B424" s="63"/>
+      <c r="C424" s="35"/>
+      <c r="D424" s="35"/>
+      <c r="E424" s="35"/>
+      <c r="F424" s="35"/>
+      <c r="G424" s="35"/>
+      <c r="H424" s="35"/>
+      <c r="I424" s="35"/>
       <c r="J424" s="24"/>
       <c r="K424" s="24"/>
       <c r="L424" s="24"/>
@@ -16392,17 +16420,17 @@
       <c r="Z424" s="24"/>
     </row>
     <row r="425" spans="1:26" ht="15">
-      <c r="A425" s="64" t="s">
+      <c r="A425" s="63" t="s">
         <v>486</v>
       </c>
-      <c r="B425" s="64"/>
-      <c r="C425" s="36"/>
-      <c r="D425" s="36"/>
-      <c r="E425" s="36"/>
-      <c r="F425" s="36"/>
-      <c r="G425" s="36"/>
-      <c r="H425" s="36"/>
-      <c r="I425" s="36"/>
+      <c r="B425" s="63"/>
+      <c r="C425" s="35"/>
+      <c r="D425" s="35"/>
+      <c r="E425" s="35"/>
+      <c r="F425" s="35"/>
+      <c r="G425" s="35"/>
+      <c r="H425" s="35"/>
+      <c r="I425" s="35"/>
       <c r="J425" s="24"/>
       <c r="K425" s="24"/>
       <c r="L425" s="24"/>
@@ -16422,17 +16450,17 @@
       <c r="Z425" s="24"/>
     </row>
     <row r="426" spans="1:26" ht="15">
-      <c r="A426" s="58" t="s">
+      <c r="A426" s="57" t="s">
         <v>487</v>
       </c>
-      <c r="B426" s="64"/>
-      <c r="C426" s="36"/>
-      <c r="D426" s="36"/>
-      <c r="E426" s="36"/>
-      <c r="F426" s="36"/>
-      <c r="G426" s="36"/>
-      <c r="H426" s="36"/>
-      <c r="I426" s="36"/>
+      <c r="B426" s="63"/>
+      <c r="C426" s="35"/>
+      <c r="D426" s="35"/>
+      <c r="E426" s="35"/>
+      <c r="F426" s="35"/>
+      <c r="G426" s="35"/>
+      <c r="H426" s="35"/>
+      <c r="I426" s="35"/>
       <c r="J426" s="24"/>
       <c r="K426" s="24"/>
       <c r="L426" s="24"/>
@@ -16452,17 +16480,17 @@
       <c r="Z426" s="24"/>
     </row>
     <row r="427" spans="1:26" ht="15">
-      <c r="A427" s="65" t="s">
+      <c r="A427" s="64" t="s">
         <v>488</v>
       </c>
-      <c r="B427" s="64"/>
-      <c r="C427" s="36"/>
-      <c r="D427" s="36"/>
-      <c r="E427" s="36"/>
-      <c r="F427" s="36"/>
-      <c r="G427" s="36"/>
-      <c r="H427" s="36"/>
-      <c r="I427" s="36"/>
+      <c r="B427" s="63"/>
+      <c r="C427" s="35"/>
+      <c r="D427" s="35"/>
+      <c r="E427" s="35"/>
+      <c r="F427" s="35"/>
+      <c r="G427" s="35"/>
+      <c r="H427" s="35"/>
+      <c r="I427" s="35"/>
       <c r="J427" s="24"/>
       <c r="K427" s="24"/>
       <c r="L427" s="24"/>
@@ -16482,17 +16510,17 @@
       <c r="Z427" s="24"/>
     </row>
     <row r="428" spans="1:26" ht="15">
-      <c r="A428" s="64" t="s">
+      <c r="A428" s="63" t="s">
         <v>489</v>
       </c>
-      <c r="B428" s="64"/>
-      <c r="C428" s="36"/>
-      <c r="D428" s="36"/>
-      <c r="E428" s="36"/>
-      <c r="F428" s="36"/>
-      <c r="G428" s="36"/>
-      <c r="H428" s="36"/>
-      <c r="I428" s="36"/>
+      <c r="B428" s="63"/>
+      <c r="C428" s="35"/>
+      <c r="D428" s="35"/>
+      <c r="E428" s="35"/>
+      <c r="F428" s="35"/>
+      <c r="G428" s="35"/>
+      <c r="H428" s="35"/>
+      <c r="I428" s="35"/>
       <c r="J428" s="24"/>
       <c r="K428" s="24"/>
       <c r="L428" s="24"/>
@@ -16512,17 +16540,17 @@
       <c r="Z428" s="24"/>
     </row>
     <row r="429" spans="1:26" ht="15">
-      <c r="A429" s="64" t="s">
+      <c r="A429" s="63" t="s">
         <v>490</v>
       </c>
-      <c r="B429" s="64"/>
-      <c r="C429" s="36"/>
-      <c r="D429" s="36"/>
-      <c r="E429" s="36"/>
-      <c r="F429" s="36"/>
-      <c r="G429" s="36"/>
-      <c r="H429" s="36"/>
-      <c r="I429" s="36"/>
+      <c r="B429" s="63"/>
+      <c r="C429" s="35"/>
+      <c r="D429" s="35"/>
+      <c r="E429" s="35"/>
+      <c r="F429" s="35"/>
+      <c r="G429" s="35"/>
+      <c r="H429" s="35"/>
+      <c r="I429" s="35"/>
       <c r="J429" s="24"/>
       <c r="K429" s="24"/>
       <c r="L429" s="24"/>
@@ -16542,17 +16570,17 @@
       <c r="Z429" s="24"/>
     </row>
     <row r="430" spans="1:26" ht="15">
-      <c r="A430" s="64" t="s">
+      <c r="A430" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="B430" s="64"/>
-      <c r="C430" s="36"/>
-      <c r="D430" s="36"/>
-      <c r="E430" s="36"/>
-      <c r="F430" s="36"/>
-      <c r="G430" s="36"/>
-      <c r="H430" s="36"/>
-      <c r="I430" s="36"/>
+      <c r="B430" s="63"/>
+      <c r="C430" s="35"/>
+      <c r="D430" s="35"/>
+      <c r="E430" s="35"/>
+      <c r="F430" s="35"/>
+      <c r="G430" s="35"/>
+      <c r="H430" s="35"/>
+      <c r="I430" s="35"/>
       <c r="J430" s="24"/>
       <c r="K430" s="24"/>
       <c r="L430" s="24"/>
@@ -16572,17 +16600,17 @@
       <c r="Z430" s="24"/>
     </row>
     <row r="431" spans="1:26" ht="15">
-      <c r="A431" s="64" t="s">
+      <c r="A431" s="63" t="s">
         <v>492</v>
       </c>
-      <c r="B431" s="64"/>
-      <c r="C431" s="36"/>
-      <c r="D431" s="36"/>
-      <c r="E431" s="36"/>
-      <c r="F431" s="36"/>
-      <c r="G431" s="36"/>
-      <c r="H431" s="36"/>
-      <c r="I431" s="36"/>
+      <c r="B431" s="63"/>
+      <c r="C431" s="35"/>
+      <c r="D431" s="35"/>
+      <c r="E431" s="35"/>
+      <c r="F431" s="35"/>
+      <c r="G431" s="35"/>
+      <c r="H431" s="35"/>
+      <c r="I431" s="35"/>
       <c r="J431" s="24"/>
       <c r="K431" s="24"/>
       <c r="L431" s="24"/>
@@ -16630,7 +16658,7 @@
       <c r="Z432" s="24"/>
     </row>
     <row r="433" spans="1:26" ht="18.75">
-      <c r="A433" s="53" t="s">
+      <c r="A433" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B433" s="4"/>
@@ -16690,7 +16718,7 @@
       <c r="Z434" s="24"/>
     </row>
     <row r="435" spans="1:26" ht="12.75">
-      <c r="A435" s="82" t="s">
+      <c r="A435" s="81" t="s">
         <v>494</v>
       </c>
       <c r="B435" s="24" t="s">
@@ -16722,7 +16750,7 @@
       <c r="Z435" s="24"/>
     </row>
     <row r="436" spans="1:26" ht="12.75">
-      <c r="A436" s="72" t="s">
+      <c r="A436" s="71" t="s">
         <v>494</v>
       </c>
       <c r="B436" s="24" t="s">
@@ -16754,7 +16782,7 @@
       <c r="Z436" s="24"/>
     </row>
     <row r="437" spans="1:26" ht="12.75">
-      <c r="A437" s="72" t="s">
+      <c r="A437" s="71" t="s">
         <v>497</v>
       </c>
       <c r="B437" s="24" t="s">
@@ -16786,7 +16814,7 @@
       <c r="Z437" s="24"/>
     </row>
     <row r="438" spans="1:26" ht="15">
-      <c r="A438" s="61" t="str">
+      <c r="A438" s="60" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/russian-doll-envelopes/","Russian doll envelopes")</f>
         <v>Russian doll envelopes</v>
       </c>
@@ -16819,7 +16847,7 @@
       <c r="Z438" s="24"/>
     </row>
     <row r="439" spans="1:26" ht="15">
-      <c r="A439" s="45" t="s">
+      <c r="A439" s="44" t="s">
         <v>500</v>
       </c>
       <c r="B439" s="24" t="s">
@@ -16851,7 +16879,7 @@
       <c r="Z439" s="24"/>
     </row>
     <row r="440" spans="1:26" ht="15">
-      <c r="A440" s="29" t="s">
+      <c r="A440" s="28" t="s">
         <v>502</v>
       </c>
       <c r="B440" s="24" t="s">
@@ -16883,7 +16911,7 @@
       <c r="Z440" s="24"/>
     </row>
     <row r="441" spans="1:26" ht="12.75">
-      <c r="A441" s="72" t="s">
+      <c r="A441" s="71" t="s">
         <v>504</v>
       </c>
       <c r="B441" s="24" t="s">
@@ -16915,7 +16943,7 @@
       <c r="Z441" s="24"/>
     </row>
     <row r="442" spans="1:26" ht="15">
-      <c r="A442" s="58" t="s">
+      <c r="A442" s="57" t="s">
         <v>506</v>
       </c>
       <c r="B442" s="24"/>
@@ -16945,7 +16973,7 @@
       <c r="Z442" s="24"/>
     </row>
     <row r="443" spans="1:26" ht="15">
-      <c r="A443" s="45" t="s">
+      <c r="A443" s="44" t="s">
         <v>507</v>
       </c>
       <c r="B443" s="24" t="s">
@@ -16977,7 +17005,7 @@
       <c r="Z443" s="24"/>
     </row>
     <row r="444" spans="1:26" ht="15">
-      <c r="A444" s="45" t="s">
+      <c r="A444" s="44" t="s">
         <v>508</v>
       </c>
       <c r="B444" s="24" t="s">
@@ -17009,7 +17037,7 @@
       <c r="Z444" s="24"/>
     </row>
     <row r="445" spans="1:26" ht="15">
-      <c r="A445" s="45" t="s">
+      <c r="A445" s="44" t="s">
         <v>509</v>
       </c>
       <c r="B445" s="24" t="s">
@@ -17041,7 +17069,7 @@
       <c r="Z445" s="24"/>
     </row>
     <row r="446" spans="1:26" ht="15">
-      <c r="A446" s="29" t="s">
+      <c r="A446" s="28" t="s">
         <v>510</v>
       </c>
       <c r="B446" s="24" t="s">
@@ -17073,7 +17101,7 @@
       <c r="Z446" s="24"/>
     </row>
     <row r="447" spans="1:26" ht="15">
-      <c r="A447" s="29" t="s">
+      <c r="A447" s="28" t="s">
         <v>512</v>
       </c>
       <c r="B447" s="24"/>
@@ -17103,7 +17131,7 @@
       <c r="Z447" s="24"/>
     </row>
     <row r="448" spans="1:26" ht="15">
-      <c r="A448" s="83" t="s">
+      <c r="A448" s="82" t="s">
         <v>513</v>
       </c>
       <c r="B448" s="24"/>
@@ -17133,7 +17161,7 @@
       <c r="Z448" s="24"/>
     </row>
     <row r="449" spans="1:26" ht="14.25">
-      <c r="A449" s="59" t="s">
+      <c r="A449" s="58" t="s">
         <v>514</v>
       </c>
       <c r="B449" s="24" t="s">
@@ -17165,11 +17193,11 @@
       <c r="Z449" s="24"/>
     </row>
     <row r="450" spans="1:26" ht="14.25">
-      <c r="A450" s="59" t="s">
+      <c r="A450" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="B450" s="42"/>
-      <c r="C450" s="42"/>
+      <c r="B450" s="41"/>
+      <c r="C450" s="41"/>
       <c r="D450" s="24"/>
       <c r="E450" s="24"/>
       <c r="F450" s="24"/>
@@ -17195,7 +17223,7 @@
       <c r="Z450" s="24"/>
     </row>
     <row r="451" spans="1:26" ht="15">
-      <c r="A451" s="61" t="s">
+      <c r="A451" s="60" t="s">
         <v>517</v>
       </c>
       <c r="B451" s="24" t="s">
@@ -17227,7 +17255,7 @@
       <c r="Z451" s="24"/>
     </row>
     <row r="452" spans="1:26" ht="14.25">
-      <c r="A452" s="59" t="s">
+      <c r="A452" s="58" t="s">
         <v>519</v>
       </c>
       <c r="B452" s="24" t="s">
@@ -17259,7 +17287,7 @@
       <c r="Z452" s="24"/>
     </row>
     <row r="453" spans="1:26" ht="15">
-      <c r="A453" s="58" t="s">
+      <c r="A453" s="57" t="s">
         <v>520</v>
       </c>
       <c r="B453" s="24"/>
@@ -17289,7 +17317,7 @@
       <c r="Z453" s="24"/>
     </row>
     <row r="454" spans="1:26" ht="15">
-      <c r="A454" s="40" t="s">
+      <c r="A454" s="39" t="s">
         <v>521</v>
       </c>
       <c r="B454" s="24"/>
@@ -17319,14 +17347,14 @@
       <c r="Z454" s="24"/>
     </row>
     <row r="455" spans="1:26" ht="15">
-      <c r="A455" s="61" t="str">
+      <c r="A455" s="60" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock/","best time to buy and sell stock")</f>
         <v>best time to buy and sell stock</v>
       </c>
-      <c r="B455" s="42" t="s">
+      <c r="B455" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="C455" s="42"/>
+      <c r="C455" s="41"/>
       <c r="D455" s="24"/>
       <c r="E455" s="24"/>
       <c r="F455" s="24"/>
@@ -17352,14 +17380,14 @@
       <c r="Z455" s="24"/>
     </row>
     <row r="456" spans="1:26" ht="15">
-      <c r="A456" s="61" t="str">
+      <c r="A456" s="60" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/","best time to buy and sell 2")</f>
         <v>best time to buy and sell 2</v>
       </c>
-      <c r="B456" s="42" t="s">
+      <c r="B456" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="C456" s="42"/>
+      <c r="C456" s="41"/>
       <c r="D456" s="24"/>
       <c r="E456" s="24"/>
       <c r="F456" s="24"/>
@@ -17385,7 +17413,7 @@
       <c r="Z456" s="24"/>
     </row>
     <row r="457" spans="1:26" ht="15">
-      <c r="A457" s="45" t="s">
+      <c r="A457" s="44" t="s">
         <v>524</v>
       </c>
       <c r="B457" s="24" t="s">
@@ -17417,7 +17445,7 @@
       <c r="Z457" s="24"/>
     </row>
     <row r="458" spans="1:26" ht="15">
-      <c r="A458" s="61" t="str">
+      <c r="A458" s="60" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/","best time to buy and sell with cool down")</f>
         <v>best time to buy and sell with cool down</v>
       </c>
@@ -17450,14 +17478,14 @@
       <c r="Z458" s="24"/>
     </row>
     <row r="459" spans="1:26" ht="15">
-      <c r="A459" s="61" t="str">
+      <c r="A459" s="60" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/","best time to buy and sell 3")</f>
         <v>best time to buy and sell 3</v>
       </c>
-      <c r="B459" s="42" t="s">
+      <c r="B459" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="C459" s="42"/>
+      <c r="C459" s="41"/>
       <c r="D459" s="24"/>
       <c r="E459" s="24"/>
       <c r="F459" s="24"/>
@@ -17483,7 +17511,7 @@
       <c r="Z459" s="24"/>
     </row>
     <row r="460" spans="1:26" ht="15">
-      <c r="A460" s="61" t="str">
+      <c r="A460" s="60" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/","best time to but and sell 4")</f>
         <v>best time to but and sell 4</v>
       </c>
@@ -17516,13 +17544,13 @@
       <c r="Z460" s="24"/>
     </row>
     <row r="461" spans="1:26" ht="14.25">
-      <c r="A461" s="59" t="s">
+      <c r="A461" s="58" t="s">
         <v>529</v>
       </c>
-      <c r="B461" s="42" t="s">
+      <c r="B461" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="C461" s="42"/>
+      <c r="C461" s="41"/>
       <c r="D461" s="24"/>
       <c r="E461" s="24"/>
       <c r="F461" s="24"/>
@@ -17548,7 +17576,7 @@
       <c r="Z461" s="24"/>
     </row>
     <row r="462" spans="1:26" ht="15">
-      <c r="A462" s="58" t="s">
+      <c r="A462" s="57" t="s">
         <v>531</v>
       </c>
       <c r="B462" s="24"/>
@@ -17582,10 +17610,10 @@
         <f>HYPERLINK("https://leetcode.com/problems/burst-balloons/","burst balloons")</f>
         <v>burst balloons</v>
       </c>
-      <c r="B463" s="42" t="s">
+      <c r="B463" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="C463" s="42"/>
+      <c r="C463" s="41"/>
       <c r="D463" s="24"/>
       <c r="E463" s="24"/>
       <c r="F463" s="24"/>
@@ -17611,13 +17639,13 @@
       <c r="Z463" s="24"/>
     </row>
     <row r="464" spans="1:26" ht="14.25">
-      <c r="A464" s="49" t="s">
+      <c r="A464" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="B464" s="42" t="s">
+      <c r="B464" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="C464" s="42"/>
+      <c r="C464" s="41"/>
       <c r="D464" s="24"/>
       <c r="E464" s="24"/>
       <c r="F464" s="24"/>
@@ -17643,13 +17671,13 @@
       <c r="Z464" s="24"/>
     </row>
     <row r="465" spans="1:26" ht="14.25">
-      <c r="A465" s="59" t="s">
+      <c r="A465" s="58" t="s">
         <v>535</v>
       </c>
-      <c r="B465" s="42" t="s">
+      <c r="B465" s="41" t="s">
         <v>535</v>
       </c>
-      <c r="C465" s="42"/>
+      <c r="C465" s="41"/>
       <c r="D465" s="24"/>
       <c r="E465" s="24"/>
       <c r="F465" s="24"/>
@@ -17675,13 +17703,13 @@
       <c r="Z465" s="24"/>
     </row>
     <row r="466" spans="1:26" ht="14.25">
-      <c r="A466" s="59" t="s">
+      <c r="A466" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="B466" s="42" t="s">
+      <c r="B466" s="41" t="s">
         <v>537</v>
       </c>
-      <c r="C466" s="42"/>
+      <c r="C466" s="41"/>
       <c r="D466" s="24"/>
       <c r="E466" s="24"/>
       <c r="F466" s="24"/>
@@ -17707,14 +17735,14 @@
       <c r="Z466" s="24"/>
     </row>
     <row r="467" spans="1:26" ht="14.25">
-      <c r="A467" s="49" t="str">
+      <c r="A467" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/minimum-score-triangulation-of-polygon/","Minimum score triangulation")</f>
         <v>Minimum score triangulation</v>
       </c>
-      <c r="B467" s="42" t="s">
+      <c r="B467" s="41" t="s">
         <v>538</v>
       </c>
-      <c r="C467" s="42"/>
+      <c r="C467" s="41"/>
       <c r="D467" s="24"/>
       <c r="E467" s="24"/>
       <c r="F467" s="24"/>
@@ -17740,13 +17768,13 @@
       <c r="Z467" s="24"/>
     </row>
     <row r="468" spans="1:26" ht="14.25">
-      <c r="A468" s="49" t="s">
+      <c r="A468" s="48" t="s">
         <v>539</v>
       </c>
-      <c r="B468" s="42" t="s">
+      <c r="B468" s="41" t="s">
         <v>540</v>
       </c>
-      <c r="C468" s="42"/>
+      <c r="C468" s="41"/>
       <c r="D468" s="24"/>
       <c r="E468" s="24"/>
       <c r="F468" s="24"/>
@@ -17772,7 +17800,7 @@
       <c r="Z468" s="24"/>
     </row>
     <row r="469" spans="1:26" ht="15">
-      <c r="A469" s="58" t="s">
+      <c r="A469" s="57" t="s">
         <v>541</v>
       </c>
       <c r="B469" s="24"/>
@@ -17805,10 +17833,10 @@
       <c r="A470" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="B470" s="42" t="s">
+      <c r="B470" s="41" t="s">
         <v>543</v>
       </c>
-      <c r="C470" s="42"/>
+      <c r="C470" s="41"/>
       <c r="D470" s="24"/>
       <c r="E470" s="24"/>
       <c r="F470" s="24"/>
@@ -17834,13 +17862,13 @@
       <c r="Z470" s="24"/>
     </row>
     <row r="471" spans="1:26" ht="14.25">
-      <c r="A471" s="59" t="s">
+      <c r="A471" s="58" t="s">
         <v>544</v>
       </c>
-      <c r="B471" s="42" t="s">
+      <c r="B471" s="41" t="s">
         <v>544</v>
       </c>
-      <c r="C471" s="42"/>
+      <c r="C471" s="41"/>
       <c r="D471" s="24"/>
       <c r="E471" s="24"/>
       <c r="F471" s="24"/>
@@ -17866,13 +17894,13 @@
       <c r="Z471" s="24"/>
     </row>
     <row r="472" spans="1:26" ht="14.25">
-      <c r="A472" s="59" t="s">
+      <c r="A472" s="58" t="s">
         <v>545</v>
       </c>
-      <c r="B472" s="42" t="s">
+      <c r="B472" s="41" t="s">
         <v>546</v>
       </c>
-      <c r="C472" s="42"/>
+      <c r="C472" s="41"/>
       <c r="D472" s="24"/>
       <c r="E472" s="24"/>
       <c r="F472" s="24"/>
@@ -17898,12 +17926,12 @@
       <c r="Z472" s="24"/>
     </row>
     <row r="473" spans="1:26" ht="14.25">
-      <c r="A473" s="59" t="str">
+      <c r="A473" s="58" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/count-palindromic-subsequence-given-string/","Count all pallindromic subsequence")</f>
         <v>Count all pallindromic subsequence</v>
       </c>
-      <c r="B473" s="42"/>
-      <c r="C473" s="42"/>
+      <c r="B473" s="41"/>
+      <c r="C473" s="41"/>
       <c r="D473" s="24"/>
       <c r="E473" s="24"/>
       <c r="F473" s="24"/>
@@ -17929,12 +17957,12 @@
       <c r="Z473" s="24"/>
     </row>
     <row r="474" spans="1:26" ht="14.25">
-      <c r="A474" s="59" t="str">
+      <c r="A474" s="58" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/count-different-palindromic-subsequences/","Count distinct pallindromic subsequence")</f>
         <v>Count distinct pallindromic subsequence</v>
       </c>
-      <c r="B474" s="42"/>
-      <c r="C474" s="42"/>
+      <c r="B474" s="41"/>
+      <c r="C474" s="41"/>
       <c r="D474" s="24"/>
       <c r="E474" s="24"/>
       <c r="F474" s="24"/>
@@ -17960,7 +17988,7 @@
       <c r="Z474" s="24"/>
     </row>
     <row r="475" spans="1:26" ht="15">
-      <c r="A475" s="45" t="s">
+      <c r="A475" s="44" t="s">
         <v>547</v>
       </c>
       <c r="B475" s="24"/>
@@ -17990,11 +18018,11 @@
       <c r="Z475" s="24"/>
     </row>
     <row r="476" spans="1:26" ht="14.25">
-      <c r="A476" s="49" t="str">
+      <c r="A476" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/number-subsequences-form-ai-bj-ck/","No. of sequence of type a^i+b^j+c^k")</f>
         <v>No. of sequence of type a^i+b^j+c^k</v>
       </c>
-      <c r="B476" s="42" t="s">
+      <c r="B476" s="41" t="s">
         <v>548</v>
       </c>
       <c r="C476" s="24"/>
@@ -18023,7 +18051,7 @@
       <c r="Z476" s="24"/>
     </row>
     <row r="477" spans="1:26" ht="15">
-      <c r="A477" s="29" t="s">
+      <c r="A477" s="28" t="s">
         <v>549</v>
       </c>
       <c r="B477" s="24"/>
@@ -18053,7 +18081,7 @@
       <c r="Z477" s="24"/>
     </row>
     <row r="478" spans="1:26" ht="15">
-      <c r="A478" s="58" t="s">
+      <c r="A478" s="57" t="s">
         <v>550</v>
       </c>
       <c r="B478" s="24"/>
@@ -18086,10 +18114,10 @@
       <c r="A479" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="B479" s="42" t="s">
+      <c r="B479" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C479" s="42"/>
+      <c r="C479" s="41"/>
       <c r="D479" s="24"/>
       <c r="E479" s="24"/>
       <c r="F479" s="24"/>
@@ -18115,7 +18143,7 @@
       <c r="Z479" s="24"/>
     </row>
     <row r="480" spans="1:26" ht="14.25">
-      <c r="A480" s="59" t="s">
+      <c r="A480" s="58" t="s">
         <v>552</v>
       </c>
       <c r="B480" s="24"/>
@@ -18145,7 +18173,7 @@
       <c r="Z480" s="24"/>
     </row>
     <row r="481" spans="1:26" ht="14.25">
-      <c r="A481" s="59" t="s">
+      <c r="A481" s="58" t="s">
         <v>553</v>
       </c>
       <c r="B481" s="24"/>
@@ -18175,7 +18203,7 @@
       <c r="Z481" s="24"/>
     </row>
     <row r="482" spans="1:26" ht="14.25">
-      <c r="A482" s="59" t="s">
+      <c r="A482" s="58" t="s">
         <v>554</v>
       </c>
       <c r="B482" s="24"/>
@@ -18205,7 +18233,7 @@
       <c r="Z482" s="24"/>
     </row>
     <row r="483" spans="1:26" ht="14.25">
-      <c r="A483" s="49" t="s">
+      <c r="A483" s="48" t="s">
         <v>555</v>
       </c>
       <c r="B483" s="24"/>
@@ -18235,7 +18263,7 @@
       <c r="Z483" s="24"/>
     </row>
     <row r="484" spans="1:26" ht="14.25">
-      <c r="A484" s="84" t="str">
+      <c r="A484" s="83" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/super-ugly-number-number-whose-prime-factors-given-set/","Super ugly number")</f>
         <v>Super ugly number</v>
       </c>
@@ -18268,7 +18296,7 @@
       <c r="Z484" s="24"/>
     </row>
     <row r="485" spans="1:26" ht="12.75">
-      <c r="A485" s="85" t="s">
+      <c r="A485" s="84" t="s">
         <v>557</v>
       </c>
       <c r="B485" s="24"/>
@@ -18298,13 +18326,13 @@
       <c r="Z485" s="24"/>
     </row>
     <row r="486" spans="1:26" ht="14.25">
-      <c r="A486" s="49" t="s">
+      <c r="A486" s="48" t="s">
         <v>558</v>
       </c>
-      <c r="B486" s="42" t="s">
+      <c r="B486" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C486" s="42"/>
+      <c r="C486" s="41"/>
       <c r="D486" s="24"/>
       <c r="E486" s="24"/>
       <c r="F486" s="24"/>
@@ -18330,7 +18358,7 @@
       <c r="Z486" s="24"/>
     </row>
     <row r="487" spans="1:26" ht="15">
-      <c r="A487" s="58" t="s">
+      <c r="A487" s="57" t="s">
         <v>560</v>
       </c>
       <c r="B487" s="24"/>
@@ -18390,7 +18418,7 @@
       <c r="Z488" s="24"/>
     </row>
     <row r="489" spans="1:26" ht="15">
-      <c r="A489" s="29" t="s">
+      <c r="A489" s="28" t="s">
         <v>562</v>
       </c>
       <c r="B489" s="24"/>
@@ -18420,7 +18448,7 @@
       <c r="Z489" s="24"/>
     </row>
     <row r="490" spans="1:26" ht="14.25">
-      <c r="A490" s="49" t="s">
+      <c r="A490" s="48" t="s">
         <v>563</v>
       </c>
       <c r="B490" s="24"/>
@@ -18450,7 +18478,7 @@
       <c r="Z490" s="24"/>
     </row>
     <row r="491" spans="1:26" ht="15">
-      <c r="A491" s="29" t="s">
+      <c r="A491" s="28" t="s">
         <v>564</v>
       </c>
       <c r="B491" s="24"/>
@@ -18480,7 +18508,7 @@
       <c r="Z491" s="24"/>
     </row>
     <row r="492" spans="1:26" ht="15">
-      <c r="A492" s="29" t="s">
+      <c r="A492" s="28" t="s">
         <v>565</v>
       </c>
       <c r="B492" s="24"/>
@@ -18510,7 +18538,7 @@
       <c r="Z492" s="24"/>
     </row>
     <row r="493" spans="1:26" ht="15">
-      <c r="A493" s="29" t="s">
+      <c r="A493" s="28" t="s">
         <v>566</v>
       </c>
       <c r="B493" s="24"/>
@@ -18540,7 +18568,7 @@
       <c r="Z493" s="24"/>
     </row>
     <row r="494" spans="1:26" ht="15">
-      <c r="A494" s="58" t="s">
+      <c r="A494" s="57" t="s">
         <v>567</v>
       </c>
       <c r="B494" s="24"/>
@@ -18570,7 +18598,7 @@
       <c r="Z494" s="24"/>
     </row>
     <row r="495" spans="1:26" ht="15">
-      <c r="A495" s="40" t="s">
+      <c r="A495" s="39" t="s">
         <v>568</v>
       </c>
       <c r="B495" s="24"/>
@@ -18600,7 +18628,7 @@
       <c r="Z495" s="24"/>
     </row>
     <row r="496" spans="1:26" ht="15">
-      <c r="A496" s="29" t="s">
+      <c r="A496" s="28" t="s">
         <v>569</v>
       </c>
       <c r="B496" s="24"/>
@@ -18630,7 +18658,7 @@
       <c r="Z496" s="24"/>
     </row>
     <row r="497" spans="1:26" ht="15">
-      <c r="A497" s="29" t="s">
+      <c r="A497" s="28" t="s">
         <v>570</v>
       </c>
       <c r="B497" s="24"/>
@@ -18660,7 +18688,7 @@
       <c r="Z497" s="24"/>
     </row>
     <row r="498" spans="1:26" ht="15">
-      <c r="A498" s="29" t="s">
+      <c r="A498" s="28" t="s">
         <v>571</v>
       </c>
       <c r="B498" s="24"/>
@@ -18690,7 +18718,7 @@
       <c r="Z498" s="24"/>
     </row>
     <row r="499" spans="1:26" ht="14.25">
-      <c r="A499" s="49" t="str">
+      <c r="A499" s="48" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/scramble-string/","Scramble string")</f>
         <v>Scramble string</v>
       </c>
@@ -18723,7 +18751,7 @@
       <c r="Z499" s="24"/>
     </row>
     <row r="500" spans="1:26" ht="15">
-      <c r="A500" s="29" t="s">
+      <c r="A500" s="28" t="s">
         <v>573</v>
       </c>
       <c r="B500" s="24"/>
@@ -18753,7 +18781,7 @@
       <c r="Z500" s="24"/>
     </row>
     <row r="501" spans="1:26" ht="15">
-      <c r="A501" s="29" t="s">
+      <c r="A501" s="28" t="s">
         <v>574</v>
       </c>
       <c r="B501" s="24"/>
@@ -18783,7 +18811,7 @@
       <c r="Z501" s="24"/>
     </row>
     <row r="502" spans="1:26" ht="15">
-      <c r="A502" s="58" t="s">
+      <c r="A502" s="57" t="s">
         <v>575</v>
       </c>
       <c r="B502" s="24"/>
@@ -18813,7 +18841,7 @@
       <c r="Z502" s="24"/>
     </row>
     <row r="503" spans="1:26" ht="15">
-      <c r="A503" s="40" t="s">
+      <c r="A503" s="39" t="s">
         <v>576</v>
       </c>
       <c r="B503" s="24"/>
@@ -18843,7 +18871,7 @@
       <c r="Z503" s="24"/>
     </row>
     <row r="504" spans="1:26" ht="15">
-      <c r="A504" s="29" t="s">
+      <c r="A504" s="28" t="s">
         <v>577</v>
       </c>
       <c r="B504" s="24"/>
@@ -18873,7 +18901,7 @@
       <c r="Z504" s="24"/>
     </row>
     <row r="505" spans="1:26" ht="15">
-      <c r="A505" s="29" t="s">
+      <c r="A505" s="28" t="s">
         <v>578</v>
       </c>
       <c r="B505" s="24"/>
@@ -18903,10 +18931,10 @@
       <c r="Z505" s="24"/>
     </row>
     <row r="506" spans="1:26" ht="14.25">
-      <c r="A506" s="59" t="s">
+      <c r="A506" s="58" t="s">
         <v>579</v>
       </c>
-      <c r="B506" s="42" t="s">
+      <c r="B506" s="41" t="s">
         <v>579</v>
       </c>
       <c r="C506" s="24"/>
@@ -18935,7 +18963,7 @@
       <c r="Z506" s="24"/>
     </row>
     <row r="507" spans="1:26" ht="15">
-      <c r="A507" s="45" t="s">
+      <c r="A507" s="44" t="s">
         <v>580</v>
       </c>
       <c r="B507" s="24"/>
@@ -18965,7 +18993,7 @@
       <c r="Z507" s="24"/>
     </row>
     <row r="508" spans="1:26" ht="15">
-      <c r="A508" s="86" t="s">
+      <c r="A508" s="85" t="s">
         <v>581</v>
       </c>
       <c r="B508" s="21"/>
@@ -18998,45 +19026,45 @@
       <c r="A509" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="B509" s="36"/>
-      <c r="C509" s="36"/>
-      <c r="D509" s="36"/>
-      <c r="E509" s="36"/>
-      <c r="F509" s="36"/>
-      <c r="G509" s="36"/>
-      <c r="H509" s="36"/>
-      <c r="I509" s="36"/>
-      <c r="J509" s="36"/>
-      <c r="K509" s="36"/>
-      <c r="L509" s="36"/>
-      <c r="M509" s="36"/>
-      <c r="N509" s="36"/>
-      <c r="O509" s="36"/>
-      <c r="P509" s="36"/>
-      <c r="Q509" s="36"/>
-      <c r="R509" s="36"/>
-      <c r="S509" s="36"/>
-      <c r="T509" s="36"/>
-      <c r="U509" s="36"/>
-      <c r="V509" s="36"/>
-      <c r="W509" s="36"/>
-      <c r="X509" s="36"/>
-      <c r="Y509" s="36"/>
-      <c r="Z509" s="36"/>
+      <c r="B509" s="35"/>
+      <c r="C509" s="35"/>
+      <c r="D509" s="35"/>
+      <c r="E509" s="35"/>
+      <c r="F509" s="35"/>
+      <c r="G509" s="35"/>
+      <c r="H509" s="35"/>
+      <c r="I509" s="35"/>
+      <c r="J509" s="35"/>
+      <c r="K509" s="35"/>
+      <c r="L509" s="35"/>
+      <c r="M509" s="35"/>
+      <c r="N509" s="35"/>
+      <c r="O509" s="35"/>
+      <c r="P509" s="35"/>
+      <c r="Q509" s="35"/>
+      <c r="R509" s="35"/>
+      <c r="S509" s="35"/>
+      <c r="T509" s="35"/>
+      <c r="U509" s="35"/>
+      <c r="V509" s="35"/>
+      <c r="W509" s="35"/>
+      <c r="X509" s="35"/>
+      <c r="Y509" s="35"/>
+      <c r="Z509" s="35"/>
     </row>
     <row r="510" spans="1:26" ht="15">
       <c r="A510" s="25" t="str">
         <f>HYPERLINK("https://www.spoj.com/problems/NAJPF/","KMP")</f>
         <v>KMP</v>
       </c>
-      <c r="B510" s="44" t="s">
+      <c r="B510" s="43" t="s">
         <v>583</v>
       </c>
-      <c r="C510" s="42"/>
-      <c r="D510" s="42"/>
-      <c r="E510" s="42"/>
-      <c r="F510" s="42"/>
-      <c r="G510" s="42"/>
+      <c r="C510" s="41"/>
+      <c r="D510" s="41"/>
+      <c r="E510" s="41"/>
+      <c r="F510" s="41"/>
+      <c r="G510" s="41"/>
       <c r="H510" s="24"/>
       <c r="I510" s="24"/>
       <c r="J510" s="24"/>
@@ -19058,17 +19086,17 @@
       <c r="Z510" s="24"/>
     </row>
     <row r="511" spans="1:26" ht="15">
-      <c r="A511" s="49" t="s">
+      <c r="A511" s="48" t="s">
         <v>584</v>
       </c>
-      <c r="B511" s="44" t="s">
+      <c r="B511" s="43" t="s">
         <v>585</v>
       </c>
-      <c r="C511" s="42"/>
-      <c r="D511" s="42"/>
-      <c r="E511" s="42"/>
-      <c r="F511" s="42"/>
-      <c r="G511" s="42"/>
+      <c r="C511" s="41"/>
+      <c r="D511" s="41"/>
+      <c r="E511" s="41"/>
+      <c r="F511" s="41"/>
+      <c r="G511" s="41"/>
       <c r="H511" s="24"/>
       <c r="I511" s="24"/>
       <c r="J511" s="24"/>
@@ -19096,11 +19124,11 @@
       <c r="B512" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="C512" s="42"/>
-      <c r="D512" s="42"/>
-      <c r="E512" s="42"/>
-      <c r="F512" s="42"/>
-      <c r="G512" s="42"/>
+      <c r="C512" s="41"/>
+      <c r="D512" s="41"/>
+      <c r="E512" s="41"/>
+      <c r="F512" s="41"/>
+      <c r="G512" s="41"/>
       <c r="H512" s="24"/>
       <c r="I512" s="24"/>
       <c r="J512" s="24"/>
@@ -19122,7 +19150,7 @@
       <c r="Z512" s="24"/>
     </row>
     <row r="513" spans="1:26" ht="14.25">
-      <c r="A513" s="49" t="str">
+      <c r="A513" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/z-algorithm-linear-time-pattern-searching-algorithm/","Z algo")</f>
         <v>Z algo</v>
       </c>
@@ -19155,7 +19183,7 @@
       <c r="Z513" s="24"/>
     </row>
     <row r="514" spans="1:26" ht="14.25">
-      <c r="A514" s="49" t="str">
+      <c r="A514" s="48" t="str">
         <f>HYPERLINK("https://www.codechef.com/COOK103B/problems/SECPASS","chef and secret password")</f>
         <v>chef and secret password</v>
       </c>
@@ -19188,7 +19216,7 @@
       <c r="Z514" s="24"/>
     </row>
     <row r="515" spans="1:26" ht="14.25">
-      <c r="A515" s="49" t="str">
+      <c r="A515" s="48" t="str">
         <f>HYPERLINK("https://www.geeksforgeeks.org/manachers-algorithm-linear-time-longest-palindromic-substring-part-1/","Manacher's algo")</f>
         <v>Manacher's algo</v>
       </c>
@@ -19221,7 +19249,7 @@
       <c r="Z515" s="24"/>
     </row>
     <row r="516" spans="1:26" ht="15">
-      <c r="A516" s="30" t="s">
+      <c r="A516" s="29" t="s">
         <v>591</v>
       </c>
       <c r="B516" s="24"/>
@@ -19251,7 +19279,7 @@
       <c r="Z516" s="24"/>
     </row>
     <row r="517" spans="1:26" ht="14.25">
-      <c r="A517" s="87" t="s">
+      <c r="A517" s="86" t="s">
         <v>592</v>
       </c>
       <c r="B517" s="24" t="s">
@@ -19283,7 +19311,7 @@
       <c r="Z517" s="24"/>
     </row>
     <row r="518" spans="1:26" ht="15">
-      <c r="A518" s="71" t="str">
+      <c r="A518" s="70" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/scramble-string/","Scramble string")</f>
         <v>Scramble string</v>
       </c>
@@ -19316,7 +19344,7 @@
       <c r="Z518" s="24"/>
     </row>
     <row r="519" spans="1:26" ht="15">
-      <c r="A519" s="88" t="s">
+      <c r="A519" s="87" t="s">
         <v>594</v>
       </c>
       <c r="B519" s="24"/>
@@ -19346,7 +19374,7 @@
       <c r="Z519" s="24"/>
     </row>
     <row r="520" spans="1:26" ht="14.25">
-      <c r="A520" s="49" t="s">
+      <c r="A520" s="48" t="s">
         <v>595</v>
       </c>
       <c r="B520" s="24"/>
@@ -19376,7 +19404,7 @@
       <c r="Z520" s="24"/>
     </row>
     <row r="521" spans="1:26" ht="14.25">
-      <c r="A521" s="49" t="s">
+      <c r="A521" s="48" t="s">
         <v>596</v>
       </c>
       <c r="B521" s="24" t="s">
@@ -19408,7 +19436,7 @@
       <c r="Z521" s="24"/>
     </row>
     <row r="522" spans="1:26" ht="18">
-      <c r="A522" s="89" t="s">
+      <c r="A522" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B522" s="4"/>
@@ -19441,13 +19469,13 @@
       <c r="A523" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="B523" s="67"/>
-      <c r="C523" s="36"/>
-      <c r="D523" s="36"/>
-      <c r="E523" s="36"/>
-      <c r="F523" s="36"/>
-      <c r="G523" s="36"/>
-      <c r="H523" s="36"/>
+      <c r="B523" s="66"/>
+      <c r="C523" s="35"/>
+      <c r="D523" s="35"/>
+      <c r="E523" s="35"/>
+      <c r="F523" s="35"/>
+      <c r="G523" s="35"/>
+      <c r="H523" s="35"/>
       <c r="I523" s="24"/>
       <c r="J523" s="24"/>
       <c r="K523" s="24"/>
@@ -19468,16 +19496,16 @@
       <c r="Z523" s="24"/>
     </row>
     <row r="524" spans="1:26" ht="14.25">
-      <c r="A524" s="90" t="s">
+      <c r="A524" s="89" t="s">
         <v>599</v>
       </c>
-      <c r="B524" s="36"/>
-      <c r="C524" s="36"/>
-      <c r="D524" s="36"/>
-      <c r="E524" s="36"/>
-      <c r="F524" s="36"/>
-      <c r="G524" s="36"/>
-      <c r="H524" s="36"/>
+      <c r="B524" s="35"/>
+      <c r="C524" s="35"/>
+      <c r="D524" s="35"/>
+      <c r="E524" s="35"/>
+      <c r="F524" s="35"/>
+      <c r="G524" s="35"/>
+      <c r="H524" s="35"/>
       <c r="I524" s="24"/>
       <c r="J524" s="24"/>
       <c r="K524" s="24"/>
@@ -19498,16 +19526,16 @@
       <c r="Z524" s="24"/>
     </row>
     <row r="525" spans="1:26" ht="14.25">
-      <c r="A525" s="48" t="s">
+      <c r="A525" s="47" t="s">
         <v>600</v>
       </c>
-      <c r="B525" s="36"/>
-      <c r="C525" s="36"/>
-      <c r="D525" s="36"/>
-      <c r="E525" s="36"/>
-      <c r="F525" s="36"/>
-      <c r="G525" s="36"/>
-      <c r="H525" s="36"/>
+      <c r="B525" s="35"/>
+      <c r="C525" s="35"/>
+      <c r="D525" s="35"/>
+      <c r="E525" s="35"/>
+      <c r="F525" s="35"/>
+      <c r="G525" s="35"/>
+      <c r="H525" s="35"/>
       <c r="I525" s="24"/>
       <c r="J525" s="24"/>
       <c r="K525" s="24"/>
@@ -19528,16 +19556,16 @@
       <c r="Z525" s="24"/>
     </row>
     <row r="526" spans="1:26" ht="15">
-      <c r="A526" s="91" t="s">
+      <c r="A526" s="90" t="s">
         <v>601</v>
       </c>
-      <c r="B526" s="36"/>
-      <c r="C526" s="36"/>
-      <c r="D526" s="36"/>
-      <c r="E526" s="36"/>
-      <c r="F526" s="36"/>
-      <c r="G526" s="36"/>
-      <c r="H526" s="36"/>
+      <c r="B526" s="35"/>
+      <c r="C526" s="35"/>
+      <c r="D526" s="35"/>
+      <c r="E526" s="35"/>
+      <c r="F526" s="35"/>
+      <c r="G526" s="35"/>
+      <c r="H526" s="35"/>
       <c r="I526" s="24"/>
       <c r="J526" s="24"/>
       <c r="K526" s="24"/>
@@ -19558,16 +19586,16 @@
       <c r="Z526" s="24"/>
     </row>
     <row r="527" spans="1:26" ht="15">
-      <c r="A527" s="91" t="s">
+      <c r="A527" s="90" t="s">
         <v>602</v>
       </c>
-      <c r="B527" s="36"/>
-      <c r="C527" s="36"/>
-      <c r="D527" s="36"/>
-      <c r="E527" s="36"/>
-      <c r="F527" s="36"/>
-      <c r="G527" s="36"/>
-      <c r="H527" s="36"/>
+      <c r="B527" s="35"/>
+      <c r="C527" s="35"/>
+      <c r="D527" s="35"/>
+      <c r="E527" s="35"/>
+      <c r="F527" s="35"/>
+      <c r="G527" s="35"/>
+      <c r="H527" s="35"/>
       <c r="I527" s="24"/>
       <c r="J527" s="24"/>
       <c r="K527" s="24"/>
@@ -19588,16 +19616,16 @@
       <c r="Z527" s="24"/>
     </row>
     <row r="528" spans="1:26" ht="14.25">
-      <c r="A528" s="48" t="s">
+      <c r="A528" s="47" t="s">
         <v>603</v>
       </c>
-      <c r="B528" s="36"/>
-      <c r="C528" s="36"/>
-      <c r="D528" s="36"/>
-      <c r="E528" s="36"/>
-      <c r="F528" s="36"/>
-      <c r="G528" s="36"/>
-      <c r="H528" s="36"/>
+      <c r="B528" s="35"/>
+      <c r="C528" s="35"/>
+      <c r="D528" s="35"/>
+      <c r="E528" s="35"/>
+      <c r="F528" s="35"/>
+      <c r="G528" s="35"/>
+      <c r="H528" s="35"/>
       <c r="I528" s="24"/>
       <c r="J528" s="24"/>
       <c r="K528" s="24"/>
@@ -19618,16 +19646,16 @@
       <c r="Z528" s="24"/>
     </row>
     <row r="529" spans="1:26" ht="15">
-      <c r="A529" s="91" t="s">
+      <c r="A529" s="90" t="s">
         <v>604</v>
       </c>
-      <c r="B529" s="36"/>
-      <c r="C529" s="36"/>
-      <c r="D529" s="36"/>
-      <c r="E529" s="36"/>
-      <c r="F529" s="36"/>
-      <c r="G529" s="36"/>
-      <c r="H529" s="36"/>
+      <c r="B529" s="35"/>
+      <c r="C529" s="35"/>
+      <c r="D529" s="35"/>
+      <c r="E529" s="35"/>
+      <c r="F529" s="35"/>
+      <c r="G529" s="35"/>
+      <c r="H529" s="35"/>
       <c r="I529" s="24"/>
       <c r="J529" s="24"/>
       <c r="K529" s="24"/>
@@ -19648,16 +19676,16 @@
       <c r="Z529" s="24"/>
     </row>
     <row r="530" spans="1:26" ht="15">
-      <c r="A530" s="91" t="s">
+      <c r="A530" s="90" t="s">
         <v>605</v>
       </c>
-      <c r="B530" s="36"/>
-      <c r="C530" s="36"/>
-      <c r="D530" s="36"/>
-      <c r="E530" s="36"/>
-      <c r="F530" s="36"/>
-      <c r="G530" s="36"/>
-      <c r="H530" s="36"/>
+      <c r="B530" s="35"/>
+      <c r="C530" s="35"/>
+      <c r="D530" s="35"/>
+      <c r="E530" s="35"/>
+      <c r="F530" s="35"/>
+      <c r="G530" s="35"/>
+      <c r="H530" s="35"/>
       <c r="I530" s="24"/>
       <c r="J530" s="24"/>
       <c r="K530" s="24"/>
@@ -19678,16 +19706,16 @@
       <c r="Z530" s="24"/>
     </row>
     <row r="531" spans="1:26" ht="15">
-      <c r="A531" s="92" t="s">
+      <c r="A531" s="91" t="s">
         <v>606</v>
       </c>
-      <c r="B531" s="36"/>
-      <c r="C531" s="36"/>
-      <c r="D531" s="36"/>
-      <c r="E531" s="36"/>
-      <c r="F531" s="36"/>
-      <c r="G531" s="36"/>
-      <c r="H531" s="36"/>
+      <c r="B531" s="35"/>
+      <c r="C531" s="35"/>
+      <c r="D531" s="35"/>
+      <c r="E531" s="35"/>
+      <c r="F531" s="35"/>
+      <c r="G531" s="35"/>
+      <c r="H531" s="35"/>
       <c r="I531" s="24"/>
       <c r="J531" s="24"/>
       <c r="K531" s="24"/>
@@ -19708,16 +19736,16 @@
       <c r="Z531" s="24"/>
     </row>
     <row r="532" spans="1:26" ht="14.25">
-      <c r="A532" s="93" t="s">
+      <c r="A532" s="92" t="s">
         <v>607</v>
       </c>
-      <c r="B532" s="36"/>
-      <c r="C532" s="36"/>
-      <c r="D532" s="36"/>
-      <c r="E532" s="36"/>
-      <c r="F532" s="36"/>
-      <c r="G532" s="36"/>
-      <c r="H532" s="36"/>
+      <c r="B532" s="35"/>
+      <c r="C532" s="35"/>
+      <c r="D532" s="35"/>
+      <c r="E532" s="35"/>
+      <c r="F532" s="35"/>
+      <c r="G532" s="35"/>
+      <c r="H532" s="35"/>
       <c r="I532" s="24"/>
       <c r="J532" s="24"/>
       <c r="K532" s="24"/>
@@ -19738,16 +19766,16 @@
       <c r="Z532" s="24"/>
     </row>
     <row r="533" spans="1:26" ht="14.25">
-      <c r="A533" s="48" t="s">
+      <c r="A533" s="47" t="s">
         <v>608</v>
       </c>
-      <c r="B533" s="36"/>
-      <c r="C533" s="36"/>
-      <c r="D533" s="36"/>
-      <c r="E533" s="36"/>
-      <c r="F533" s="36"/>
-      <c r="G533" s="36"/>
-      <c r="H533" s="36"/>
+      <c r="B533" s="35"/>
+      <c r="C533" s="35"/>
+      <c r="D533" s="35"/>
+      <c r="E533" s="35"/>
+      <c r="F533" s="35"/>
+      <c r="G533" s="35"/>
+      <c r="H533" s="35"/>
       <c r="I533" s="24"/>
       <c r="J533" s="24"/>
       <c r="K533" s="24"/>
@@ -19768,16 +19796,16 @@
       <c r="Z533" s="24"/>
     </row>
     <row r="534" spans="1:26" ht="14.25">
-      <c r="A534" s="48" t="s">
+      <c r="A534" s="47" t="s">
         <v>609</v>
       </c>
-      <c r="B534" s="36"/>
-      <c r="C534" s="36"/>
-      <c r="D534" s="36"/>
-      <c r="E534" s="36"/>
-      <c r="F534" s="36"/>
-      <c r="G534" s="36"/>
-      <c r="H534" s="36"/>
+      <c r="B534" s="35"/>
+      <c r="C534" s="35"/>
+      <c r="D534" s="35"/>
+      <c r="E534" s="35"/>
+      <c r="F534" s="35"/>
+      <c r="G534" s="35"/>
+      <c r="H534" s="35"/>
       <c r="I534" s="24"/>
       <c r="J534" s="24"/>
       <c r="K534" s="24"/>
@@ -19798,16 +19826,16 @@
       <c r="Z534" s="24"/>
     </row>
     <row r="535" spans="1:26" ht="14.25">
-      <c r="A535" s="48" t="s">
+      <c r="A535" s="47" t="s">
         <v>610</v>
       </c>
-      <c r="B535" s="36"/>
-      <c r="C535" s="36"/>
-      <c r="D535" s="36"/>
-      <c r="E535" s="36"/>
-      <c r="F535" s="36"/>
-      <c r="G535" s="36"/>
-      <c r="H535" s="36"/>
+      <c r="B535" s="35"/>
+      <c r="C535" s="35"/>
+      <c r="D535" s="35"/>
+      <c r="E535" s="35"/>
+      <c r="F535" s="35"/>
+      <c r="G535" s="35"/>
+      <c r="H535" s="35"/>
       <c r="I535" s="24"/>
       <c r="J535" s="24"/>
       <c r="K535" s="24"/>
@@ -19828,16 +19856,16 @@
       <c r="Z535" s="24"/>
     </row>
     <row r="536" spans="1:26" ht="14.25">
-      <c r="A536" s="48" t="s">
+      <c r="A536" s="47" t="s">
         <v>611</v>
       </c>
-      <c r="B536" s="36"/>
-      <c r="C536" s="36"/>
-      <c r="D536" s="36"/>
-      <c r="E536" s="36"/>
-      <c r="F536" s="36"/>
-      <c r="G536" s="36"/>
-      <c r="H536" s="36"/>
+      <c r="B536" s="35"/>
+      <c r="C536" s="35"/>
+      <c r="D536" s="35"/>
+      <c r="E536" s="35"/>
+      <c r="F536" s="35"/>
+      <c r="G536" s="35"/>
+      <c r="H536" s="35"/>
       <c r="I536" s="24"/>
       <c r="J536" s="24"/>
       <c r="K536" s="24"/>
@@ -19858,16 +19886,16 @@
       <c r="Z536" s="24"/>
     </row>
     <row r="537" spans="1:26" ht="14.25">
-      <c r="A537" s="48" t="s">
+      <c r="A537" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="B537" s="36"/>
-      <c r="C537" s="36"/>
-      <c r="D537" s="36"/>
-      <c r="E537" s="36"/>
-      <c r="F537" s="36"/>
-      <c r="G537" s="36"/>
-      <c r="H537" s="36"/>
+      <c r="B537" s="35"/>
+      <c r="C537" s="35"/>
+      <c r="D537" s="35"/>
+      <c r="E537" s="35"/>
+      <c r="F537" s="35"/>
+      <c r="G537" s="35"/>
+      <c r="H537" s="35"/>
       <c r="I537" s="24"/>
       <c r="J537" s="24"/>
       <c r="K537" s="24"/>
@@ -19888,16 +19916,16 @@
       <c r="Z537" s="24"/>
     </row>
     <row r="538" spans="1:26" ht="14.25">
-      <c r="A538" s="48" t="s">
+      <c r="A538" s="47" t="s">
         <v>613</v>
       </c>
-      <c r="B538" s="36"/>
-      <c r="C538" s="36"/>
-      <c r="D538" s="36"/>
-      <c r="E538" s="36"/>
-      <c r="F538" s="36"/>
-      <c r="G538" s="36"/>
-      <c r="H538" s="36"/>
+      <c r="B538" s="35"/>
+      <c r="C538" s="35"/>
+      <c r="D538" s="35"/>
+      <c r="E538" s="35"/>
+      <c r="F538" s="35"/>
+      <c r="G538" s="35"/>
+      <c r="H538" s="35"/>
       <c r="I538" s="24"/>
       <c r="J538" s="24"/>
       <c r="K538" s="24"/>
@@ -19918,14 +19946,14 @@
       <c r="Z538" s="24"/>
     </row>
     <row r="539" spans="1:26" ht="14.25">
-      <c r="A539" s="48"/>
-      <c r="B539" s="36"/>
-      <c r="C539" s="36"/>
-      <c r="D539" s="36"/>
-      <c r="E539" s="36"/>
-      <c r="F539" s="36"/>
-      <c r="G539" s="36"/>
-      <c r="H539" s="36"/>
+      <c r="A539" s="47"/>
+      <c r="B539" s="35"/>
+      <c r="C539" s="35"/>
+      <c r="D539" s="35"/>
+      <c r="E539" s="35"/>
+      <c r="F539" s="35"/>
+      <c r="G539" s="35"/>
+      <c r="H539" s="35"/>
       <c r="I539" s="24"/>
       <c r="J539" s="24"/>
       <c r="K539" s="24"/>
@@ -19946,7 +19974,7 @@
       <c r="Z539" s="24"/>
     </row>
     <row r="540" spans="1:26" ht="18">
-      <c r="A540" s="94" t="s">
+      <c r="A540" s="93" t="s">
         <v>25</v>
       </c>
       <c r="B540" s="4"/>
@@ -19976,16 +20004,16 @@
       <c r="Z540" s="4"/>
     </row>
     <row r="541" spans="1:26" ht="15">
-      <c r="A541" s="95" t="s">
+      <c r="A541" s="94" t="s">
         <v>614</v>
       </c>
-      <c r="B541" s="36"/>
-      <c r="C541" s="36"/>
-      <c r="D541" s="36"/>
-      <c r="E541" s="36"/>
-      <c r="F541" s="36"/>
-      <c r="G541" s="36"/>
-      <c r="H541" s="36"/>
+      <c r="B541" s="35"/>
+      <c r="C541" s="35"/>
+      <c r="D541" s="35"/>
+      <c r="E541" s="35"/>
+      <c r="F541" s="35"/>
+      <c r="G541" s="35"/>
+      <c r="H541" s="35"/>
       <c r="I541" s="24"/>
       <c r="J541" s="24"/>
       <c r="K541" s="24"/>
@@ -20012,12 +20040,12 @@
       <c r="B542" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="C542" s="36"/>
-      <c r="D542" s="36"/>
-      <c r="E542" s="36"/>
-      <c r="F542" s="36"/>
-      <c r="G542" s="36"/>
-      <c r="H542" s="36"/>
+      <c r="C542" s="35"/>
+      <c r="D542" s="35"/>
+      <c r="E542" s="35"/>
+      <c r="F542" s="35"/>
+      <c r="G542" s="35"/>
+      <c r="H542" s="35"/>
       <c r="I542" s="24"/>
       <c r="J542" s="24"/>
       <c r="K542" s="24"/>
@@ -20038,36 +20066,36 @@
       <c r="Z542" s="24"/>
     </row>
     <row r="543" spans="1:26" ht="14.25">
-      <c r="A543" s="90" t="s">
+      <c r="A543" s="89" t="s">
         <v>617</v>
       </c>
-      <c r="B543" s="36" t="s">
+      <c r="B543" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="C543" s="36"/>
-      <c r="D543" s="36"/>
-      <c r="E543" s="36"/>
-      <c r="F543" s="36"/>
-      <c r="G543" s="36"/>
-      <c r="H543" s="36"/>
-      <c r="I543" s="36"/>
-      <c r="J543" s="36"/>
-      <c r="K543" s="36"/>
-      <c r="L543" s="36"/>
-      <c r="M543" s="36"/>
-      <c r="N543" s="36"/>
-      <c r="O543" s="36"/>
-      <c r="P543" s="36"/>
-      <c r="Q543" s="36"/>
-      <c r="R543" s="36"/>
-      <c r="S543" s="36"/>
-      <c r="T543" s="36"/>
-      <c r="U543" s="36"/>
-      <c r="V543" s="36"/>
-      <c r="W543" s="36"/>
-      <c r="X543" s="36"/>
-      <c r="Y543" s="36"/>
-      <c r="Z543" s="36"/>
+      <c r="C543" s="35"/>
+      <c r="D543" s="35"/>
+      <c r="E543" s="35"/>
+      <c r="F543" s="35"/>
+      <c r="G543" s="35"/>
+      <c r="H543" s="35"/>
+      <c r="I543" s="35"/>
+      <c r="J543" s="35"/>
+      <c r="K543" s="35"/>
+      <c r="L543" s="35"/>
+      <c r="M543" s="35"/>
+      <c r="N543" s="35"/>
+      <c r="O543" s="35"/>
+      <c r="P543" s="35"/>
+      <c r="Q543" s="35"/>
+      <c r="R543" s="35"/>
+      <c r="S543" s="35"/>
+      <c r="T543" s="35"/>
+      <c r="U543" s="35"/>
+      <c r="V543" s="35"/>
+      <c r="W543" s="35"/>
+      <c r="X543" s="35"/>
+      <c r="Y543" s="35"/>
+      <c r="Z543" s="35"/>
     </row>
     <row r="544" spans="1:26" ht="14.25">
       <c r="A544" s="25" t="s">
@@ -20076,8 +20104,8 @@
       <c r="B544" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="C544" s="36"/>
-      <c r="D544" s="36"/>
+      <c r="C544" s="35"/>
+      <c r="D544" s="35"/>
       <c r="E544" s="24"/>
       <c r="F544" s="24"/>
       <c r="G544" s="24"/>
@@ -20108,8 +20136,8 @@
       <c r="B545" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="C545" s="36"/>
-      <c r="D545" s="36"/>
+      <c r="C545" s="35"/>
+      <c r="D545" s="35"/>
       <c r="E545" s="24"/>
       <c r="F545" s="24"/>
       <c r="G545" s="24"/>
@@ -20140,8 +20168,8 @@
       <c r="B546" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="C546" s="67"/>
-      <c r="D546" s="67"/>
+      <c r="C546" s="66"/>
+      <c r="D546" s="66"/>
       <c r="E546" s="24"/>
       <c r="F546" s="24"/>
       <c r="G546" s="24"/>
@@ -20172,8 +20200,8 @@
       <c r="B547" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="C547" s="67"/>
-      <c r="D547" s="67"/>
+      <c r="C547" s="66"/>
+      <c r="D547" s="66"/>
       <c r="E547" s="24"/>
       <c r="F547" s="24"/>
       <c r="G547" s="24"/>
@@ -20199,7 +20227,7 @@
     </row>
     <row r="548" spans="1:26" ht="30">
       <c r="A548" s="8"/>
-      <c r="B548" s="96" t="s">
+      <c r="B548" s="95" t="s">
         <v>627</v>
       </c>
       <c r="C548" s="8"/>
@@ -20228,260 +20256,260 @@
       <c r="Z548" s="8"/>
     </row>
     <row r="591" spans="1:26">
-      <c r="A591" s="49"/>
-      <c r="B591" s="97"/>
+      <c r="A591" s="48"/>
+      <c r="B591" s="96"/>
     </row>
     <row r="592" spans="1:26" ht="45">
-      <c r="A592" s="98"/>
-      <c r="B592" s="99"/>
-      <c r="C592" s="98"/>
-      <c r="D592" s="98"/>
-      <c r="E592" s="98"/>
-      <c r="F592" s="98"/>
-      <c r="G592" s="98"/>
-      <c r="H592" s="98"/>
-      <c r="I592" s="98"/>
-      <c r="J592" s="98"/>
-      <c r="K592" s="98"/>
-      <c r="L592" s="98"/>
-      <c r="M592" s="98"/>
-      <c r="N592" s="98"/>
-      <c r="O592" s="98"/>
-      <c r="P592" s="98"/>
-      <c r="Q592" s="98"/>
-      <c r="R592" s="98"/>
-      <c r="S592" s="98"/>
-      <c r="T592" s="98"/>
-      <c r="U592" s="98"/>
-      <c r="V592" s="98"/>
-      <c r="W592" s="98"/>
-      <c r="X592" s="98"/>
-      <c r="Y592" s="98"/>
-      <c r="Z592" s="98"/>
+      <c r="A592" s="97"/>
+      <c r="B592" s="98"/>
+      <c r="C592" s="97"/>
+      <c r="D592" s="97"/>
+      <c r="E592" s="97"/>
+      <c r="F592" s="97"/>
+      <c r="G592" s="97"/>
+      <c r="H592" s="97"/>
+      <c r="I592" s="97"/>
+      <c r="J592" s="97"/>
+      <c r="K592" s="97"/>
+      <c r="L592" s="97"/>
+      <c r="M592" s="97"/>
+      <c r="N592" s="97"/>
+      <c r="O592" s="97"/>
+      <c r="P592" s="97"/>
+      <c r="Q592" s="97"/>
+      <c r="R592" s="97"/>
+      <c r="S592" s="97"/>
+      <c r="T592" s="97"/>
+      <c r="U592" s="97"/>
+      <c r="V592" s="97"/>
+      <c r="W592" s="97"/>
+      <c r="X592" s="97"/>
+      <c r="Y592" s="97"/>
+      <c r="Z592" s="97"/>
     </row>
     <row r="593" spans="1:26" ht="12.75">
-      <c r="A593" s="98"/>
-      <c r="B593" s="98"/>
-      <c r="C593" s="98"/>
-      <c r="D593" s="98"/>
-      <c r="E593" s="98"/>
-      <c r="F593" s="98"/>
-      <c r="G593" s="98"/>
-      <c r="H593" s="98"/>
-      <c r="I593" s="98"/>
-      <c r="J593" s="98"/>
-      <c r="K593" s="98"/>
-      <c r="L593" s="98"/>
-      <c r="M593" s="98"/>
-      <c r="N593" s="98"/>
-      <c r="O593" s="98"/>
-      <c r="P593" s="98"/>
-      <c r="Q593" s="98"/>
-      <c r="R593" s="98"/>
-      <c r="S593" s="98"/>
-      <c r="T593" s="98"/>
-      <c r="U593" s="98"/>
-      <c r="V593" s="98"/>
-      <c r="W593" s="98"/>
-      <c r="X593" s="98"/>
-      <c r="Y593" s="98"/>
-      <c r="Z593" s="98"/>
+      <c r="A593" s="97"/>
+      <c r="B593" s="97"/>
+      <c r="C593" s="97"/>
+      <c r="D593" s="97"/>
+      <c r="E593" s="97"/>
+      <c r="F593" s="97"/>
+      <c r="G593" s="97"/>
+      <c r="H593" s="97"/>
+      <c r="I593" s="97"/>
+      <c r="J593" s="97"/>
+      <c r="K593" s="97"/>
+      <c r="L593" s="97"/>
+      <c r="M593" s="97"/>
+      <c r="N593" s="97"/>
+      <c r="O593" s="97"/>
+      <c r="P593" s="97"/>
+      <c r="Q593" s="97"/>
+      <c r="R593" s="97"/>
+      <c r="S593" s="97"/>
+      <c r="T593" s="97"/>
+      <c r="U593" s="97"/>
+      <c r="V593" s="97"/>
+      <c r="W593" s="97"/>
+      <c r="X593" s="97"/>
+      <c r="Y593" s="97"/>
+      <c r="Z593" s="97"/>
     </row>
     <row r="594" spans="1:26" ht="19.5">
-      <c r="A594" s="100"/>
-      <c r="B594" s="101"/>
-      <c r="C594" s="98"/>
-      <c r="D594" s="98"/>
-      <c r="E594" s="98"/>
-      <c r="F594" s="98"/>
-      <c r="G594" s="98"/>
-      <c r="H594" s="98"/>
-      <c r="I594" s="98"/>
-      <c r="J594" s="98"/>
-      <c r="K594" s="98"/>
-      <c r="L594" s="98"/>
-      <c r="M594" s="98"/>
-      <c r="N594" s="98"/>
-      <c r="O594" s="98"/>
-      <c r="P594" s="98"/>
-      <c r="Q594" s="98"/>
-      <c r="R594" s="98"/>
-      <c r="S594" s="98"/>
-      <c r="T594" s="98"/>
-      <c r="U594" s="98"/>
-      <c r="V594" s="98"/>
-      <c r="W594" s="98"/>
-      <c r="X594" s="98"/>
-      <c r="Y594" s="98"/>
-      <c r="Z594" s="98"/>
+      <c r="A594" s="99"/>
+      <c r="B594" s="100"/>
+      <c r="C594" s="97"/>
+      <c r="D594" s="97"/>
+      <c r="E594" s="97"/>
+      <c r="F594" s="97"/>
+      <c r="G594" s="97"/>
+      <c r="H594" s="97"/>
+      <c r="I594" s="97"/>
+      <c r="J594" s="97"/>
+      <c r="K594" s="97"/>
+      <c r="L594" s="97"/>
+      <c r="M594" s="97"/>
+      <c r="N594" s="97"/>
+      <c r="O594" s="97"/>
+      <c r="P594" s="97"/>
+      <c r="Q594" s="97"/>
+      <c r="R594" s="97"/>
+      <c r="S594" s="97"/>
+      <c r="T594" s="97"/>
+      <c r="U594" s="97"/>
+      <c r="V594" s="97"/>
+      <c r="W594" s="97"/>
+      <c r="X594" s="97"/>
+      <c r="Y594" s="97"/>
+      <c r="Z594" s="97"/>
     </row>
     <row r="595" spans="1:26" ht="21">
-      <c r="A595" s="100"/>
-      <c r="B595" s="102"/>
-      <c r="C595" s="98"/>
-      <c r="D595" s="98"/>
-      <c r="E595" s="98"/>
-      <c r="F595" s="98"/>
-      <c r="G595" s="98"/>
-      <c r="H595" s="98"/>
-      <c r="I595" s="98"/>
-      <c r="J595" s="98"/>
-      <c r="K595" s="98"/>
-      <c r="L595" s="98"/>
-      <c r="M595" s="98"/>
-      <c r="N595" s="98"/>
-      <c r="O595" s="98"/>
-      <c r="P595" s="98"/>
-      <c r="Q595" s="98"/>
-      <c r="R595" s="98"/>
-      <c r="S595" s="98"/>
-      <c r="T595" s="98"/>
-      <c r="U595" s="98"/>
-      <c r="V595" s="98"/>
-      <c r="W595" s="98"/>
-      <c r="X595" s="98"/>
-      <c r="Y595" s="98"/>
-      <c r="Z595" s="98"/>
+      <c r="A595" s="99"/>
+      <c r="B595" s="101"/>
+      <c r="C595" s="97"/>
+      <c r="D595" s="97"/>
+      <c r="E595" s="97"/>
+      <c r="F595" s="97"/>
+      <c r="G595" s="97"/>
+      <c r="H595" s="97"/>
+      <c r="I595" s="97"/>
+      <c r="J595" s="97"/>
+      <c r="K595" s="97"/>
+      <c r="L595" s="97"/>
+      <c r="M595" s="97"/>
+      <c r="N595" s="97"/>
+      <c r="O595" s="97"/>
+      <c r="P595" s="97"/>
+      <c r="Q595" s="97"/>
+      <c r="R595" s="97"/>
+      <c r="S595" s="97"/>
+      <c r="T595" s="97"/>
+      <c r="U595" s="97"/>
+      <c r="V595" s="97"/>
+      <c r="W595" s="97"/>
+      <c r="X595" s="97"/>
+      <c r="Y595" s="97"/>
+      <c r="Z595" s="97"/>
     </row>
     <row r="596" spans="1:26" ht="21">
-      <c r="A596" s="100"/>
-      <c r="B596" s="102"/>
-      <c r="C596" s="98"/>
-      <c r="D596" s="98"/>
-      <c r="E596" s="98"/>
-      <c r="F596" s="98"/>
-      <c r="G596" s="98"/>
-      <c r="H596" s="98"/>
-      <c r="I596" s="98"/>
-      <c r="J596" s="98"/>
-      <c r="K596" s="98"/>
-      <c r="L596" s="98"/>
-      <c r="M596" s="98"/>
-      <c r="N596" s="98"/>
-      <c r="O596" s="98"/>
-      <c r="P596" s="98"/>
-      <c r="Q596" s="98"/>
-      <c r="R596" s="98"/>
-      <c r="S596" s="98"/>
-      <c r="T596" s="98"/>
-      <c r="U596" s="98"/>
-      <c r="V596" s="98"/>
-      <c r="W596" s="98"/>
-      <c r="X596" s="98"/>
-      <c r="Y596" s="98"/>
-      <c r="Z596" s="98"/>
+      <c r="A596" s="99"/>
+      <c r="B596" s="101"/>
+      <c r="C596" s="97"/>
+      <c r="D596" s="97"/>
+      <c r="E596" s="97"/>
+      <c r="F596" s="97"/>
+      <c r="G596" s="97"/>
+      <c r="H596" s="97"/>
+      <c r="I596" s="97"/>
+      <c r="J596" s="97"/>
+      <c r="K596" s="97"/>
+      <c r="L596" s="97"/>
+      <c r="M596" s="97"/>
+      <c r="N596" s="97"/>
+      <c r="O596" s="97"/>
+      <c r="P596" s="97"/>
+      <c r="Q596" s="97"/>
+      <c r="R596" s="97"/>
+      <c r="S596" s="97"/>
+      <c r="T596" s="97"/>
+      <c r="U596" s="97"/>
+      <c r="V596" s="97"/>
+      <c r="W596" s="97"/>
+      <c r="X596" s="97"/>
+      <c r="Y596" s="97"/>
+      <c r="Z596" s="97"/>
     </row>
     <row r="597" spans="1:26" ht="12.75">
-      <c r="A597" s="98"/>
-      <c r="B597" s="98"/>
-      <c r="C597" s="98"/>
-      <c r="D597" s="98"/>
-      <c r="E597" s="98"/>
-      <c r="F597" s="98"/>
-      <c r="G597" s="98"/>
-      <c r="H597" s="98"/>
-      <c r="I597" s="98"/>
-      <c r="J597" s="98"/>
-      <c r="K597" s="98"/>
-      <c r="L597" s="98"/>
-      <c r="M597" s="98"/>
-      <c r="N597" s="98"/>
-      <c r="O597" s="98"/>
-      <c r="P597" s="98"/>
-      <c r="Q597" s="98"/>
-      <c r="R597" s="98"/>
-      <c r="S597" s="98"/>
-      <c r="T597" s="98"/>
-      <c r="U597" s="98"/>
-      <c r="V597" s="98"/>
-      <c r="W597" s="98"/>
-      <c r="X597" s="98"/>
-      <c r="Y597" s="98"/>
-      <c r="Z597" s="98"/>
+      <c r="A597" s="97"/>
+      <c r="B597" s="97"/>
+      <c r="C597" s="97"/>
+      <c r="D597" s="97"/>
+      <c r="E597" s="97"/>
+      <c r="F597" s="97"/>
+      <c r="G597" s="97"/>
+      <c r="H597" s="97"/>
+      <c r="I597" s="97"/>
+      <c r="J597" s="97"/>
+      <c r="K597" s="97"/>
+      <c r="L597" s="97"/>
+      <c r="M597" s="97"/>
+      <c r="N597" s="97"/>
+      <c r="O597" s="97"/>
+      <c r="P597" s="97"/>
+      <c r="Q597" s="97"/>
+      <c r="R597" s="97"/>
+      <c r="S597" s="97"/>
+      <c r="T597" s="97"/>
+      <c r="U597" s="97"/>
+      <c r="V597" s="97"/>
+      <c r="W597" s="97"/>
+      <c r="X597" s="97"/>
+      <c r="Y597" s="97"/>
+      <c r="Z597" s="97"/>
     </row>
     <row r="598" spans="1:26" ht="15">
-      <c r="A598" s="103"/>
-      <c r="B598" s="49"/>
+      <c r="A598" s="102"/>
+      <c r="B598" s="48"/>
     </row>
     <row r="599" spans="1:26" ht="15">
-      <c r="A599" s="103"/>
-      <c r="B599" s="49"/>
+      <c r="A599" s="102"/>
+      <c r="B599" s="48"/>
     </row>
     <row r="600" spans="1:26" ht="15">
-      <c r="A600" s="103"/>
-      <c r="B600" s="104"/>
+      <c r="A600" s="102"/>
+      <c r="B600" s="103"/>
     </row>
     <row r="601" spans="1:26" ht="15">
-      <c r="A601" s="103"/>
-      <c r="B601" s="104"/>
+      <c r="A601" s="102"/>
+      <c r="B601" s="103"/>
     </row>
     <row r="602" spans="1:26" ht="15">
-      <c r="A602" s="103"/>
-      <c r="B602" s="49"/>
+      <c r="A602" s="102"/>
+      <c r="B602" s="48"/>
     </row>
     <row r="603" spans="1:26" ht="15">
-      <c r="A603" s="103"/>
-      <c r="B603" s="104"/>
+      <c r="A603" s="102"/>
+      <c r="B603" s="103"/>
     </row>
     <row r="604" spans="1:26" ht="15">
-      <c r="A604" s="103"/>
-      <c r="B604" s="104"/>
+      <c r="A604" s="102"/>
+      <c r="B604" s="103"/>
     </row>
     <row r="605" spans="1:26" ht="15">
-      <c r="A605" s="103"/>
-      <c r="B605" s="105"/>
+      <c r="A605" s="102"/>
+      <c r="B605" s="104"/>
     </row>
     <row r="606" spans="1:26" ht="15">
-      <c r="A606" s="103"/>
-      <c r="B606" s="49"/>
+      <c r="A606" s="102"/>
+      <c r="B606" s="48"/>
     </row>
     <row r="607" spans="1:26" ht="15">
-      <c r="A607" s="103"/>
-      <c r="B607" s="49"/>
+      <c r="A607" s="102"/>
+      <c r="B607" s="48"/>
     </row>
     <row r="608" spans="1:26" ht="15">
-      <c r="A608" s="103"/>
-      <c r="B608" s="49"/>
+      <c r="A608" s="102"/>
+      <c r="B608" s="48"/>
     </row>
     <row r="609" spans="1:2" ht="15">
-      <c r="A609" s="103"/>
-      <c r="B609" s="49"/>
+      <c r="A609" s="102"/>
+      <c r="B609" s="48"/>
     </row>
     <row r="610" spans="1:2" ht="15">
-      <c r="A610" s="103"/>
-      <c r="B610" s="49"/>
+      <c r="A610" s="102"/>
+      <c r="B610" s="48"/>
     </row>
     <row r="611" spans="1:2" ht="15">
-      <c r="A611" s="103"/>
-      <c r="B611" s="49"/>
+      <c r="A611" s="102"/>
+      <c r="B611" s="48"/>
     </row>
     <row r="612" spans="1:2" ht="12.75">
       <c r="A612" s="24"/>
       <c r="B612" s="24"/>
     </row>
     <row r="613" spans="1:2" ht="15">
-      <c r="A613" s="103"/>
-      <c r="B613" s="106"/>
+      <c r="A613" s="102"/>
+      <c r="B613" s="105"/>
     </row>
     <row r="614" spans="1:2" ht="15">
-      <c r="A614" s="103"/>
-      <c r="B614" s="106"/>
+      <c r="A614" s="102"/>
+      <c r="B614" s="105"/>
     </row>
     <row r="615" spans="1:2" ht="15">
-      <c r="A615" s="103"/>
-      <c r="B615" s="106"/>
+      <c r="A615" s="102"/>
+      <c r="B615" s="105"/>
     </row>
     <row r="616" spans="1:2" ht="15">
-      <c r="A616" s="103"/>
-      <c r="B616" s="106"/>
+      <c r="A616" s="102"/>
+      <c r="B616" s="105"/>
     </row>
     <row r="617" spans="1:2" ht="15">
-      <c r="A617" s="103"/>
-      <c r="B617" s="106"/>
+      <c r="A617" s="102"/>
+      <c r="B617" s="105"/>
     </row>
     <row r="618" spans="1:2" ht="15">
-      <c r="A618" s="103"/>
-      <c r="B618" s="106"/>
+      <c r="A618" s="102"/>
+      <c r="B618" s="105"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="630">
   <si>
     <r>
       <rPr>
@@ -2043,6 +2043,9 @@
   <si>
     <t>done</t>
   </si>
+  <si>
+    <t>self -done</t>
+  </si>
 </sst>
 </file>
 
@@ -2054,7 +2057,7 @@
     <numFmt numFmtId="166" formatCode="d\ mmm"/>
     <numFmt numFmtId="167" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="90">
+  <fonts count="91">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2601,8 +2604,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2657,6 +2667,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2695,10 +2711,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2836,8 +2853,14 @@
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="89" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="87" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="90" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3057,8 +3080,8 @@
   </sheetPr>
   <dimension ref="A1:Z618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3766,14 +3789,16 @@
       <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="28" t="str">
+      <c r="A23" s="111" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element/","majority element")</f>
         <v>majority element</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="108" t="s">
+        <v>628</v>
+      </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -3799,14 +3824,16 @@
       <c r="Z23" s="24"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="28" t="str">
-        <f>HYPERLINK("https://leetcode.com/problems/majority-element-ii/","majority element 2")</f>
+      <c r="A24" s="112" t="str">
+        <f>HYPERLINK("https://A29/problems/majority-element-ii/","majority element 2")</f>
         <v>majority element 2</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="108" t="s">
+        <v>628</v>
+      </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -3832,14 +3859,16 @@
       <c r="Z24" s="24"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="28" t="str">
+      <c r="A25" s="113" t="str">
         <f>HYPERLINK("geeksforgeeks.org/given-an-array-of-of-size-n-finds-all-the-elements-that-appear-more-than-nk-times/","majority element general")</f>
         <v>majority element general</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="108" t="s">
+        <v>628</v>
+      </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -3895,14 +3924,16 @@
       <c r="Z26" s="24"/>
     </row>
     <row r="27" spans="1:26" ht="14.25">
-      <c r="A27" s="25" t="str">
+      <c r="A27" s="114" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/max-chunks-to-make-sorted/","Max chunks to make sorted")</f>
         <v>Max chunks to make sorted</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="108" t="s">
+        <v>629</v>
+      </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -3928,13 +3959,15 @@
       <c r="Z27" s="24"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="115" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="108" t="s">
+        <v>629</v>
+      </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>

--- a/DSA Day-wise.xlsx
+++ b/DSA Day-wise.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="630">
   <si>
     <r>
       <rPr>
@@ -2057,7 +2057,7 @@
     <numFmt numFmtId="166" formatCode="d\ mmm"/>
     <numFmt numFmtId="167" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="91">
+  <fonts count="92">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2611,8 +2611,15 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2663,13 +2670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2715,7 +2728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2849,15 +2862,20 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="87" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="89" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="87" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="90" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="87" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="91" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3080,8 +3098,8 @@
   </sheetPr>
   <dimension ref="A1:Z618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3631,7 +3649,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="24"/>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="107" t="s">
         <v>628</v>
       </c>
       <c r="D18" s="24"/>
@@ -3659,13 +3677,13 @@
       <c r="Z18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="114" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>628</v>
       </c>
       <c r="D19" s="24"/>
@@ -3723,11 +3741,11 @@
       <c r="Z20" s="24"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="108" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="24"/>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="107" t="s">
         <v>628</v>
       </c>
       <c r="D21" s="24"/>
@@ -3755,13 +3773,13 @@
       <c r="Z21" s="24"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="109" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="107" t="s">
         <v>628</v>
       </c>
       <c r="D22" s="24"/>
@@ -3789,14 +3807,14 @@
       <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="111" t="str">
+      <c r="A23" s="115" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/majority-element/","majority element")</f>
         <v>majority element</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="107" t="s">
         <v>628</v>
       </c>
       <c r="D23" s="24"/>
@@ -3824,14 +3842,14 @@
       <c r="Z23" s="24"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="112" t="str">
+      <c r="A24" s="110" t="str">
         <f>HYPERLINK("https://A29/problems/majority-element-ii/","majority element 2")</f>
         <v>majority element 2</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="107" t="s">
         <v>628</v>
       </c>
       <c r="D24" s="24"/>
@@ -3859,14 +3877,14 @@
       <c r="Z24" s="24"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="113" t="str">
+      <c r="A25" s="111" t="str">
         <f>HYPERLINK("geeksforgeeks.org/given-an-array-of-of-size-n-finds-all-the-elements-that-appear-more-than-nk-times/","majority element general")</f>
         <v>majority element general</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="108" t="s">
+      <c r="C25" s="107" t="s">
         <v>628</v>
       </c>
       <c r="D25" s="24"/>
@@ -3924,14 +3942,14 @@
       <c r="Z26" s="24"/>
     </row>
     <row r="27" spans="1:26" ht="14.25">
-      <c r="A27" s="114" t="str">
+      <c r="A27" s="112" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/max-chunks-to-make-sorted/","Max chunks to make sorted")</f>
         <v>Max chunks to make sorted</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="107" t="s">
         <v>629</v>
       </c>
       <c r="D27" s="24"/>
@@ -3959,13 +3977,13 @@
       <c r="Z27" s="24"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="113" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="108" t="s">
+      <c r="C28" s="107" t="s">
         <v>629</v>
       </c>
       <c r="D28" s="24"/>
@@ -3993,14 +4011,16 @@
       <c r="Z28" s="24"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="30" t="str">
+      <c r="A29" s="116" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-product-of-three-numbers/","max product of 3 numbers")</f>
         <v>max product of 3 numbers</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="107" t="s">
+        <v>629</v>
+      </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -4026,14 +4046,16 @@
       <c r="Z29" s="24"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="26" t="str">
+      <c r="A30" s="117" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/largest-number-at-least-twice-of-others/","largest number atleast twice of others")</f>
         <v>largest number atleast twice of others</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="107" t="s">
+        <v>629</v>
+      </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -4059,13 +4081,15 @@
       <c r="Z30" s="24"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="118" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="107" t="s">
+        <v>629</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -4091,14 +4115,16 @@
       <c r="Z31" s="24"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="30" t="str">
+      <c r="A32" s="119" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum/","number of subarrays with bounded maximum")</f>
         <v>number of subarrays with bounded maximum</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="107" t="s">
+        <v>628</v>
+      </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -4124,14 +4150,16 @@
       <c r="Z32" s="24"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="30" t="str">
+      <c r="A33" s="120" t="str">
         <f>HYPERLINK("https://leetcode.com/problems/maximum-subarray/","maximum subarray")</f>
         <v>maximum subarray</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="107" t="s">
+        <v>628</v>
+      </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
